--- a/static/etfs/spy_weekly.xlsx
+++ b/static/etfs/spy_weekly.xlsx
@@ -493,7 +493,7 @@
         <v>120.870002746582</v>
       </c>
       <c r="F2" t="n">
-        <v>83.23473358154297</v>
+        <v>83.23469543457031</v>
       </c>
       <c r="G2" t="n">
         <v>28648800</v>
@@ -516,7 +516,7 @@
         <v>118.4400024414062</v>
       </c>
       <c r="F3" t="n">
-        <v>81.56131744384766</v>
+        <v>81.56134796142578</v>
       </c>
       <c r="G3" t="n">
         <v>294245300</v>
@@ -539,7 +539,7 @@
         <v>118.2399978637695</v>
       </c>
       <c r="F4" t="n">
-        <v>81.42356872558594</v>
+        <v>81.42360687255859</v>
       </c>
       <c r="G4" t="n">
         <v>289953500</v>
@@ -562,7 +562,7 @@
         <v>116.7799987792969</v>
       </c>
       <c r="F5" t="n">
-        <v>80.41822814941406</v>
+        <v>80.418212890625</v>
       </c>
       <c r="G5" t="n">
         <v>246980300</v>
@@ -585,7 +585,7 @@
         <v>117.4300003051758</v>
       </c>
       <c r="F6" t="n">
-        <v>80.86582183837891</v>
+        <v>80.86578369140625</v>
       </c>
       <c r="G6" t="n">
         <v>300499700</v>
@@ -608,7 +608,7 @@
         <v>120.2300033569336</v>
       </c>
       <c r="F7" t="n">
-        <v>82.79400634765625</v>
+        <v>82.79399108886719</v>
       </c>
       <c r="G7" t="n">
         <v>253704500</v>
@@ -631,7 +631,7 @@
         <v>120.7699966430664</v>
       </c>
       <c r="F8" t="n">
-        <v>83.16580963134766</v>
+        <v>83.16584777832031</v>
       </c>
       <c r="G8" t="n">
         <v>238946500</v>
@@ -654,7 +654,7 @@
         <v>120.3899993896484</v>
       </c>
       <c r="F9" t="n">
-        <v>82.90415191650391</v>
+        <v>82.90415954589844</v>
       </c>
       <c r="G9" t="n">
         <v>237655100</v>
@@ -677,7 +677,7 @@
         <v>121.4300003051758</v>
       </c>
       <c r="F10" t="n">
-        <v>83.62032318115234</v>
+        <v>83.62033843994141</v>
       </c>
       <c r="G10" t="n">
         <v>278453700</v>
@@ -700,7 +700,7 @@
         <v>122.7300033569336</v>
       </c>
       <c r="F11" t="n">
-        <v>84.51557922363281</v>
+        <v>84.51556396484375</v>
       </c>
       <c r="G11" t="n">
         <v>298301500</v>
@@ -723,7 +723,7 @@
         <v>120.3899993896484</v>
       </c>
       <c r="F12" t="n">
-        <v>82.90415191650391</v>
+        <v>82.90415954589844</v>
       </c>
       <c r="G12" t="n">
         <v>284193500</v>
@@ -746,7 +746,7 @@
         <v>118.5400009155273</v>
       </c>
       <c r="F13" t="n">
-        <v>81.63015747070312</v>
+        <v>81.63017272949219</v>
       </c>
       <c r="G13" t="n">
         <v>296465300</v>
@@ -769,7 +769,7 @@
         <v>117.1399993896484</v>
       </c>
       <c r="F14" t="n">
-        <v>80.98294830322266</v>
+        <v>80.98295593261719</v>
       </c>
       <c r="G14" t="n">
         <v>276466500</v>
@@ -792,7 +792,7 @@
         <v>117.4300003051758</v>
       </c>
       <c r="F15" t="n">
-        <v>81.18346405029297</v>
+        <v>81.18347930908203</v>
       </c>
       <c r="G15" t="n">
         <v>339758600</v>
@@ -815,7 +815,7 @@
         <v>118</v>
       </c>
       <c r="F16" t="n">
-        <v>81.57750701904297</v>
+        <v>81.57752990722656</v>
       </c>
       <c r="G16" t="n">
         <v>282210800</v>
@@ -838,7 +838,7 @@
         <v>114.1500015258789</v>
       </c>
       <c r="F17" t="n">
-        <v>78.91586303710938</v>
+        <v>78.9158935546875</v>
       </c>
       <c r="G17" t="n">
         <v>421835900</v>
@@ -861,7 +861,7 @@
         <v>115.5699996948242</v>
       </c>
       <c r="F18" t="n">
-        <v>79.89757537841797</v>
+        <v>79.89760589599609</v>
       </c>
       <c r="G18" t="n">
         <v>448499200</v>
@@ -884,7 +884,7 @@
         <v>115.75</v>
       </c>
       <c r="F19" t="n">
-        <v>80.02204132080078</v>
+        <v>80.02200317382812</v>
       </c>
       <c r="G19" t="n">
         <v>385517300</v>
@@ -930,7 +930,7 @@
         <v>115.7200012207031</v>
       </c>
       <c r="F21" t="n">
-        <v>80.00125885009766</v>
+        <v>80.00126647949219</v>
       </c>
       <c r="G21" t="n">
         <v>390365200</v>
@@ -953,7 +953,7 @@
         <v>119.120002746582</v>
       </c>
       <c r="F22" t="n">
-        <v>82.35182189941406</v>
+        <v>82.35179901123047</v>
       </c>
       <c r="G22" t="n">
         <v>296337300</v>
@@ -976,7 +976,7 @@
         <v>120.25</v>
       </c>
       <c r="F23" t="n">
-        <v>83.13300323486328</v>
+        <v>83.13301086425781</v>
       </c>
       <c r="G23" t="n">
         <v>217163100</v>
@@ -999,7 +999,7 @@
         <v>120.1500015258789</v>
       </c>
       <c r="F24" t="n">
-        <v>83.06389617919922</v>
+        <v>83.06388854980469</v>
       </c>
       <c r="G24" t="n">
         <v>213692100</v>
@@ -1022,7 +1022,7 @@
         <v>120.1999969482422</v>
       </c>
       <c r="F25" t="n">
-        <v>83.09848022460938</v>
+        <v>83.09847259521484</v>
       </c>
       <c r="G25" t="n">
         <v>242547500</v>
@@ -1045,7 +1045,7 @@
         <v>121.3600006103516</v>
       </c>
       <c r="F26" t="n">
-        <v>83.90035247802734</v>
+        <v>83.90041351318359</v>
       </c>
       <c r="G26" t="n">
         <v>234529800</v>
@@ -1068,7 +1068,7 @@
         <v>118.9800033569336</v>
       </c>
       <c r="F27" t="n">
-        <v>82.58701324462891</v>
+        <v>82.58699035644531</v>
       </c>
       <c r="G27" t="n">
         <v>247967400</v>
@@ -1091,7 +1091,7 @@
         <v>119.5299987792969</v>
       </c>
       <c r="F28" t="n">
-        <v>82.96875</v>
+        <v>82.96874237060547</v>
       </c>
       <c r="G28" t="n">
         <v>243700800</v>
@@ -1114,7 +1114,7 @@
         <v>121.3199996948242</v>
       </c>
       <c r="F29" t="n">
-        <v>84.21127319335938</v>
+        <v>84.21124267578125</v>
       </c>
       <c r="G29" t="n">
         <v>271672600</v>
@@ -1137,7 +1137,7 @@
         <v>122.8399963378906</v>
       </c>
       <c r="F30" t="n">
-        <v>85.26631164550781</v>
+        <v>85.26631927490234</v>
       </c>
       <c r="G30" t="n">
         <v>262456400</v>
@@ -1160,7 +1160,7 @@
         <v>123.5400009155273</v>
       </c>
       <c r="F31" t="n">
-        <v>85.75223541259766</v>
+        <v>85.75220489501953</v>
       </c>
       <c r="G31" t="n">
         <v>338959100</v>
@@ -1183,7 +1183,7 @@
         <v>123.7399978637695</v>
       </c>
       <c r="F32" t="n">
-        <v>85.89103698730469</v>
+        <v>85.89100646972656</v>
       </c>
       <c r="G32" t="n">
         <v>253480800</v>
@@ -1206,7 +1206,7 @@
         <v>122.879997253418</v>
       </c>
       <c r="F33" t="n">
-        <v>85.29411315917969</v>
+        <v>85.29410552978516</v>
       </c>
       <c r="G33" t="n">
         <v>226853900</v>
@@ -1229,7 +1229,7 @@
         <v>123.0599975585938</v>
       </c>
       <c r="F34" t="n">
-        <v>85.41902160644531</v>
+        <v>85.41903686523438</v>
       </c>
       <c r="G34" t="n">
         <v>280996800</v>
@@ -1252,7 +1252,7 @@
         <v>122.4700012207031</v>
       </c>
       <c r="F35" t="n">
-        <v>85.00951385498047</v>
+        <v>85.00950622558594</v>
       </c>
       <c r="G35" t="n">
         <v>263656400</v>
@@ -1275,7 +1275,7 @@
         <v>120.7600021362305</v>
       </c>
       <c r="F36" t="n">
-        <v>83.82257080078125</v>
+        <v>83.82254028320312</v>
       </c>
       <c r="G36" t="n">
         <v>301773100</v>
@@ -1298,7 +1298,7 @@
         <v>122.2699966430664</v>
       </c>
       <c r="F37" t="n">
-        <v>84.87068939208984</v>
+        <v>84.87066650390625</v>
       </c>
       <c r="G37" t="n">
         <v>355516700</v>
@@ -1321,7 +1321,7 @@
         <v>124.5999984741211</v>
       </c>
       <c r="F38" t="n">
-        <v>86.48798370361328</v>
+        <v>86.48797607421875</v>
       </c>
       <c r="G38" t="n">
         <v>181163600</v>
@@ -1344,7 +1344,7 @@
         <v>123.5</v>
       </c>
       <c r="F39" t="n">
-        <v>85.72447204589844</v>
+        <v>85.72445678710938</v>
       </c>
       <c r="G39" t="n">
         <v>297720700</v>
@@ -1367,7 +1367,7 @@
         <v>121.4400024414062</v>
       </c>
       <c r="F40" t="n">
-        <v>84.65335845947266</v>
+        <v>84.65333557128906</v>
       </c>
       <c r="G40" t="n">
         <v>376270000</v>
@@ -1390,7 +1390,7 @@
         <v>123.0400009155273</v>
       </c>
       <c r="F41" t="n">
-        <v>85.76870727539062</v>
+        <v>85.76869964599609</v>
       </c>
       <c r="G41" t="n">
         <v>309618600</v>
@@ -1413,7 +1413,7 @@
         <v>119.6100006103516</v>
       </c>
       <c r="F42" t="n">
-        <v>83.37771606445312</v>
+        <v>83.37770080566406</v>
       </c>
       <c r="G42" t="n">
         <v>434426400</v>
@@ -1436,7 +1436,7 @@
         <v>118.6699981689453</v>
       </c>
       <c r="F43" t="n">
-        <v>82.72244262695312</v>
+        <v>82.72247314453125</v>
       </c>
       <c r="G43" t="n">
         <v>416521100</v>
@@ -1459,7 +1459,7 @@
         <v>118.129997253418</v>
       </c>
       <c r="F44" t="n">
-        <v>82.34606170654297</v>
+        <v>82.34602355957031</v>
       </c>
       <c r="G44" t="n">
         <v>488216200</v>
@@ -1482,7 +1482,7 @@
         <v>119.8000030517578</v>
       </c>
       <c r="F45" t="n">
-        <v>83.51016998291016</v>
+        <v>83.51014709472656</v>
       </c>
       <c r="G45" t="n">
         <v>367703800</v>
@@ -1505,7 +1505,7 @@
         <v>122.1100006103516</v>
       </c>
       <c r="F46" t="n">
-        <v>85.12039184570312</v>
+        <v>85.12042236328125</v>
       </c>
       <c r="G46" t="n">
         <v>362129900</v>
@@ -1551,7 +1551,7 @@
         <v>125.129997253418</v>
       </c>
       <c r="F48" t="n">
-        <v>87.22560119628906</v>
+        <v>87.22559356689453</v>
       </c>
       <c r="G48" t="n">
         <v>293972400</v>
@@ -1574,7 +1574,7 @@
         <v>127.129997253418</v>
       </c>
       <c r="F49" t="n">
-        <v>88.61974334716797</v>
+        <v>88.6197509765625</v>
       </c>
       <c r="G49" t="n">
         <v>182584700</v>
@@ -1597,7 +1597,7 @@
         <v>126.8499984741211</v>
       </c>
       <c r="F50" t="n">
-        <v>88.42456817626953</v>
+        <v>88.42459106445312</v>
       </c>
       <c r="G50" t="n">
         <v>274412200</v>
@@ -1620,7 +1620,7 @@
         <v>126.3300018310547</v>
       </c>
       <c r="F51" t="n">
-        <v>88.06207275390625</v>
+        <v>88.06211853027344</v>
       </c>
       <c r="G51" t="n">
         <v>297378200</v>
@@ -1643,7 +1643,7 @@
         <v>126.3600006103516</v>
       </c>
       <c r="F52" t="n">
-        <v>88.08298492431641</v>
+        <v>88.0830078125</v>
       </c>
       <c r="G52" t="n">
         <v>303534400</v>
@@ -1666,7 +1666,7 @@
         <v>126.7600021362305</v>
       </c>
       <c r="F53" t="n">
-        <v>88.83023834228516</v>
+        <v>88.83024597167969</v>
       </c>
       <c r="G53" t="n">
         <v>207368300</v>
@@ -1689,7 +1689,7 @@
         <v>124.5100021362305</v>
       </c>
       <c r="F54" t="n">
-        <v>87.25348663330078</v>
+        <v>87.25347900390625</v>
       </c>
       <c r="G54" t="n">
         <v>152698300</v>
@@ -1712,7 +1712,7 @@
         <v>128.4400024414062</v>
       </c>
       <c r="F55" t="n">
-        <v>90.00752258300781</v>
+        <v>90.00753784179688</v>
       </c>
       <c r="G55" t="n">
         <v>235349700</v>
@@ -1735,7 +1735,7 @@
         <v>128.6799926757812</v>
       </c>
       <c r="F56" t="n">
-        <v>90.17572784423828</v>
+        <v>90.17572021484375</v>
       </c>
       <c r="G56" t="n">
         <v>223453000</v>
@@ -1758,7 +1758,7 @@
         <v>125.9700012207031</v>
       </c>
       <c r="F57" t="n">
-        <v>88.27664184570312</v>
+        <v>88.27660369873047</v>
       </c>
       <c r="G57" t="n">
         <v>323622400</v>
@@ -1781,7 +1781,7 @@
         <v>128.5399932861328</v>
       </c>
       <c r="F58" t="n">
-        <v>90.07759857177734</v>
+        <v>90.07760620117188</v>
       </c>
       <c r="G58" t="n">
         <v>344839100</v>
@@ -1804,7 +1804,7 @@
         <v>126.2699966430664</v>
       </c>
       <c r="F59" t="n">
-        <v>88.48687744140625</v>
+        <v>88.48689270019531</v>
       </c>
       <c r="G59" t="n">
         <v>339874900</v>
@@ -1827,7 +1827,7 @@
         <v>126.6399993896484</v>
       </c>
       <c r="F60" t="n">
-        <v>88.74618530273438</v>
+        <v>88.74613189697266</v>
       </c>
       <c r="G60" t="n">
         <v>302674200</v>
@@ -1850,7 +1850,7 @@
         <v>128.8099975585938</v>
       </c>
       <c r="F61" t="n">
-        <v>90.26683807373047</v>
+        <v>90.26682281494141</v>
       </c>
       <c r="G61" t="n">
         <v>330104900</v>
@@ -1873,7 +1873,7 @@
         <v>129.4100036621094</v>
       </c>
       <c r="F62" t="n">
-        <v>90.68730163574219</v>
+        <v>90.68726348876953</v>
       </c>
       <c r="G62" t="n">
         <v>168983600</v>
@@ -1896,7 +1896,7 @@
         <v>128.7599945068359</v>
       </c>
       <c r="F63" t="n">
-        <v>90.23176574707031</v>
+        <v>90.23175811767578</v>
       </c>
       <c r="G63" t="n">
         <v>292939800</v>
@@ -1919,7 +1919,7 @@
         <v>128.5899963378906</v>
       </c>
       <c r="F64" t="n">
-        <v>90.1126708984375</v>
+        <v>90.11266326904297</v>
       </c>
       <c r="G64" t="n">
         <v>302756000</v>
@@ -1942,7 +1942,7 @@
         <v>130.6199951171875</v>
       </c>
       <c r="F65" t="n">
-        <v>91.53521728515625</v>
+        <v>91.53520965576172</v>
       </c>
       <c r="G65" t="n">
         <v>281568500</v>
@@ -1965,7 +1965,7 @@
         <v>130.2100067138672</v>
       </c>
       <c r="F66" t="n">
-        <v>91.61078643798828</v>
+        <v>91.61074829101562</v>
       </c>
       <c r="G66" t="n">
         <v>274160300</v>
@@ -1988,7 +1988,7 @@
         <v>129.8300018310547</v>
       </c>
       <c r="F67" t="n">
-        <v>91.34341430664062</v>
+        <v>91.34344482421875</v>
       </c>
       <c r="G67" t="n">
         <v>309605900</v>
@@ -2011,7 +2011,7 @@
         <v>129.5399932861328</v>
       </c>
       <c r="F68" t="n">
-        <v>91.13938903808594</v>
+        <v>91.13939666748047</v>
       </c>
       <c r="G68" t="n">
         <v>305128300</v>
@@ -2034,7 +2034,7 @@
         <v>128.7100067138672</v>
       </c>
       <c r="F69" t="n">
-        <v>90.55542755126953</v>
+        <v>90.555419921875</v>
       </c>
       <c r="G69" t="n">
         <v>208381400</v>
@@ -2080,7 +2080,7 @@
         <v>131.4700012207031</v>
       </c>
       <c r="F71" t="n">
-        <v>92.49725341796875</v>
+        <v>92.49728393554688</v>
       </c>
       <c r="G71" t="n">
         <v>384501600</v>
@@ -2103,7 +2103,7 @@
         <v>132.5200042724609</v>
       </c>
       <c r="F72" t="n">
-        <v>93.23601531982422</v>
+        <v>93.23599243164062</v>
       </c>
       <c r="G72" t="n">
         <v>280384700</v>
@@ -2126,7 +2126,7 @@
         <v>129.2400054931641</v>
       </c>
       <c r="F73" t="n">
-        <v>90.92833709716797</v>
+        <v>90.92829895019531</v>
       </c>
       <c r="G73" t="n">
         <v>296612300</v>
@@ -2149,7 +2149,7 @@
         <v>127.0999984741211</v>
       </c>
       <c r="F74" t="n">
-        <v>89.42268371582031</v>
+        <v>89.42267608642578</v>
       </c>
       <c r="G74" t="n">
         <v>503172100</v>
@@ -2195,7 +2195,7 @@
         <v>129</v>
       </c>
       <c r="F76" t="n">
-        <v>90.75948333740234</v>
+        <v>90.75946044921875</v>
       </c>
       <c r="G76" t="n">
         <v>324770400</v>
@@ -2218,7 +2218,7 @@
         <v>125.3499984741211</v>
       </c>
       <c r="F77" t="n">
-        <v>88.19148254394531</v>
+        <v>88.19145965576172</v>
       </c>
       <c r="G77" t="n">
         <v>625132500</v>
@@ -2287,7 +2287,7 @@
         <v>127.2799987792969</v>
       </c>
       <c r="F80" t="n">
-        <v>89.94516754150391</v>
+        <v>89.94515228271484</v>
       </c>
       <c r="G80" t="n">
         <v>334910500</v>
@@ -2333,7 +2333,7 @@
         <v>123.5199966430664</v>
       </c>
       <c r="F82" t="n">
-        <v>87.28805541992188</v>
+        <v>87.28802490234375</v>
       </c>
       <c r="G82" t="n">
         <v>422814400</v>
@@ -2356,7 +2356,7 @@
         <v>123.9499969482422</v>
       </c>
       <c r="F83" t="n">
-        <v>87.59192657470703</v>
+        <v>87.59194183349609</v>
       </c>
       <c r="G83" t="n">
         <v>551315100</v>
@@ -2379,7 +2379,7 @@
         <v>127.9800033569336</v>
       </c>
       <c r="F84" t="n">
-        <v>90.43983459472656</v>
+        <v>90.43984222412109</v>
       </c>
       <c r="G84" t="n">
         <v>442284600</v>
@@ -2402,7 +2402,7 @@
         <v>128.1999969482422</v>
       </c>
       <c r="F85" t="n">
-        <v>90.59526824951172</v>
+        <v>90.59527587890625</v>
       </c>
       <c r="G85" t="n">
         <v>339577600</v>
@@ -2494,7 +2494,7 @@
         <v>131.4199981689453</v>
       </c>
       <c r="F89" t="n">
-        <v>92.87075805664062</v>
+        <v>92.87076568603516</v>
       </c>
       <c r="G89" t="n">
         <v>250856300</v>
@@ -2517,7 +2517,7 @@
         <v>130.2799987792969</v>
       </c>
       <c r="F90" t="n">
-        <v>92.06515502929688</v>
+        <v>92.06516265869141</v>
       </c>
       <c r="G90" t="n">
         <v>237509600</v>
@@ -2540,7 +2540,7 @@
         <v>131.9600067138672</v>
       </c>
       <c r="F91" t="n">
-        <v>93.25235748291016</v>
+        <v>93.25233459472656</v>
       </c>
       <c r="G91" t="n">
         <v>335779100</v>
@@ -2563,7 +2563,7 @@
         <v>131.4700012207031</v>
       </c>
       <c r="F92" t="n">
-        <v>93.31471252441406</v>
+        <v>93.31472778320312</v>
       </c>
       <c r="G92" t="n">
         <v>386346600</v>
@@ -2586,7 +2586,7 @@
         <v>133.5800018310547</v>
       </c>
       <c r="F93" t="n">
-        <v>94.81233215332031</v>
+        <v>94.81233978271484</v>
       </c>
       <c r="G93" t="n">
         <v>355258100</v>
@@ -2609,7 +2609,7 @@
         <v>135.0099945068359</v>
       </c>
       <c r="F94" t="n">
-        <v>95.82730865478516</v>
+        <v>95.82731628417969</v>
       </c>
       <c r="G94" t="n">
         <v>331175500</v>
@@ -2632,7 +2632,7 @@
         <v>136.6300048828125</v>
       </c>
       <c r="F95" t="n">
-        <v>96.97714996337891</v>
+        <v>96.97714233398438</v>
       </c>
       <c r="G95" t="n">
         <v>314754900</v>
@@ -2655,7 +2655,7 @@
         <v>136.8399963378906</v>
       </c>
       <c r="F96" t="n">
-        <v>97.126220703125</v>
+        <v>97.12625122070312</v>
       </c>
       <c r="G96" t="n">
         <v>331779900</v>
@@ -2678,7 +2678,7 @@
         <v>137.9100036621094</v>
       </c>
       <c r="F97" t="n">
-        <v>97.88570404052734</v>
+        <v>97.88568115234375</v>
       </c>
       <c r="G97" t="n">
         <v>344641900</v>
@@ -2724,7 +2724,7 @@
         <v>138.2400054931641</v>
       </c>
       <c r="F99" t="n">
-        <v>98.11989593505859</v>
+        <v>98.11990356445312</v>
       </c>
       <c r="G99" t="n">
         <v>359047800</v>
@@ -2747,7 +2747,7 @@
         <v>140.4199981689453</v>
       </c>
       <c r="F100" t="n">
-        <v>99.66722106933594</v>
+        <v>99.66724395751953</v>
       </c>
       <c r="G100" t="n">
         <v>365694400</v>
@@ -2770,7 +2770,7 @@
         <v>140.3500061035156</v>
       </c>
       <c r="F101" t="n">
-        <v>99.61754608154297</v>
+        <v>99.61756134033203</v>
       </c>
       <c r="G101" t="n">
         <v>197045400</v>
@@ -2793,7 +2793,7 @@
         <v>140.2200012207031</v>
       </c>
       <c r="F102" t="n">
-        <v>99.52527618408203</v>
+        <v>99.52525329589844</v>
       </c>
       <c r="G102" t="n">
         <v>491307200</v>
@@ -2816,7 +2816,7 @@
         <v>141.4199981689453</v>
       </c>
       <c r="F103" t="n">
-        <v>100.376953125</v>
+        <v>100.3770294189453</v>
       </c>
       <c r="G103" t="n">
         <v>356923700</v>
@@ -2839,7 +2839,7 @@
         <v>142.3399963378906</v>
       </c>
       <c r="F104" t="n">
-        <v>101.0299682617188</v>
+        <v>101.0300445556641</v>
       </c>
       <c r="G104" t="n">
         <v>308363800</v>
@@ -2862,7 +2862,7 @@
         <v>140.75</v>
       </c>
       <c r="F105" t="n">
-        <v>100.4580993652344</v>
+        <v>100.4580917358398</v>
       </c>
       <c r="G105" t="n">
         <v>266215300</v>
@@ -2908,7 +2908,7 @@
         <v>140.5399932861328</v>
       </c>
       <c r="F107" t="n">
-        <v>100.3082122802734</v>
+        <v>100.3081893920898</v>
       </c>
       <c r="G107" t="n">
         <v>241073500</v>
@@ -2931,7 +2931,7 @@
         <v>143.2400054931641</v>
       </c>
       <c r="F108" t="n">
-        <v>102.2353057861328</v>
+        <v>102.2352828979492</v>
       </c>
       <c r="G108" t="n">
         <v>329610500</v>
@@ -2954,7 +2954,7 @@
         <v>142.8200073242188</v>
       </c>
       <c r="F109" t="n">
-        <v>101.9355087280273</v>
+        <v>101.9354858398438</v>
       </c>
       <c r="G109" t="n">
         <v>220263000</v>
@@ -2977,7 +2977,7 @@
         <v>142.1300048828125</v>
       </c>
       <c r="F110" t="n">
-        <v>101.443000793457</v>
+        <v>101.4430389404297</v>
       </c>
       <c r="G110" t="n">
         <v>310992100</v>
@@ -3000,7 +3000,7 @@
         <v>144.8099975585938</v>
       </c>
       <c r="F111" t="n">
-        <v>103.3558349609375</v>
+        <v>103.3557968139648</v>
       </c>
       <c r="G111" t="n">
         <v>347310200</v>
@@ -3046,7 +3046,7 @@
         <v>145.7299957275391</v>
       </c>
       <c r="F113" t="n">
-        <v>104.0124206542969</v>
+        <v>104.0124969482422</v>
       </c>
       <c r="G113" t="n">
         <v>274335200</v>
@@ -3069,7 +3069,7 @@
         <v>145.3000030517578</v>
       </c>
       <c r="F114" t="n">
-        <v>103.7055740356445</v>
+        <v>103.7055587768555</v>
       </c>
       <c r="G114" t="n">
         <v>271917000</v>
@@ -3092,7 +3092,7 @@
         <v>138.6699981689453</v>
       </c>
       <c r="F115" t="n">
-        <v>98.97350311279297</v>
+        <v>98.97351837158203</v>
       </c>
       <c r="G115" t="n">
         <v>896598200</v>
@@ -3115,7 +3115,7 @@
         <v>140.7799987792969</v>
       </c>
       <c r="F116" t="n">
-        <v>100.4794845581055</v>
+        <v>100.4794769287109</v>
       </c>
       <c r="G116" t="n">
         <v>627885300</v>
@@ -3138,7 +3138,7 @@
         <v>138.5299987792969</v>
       </c>
       <c r="F117" t="n">
-        <v>98.87357330322266</v>
+        <v>98.87355804443359</v>
       </c>
       <c r="G117" t="n">
         <v>756793400</v>
@@ -3161,7 +3161,7 @@
         <v>143.3899993896484</v>
       </c>
       <c r="F118" t="n">
-        <v>102.7482299804688</v>
+        <v>102.7482223510742</v>
       </c>
       <c r="G118" t="n">
         <v>524036300</v>
@@ -3184,7 +3184,7 @@
         <v>142</v>
       </c>
       <c r="F119" t="n">
-        <v>101.7522125244141</v>
+        <v>101.7522201538086</v>
       </c>
       <c r="G119" t="n">
         <v>634186800</v>
@@ -3207,7 +3207,7 @@
         <v>144.2400054931641</v>
       </c>
       <c r="F120" t="n">
-        <v>103.357292175293</v>
+        <v>103.3573150634766</v>
       </c>
       <c r="G120" t="n">
         <v>272652200</v>
@@ -3230,7 +3230,7 @@
         <v>145.3200073242188</v>
       </c>
       <c r="F121" t="n">
-        <v>104.1312255859375</v>
+        <v>104.1312103271484</v>
       </c>
       <c r="G121" t="n">
         <v>413774500</v>
@@ -3253,7 +3253,7 @@
         <v>148.6199951171875</v>
       </c>
       <c r="F122" t="n">
-        <v>106.4959030151367</v>
+        <v>106.4958953857422</v>
       </c>
       <c r="G122" t="n">
         <v>506895800</v>
@@ -3276,7 +3276,7 @@
         <v>149.5299987792969</v>
       </c>
       <c r="F123" t="n">
-        <v>107.1479339599609</v>
+        <v>107.14794921875</v>
       </c>
       <c r="G123" t="n">
         <v>497093300</v>
@@ -3299,7 +3299,7 @@
         <v>150.9199981689453</v>
       </c>
       <c r="F124" t="n">
-        <v>108.1440124511719</v>
+        <v>108.1439666748047</v>
       </c>
       <c r="G124" t="n">
         <v>505325300</v>
@@ -3345,7 +3345,7 @@
         <v>152.6199951171875</v>
       </c>
       <c r="F126" t="n">
-        <v>109.3621826171875</v>
+        <v>109.3621444702148</v>
       </c>
       <c r="G126" t="n">
         <v>603182100</v>
@@ -3368,7 +3368,7 @@
         <v>151.6900024414062</v>
       </c>
       <c r="F127" t="n">
-        <v>108.6957321166992</v>
+        <v>108.695686340332</v>
       </c>
       <c r="G127" t="n">
         <v>661502200</v>
@@ -3414,7 +3414,7 @@
         <v>151.0399932861328</v>
       </c>
       <c r="F129" t="n">
-        <v>108.2299728393555</v>
+        <v>108.22998046875</v>
       </c>
       <c r="G129" t="n">
         <v>777324100</v>
@@ -3437,7 +3437,7 @@
         <v>153.0700073242188</v>
       </c>
       <c r="F130" t="n">
-        <v>109.6846160888672</v>
+        <v>109.6845932006836</v>
       </c>
       <c r="G130" t="n">
         <v>829549100</v>
@@ -3460,7 +3460,7 @@
         <v>150.5500030517578</v>
       </c>
       <c r="F131" t="n">
-        <v>108.3437957763672</v>
+        <v>108.3438186645508</v>
       </c>
       <c r="G131" t="n">
         <v>786735600</v>
@@ -3483,7 +3483,7 @@
         <v>150.4299926757812</v>
       </c>
       <c r="F132" t="n">
-        <v>108.2574920654297</v>
+        <v>108.257438659668</v>
       </c>
       <c r="G132" t="n">
         <v>1001504900</v>
@@ -3506,7 +3506,7 @@
         <v>152.9799957275391</v>
       </c>
       <c r="F133" t="n">
-        <v>110.0925369262695</v>
+        <v>110.0925674438477</v>
       </c>
       <c r="G133" t="n">
         <v>327793400</v>
@@ -3529,7 +3529,7 @@
         <v>154.8500061035156</v>
       </c>
       <c r="F134" t="n">
-        <v>111.4383087158203</v>
+        <v>111.4383392333984</v>
       </c>
       <c r="G134" t="n">
         <v>673995100</v>
@@ -3552,7 +3552,7 @@
         <v>153.5</v>
       </c>
       <c r="F135" t="n">
-        <v>110.4667892456055</v>
+        <v>110.4668197631836</v>
       </c>
       <c r="G135" t="n">
         <v>853182600</v>
@@ -3575,7 +3575,7 @@
         <v>145.1100006103516</v>
       </c>
       <c r="F136" t="n">
-        <v>104.4289016723633</v>
+        <v>104.4288940429688</v>
       </c>
       <c r="G136" t="n">
         <v>1533710900</v>
@@ -3598,7 +3598,7 @@
         <v>143.8000030517578</v>
       </c>
       <c r="F137" t="n">
-        <v>103.4861526489258</v>
+        <v>103.486198425293</v>
       </c>
       <c r="G137" t="n">
         <v>1721820800</v>
@@ -3621,7 +3621,7 @@
         <v>144.7100067138672</v>
       </c>
       <c r="F138" t="n">
-        <v>104.1410675048828</v>
+        <v>104.1410598754883</v>
       </c>
       <c r="G138" t="n">
         <v>1601119800</v>
@@ -3644,7 +3644,7 @@
         <v>144.7100067138672</v>
       </c>
       <c r="F139" t="n">
-        <v>104.1410675048828</v>
+        <v>104.1410598754883</v>
       </c>
       <c r="G139" t="n">
         <v>1704847500</v>
@@ -3667,7 +3667,7 @@
         <v>148.3300018310547</v>
       </c>
       <c r="F140" t="n">
-        <v>106.7461776733398</v>
+        <v>106.7461700439453</v>
       </c>
       <c r="G140" t="n">
         <v>850360700</v>
@@ -3713,7 +3713,7 @@
         <v>146.0700073242188</v>
       </c>
       <c r="F142" t="n">
-        <v>105.119743347168</v>
+        <v>105.1197738647461</v>
       </c>
       <c r="G142" t="n">
         <v>649649800</v>
@@ -3736,7 +3736,7 @@
         <v>148.8999938964844</v>
       </c>
       <c r="F143" t="n">
-        <v>107.1563568115234</v>
+        <v>107.1563720703125</v>
       </c>
       <c r="G143" t="n">
         <v>779932400</v>
@@ -3759,7 +3759,7 @@
         <v>151.9700012207031</v>
       </c>
       <c r="F144" t="n">
-        <v>109.3656921386719</v>
+        <v>109.3657150268555</v>
       </c>
       <c r="G144" t="n">
         <v>884054500</v>
@@ -3782,7 +3782,7 @@
         <v>152.5800018310547</v>
       </c>
       <c r="F145" t="n">
-        <v>110.3256454467773</v>
+        <v>110.3256378173828</v>
       </c>
       <c r="G145" t="n">
         <v>653372500</v>
@@ -3828,7 +3828,7 @@
         <v>156.3300018310547</v>
       </c>
       <c r="F147" t="n">
-        <v>113.0371551513672</v>
+        <v>113.0371322631836</v>
       </c>
       <c r="G147" t="n">
         <v>625121600</v>
@@ -3851,7 +3851,7 @@
         <v>149.6699981689453</v>
       </c>
       <c r="F148" t="n">
-        <v>108.2214813232422</v>
+        <v>108.2215118408203</v>
       </c>
       <c r="G148" t="n">
         <v>989902300</v>
@@ -3874,7 +3874,7 @@
         <v>153.6199951171875</v>
       </c>
       <c r="F149" t="n">
-        <v>111.0776290893555</v>
+        <v>111.0775985717773</v>
       </c>
       <c r="G149" t="n">
         <v>1182627600</v>
@@ -3897,7 +3897,7 @@
         <v>151.1999969482422</v>
       </c>
       <c r="F150" t="n">
-        <v>109.3278121948242</v>
+        <v>109.327751159668</v>
       </c>
       <c r="G150" t="n">
         <v>1125046000</v>
@@ -3920,7 +3920,7 @@
         <v>145.1399993896484</v>
       </c>
       <c r="F151" t="n">
-        <v>104.9460067749023</v>
+        <v>104.9460296630859</v>
       </c>
       <c r="G151" t="n">
         <v>1363536200</v>
@@ -3943,7 +3943,7 @@
         <v>145.7899932861328</v>
       </c>
       <c r="F152" t="n">
-        <v>105.4160079956055</v>
+        <v>105.4159851074219</v>
       </c>
       <c r="G152" t="n">
         <v>1236645700</v>
@@ -3966,7 +3966,7 @@
         <v>144.1300048828125</v>
       </c>
       <c r="F153" t="n">
-        <v>104.215690612793</v>
+        <v>104.2156753540039</v>
       </c>
       <c r="G153" t="n">
         <v>1019214300</v>
@@ -4012,7 +4012,7 @@
         <v>150.9100036621094</v>
       </c>
       <c r="F155" t="n">
-        <v>109.1181030273438</v>
+        <v>109.1181106567383</v>
       </c>
       <c r="G155" t="n">
         <v>757531800</v>
@@ -4035,7 +4035,7 @@
         <v>147.1699981689453</v>
       </c>
       <c r="F156" t="n">
-        <v>106.4138565063477</v>
+        <v>106.4138336181641</v>
       </c>
       <c r="G156" t="n">
         <v>1093400500</v>
@@ -4058,7 +4058,7 @@
         <v>148.1300048828125</v>
       </c>
       <c r="F157" t="n">
-        <v>107.1079864501953</v>
+        <v>107.1079559326172</v>
       </c>
       <c r="G157" t="n">
         <v>982654100</v>
@@ -4081,7 +4081,7 @@
         <v>147.3000030517578</v>
       </c>
       <c r="F158" t="n">
-        <v>107.0731048583984</v>
+        <v>107.0730438232422</v>
       </c>
       <c r="G158" t="n">
         <v>352074300</v>
@@ -4104,7 +4104,7 @@
         <v>141.3099975585938</v>
       </c>
       <c r="F159" t="n">
-        <v>102.7189254760742</v>
+        <v>102.7189483642578</v>
       </c>
       <c r="G159" t="n">
         <v>670526600</v>
@@ -4127,7 +4127,7 @@
         <v>140.1499938964844</v>
       </c>
       <c r="F160" t="n">
-        <v>101.8756942749023</v>
+        <v>101.8757705688477</v>
       </c>
       <c r="G160" t="n">
         <v>1465959400</v>
@@ -4150,7 +4150,7 @@
         <v>132.0599975585938</v>
       </c>
       <c r="F161" t="n">
-        <v>95.99506378173828</v>
+        <v>95.99507904052734</v>
       </c>
       <c r="G161" t="n">
         <v>1535562300</v>
@@ -4173,7 +4173,7 @@
         <v>133.0399932861328</v>
       </c>
       <c r="F162" t="n">
-        <v>96.70745849609375</v>
+        <v>96.70742797851562</v>
       </c>
       <c r="G162" t="n">
         <v>1477389900</v>
@@ -4196,7 +4196,7 @@
         <v>139.5800018310547</v>
       </c>
       <c r="F163" t="n">
-        <v>101.4613647460938</v>
+        <v>101.4613800048828</v>
       </c>
       <c r="G163" t="n">
         <v>1272366500</v>
@@ -4242,7 +4242,7 @@
         <v>135.1399993896484</v>
       </c>
       <c r="F165" t="n">
-        <v>98.23388671875</v>
+        <v>98.23393249511719</v>
       </c>
       <c r="G165" t="n">
         <v>996516000</v>
@@ -4265,7 +4265,7 @@
         <v>135.6199951171875</v>
       </c>
       <c r="F166" t="n">
-        <v>98.58284759521484</v>
+        <v>98.58286285400391</v>
       </c>
       <c r="G166" t="n">
         <v>771817900</v>
@@ -4288,7 +4288,7 @@
         <v>133.8200073242188</v>
       </c>
       <c r="F167" t="n">
-        <v>97.27442932128906</v>
+        <v>97.27442169189453</v>
       </c>
       <c r="G167" t="n">
         <v>994469800</v>
@@ -4311,7 +4311,7 @@
         <v>129.7100067138672</v>
       </c>
       <c r="F168" t="n">
-        <v>94.28684997558594</v>
+        <v>94.28681945800781</v>
       </c>
       <c r="G168" t="n">
         <v>1317024300</v>
@@ -4334,7 +4334,7 @@
         <v>129.6100006103516</v>
       </c>
       <c r="F169" t="n">
-        <v>94.21414947509766</v>
+        <v>94.21414184570312</v>
       </c>
       <c r="G169" t="n">
         <v>1642477300</v>
@@ -4357,7 +4357,7 @@
         <v>132.0800018310547</v>
       </c>
       <c r="F170" t="n">
-        <v>96.00962066650391</v>
+        <v>96.00959777832031</v>
       </c>
       <c r="G170" t="n">
         <v>1331020000</v>
@@ -4403,7 +4403,7 @@
         <v>136.8899993896484</v>
       </c>
       <c r="F172" t="n">
-        <v>99.9986572265625</v>
+        <v>99.99864196777344</v>
       </c>
       <c r="G172" t="n">
         <v>1012481800</v>
@@ -4426,7 +4426,7 @@
         <v>133.3800048828125</v>
       </c>
       <c r="F173" t="n">
-        <v>97.4345703125</v>
+        <v>97.43458557128906</v>
       </c>
       <c r="G173" t="n">
         <v>914734500</v>
@@ -4449,7 +4449,7 @@
         <v>138.4799957275391</v>
       </c>
       <c r="F174" t="n">
-        <v>101.1601486206055</v>
+        <v>101.1601409912109</v>
       </c>
       <c r="G174" t="n">
         <v>920376400</v>
@@ -4472,7 +4472,7 @@
         <v>139.6000061035156</v>
       </c>
       <c r="F175" t="n">
-        <v>101.9783096313477</v>
+        <v>101.9783020019531</v>
       </c>
       <c r="G175" t="n">
         <v>894231800</v>
@@ -4495,7 +4495,7 @@
         <v>141.5099945068359</v>
       </c>
       <c r="F176" t="n">
-        <v>103.3735885620117</v>
+        <v>103.3735809326172</v>
       </c>
       <c r="G176" t="n">
         <v>808385200</v>
@@ -4518,7 +4518,7 @@
         <v>138.8999938964844</v>
       </c>
       <c r="F177" t="n">
-        <v>101.4669418334961</v>
+        <v>101.4669647216797</v>
       </c>
       <c r="G177" t="n">
         <v>828021000</v>
@@ -4564,7 +4564,7 @@
         <v>137.6399993896484</v>
       </c>
       <c r="F179" t="n">
-        <v>100.5465316772461</v>
+        <v>100.546516418457</v>
       </c>
       <c r="G179" t="n">
         <v>949138100</v>
@@ -4587,7 +4587,7 @@
         <v>140.3500061035156</v>
       </c>
       <c r="F180" t="n">
-        <v>102.5261840820312</v>
+        <v>102.5261917114258</v>
       </c>
       <c r="G180" t="n">
         <v>640900200</v>
@@ -4610,7 +4610,7 @@
         <v>136.2899932861328</v>
       </c>
       <c r="F181" t="n">
-        <v>99.56034851074219</v>
+        <v>99.56034088134766</v>
       </c>
       <c r="G181" t="n">
         <v>1321816700</v>
@@ -4633,7 +4633,7 @@
         <v>136.1499938964844</v>
       </c>
       <c r="F182" t="n">
-        <v>99.45808410644531</v>
+        <v>99.45807647705078</v>
       </c>
       <c r="G182" t="n">
         <v>1269907600</v>
@@ -4656,7 +4656,7 @@
         <v>131.5800018310547</v>
       </c>
       <c r="F183" t="n">
-        <v>96.11966705322266</v>
+        <v>96.11968231201172</v>
       </c>
       <c r="G183" t="n">
         <v>1236913800</v>
@@ -4679,7 +4679,7 @@
         <v>127.5299987792969</v>
       </c>
       <c r="F184" t="n">
-        <v>93.62709808349609</v>
+        <v>93.62709045410156</v>
       </c>
       <c r="G184" t="n">
         <v>1321449300</v>
@@ -4725,7 +4725,7 @@
         <v>123.8399963378906</v>
       </c>
       <c r="F186" t="n">
-        <v>90.91803741455078</v>
+        <v>90.91805267333984</v>
       </c>
       <c r="G186" t="n">
         <v>2002730700</v>
@@ -4771,7 +4771,7 @@
         <v>125.4800033569336</v>
       </c>
       <c r="F188" t="n">
-        <v>92.12210845947266</v>
+        <v>92.12209320068359</v>
       </c>
       <c r="G188" t="n">
         <v>1299231100</v>
@@ -4794,7 +4794,7 @@
         <v>126.1600036621094</v>
       </c>
       <c r="F189" t="n">
-        <v>92.62127685546875</v>
+        <v>92.62132263183594</v>
       </c>
       <c r="G189" t="n">
         <v>1347509900</v>
@@ -4817,7 +4817,7 @@
         <v>129.3699951171875</v>
       </c>
       <c r="F190" t="n">
-        <v>94.97795104980469</v>
+        <v>94.97798156738281</v>
       </c>
       <c r="G190" t="n">
         <v>1156496800</v>
@@ -4840,7 +4840,7 @@
         <v>130.1699981689453</v>
       </c>
       <c r="F191" t="n">
-        <v>95.56527709960938</v>
+        <v>95.56528472900391</v>
       </c>
       <c r="G191" t="n">
         <v>1139575900</v>
@@ -4863,7 +4863,7 @@
         <v>129.6499938964844</v>
       </c>
       <c r="F192" t="n">
-        <v>95.18354034423828</v>
+        <v>95.18351745605469</v>
       </c>
       <c r="G192" t="n">
         <v>940772100</v>
@@ -4886,7 +4886,7 @@
         <v>128.7899932861328</v>
       </c>
       <c r="F193" t="n">
-        <v>94.55213928222656</v>
+        <v>94.55214691162109</v>
       </c>
       <c r="G193" t="n">
         <v>858819800</v>
@@ -4909,7 +4909,7 @@
         <v>124.4199981689453</v>
       </c>
       <c r="F194" t="n">
-        <v>91.34386444091797</v>
+        <v>91.34388732910156</v>
       </c>
       <c r="G194" t="n">
         <v>1133857800</v>
@@ -4932,7 +4932,7 @@
         <v>126.0899963378906</v>
       </c>
       <c r="F195" t="n">
-        <v>92.56993103027344</v>
+        <v>92.56990051269531</v>
       </c>
       <c r="G195" t="n">
         <v>1713539300</v>
@@ -4955,7 +4955,7 @@
         <v>124.120002746582</v>
       </c>
       <c r="F196" t="n">
-        <v>91.12362670898438</v>
+        <v>91.12364196777344</v>
       </c>
       <c r="G196" t="n">
         <v>2966649400</v>
@@ -4978,7 +4978,7 @@
         <v>120.8499984741211</v>
       </c>
       <c r="F197" t="n">
-        <v>89.23647308349609</v>
+        <v>89.23648071289062</v>
       </c>
       <c r="G197" t="n">
         <v>1503425700</v>
@@ -5001,7 +5001,7 @@
         <v>110.3399963378906</v>
       </c>
       <c r="F198" t="n">
-        <v>81.475830078125</v>
+        <v>81.47582244873047</v>
       </c>
       <c r="G198" t="n">
         <v>1947635500</v>
@@ -5024,7 +5024,7 @@
         <v>88.5</v>
       </c>
       <c r="F199" t="n">
-        <v>65.34901428222656</v>
+        <v>65.3489990234375</v>
       </c>
       <c r="G199" t="n">
         <v>3281575900</v>
@@ -5047,7 +5047,7 @@
         <v>93.20999908447266</v>
       </c>
       <c r="F200" t="n">
-        <v>68.82691955566406</v>
+        <v>68.82693481445312</v>
       </c>
       <c r="G200" t="n">
         <v>2671940000</v>
@@ -5070,7 +5070,7 @@
         <v>87.04000091552734</v>
       </c>
       <c r="F201" t="n">
-        <v>64.27091979980469</v>
+        <v>64.27094268798828</v>
       </c>
       <c r="G201" t="n">
         <v>2374443200</v>
@@ -5093,7 +5093,7 @@
         <v>96.83000183105469</v>
       </c>
       <c r="F202" t="n">
-        <v>71.49995422363281</v>
+        <v>71.49993133544922</v>
       </c>
       <c r="G202" t="n">
         <v>2394474300</v>
@@ -5116,7 +5116,7 @@
         <v>93.86000061035156</v>
       </c>
       <c r="F203" t="n">
-        <v>69.30686950683594</v>
+        <v>69.306884765625</v>
       </c>
       <c r="G203" t="n">
         <v>1798169800</v>
@@ -5139,7 +5139,7 @@
         <v>86.62000274658203</v>
       </c>
       <c r="F204" t="n">
-        <v>63.96080780029297</v>
+        <v>63.96080017089844</v>
       </c>
       <c r="G204" t="n">
         <v>2468096000</v>
@@ -5162,7 +5162,7 @@
         <v>79.51999664306641</v>
       </c>
       <c r="F205" t="n">
-        <v>58.71812438964844</v>
+        <v>58.71811294555664</v>
       </c>
       <c r="G205" t="n">
         <v>3030111200</v>
@@ -5185,7 +5185,7 @@
         <v>90.08999633789062</v>
       </c>
       <c r="F206" t="n">
-        <v>66.52310943603516</v>
+        <v>66.52306365966797</v>
       </c>
       <c r="G206" t="n">
         <v>1465860000</v>
@@ -5208,7 +5208,7 @@
         <v>87.93000030517578</v>
       </c>
       <c r="F207" t="n">
-        <v>64.92812347412109</v>
+        <v>64.92811584472656</v>
       </c>
       <c r="G207" t="n">
         <v>2275378100</v>
@@ -5231,7 +5231,7 @@
         <v>88.98999786376953</v>
       </c>
       <c r="F208" t="n">
-        <v>65.71084594726562</v>
+        <v>65.71083831787109</v>
       </c>
       <c r="G208" t="n">
         <v>1959958100</v>
@@ -5254,7 +5254,7 @@
         <v>88.19000244140625</v>
       </c>
       <c r="F209" t="n">
-        <v>65.1201171875</v>
+        <v>65.12010955810547</v>
       </c>
       <c r="G209" t="n">
         <v>1592338100</v>
@@ -5277,7 +5277,7 @@
         <v>87.16000366210938</v>
       </c>
       <c r="F210" t="n">
-        <v>64.88200378417969</v>
+        <v>64.88199615478516</v>
       </c>
       <c r="G210" t="n">
         <v>602214000</v>
@@ -5300,7 +5300,7 @@
         <v>92.95999908447266</v>
       </c>
       <c r="F211" t="n">
-        <v>69.19955444335938</v>
+        <v>69.19954681396484</v>
       </c>
       <c r="G211" t="n">
         <v>717605700</v>
@@ -5323,7 +5323,7 @@
         <v>89.08999633789062</v>
       </c>
       <c r="F212" t="n">
-        <v>66.3187255859375</v>
+        <v>66.31870269775391</v>
       </c>
       <c r="G212" t="n">
         <v>1444297800</v>
@@ -5346,7 +5346,7 @@
         <v>85.05999755859375</v>
       </c>
       <c r="F213" t="n">
-        <v>63.31877136230469</v>
+        <v>63.31880569458008</v>
       </c>
       <c r="G213" t="n">
         <v>2001666900</v>
@@ -5369,7 +5369,7 @@
         <v>83.11000061035156</v>
       </c>
       <c r="F214" t="n">
-        <v>61.86718368530273</v>
+        <v>61.86717224121094</v>
       </c>
       <c r="G214" t="n">
         <v>1598956800</v>
@@ -5392,7 +5392,7 @@
         <v>82.83000183105469</v>
       </c>
       <c r="F215" t="n">
-        <v>61.65874862670898</v>
+        <v>61.65873718261719</v>
       </c>
       <c r="G215" t="n">
         <v>1599551600</v>
@@ -5415,7 +5415,7 @@
         <v>86.98000335693359</v>
       </c>
       <c r="F216" t="n">
-        <v>64.74803924560547</v>
+        <v>64.74802398681641</v>
       </c>
       <c r="G216" t="n">
         <v>1673389500</v>
@@ -5438,7 +5438,7 @@
         <v>82.76000213623047</v>
       </c>
       <c r="F217" t="n">
-        <v>61.60662460327148</v>
+        <v>61.60665512084961</v>
       </c>
       <c r="G217" t="n">
         <v>1864031100</v>
@@ -5461,7 +5461,7 @@
         <v>77.41999816894531</v>
       </c>
       <c r="F218" t="n">
-        <v>57.63153076171875</v>
+        <v>57.63153457641602</v>
       </c>
       <c r="G218" t="n">
         <v>1635919000</v>
@@ -5484,7 +5484,7 @@
         <v>73.93000030517578</v>
       </c>
       <c r="F219" t="n">
-        <v>55.0335807800293</v>
+        <v>55.03359985351562</v>
       </c>
       <c r="G219" t="n">
         <v>2101752900</v>
@@ -5507,7 +5507,7 @@
         <v>68.91999816894531</v>
       </c>
       <c r="F220" t="n">
-        <v>51.30412673950195</v>
+        <v>51.30411911010742</v>
       </c>
       <c r="G220" t="n">
         <v>2308986100</v>
@@ -5530,7 +5530,7 @@
         <v>76.08999633789062</v>
       </c>
       <c r="F221" t="n">
-        <v>56.64149856567383</v>
+        <v>56.64147567749023</v>
       </c>
       <c r="G221" t="n">
         <v>1889958900</v>
@@ -5553,7 +5553,7 @@
         <v>76.70999908447266</v>
       </c>
       <c r="F222" t="n">
-        <v>57.10300445556641</v>
+        <v>57.10300827026367</v>
       </c>
       <c r="G222" t="n">
         <v>1990331000</v>
@@ -5599,7 +5599,7 @@
         <v>84.26000213623047</v>
       </c>
       <c r="F224" t="n">
-        <v>63.17219924926758</v>
+        <v>63.17220687866211</v>
       </c>
       <c r="G224" t="n">
         <v>1826242100</v>
@@ -5622,7 +5622,7 @@
         <v>85.80999755859375</v>
       </c>
       <c r="F225" t="n">
-        <v>64.33427429199219</v>
+        <v>64.33425140380859</v>
       </c>
       <c r="G225" t="n">
         <v>1023870700</v>
@@ -5645,7 +5645,7 @@
         <v>87.08000183105469</v>
       </c>
       <c r="F226" t="n">
-        <v>65.28640747070312</v>
+        <v>65.28643798828125</v>
       </c>
       <c r="G226" t="n">
         <v>1350024300</v>
@@ -5668,7 +5668,7 @@
         <v>86.66000366210938</v>
       </c>
       <c r="F227" t="n">
-        <v>64.97154235839844</v>
+        <v>64.97152709960938</v>
       </c>
       <c r="G227" t="n">
         <v>1360782900</v>
@@ -5691,7 +5691,7 @@
         <v>87.88999938964844</v>
       </c>
       <c r="F228" t="n">
-        <v>65.89370727539062</v>
+        <v>65.89372253417969</v>
       </c>
       <c r="G228" t="n">
         <v>1386543700</v>
@@ -5737,7 +5737,7 @@
         <v>88.70999908447266</v>
       </c>
       <c r="F230" t="n">
-        <v>66.50846099853516</v>
+        <v>66.50849151611328</v>
       </c>
       <c r="G230" t="n">
         <v>1331575400</v>
@@ -5783,7 +5783,7 @@
         <v>92.52999877929688</v>
       </c>
       <c r="F232" t="n">
-        <v>69.37245178222656</v>
+        <v>69.3724365234375</v>
       </c>
       <c r="G232" t="n">
         <v>1030070800</v>
@@ -5806,7 +5806,7 @@
         <v>94.55000305175781</v>
       </c>
       <c r="F233" t="n">
-        <v>70.88688659667969</v>
+        <v>70.88691711425781</v>
       </c>
       <c r="G233" t="n">
         <v>1236792000</v>
@@ -5829,7 +5829,7 @@
         <v>95.08000183105469</v>
       </c>
       <c r="F234" t="n">
-        <v>71.28428649902344</v>
+        <v>71.28424835205078</v>
       </c>
       <c r="G234" t="n">
         <v>1219567000</v>
@@ -5852,7 +5852,7 @@
         <v>92.04000091552734</v>
       </c>
       <c r="F235" t="n">
-        <v>69.00509643554688</v>
+        <v>69.00508117675781</v>
       </c>
       <c r="G235" t="n">
         <v>1102335400</v>
@@ -5875,7 +5875,7 @@
         <v>91.83999633789062</v>
       </c>
       <c r="F236" t="n">
-        <v>69.24405670166016</v>
+        <v>69.24408721923828</v>
       </c>
       <c r="G236" t="n">
         <v>1098791100</v>
@@ -5898,7 +5898,7 @@
         <v>89.80999755859375</v>
       </c>
       <c r="F237" t="n">
-        <v>67.71352386474609</v>
+        <v>67.71354675292969</v>
       </c>
       <c r="G237" t="n">
         <v>782720500</v>
@@ -5921,7 +5921,7 @@
         <v>87.95999908447266</v>
       </c>
       <c r="F238" t="n">
-        <v>66.31870269775391</v>
+        <v>66.31869506835938</v>
       </c>
       <c r="G238" t="n">
         <v>956936900</v>
@@ -5967,7 +5967,7 @@
         <v>98.05999755859375</v>
       </c>
       <c r="F240" t="n">
-        <v>73.93373870849609</v>
+        <v>73.93374633789062</v>
       </c>
       <c r="G240" t="n">
         <v>990764400</v>
@@ -6013,7 +6013,7 @@
         <v>101.1999969482422</v>
       </c>
       <c r="F242" t="n">
-        <v>76.30119323730469</v>
+        <v>76.30118560791016</v>
       </c>
       <c r="G242" t="n">
         <v>951062600</v>
@@ -6036,7 +6036,7 @@
         <v>100.7900009155273</v>
       </c>
       <c r="F243" t="n">
-        <v>75.99208068847656</v>
+        <v>75.99205017089844</v>
       </c>
       <c r="G243" t="n">
         <v>883317700</v>
@@ -6059,7 +6059,7 @@
         <v>102.9700012207031</v>
       </c>
       <c r="F244" t="n">
-        <v>77.63571166992188</v>
+        <v>77.63571929931641</v>
       </c>
       <c r="G244" t="n">
         <v>1002678100</v>
@@ -6082,7 +6082,7 @@
         <v>103.379997253418</v>
       </c>
       <c r="F245" t="n">
-        <v>77.94483184814453</v>
+        <v>77.94483947753906</v>
       </c>
       <c r="G245" t="n">
         <v>944464800</v>
@@ -6105,7 +6105,7 @@
         <v>102.0599975585938</v>
       </c>
       <c r="F246" t="n">
-        <v>76.9495849609375</v>
+        <v>76.94959259033203</v>
       </c>
       <c r="G246" t="n">
         <v>955393600</v>
@@ -6128,7 +6128,7 @@
         <v>104.7699966430664</v>
       </c>
       <c r="F247" t="n">
-        <v>78.99282073974609</v>
+        <v>78.99282836914062</v>
       </c>
       <c r="G247" t="n">
         <v>602784100</v>
@@ -6151,7 +6151,7 @@
         <v>106.7200012207031</v>
       </c>
       <c r="F248" t="n">
-        <v>80.46308135986328</v>
+        <v>80.46309661865234</v>
       </c>
       <c r="G248" t="n">
         <v>935766000</v>
@@ -6174,7 +6174,7 @@
         <v>104.4499969482422</v>
       </c>
       <c r="F249" t="n">
-        <v>79.12667846679688</v>
+        <v>79.12669372558594</v>
       </c>
       <c r="G249" t="n">
         <v>953661900</v>
@@ -6197,7 +6197,7 @@
         <v>102.4899978637695</v>
       </c>
       <c r="F250" t="n">
-        <v>77.64188385009766</v>
+        <v>77.64189147949219</v>
       </c>
       <c r="G250" t="n">
         <v>1012992100</v>
@@ -6220,7 +6220,7 @@
         <v>107.2600021362305</v>
       </c>
       <c r="F251" t="n">
-        <v>81.25540161132812</v>
+        <v>81.25545501708984</v>
       </c>
       <c r="G251" t="n">
         <v>829880500</v>
@@ -6243,7 +6243,7 @@
         <v>108.8899993896484</v>
       </c>
       <c r="F252" t="n">
-        <v>82.49020385742188</v>
+        <v>82.49024200439453</v>
       </c>
       <c r="G252" t="n">
         <v>833088300</v>
@@ -6266,7 +6266,7 @@
         <v>108.0800018310547</v>
       </c>
       <c r="F253" t="n">
-        <v>81.87662506103516</v>
+        <v>81.87660217285156</v>
       </c>
       <c r="G253" t="n">
         <v>1044308000</v>
@@ -6289,7 +6289,7 @@
         <v>103.5599975585938</v>
       </c>
       <c r="F254" t="n">
-        <v>78.45244598388672</v>
+        <v>78.45243835449219</v>
       </c>
       <c r="G254" t="n">
         <v>1267834600</v>
@@ -6335,7 +6335,7 @@
         <v>109.620002746582</v>
       </c>
       <c r="F256" t="n">
-        <v>83.04325866699219</v>
+        <v>83.04325103759766</v>
       </c>
       <c r="G256" t="n">
         <v>808969200</v>
@@ -6358,7 +6358,7 @@
         <v>109.4300003051758</v>
       </c>
       <c r="F257" t="n">
-        <v>82.89932250976562</v>
+        <v>82.89933013916016</v>
       </c>
       <c r="G257" t="n">
         <v>857473700</v>
@@ -6381,7 +6381,7 @@
         <v>109.5699996948242</v>
       </c>
       <c r="F258" t="n">
-        <v>83.00536346435547</v>
+        <v>83.00537109375</v>
       </c>
       <c r="G258" t="n">
         <v>521996900</v>
@@ -6404,7 +6404,7 @@
         <v>111.0100021362305</v>
       </c>
       <c r="F259" t="n">
-        <v>84.09627532958984</v>
+        <v>84.09621429443359</v>
       </c>
       <c r="G259" t="n">
         <v>895036300</v>
@@ -6427,7 +6427,7 @@
         <v>111.1100006103516</v>
       </c>
       <c r="F260" t="n">
-        <v>84.17200469970703</v>
+        <v>84.17201232910156</v>
       </c>
       <c r="G260" t="n">
         <v>715769500</v>
@@ -6473,7 +6473,7 @@
         <v>112.4800033569336</v>
       </c>
       <c r="F262" t="n">
-        <v>85.66860198974609</v>
+        <v>85.66860961914062</v>
       </c>
       <c r="G262" t="n">
         <v>361207700</v>
@@ -6496,7 +6496,7 @@
         <v>111.4400024414062</v>
       </c>
       <c r="F263" t="n">
-        <v>84.87651062011719</v>
+        <v>84.87653350830078</v>
       </c>
       <c r="G263" t="n">
         <v>331857300</v>
@@ -6519,7 +6519,7 @@
         <v>114.5699996948242</v>
       </c>
       <c r="F264" t="n">
-        <v>87.26045989990234</v>
+        <v>87.26041412353516</v>
       </c>
       <c r="G264" t="n">
         <v>604092800</v>
@@ -6542,7 +6542,7 @@
         <v>113.6399993896484</v>
       </c>
       <c r="F265" t="n">
-        <v>86.55208587646484</v>
+        <v>86.55210113525391</v>
       </c>
       <c r="G265" t="n">
         <v>759533100</v>
@@ -6588,7 +6588,7 @@
         <v>107.3899993896484</v>
       </c>
       <c r="F267" t="n">
-        <v>81.79189300537109</v>
+        <v>81.7918701171875</v>
       </c>
       <c r="G267" t="n">
         <v>1296751500</v>
@@ -6611,7 +6611,7 @@
         <v>106.6600036621094</v>
       </c>
       <c r="F268" t="n">
-        <v>81.23588562011719</v>
+        <v>81.23587799072266</v>
       </c>
       <c r="G268" t="n">
         <v>1427225100</v>
@@ -6634,7 +6634,7 @@
         <v>108.0400009155273</v>
       </c>
       <c r="F269" t="n">
-        <v>82.28695678710938</v>
+        <v>82.28696441650391</v>
       </c>
       <c r="G269" t="n">
         <v>1330712600</v>
@@ -6657,7 +6657,7 @@
         <v>111.1399993896484</v>
       </c>
       <c r="F270" t="n">
-        <v>84.64798736572266</v>
+        <v>84.64799499511719</v>
       </c>
       <c r="G270" t="n">
         <v>744556100</v>
@@ -6680,7 +6680,7 @@
         <v>110.7399978637695</v>
       </c>
       <c r="F271" t="n">
-        <v>84.34335327148438</v>
+        <v>84.34336090087891</v>
       </c>
       <c r="G271" t="n">
         <v>949418600</v>
@@ -6703,7 +6703,7 @@
         <v>114.25</v>
       </c>
       <c r="F272" t="n">
-        <v>87.01669311523438</v>
+        <v>87.01667022705078</v>
       </c>
       <c r="G272" t="n">
         <v>771376300</v>
@@ -6726,7 +6726,7 @@
         <v>115.4599990844727</v>
       </c>
       <c r="F273" t="n">
-        <v>87.93827819824219</v>
+        <v>87.93828582763672</v>
       </c>
       <c r="G273" t="n">
         <v>778142600</v>
@@ -6749,7 +6749,7 @@
         <v>115.9700012207031</v>
       </c>
       <c r="F274" t="n">
-        <v>88.32672882080078</v>
+        <v>88.32670593261719</v>
       </c>
       <c r="G274" t="n">
         <v>916108100</v>
@@ -6772,7 +6772,7 @@
         <v>116.5800018310547</v>
       </c>
       <c r="F275" t="n">
-        <v>89.15694427490234</v>
+        <v>89.15692901611328</v>
       </c>
       <c r="G275" t="n">
         <v>992696800</v>
@@ -6818,7 +6818,7 @@
         <v>119.5500030517578</v>
       </c>
       <c r="F277" t="n">
-        <v>91.42833709716797</v>
+        <v>91.42829895019531</v>
       </c>
       <c r="G277" t="n">
         <v>692518600</v>
@@ -6841,7 +6841,7 @@
         <v>119.3600006103516</v>
       </c>
       <c r="F278" t="n">
-        <v>91.28302764892578</v>
+        <v>91.28301239013672</v>
       </c>
       <c r="G278" t="n">
         <v>908333600</v>
@@ -6864,7 +6864,7 @@
         <v>121.8099975585938</v>
       </c>
       <c r="F279" t="n">
-        <v>93.15670013427734</v>
+        <v>93.15666961669922</v>
       </c>
       <c r="G279" t="n">
         <v>861261700</v>
@@ -6910,7 +6910,7 @@
         <v>111.2600021362305</v>
       </c>
       <c r="F281" t="n">
-        <v>85.08835601806641</v>
+        <v>85.08836364746094</v>
       </c>
       <c r="G281" t="n">
         <v>2156989900</v>
@@ -6933,7 +6933,7 @@
         <v>113.8899993896484</v>
       </c>
       <c r="F282" t="n">
-        <v>87.09973907470703</v>
+        <v>87.09968566894531</v>
       </c>
       <c r="G282" t="n">
         <v>1529670400</v>
@@ -6956,7 +6956,7 @@
         <v>109.1100006103516</v>
       </c>
       <c r="F283" t="n">
-        <v>83.44412231445312</v>
+        <v>83.44410705566406</v>
       </c>
       <c r="G283" t="n">
         <v>2112367000</v>
@@ -6979,7 +6979,7 @@
         <v>109.370002746582</v>
       </c>
       <c r="F284" t="n">
-        <v>83.64293670654297</v>
+        <v>83.64295196533203</v>
       </c>
       <c r="G284" t="n">
         <v>1614851500</v>
@@ -7002,7 +7002,7 @@
         <v>106.8199996948242</v>
       </c>
       <c r="F285" t="n">
-        <v>81.69278717041016</v>
+        <v>81.69281768798828</v>
       </c>
       <c r="G285" t="n">
         <v>1143247000</v>
@@ -7025,7 +7025,7 @@
         <v>109.6800003051758</v>
       </c>
       <c r="F286" t="n">
-        <v>83.87999725341797</v>
+        <v>83.88002014160156</v>
       </c>
       <c r="G286" t="n">
         <v>1422425500</v>
@@ -7048,7 +7048,7 @@
         <v>111.7300033569336</v>
       </c>
       <c r="F287" t="n">
-        <v>85.44779968261719</v>
+        <v>85.44783020019531</v>
       </c>
       <c r="G287" t="n">
         <v>1099031200</v>
@@ -7071,7 +7071,7 @@
         <v>107.870002746582</v>
       </c>
       <c r="F288" t="n">
-        <v>82.88829040527344</v>
+        <v>82.88828277587891</v>
       </c>
       <c r="G288" t="n">
         <v>1214386100</v>
@@ -7094,7 +7094,7 @@
         <v>102.1999969482422</v>
       </c>
       <c r="F289" t="n">
-        <v>78.53141021728516</v>
+        <v>78.53138732910156</v>
       </c>
       <c r="G289" t="n">
         <v>1443279800</v>
@@ -7117,7 +7117,7 @@
         <v>107.9599990844727</v>
       </c>
       <c r="F290" t="n">
-        <v>82.95746612548828</v>
+        <v>82.95743560791016</v>
       </c>
       <c r="G290" t="n">
         <v>866546700</v>
@@ -7140,7 +7140,7 @@
         <v>106.6600036621094</v>
       </c>
       <c r="F291" t="n">
-        <v>81.95850372314453</v>
+        <v>81.95852661132812</v>
       </c>
       <c r="G291" t="n">
         <v>1043767600</v>
@@ -7163,7 +7163,7 @@
         <v>110.4100036621094</v>
       </c>
       <c r="F292" t="n">
-        <v>84.84004974365234</v>
+        <v>84.84007263183594</v>
       </c>
       <c r="G292" t="n">
         <v>1206200500</v>
@@ -7186,7 +7186,7 @@
         <v>110.2699966430664</v>
       </c>
       <c r="F293" t="n">
-        <v>84.73243713378906</v>
+        <v>84.73246765136719</v>
       </c>
       <c r="G293" t="n">
         <v>992577200</v>
@@ -7209,7 +7209,7 @@
         <v>112.3899993896484</v>
       </c>
       <c r="F294" t="n">
-        <v>86.36147308349609</v>
+        <v>86.36148071289062</v>
       </c>
       <c r="G294" t="n">
         <v>873294300</v>
@@ -7232,7 +7232,7 @@
         <v>108.3099975585938</v>
       </c>
       <c r="F295" t="n">
-        <v>83.22637176513672</v>
+        <v>83.22641754150391</v>
       </c>
       <c r="G295" t="n">
         <v>1035364700</v>
@@ -7255,7 +7255,7 @@
         <v>107.5299987792969</v>
       </c>
       <c r="F296" t="n">
-        <v>82.62699890136719</v>
+        <v>82.62702178955078</v>
       </c>
       <c r="G296" t="n">
         <v>978649500</v>
@@ -7278,7 +7278,7 @@
         <v>106.8600006103516</v>
       </c>
       <c r="F297" t="n">
-        <v>82.1121826171875</v>
+        <v>82.11219024658203</v>
       </c>
       <c r="G297" t="n">
         <v>1213491400</v>
@@ -7324,7 +7324,7 @@
         <v>111.4800033569336</v>
       </c>
       <c r="F299" t="n">
-        <v>85.66223907470703</v>
+        <v>85.66224670410156</v>
       </c>
       <c r="G299" t="n">
         <v>566735000</v>
@@ -7370,7 +7370,7 @@
         <v>114.8199996948242</v>
       </c>
       <c r="F301" t="n">
-        <v>88.70107269287109</v>
+        <v>88.7010498046875</v>
       </c>
       <c r="G301" t="n">
         <v>1086292800</v>
@@ -7393,7 +7393,7 @@
         <v>114.6100006103516</v>
       </c>
       <c r="F302" t="n">
-        <v>88.53883361816406</v>
+        <v>88.53884887695312</v>
       </c>
       <c r="G302" t="n">
         <v>979380500</v>
@@ -7462,7 +7462,7 @@
         <v>118.3499984741211</v>
       </c>
       <c r="F305" t="n">
-        <v>91.42807006835938</v>
+        <v>91.42809295654297</v>
       </c>
       <c r="G305" t="n">
         <v>951659200</v>
@@ -7485,7 +7485,7 @@
         <v>118.4899978637695</v>
       </c>
       <c r="F306" t="n">
-        <v>91.53624725341797</v>
+        <v>91.53620910644531</v>
       </c>
       <c r="G306" t="n">
         <v>813034100</v>
@@ -7508,7 +7508,7 @@
         <v>122.7200012207031</v>
       </c>
       <c r="F307" t="n">
-        <v>94.80397033691406</v>
+        <v>94.80400848388672</v>
       </c>
       <c r="G307" t="n">
         <v>954817000</v>
@@ -7531,7 +7531,7 @@
         <v>120.1999969482422</v>
       </c>
       <c r="F308" t="n">
-        <v>92.85726165771484</v>
+        <v>92.85722351074219</v>
       </c>
       <c r="G308" t="n">
         <v>961202500</v>
@@ -7554,7 +7554,7 @@
         <v>120.2900009155273</v>
       </c>
       <c r="F309" t="n">
-        <v>92.92674255371094</v>
+        <v>92.9267578125</v>
       </c>
       <c r="G309" t="n">
         <v>990392500</v>
@@ -7577,7 +7577,7 @@
         <v>118.8000030517578</v>
       </c>
       <c r="F310" t="n">
-        <v>91.77571105957031</v>
+        <v>91.77569580078125</v>
       </c>
       <c r="G310" t="n">
         <v>619723900</v>
@@ -7600,7 +7600,7 @@
         <v>122.8899993896484</v>
       </c>
       <c r="F311" t="n">
-        <v>94.93531799316406</v>
+        <v>94.935302734375</v>
       </c>
       <c r="G311" t="n">
         <v>1021112700</v>
@@ -7623,7 +7623,7 @@
         <v>124.4800033569336</v>
       </c>
       <c r="F312" t="n">
-        <v>96.16367340087891</v>
+        <v>96.16366577148438</v>
       </c>
       <c r="G312" t="n">
         <v>688927500</v>
@@ -7646,7 +7646,7 @@
         <v>124.3000030517578</v>
       </c>
       <c r="F313" t="n">
-        <v>96.02458190917969</v>
+        <v>96.02459716796875</v>
       </c>
       <c r="G313" t="n">
         <v>767995900</v>
@@ -7669,7 +7669,7 @@
         <v>125.5999984741211</v>
       </c>
       <c r="F314" t="n">
-        <v>97.53914642333984</v>
+        <v>97.53913116455078</v>
       </c>
       <c r="G314" t="n">
         <v>362982800</v>
@@ -7692,7 +7692,7 @@
         <v>125.75</v>
       </c>
       <c r="F315" t="n">
-        <v>97.65563201904297</v>
+        <v>97.65562438964844</v>
       </c>
       <c r="G315" t="n">
         <v>339304000</v>
@@ -7715,7 +7715,7 @@
         <v>127.1399993896484</v>
       </c>
       <c r="F316" t="n">
-        <v>98.73509216308594</v>
+        <v>98.73508453369141</v>
       </c>
       <c r="G316" t="n">
         <v>688663800</v>
@@ -7738,7 +7738,7 @@
         <v>129.3000030517578</v>
       </c>
       <c r="F317" t="n">
-        <v>100.4125061035156</v>
+        <v>100.4125442504883</v>
       </c>
       <c r="G317" t="n">
         <v>587344200</v>
@@ -7761,7 +7761,7 @@
         <v>128.3699951171875</v>
       </c>
       <c r="F318" t="n">
-        <v>99.69029235839844</v>
+        <v>99.69026947021484</v>
       </c>
       <c r="G318" t="n">
         <v>593568300</v>
@@ -7784,7 +7784,7 @@
         <v>127.7200012207031</v>
       </c>
       <c r="F319" t="n">
-        <v>99.18549346923828</v>
+        <v>99.18551635742188</v>
       </c>
       <c r="G319" t="n">
         <v>841489200</v>
@@ -7830,7 +7830,7 @@
         <v>133.1100006103516</v>
       </c>
       <c r="F321" t="n">
-        <v>103.3712844848633</v>
+        <v>103.3713226318359</v>
       </c>
       <c r="G321" t="n">
         <v>658367400</v>
@@ -7853,7 +7853,7 @@
         <v>134.5299987792969</v>
       </c>
       <c r="F322" t="n">
-        <v>104.4740676879883</v>
+        <v>104.4740753173828</v>
       </c>
       <c r="G322" t="n">
         <v>591262500</v>
@@ -7876,7 +7876,7 @@
         <v>132.3300018310547</v>
       </c>
       <c r="F323" t="n">
-        <v>102.7655715942383</v>
+        <v>102.7655792236328</v>
       </c>
       <c r="G323" t="n">
         <v>862818700</v>
@@ -7922,7 +7922,7 @@
         <v>130.8399963378906</v>
       </c>
       <c r="F325" t="n">
-        <v>101.6084213256836</v>
+        <v>101.6084671020508</v>
       </c>
       <c r="G325" t="n">
         <v>1072125000</v>
@@ -7945,7 +7945,7 @@
         <v>127.7600021362305</v>
       </c>
       <c r="F326" t="n">
-        <v>99.21657562255859</v>
+        <v>99.21659088134766</v>
       </c>
       <c r="G326" t="n">
         <v>1547968900</v>
@@ -7968,7 +7968,7 @@
         <v>131.3000030517578</v>
       </c>
       <c r="F327" t="n">
-        <v>102.4086532592773</v>
+        <v>102.4086608886719</v>
       </c>
       <c r="G327" t="n">
         <v>746906900</v>
@@ -7991,7 +7991,7 @@
         <v>133.1499938964844</v>
       </c>
       <c r="F328" t="n">
-        <v>103.8515548706055</v>
+        <v>103.8515625</v>
       </c>
       <c r="G328" t="n">
         <v>661783400</v>
@@ -8014,7 +8014,7 @@
         <v>132.8600006103516</v>
       </c>
       <c r="F329" t="n">
-        <v>103.6253509521484</v>
+        <v>103.6253814697266</v>
       </c>
       <c r="G329" t="n">
         <v>660648900</v>
@@ -8060,7 +8060,7 @@
         <v>133.7799987792969</v>
       </c>
       <c r="F331" t="n">
-        <v>104.3429565429688</v>
+        <v>104.3429183959961</v>
       </c>
       <c r="G331" t="n">
         <v>627087300</v>
@@ -8083,7 +8083,7 @@
         <v>136.4299926757812</v>
       </c>
       <c r="F332" t="n">
-        <v>106.4098281860352</v>
+        <v>106.4098434448242</v>
       </c>
       <c r="G332" t="n">
         <v>595273300</v>
@@ -8106,7 +8106,7 @@
         <v>134.1999969482422</v>
       </c>
       <c r="F333" t="n">
-        <v>104.670539855957</v>
+        <v>104.6704940795898</v>
       </c>
       <c r="G333" t="n">
         <v>897019400</v>
@@ -8129,7 +8129,7 @@
         <v>134.0399932861328</v>
       </c>
       <c r="F334" t="n">
-        <v>104.5457153320312</v>
+        <v>104.5457534790039</v>
       </c>
       <c r="G334" t="n">
         <v>751471200</v>
@@ -8152,7 +8152,7 @@
         <v>133.6100006103516</v>
       </c>
       <c r="F335" t="n">
-        <v>104.2103271484375</v>
+        <v>104.2103652954102</v>
       </c>
       <c r="G335" t="n">
         <v>771663900</v>
@@ -8175,7 +8175,7 @@
         <v>133.5099945068359</v>
       </c>
       <c r="F336" t="n">
-        <v>104.1323623657227</v>
+        <v>104.1323547363281</v>
       </c>
       <c r="G336" t="n">
         <v>752721600</v>
@@ -8198,7 +8198,7 @@
         <v>130.4199981689453</v>
       </c>
       <c r="F337" t="n">
-        <v>101.7223129272461</v>
+        <v>101.7222900390625</v>
       </c>
       <c r="G337" t="n">
         <v>832982500</v>
@@ -8221,7 +8221,7 @@
         <v>127.5999984741211</v>
       </c>
       <c r="F338" t="n">
-        <v>99.52279663085938</v>
+        <v>99.52278900146484</v>
       </c>
       <c r="G338" t="n">
         <v>939901900</v>
@@ -8244,7 +8244,7 @@
         <v>127.0500030517578</v>
       </c>
       <c r="F339" t="n">
-        <v>99.09381866455078</v>
+        <v>99.09380340576172</v>
       </c>
       <c r="G339" t="n">
         <v>1210445900</v>
@@ -8267,7 +8267,7 @@
         <v>126.8099975585938</v>
       </c>
       <c r="F340" t="n">
-        <v>99.39699554443359</v>
+        <v>99.39695739746094</v>
       </c>
       <c r="G340" t="n">
         <v>1089755100</v>
@@ -8290,7 +8290,7 @@
         <v>133.9199981689453</v>
       </c>
       <c r="F341" t="n">
-        <v>104.9699859619141</v>
+        <v>104.9699554443359</v>
       </c>
       <c r="G341" t="n">
         <v>1004464900</v>
@@ -8313,7 +8313,7 @@
         <v>134.3999938964844</v>
       </c>
       <c r="F342" t="n">
-        <v>105.3461837768555</v>
+        <v>105.34619140625</v>
       </c>
       <c r="G342" t="n">
         <v>673832300</v>
@@ -8336,7 +8336,7 @@
         <v>131.6900024414062</v>
       </c>
       <c r="F343" t="n">
-        <v>103.2220764160156</v>
+        <v>103.2220306396484</v>
       </c>
       <c r="G343" t="n">
         <v>1060781500</v>
@@ -8359,7 +8359,7 @@
         <v>134.5800018310547</v>
       </c>
       <c r="F344" t="n">
-        <v>105.4872970581055</v>
+        <v>105.4872894287109</v>
       </c>
       <c r="G344" t="n">
         <v>871838100</v>
@@ -8405,7 +8405,7 @@
         <v>120.0800018310547</v>
       </c>
       <c r="F346" t="n">
-        <v>94.121826171875</v>
+        <v>94.12181854248047</v>
       </c>
       <c r="G346" t="n">
         <v>2219616500</v>
@@ -8428,7 +8428,7 @@
         <v>118.120002746582</v>
       </c>
       <c r="F347" t="n">
-        <v>92.58551025390625</v>
+        <v>92.58552551269531</v>
       </c>
       <c r="G347" t="n">
         <v>2884411300</v>
@@ -8451,7 +8451,7 @@
         <v>112.6399993896484</v>
       </c>
       <c r="F348" t="n">
-        <v>88.2901611328125</v>
+        <v>88.29013061523438</v>
       </c>
       <c r="G348" t="n">
         <v>1732344500</v>
@@ -8474,7 +8474,7 @@
         <v>117.9700012207031</v>
       </c>
       <c r="F349" t="n">
-        <v>92.46794891357422</v>
+        <v>92.46796417236328</v>
       </c>
       <c r="G349" t="n">
         <v>1479958200</v>
@@ -8497,7 +8497,7 @@
         <v>117.8499984741211</v>
       </c>
       <c r="F350" t="n">
-        <v>92.37387847900391</v>
+        <v>92.37388610839844</v>
       </c>
       <c r="G350" t="n">
         <v>1244224400</v>
@@ -8520,7 +8520,7 @@
         <v>115.9199981689453</v>
       </c>
       <c r="F351" t="n">
-        <v>90.86109924316406</v>
+        <v>90.86110687255859</v>
       </c>
       <c r="G351" t="n">
         <v>1125697000</v>
@@ -8543,7 +8543,7 @@
         <v>121.5199966430664</v>
       </c>
       <c r="F352" t="n">
-        <v>95.25051116943359</v>
+        <v>95.25052642822266</v>
       </c>
       <c r="G352" t="n">
         <v>1509003200</v>
@@ -8566,7 +8566,7 @@
         <v>113.5400009155273</v>
       </c>
       <c r="F353" t="n">
-        <v>89.45602416992188</v>
+        <v>89.45603179931641</v>
       </c>
       <c r="G353" t="n">
         <v>1597854300</v>
@@ -8612,7 +8612,7 @@
         <v>115.7099990844727</v>
       </c>
       <c r="F355" t="n">
-        <v>91.16571807861328</v>
+        <v>91.16572570800781</v>
       </c>
       <c r="G355" t="n">
         <v>1678881000</v>
@@ -8635,7 +8635,7 @@
         <v>122.5699996948242</v>
       </c>
       <c r="F356" t="n">
-        <v>96.57059478759766</v>
+        <v>96.57061004638672</v>
       </c>
       <c r="G356" t="n">
         <v>1145235600</v>
@@ -8704,7 +8704,7 @@
         <v>125.4800033569336</v>
       </c>
       <c r="F359" t="n">
-        <v>98.86332702636719</v>
+        <v>98.86333465576172</v>
       </c>
       <c r="G359" t="n">
         <v>1430006500</v>
@@ -8727,7 +8727,7 @@
         <v>126.6600036621094</v>
       </c>
       <c r="F360" t="n">
-        <v>99.79302978515625</v>
+        <v>99.79305267333984</v>
       </c>
       <c r="G360" t="n">
         <v>1180816400</v>
@@ -8750,7 +8750,7 @@
         <v>121.9800033569336</v>
       </c>
       <c r="F361" t="n">
-        <v>96.10578155517578</v>
+        <v>96.10573577880859</v>
       </c>
       <c r="G361" t="n">
         <v>1126550200</v>
@@ -8773,7 +8773,7 @@
         <v>116.3399963378906</v>
       </c>
       <c r="F362" t="n">
-        <v>91.66208648681641</v>
+        <v>91.66212463378906</v>
       </c>
       <c r="G362" t="n">
         <v>769992600</v>
@@ -8796,7 +8796,7 @@
         <v>124.8600006103516</v>
       </c>
       <c r="F363" t="n">
-        <v>98.37483978271484</v>
+        <v>98.37485504150391</v>
       </c>
       <c r="G363" t="n">
         <v>1132431500</v>
@@ -8819,7 +8819,7 @@
         <v>126.0500030517578</v>
       </c>
       <c r="F364" t="n">
-        <v>99.31242370605469</v>
+        <v>99.31243133544922</v>
       </c>
       <c r="G364" t="n">
         <v>1091882700</v>
@@ -8842,7 +8842,7 @@
         <v>121.5899963378906</v>
       </c>
       <c r="F365" t="n">
-        <v>95.79846954345703</v>
+        <v>95.79844665527344</v>
       </c>
       <c r="G365" t="n">
         <v>1119195300</v>
@@ -8888,7 +8888,7 @@
         <v>125.5</v>
       </c>
       <c r="F367" t="n">
-        <v>99.50621032714844</v>
+        <v>99.50617980957031</v>
       </c>
       <c r="G367" t="n">
         <v>424289000</v>
@@ -8911,7 +8911,7 @@
         <v>127.7099990844727</v>
       </c>
       <c r="F368" t="n">
-        <v>101.2584381103516</v>
+        <v>101.2584533691406</v>
       </c>
       <c r="G368" t="n">
         <v>642829400</v>
@@ -8934,7 +8934,7 @@
         <v>128.8399963378906</v>
       </c>
       <c r="F369" t="n">
-        <v>102.154411315918</v>
+        <v>102.1544036865234</v>
       </c>
       <c r="G369" t="n">
         <v>625172800</v>
@@ -8957,7 +8957,7 @@
         <v>131.9499969482422</v>
       </c>
       <c r="F370" t="n">
-        <v>104.6202621459961</v>
+        <v>104.6202545166016</v>
       </c>
       <c r="G370" t="n">
         <v>560163500</v>
@@ -8980,7 +8980,7 @@
         <v>131.8200073242188</v>
       </c>
       <c r="F371" t="n">
-        <v>104.5172119140625</v>
+        <v>104.5171737670898</v>
       </c>
       <c r="G371" t="n">
         <v>751131900</v>
@@ -9003,7 +9003,7 @@
         <v>134.5399932861328</v>
       </c>
       <c r="F372" t="n">
-        <v>106.673828125</v>
+        <v>106.6737823486328</v>
       </c>
       <c r="G372" t="n">
         <v>744447200</v>
@@ -9026,7 +9026,7 @@
         <v>134.3600006103516</v>
       </c>
       <c r="F373" t="n">
-        <v>106.5310745239258</v>
+        <v>106.531120300293</v>
       </c>
       <c r="G373" t="n">
         <v>699094400</v>
@@ -9049,7 +9049,7 @@
         <v>136.4100036621094</v>
       </c>
       <c r="F374" t="n">
-        <v>108.1565093994141</v>
+        <v>108.1565322875977</v>
       </c>
       <c r="G374" t="n">
         <v>792803700</v>
@@ -9072,7 +9072,7 @@
         <v>136.9299926757812</v>
       </c>
       <c r="F375" t="n">
-        <v>108.5687866210938</v>
+        <v>108.5688018798828</v>
       </c>
       <c r="G375" t="n">
         <v>501741000</v>
@@ -9095,7 +9095,7 @@
         <v>137.3099975585938</v>
       </c>
       <c r="F376" t="n">
-        <v>108.8700714111328</v>
+        <v>108.8700866699219</v>
       </c>
       <c r="G376" t="n">
         <v>726681300</v>
@@ -9118,7 +9118,7 @@
         <v>137.5700073242188</v>
       </c>
       <c r="F377" t="n">
-        <v>109.0762176513672</v>
+        <v>109.0762634277344</v>
       </c>
       <c r="G377" t="n">
         <v>726392800</v>
@@ -9141,7 +9141,7 @@
         <v>140.3000030517578</v>
       </c>
       <c r="F378" t="n">
-        <v>111.2407836914062</v>
+        <v>111.2407684326172</v>
       </c>
       <c r="G378" t="n">
         <v>751269600</v>
@@ -9164,7 +9164,7 @@
         <v>139.6499938964844</v>
       </c>
       <c r="F379" t="n">
-        <v>111.2106399536133</v>
+        <v>111.2106552124023</v>
       </c>
       <c r="G379" t="n">
         <v>625146900</v>
@@ -9210,7 +9210,7 @@
         <v>139.7899932861328</v>
       </c>
       <c r="F381" t="n">
-        <v>111.3221435546875</v>
+        <v>111.3221054077148</v>
       </c>
       <c r="G381" t="n">
         <v>591883200</v>
@@ -9233,7 +9233,7 @@
         <v>137.1399993896484</v>
       </c>
       <c r="F382" t="n">
-        <v>109.2118148803711</v>
+        <v>109.2118301391602</v>
       </c>
       <c r="G382" t="n">
         <v>840617400</v>
@@ -9279,7 +9279,7 @@
         <v>140.3899993896484</v>
       </c>
       <c r="F384" t="n">
-        <v>111.7999420166016</v>
+        <v>111.7999649047852</v>
       </c>
       <c r="G384" t="n">
         <v>726597900</v>
@@ -9302,7 +9302,7 @@
         <v>137</v>
       </c>
       <c r="F385" t="n">
-        <v>109.1002807617188</v>
+        <v>109.1003341674805</v>
       </c>
       <c r="G385" t="n">
         <v>712692400</v>
@@ -9325,7 +9325,7 @@
         <v>135.6100006103516</v>
       </c>
       <c r="F386" t="n">
-        <v>107.993408203125</v>
+        <v>107.9933929443359</v>
       </c>
       <c r="G386" t="n">
         <v>865528500</v>
@@ -9348,7 +9348,7 @@
         <v>129.7400054931641</v>
       </c>
       <c r="F387" t="n">
-        <v>103.3188018798828</v>
+        <v>103.3187866210938</v>
       </c>
       <c r="G387" t="n">
         <v>1146413600</v>
@@ -9371,7 +9371,7 @@
         <v>132.1000061035156</v>
       </c>
       <c r="F388" t="n">
-        <v>105.1982040405273</v>
+        <v>105.1982116699219</v>
       </c>
       <c r="G388" t="n">
         <v>883173900</v>
@@ -9394,7 +9394,7 @@
         <v>128.1600036621094</v>
       </c>
       <c r="F389" t="n">
-        <v>102.0605545043945</v>
+        <v>102.0605773925781</v>
       </c>
       <c r="G389" t="n">
         <v>764680800</v>
@@ -9417,7 +9417,7 @@
         <v>133.1000061035156</v>
       </c>
       <c r="F390" t="n">
-        <v>105.9945220947266</v>
+        <v>105.9945907592773</v>
       </c>
       <c r="G390" t="n">
         <v>879586100</v>
@@ -9440,7 +9440,7 @@
         <v>134.1399993896484</v>
       </c>
       <c r="F391" t="n">
-        <v>106.8227691650391</v>
+        <v>106.8227615356445</v>
       </c>
       <c r="G391" t="n">
         <v>923971800</v>
@@ -9463,7 +9463,7 @@
         <v>133.4600067138672</v>
       </c>
       <c r="F392" t="n">
-        <v>106.8319244384766</v>
+        <v>106.8319702148438</v>
       </c>
       <c r="G392" t="n">
         <v>810496700</v>
@@ -9509,7 +9509,7 @@
         <v>135.4900054931641</v>
       </c>
       <c r="F394" t="n">
-        <v>108.4569091796875</v>
+        <v>108.4568939208984</v>
       </c>
       <c r="G394" t="n">
         <v>487344100</v>
@@ -9532,7 +9532,7 @@
         <v>135.75</v>
       </c>
       <c r="F395" t="n">
-        <v>108.6650085449219</v>
+        <v>108.6650161743164</v>
       </c>
       <c r="G395" t="n">
         <v>686624500</v>
@@ -9555,7 +9555,7 @@
         <v>136.4700012207031</v>
       </c>
       <c r="F396" t="n">
-        <v>109.241340637207</v>
+        <v>109.2413864135742</v>
       </c>
       <c r="G396" t="n">
         <v>622487000</v>
@@ -9578,7 +9578,7 @@
         <v>138.6799926757812</v>
       </c>
       <c r="F397" t="n">
-        <v>111.0104598999023</v>
+        <v>111.0104141235352</v>
       </c>
       <c r="G397" t="n">
         <v>840929800</v>
@@ -9601,7 +9601,7 @@
         <v>139.3500061035156</v>
       </c>
       <c r="F398" t="n">
-        <v>111.5467147827148</v>
+        <v>111.546745300293</v>
       </c>
       <c r="G398" t="n">
         <v>723033300</v>
@@ -9624,7 +9624,7 @@
         <v>140.8399963378906</v>
       </c>
       <c r="F399" t="n">
-        <v>112.7394714355469</v>
+        <v>112.7394638061523</v>
       </c>
       <c r="G399" t="n">
         <v>475710400</v>
@@ -9647,7 +9647,7 @@
         <v>142.1799926757812</v>
       </c>
       <c r="F400" t="n">
-        <v>113.8120880126953</v>
+        <v>113.8121032714844</v>
       </c>
       <c r="G400" t="n">
         <v>455720100</v>
@@ -9670,7 +9670,7 @@
         <v>141.5099945068359</v>
       </c>
       <c r="F401" t="n">
-        <v>113.2758407592773</v>
+        <v>113.2757873535156</v>
       </c>
       <c r="G401" t="n">
         <v>528027900</v>
@@ -9693,7 +9693,7 @@
         <v>141.1600036621094</v>
       </c>
       <c r="F402" t="n">
-        <v>112.99560546875</v>
+        <v>112.9956130981445</v>
       </c>
       <c r="G402" t="n">
         <v>458457100</v>
@@ -9716,7 +9716,7 @@
         <v>144.3300018310547</v>
       </c>
       <c r="F403" t="n">
-        <v>115.5331573486328</v>
+        <v>115.5331497192383</v>
       </c>
       <c r="G403" t="n">
         <v>486431100</v>
@@ -9739,7 +9739,7 @@
         <v>147.2400054931641</v>
       </c>
       <c r="F404" t="n">
-        <v>117.8625106811523</v>
+        <v>117.8625411987305</v>
       </c>
       <c r="G404" t="n">
         <v>658106600</v>
@@ -9762,7 +9762,7 @@
         <v>145.8699951171875</v>
       </c>
       <c r="F405" t="n">
-        <v>116.7659225463867</v>
+        <v>116.7658386230469</v>
       </c>
       <c r="G405" t="n">
         <v>608820000</v>
@@ -9785,7 +9785,7 @@
         <v>143.9700012207031</v>
       </c>
       <c r="F406" t="n">
-        <v>115.8601455688477</v>
+        <v>115.8601531982422</v>
       </c>
       <c r="G406" t="n">
         <v>637875800</v>
@@ -9808,7 +9808,7 @@
         <v>146.1399993896484</v>
       </c>
       <c r="F407" t="n">
-        <v>117.6064529418945</v>
+        <v>117.6064834594727</v>
       </c>
       <c r="G407" t="n">
         <v>619770200</v>
@@ -9831,7 +9831,7 @@
         <v>142.8899993896484</v>
       </c>
       <c r="F408" t="n">
-        <v>114.9910125732422</v>
+        <v>114.9910583496094</v>
       </c>
       <c r="G408" t="n">
         <v>599319200</v>
@@ -9900,7 +9900,7 @@
         <v>141.5599975585938</v>
       </c>
       <c r="F411" t="n">
-        <v>113.9207229614258</v>
+        <v>113.9207077026367</v>
       </c>
       <c r="G411" t="n">
         <v>342136300</v>
@@ -9923,7 +9923,7 @@
         <v>138.1600036621094</v>
       </c>
       <c r="F412" t="n">
-        <v>111.1845855712891</v>
+        <v>111.1845474243164</v>
       </c>
       <c r="G412" t="n">
         <v>852323700</v>
@@ -9946,7 +9946,7 @@
         <v>136.3699951171875</v>
       </c>
       <c r="F413" t="n">
-        <v>109.744026184082</v>
+        <v>109.7440414428711</v>
       </c>
       <c r="G413" t="n">
         <v>829813100</v>
@@ -9992,7 +9992,7 @@
         <v>142.1499938964844</v>
       </c>
       <c r="F415" t="n">
-        <v>114.3954772949219</v>
+        <v>114.3955154418945</v>
       </c>
       <c r="G415" t="n">
         <v>693511300</v>
@@ -10015,7 +10015,7 @@
         <v>142.4100036621094</v>
       </c>
       <c r="F416" t="n">
-        <v>114.6047286987305</v>
+        <v>114.6047744750977</v>
       </c>
       <c r="G416" t="n">
         <v>611416000</v>
@@ -10038,7 +10038,7 @@
         <v>142.1000061035156</v>
       </c>
       <c r="F417" t="n">
-        <v>114.3552932739258</v>
+        <v>114.3552780151367</v>
       </c>
       <c r="G417" t="n">
         <v>670707900</v>
@@ -10061,7 +10061,7 @@
         <v>142.7899932861328</v>
       </c>
       <c r="F418" t="n">
-        <v>114.9105529785156</v>
+        <v>114.910530090332</v>
       </c>
       <c r="G418" t="n">
         <v>886267200</v>
@@ -10084,7 +10084,7 @@
         <v>140.0299987792969</v>
       </c>
       <c r="F419" t="n">
-        <v>113.4886779785156</v>
+        <v>113.4886474609375</v>
       </c>
       <c r="G419" t="n">
         <v>477549600</v>
@@ -10107,7 +10107,7 @@
         <v>146.3699951171875</v>
       </c>
       <c r="F420" t="n">
-        <v>118.6269836425781</v>
+        <v>118.6270294189453</v>
       </c>
       <c r="G420" t="n">
         <v>697573700</v>
@@ -10153,7 +10153,7 @@
         <v>148.3300018310547</v>
       </c>
       <c r="F422" t="n">
-        <v>120.2154922485352</v>
+        <v>120.215461730957</v>
       </c>
       <c r="G422" t="n">
         <v>591328800</v>
@@ -10176,7 +10176,7 @@
         <v>150.25</v>
       </c>
       <c r="F423" t="n">
-        <v>121.7715454101562</v>
+        <v>121.7715377807617</v>
       </c>
       <c r="G423" t="n">
         <v>510031400</v>
@@ -10199,7 +10199,7 @@
         <v>151.2400054931641</v>
       </c>
       <c r="F424" t="n">
-        <v>122.5738830566406</v>
+        <v>122.5739517211914</v>
       </c>
       <c r="G424" t="n">
         <v>596648600</v>
@@ -10222,7 +10222,7 @@
         <v>151.8000030517578</v>
       </c>
       <c r="F425" t="n">
-        <v>123.0278015136719</v>
+        <v>123.0278091430664</v>
       </c>
       <c r="G425" t="n">
         <v>677372500</v>
@@ -10245,7 +10245,7 @@
         <v>152.1100006103516</v>
       </c>
       <c r="F426" t="n">
-        <v>123.2789916992188</v>
+        <v>123.2790451049805</v>
       </c>
       <c r="G426" t="n">
         <v>517551100</v>
@@ -10268,7 +10268,7 @@
         <v>151.8899993896484</v>
       </c>
       <c r="F427" t="n">
-        <v>123.1007537841797</v>
+        <v>123.1007232666016</v>
       </c>
       <c r="G427" t="n">
         <v>545293800</v>
@@ -10291,7 +10291,7 @@
         <v>152.1100006103516</v>
       </c>
       <c r="F428" t="n">
-        <v>123.2789916992188</v>
+        <v>123.2790451049805</v>
       </c>
       <c r="G428" t="n">
         <v>880703700</v>
@@ -10314,7 +10314,7 @@
         <v>155.4400024414062</v>
       </c>
       <c r="F429" t="n">
-        <v>125.9778747558594</v>
+        <v>125.9778671264648</v>
       </c>
       <c r="G429" t="n">
         <v>524491200</v>
@@ -10360,7 +10360,7 @@
         <v>155.6000061035156</v>
       </c>
       <c r="F431" t="n">
-        <v>126.6684112548828</v>
+        <v>126.6684265136719</v>
       </c>
       <c r="G431" t="n">
         <v>647799500</v>
@@ -10383,7 +10383,7 @@
         <v>156.6699981689453</v>
       </c>
       <c r="F432" t="n">
-        <v>127.5394668579102</v>
+        <v>127.5394287109375</v>
       </c>
       <c r="G432" t="n">
         <v>441062300</v>
@@ -10406,7 +10406,7 @@
         <v>155.1600036621094</v>
       </c>
       <c r="F433" t="n">
-        <v>126.3102340698242</v>
+        <v>126.3102035522461</v>
       </c>
       <c r="G433" t="n">
         <v>646416800</v>
@@ -10429,7 +10429,7 @@
         <v>158.8000030517578</v>
       </c>
       <c r="F434" t="n">
-        <v>129.2734375</v>
+        <v>129.2734069824219</v>
       </c>
       <c r="G434" t="n">
         <v>550706900</v>
@@ -10452,7 +10452,7 @@
         <v>155.4799957275391</v>
       </c>
       <c r="F435" t="n">
-        <v>126.5707397460938</v>
+        <v>126.5707626342773</v>
       </c>
       <c r="G435" t="n">
         <v>908872400</v>
@@ -10475,7 +10475,7 @@
         <v>158.2400054931641</v>
       </c>
       <c r="F436" t="n">
-        <v>128.8175048828125</v>
+        <v>128.8175659179688</v>
       </c>
       <c r="G436" t="n">
         <v>596455400</v>
@@ -10498,7 +10498,7 @@
         <v>161.3699951171875</v>
       </c>
       <c r="F437" t="n">
-        <v>131.3656005859375</v>
+        <v>131.3655395507812</v>
       </c>
       <c r="G437" t="n">
         <v>584067600</v>
@@ -10521,7 +10521,7 @@
         <v>163.4100036621094</v>
       </c>
       <c r="F438" t="n">
-        <v>133.0263366699219</v>
+        <v>133.0263061523438</v>
       </c>
       <c r="G438" t="n">
         <v>464602100</v>
@@ -10544,7 +10544,7 @@
         <v>166.9400024414062</v>
       </c>
       <c r="F439" t="n">
-        <v>135.8998870849609</v>
+        <v>135.8999481201172</v>
       </c>
       <c r="G439" t="n">
         <v>561277200</v>
@@ -10567,7 +10567,7 @@
         <v>165.3099975585938</v>
       </c>
       <c r="F440" t="n">
-        <v>134.5729827880859</v>
+        <v>134.5730133056641</v>
       </c>
       <c r="G440" t="n">
         <v>787545500</v>
@@ -10590,7 +10590,7 @@
         <v>163.4499969482422</v>
       </c>
       <c r="F441" t="n">
-        <v>133.0587921142578</v>
+        <v>133.0588531494141</v>
       </c>
       <c r="G441" t="n">
         <v>588687100</v>
@@ -10636,7 +10636,7 @@
         <v>163.1799926757812</v>
       </c>
       <c r="F443" t="n">
-        <v>132.8389892578125</v>
+        <v>132.8390350341797</v>
       </c>
       <c r="G443" t="n">
         <v>747319300</v>
@@ -10682,7 +10682,7 @@
         <v>160.4199981689453</v>
       </c>
       <c r="F445" t="n">
-        <v>131.2832336425781</v>
+        <v>131.2832641601562</v>
       </c>
       <c r="G445" t="n">
         <v>809325800</v>
@@ -10705,7 +10705,7 @@
         <v>163.0200042724609</v>
       </c>
       <c r="F446" t="n">
-        <v>133.4109954833984</v>
+        <v>133.4110107421875</v>
       </c>
       <c r="G446" t="n">
         <v>484451800</v>
@@ -10751,7 +10751,7 @@
         <v>169.1699981689453</v>
       </c>
       <c r="F448" t="n">
-        <v>138.4440002441406</v>
+        <v>138.4439849853516</v>
       </c>
       <c r="G448" t="n">
         <v>458478400</v>
@@ -10774,7 +10774,7 @@
         <v>169.1100006103516</v>
       </c>
       <c r="F449" t="n">
-        <v>138.3949432373047</v>
+        <v>138.3948822021484</v>
       </c>
       <c r="G449" t="n">
         <v>492075500</v>
@@ -10797,7 +10797,7 @@
         <v>170.9499969482422</v>
       </c>
       <c r="F450" t="n">
-        <v>139.900634765625</v>
+        <v>139.9006195068359</v>
       </c>
       <c r="G450" t="n">
         <v>508848400</v>
@@ -10820,7 +10820,7 @@
         <v>169.3099975585938</v>
       </c>
       <c r="F451" t="n">
-        <v>138.5585327148438</v>
+        <v>138.5585174560547</v>
       </c>
       <c r="G451" t="n">
         <v>420361400</v>
@@ -10843,7 +10843,7 @@
         <v>165.8300018310547</v>
       </c>
       <c r="F452" t="n">
-        <v>135.7106170654297</v>
+        <v>135.7105865478516</v>
       </c>
       <c r="G452" t="n">
         <v>513028500</v>
@@ -10866,7 +10866,7 @@
         <v>166.6199951171875</v>
       </c>
       <c r="F453" t="n">
-        <v>136.3570556640625</v>
+        <v>136.3571472167969</v>
       </c>
       <c r="G453" t="n">
         <v>537622800</v>
@@ -10912,7 +10912,7 @@
         <v>166.0399932861328</v>
       </c>
       <c r="F455" t="n">
-        <v>135.8825073242188</v>
+        <v>135.8824615478516</v>
       </c>
       <c r="G455" t="n">
         <v>462611500</v>
@@ -10935,7 +10935,7 @@
         <v>169.3300018310547</v>
       </c>
       <c r="F456" t="n">
-        <v>138.5748443603516</v>
+        <v>138.5748748779297</v>
       </c>
       <c r="G456" t="n">
         <v>443889200</v>
@@ -10958,7 +10958,7 @@
         <v>170.7200012207031</v>
       </c>
       <c r="F457" t="n">
-        <v>139.7125244140625</v>
+        <v>139.7124633789062</v>
       </c>
       <c r="G457" t="n">
         <v>671767100</v>
@@ -10981,7 +10981,7 @@
         <v>168.9100036621094</v>
       </c>
       <c r="F458" t="n">
-        <v>138.9049682617188</v>
+        <v>138.9050598144531</v>
       </c>
       <c r="G458" t="n">
         <v>504544800</v>
@@ -11004,7 +11004,7 @@
         <v>168.8899993896484</v>
       </c>
       <c r="F459" t="n">
-        <v>138.8885650634766</v>
+        <v>138.8885192871094</v>
       </c>
       <c r="G459" t="n">
         <v>658023000</v>
@@ -11027,7 +11027,7 @@
         <v>170.2599945068359</v>
       </c>
       <c r="F460" t="n">
-        <v>140.0151062011719</v>
+        <v>140.0151824951172</v>
       </c>
       <c r="G460" t="n">
         <v>744278000</v>
@@ -11050,7 +11050,7 @@
         <v>174.3899993896484</v>
       </c>
       <c r="F461" t="n">
-        <v>143.4115142822266</v>
+        <v>143.4114837646484</v>
       </c>
       <c r="G461" t="n">
         <v>696972000</v>
@@ -11073,7 +11073,7 @@
         <v>175.9499969482422</v>
       </c>
       <c r="F462" t="n">
-        <v>144.6944274902344</v>
+        <v>144.6944122314453</v>
       </c>
       <c r="G462" t="n">
         <v>500226000</v>
@@ -11096,7 +11096,7 @@
         <v>176.2100067138672</v>
       </c>
       <c r="F463" t="n">
-        <v>144.9082183837891</v>
+        <v>144.908203125</v>
       </c>
       <c r="G463" t="n">
         <v>588982000</v>
@@ -11119,7 +11119,7 @@
         <v>177.2899932861328</v>
       </c>
       <c r="F464" t="n">
-        <v>145.7963562011719</v>
+        <v>145.7963256835938</v>
       </c>
       <c r="G464" t="n">
         <v>552563000</v>
@@ -11165,7 +11165,7 @@
         <v>180.8099975585938</v>
       </c>
       <c r="F466" t="n">
-        <v>148.6910552978516</v>
+        <v>148.6911315917969</v>
       </c>
       <c r="G466" t="n">
         <v>497733000</v>
@@ -11188,7 +11188,7 @@
         <v>181</v>
       </c>
       <c r="F467" t="n">
-        <v>148.8473815917969</v>
+        <v>148.8473510742188</v>
       </c>
       <c r="G467" t="n">
         <v>281150900</v>
@@ -11211,7 +11211,7 @@
         <v>180.9400024414062</v>
       </c>
       <c r="F468" t="n">
-        <v>148.7979888916016</v>
+        <v>148.7980041503906</v>
       </c>
       <c r="G468" t="n">
         <v>573984000</v>
@@ -11234,7 +11234,7 @@
         <v>178.1100006103516</v>
       </c>
       <c r="F469" t="n">
-        <v>146.4706726074219</v>
+        <v>146.4707183837891</v>
       </c>
       <c r="G469" t="n">
         <v>505064000</v>
@@ -11280,7 +11280,7 @@
         <v>183.8500061035156</v>
       </c>
       <c r="F471" t="n">
-        <v>152.0118865966797</v>
+        <v>152.0119323730469</v>
       </c>
       <c r="G471" t="n">
         <v>256145800</v>
@@ -11303,7 +11303,7 @@
         <v>182.8899993896484</v>
       </c>
       <c r="F472" t="n">
-        <v>151.2181701660156</v>
+        <v>151.2180786132812</v>
       </c>
       <c r="G472" t="n">
         <v>344004400</v>
@@ -11326,7 +11326,7 @@
         <v>184.1399993896484</v>
       </c>
       <c r="F473" t="n">
-        <v>152.2516479492188</v>
+        <v>152.2516784667969</v>
       </c>
       <c r="G473" t="n">
         <v>483464500</v>
@@ -11349,7 +11349,7 @@
         <v>183.6399993896484</v>
       </c>
       <c r="F474" t="n">
-        <v>151.8382263183594</v>
+        <v>151.8382720947266</v>
       </c>
       <c r="G474" t="n">
         <v>533573200</v>
@@ -11372,7 +11372,7 @@
         <v>178.8899993896484</v>
       </c>
       <c r="F475" t="n">
-        <v>147.9107971191406</v>
+        <v>147.9108581542969</v>
       </c>
       <c r="G475" t="n">
         <v>491066100</v>
@@ -11395,7 +11395,7 @@
         <v>178.1799926757812</v>
       </c>
       <c r="F476" t="n">
-        <v>147.3237457275391</v>
+        <v>147.3237762451172</v>
       </c>
       <c r="G476" t="n">
         <v>821519600</v>
@@ -11418,7 +11418,7 @@
         <v>179.6799926757812</v>
       </c>
       <c r="F477" t="n">
-        <v>148.56396484375</v>
+        <v>148.5640563964844</v>
       </c>
       <c r="G477" t="n">
         <v>887744800</v>
@@ -11441,7 +11441,7 @@
         <v>184.0200042724609</v>
       </c>
       <c r="F478" t="n">
-        <v>152.1524353027344</v>
+        <v>152.1524505615234</v>
       </c>
       <c r="G478" t="n">
         <v>501791200</v>
@@ -11464,7 +11464,7 @@
         <v>183.8899993896484</v>
       </c>
       <c r="F479" t="n">
-        <v>152.0449371337891</v>
+        <v>152.0449523925781</v>
       </c>
       <c r="G479" t="n">
         <v>430099700</v>
@@ -11487,7 +11487,7 @@
         <v>186.2899932861328</v>
       </c>
       <c r="F480" t="n">
-        <v>154.0293273925781</v>
+        <v>154.0293579101562</v>
       </c>
       <c r="G480" t="n">
         <v>574548900</v>
@@ -11510,7 +11510,7 @@
         <v>188.2599945068359</v>
       </c>
       <c r="F481" t="n">
-        <v>155.6581268310547</v>
+        <v>155.6582183837891</v>
       </c>
       <c r="G481" t="n">
         <v>620701300</v>
@@ -11533,7 +11533,7 @@
         <v>184.6600036621094</v>
       </c>
       <c r="F482" t="n">
-        <v>152.6815948486328</v>
+        <v>152.6816253662109</v>
       </c>
       <c r="G482" t="n">
         <v>587706600</v>
@@ -11556,7 +11556,7 @@
         <v>186.1999969482422</v>
       </c>
       <c r="F483" t="n">
-        <v>153.9548950195312</v>
+        <v>153.9549255371094</v>
       </c>
       <c r="G483" t="n">
         <v>656800400</v>
@@ -11579,7 +11579,7 @@
         <v>185.4900054931641</v>
       </c>
       <c r="F484" t="n">
-        <v>154.0447540283203</v>
+        <v>154.0447845458984</v>
       </c>
       <c r="G484" t="n">
         <v>589131000</v>
@@ -11602,7 +11602,7 @@
         <v>186.3999938964844</v>
       </c>
       <c r="F485" t="n">
-        <v>154.8004760742188</v>
+        <v>154.8005065917969</v>
       </c>
       <c r="G485" t="n">
         <v>514528000</v>
@@ -11648,7 +11648,7 @@
         <v>186.3899993896484</v>
       </c>
       <c r="F487" t="n">
-        <v>154.7921752929688</v>
+        <v>154.7921600341797</v>
       </c>
       <c r="G487" t="n">
         <v>499927000</v>
@@ -11671,7 +11671,7 @@
         <v>186.2899932861328</v>
       </c>
       <c r="F488" t="n">
-        <v>154.7091369628906</v>
+        <v>154.7091217041016</v>
       </c>
       <c r="G488" t="n">
         <v>416538000</v>
@@ -11694,7 +11694,7 @@
         <v>188.0599975585938</v>
       </c>
       <c r="F489" t="n">
-        <v>156.1790924072266</v>
+        <v>156.1791229248047</v>
       </c>
       <c r="G489" t="n">
         <v>511868000</v>
@@ -11717,7 +11717,7 @@
         <v>187.9600067138672</v>
       </c>
       <c r="F490" t="n">
-        <v>156.0960235595703</v>
+        <v>156.0960388183594</v>
       </c>
       <c r="G490" t="n">
         <v>445134000</v>
@@ -11740,7 +11740,7 @@
         <v>188.0500030517578</v>
       </c>
       <c r="F491" t="n">
-        <v>156.1707458496094</v>
+        <v>156.1707611083984</v>
       </c>
       <c r="G491" t="n">
         <v>478175000</v>
@@ -11763,7 +11763,7 @@
         <v>190.3500061035156</v>
       </c>
       <c r="F492" t="n">
-        <v>158.0808868408203</v>
+        <v>158.0808410644531</v>
       </c>
       <c r="G492" t="n">
         <v>387217800</v>
@@ -11786,7 +11786,7 @@
         <v>192.6799926757812</v>
       </c>
       <c r="F493" t="n">
-        <v>160.0159301757812</v>
+        <v>160.0158996582031</v>
       </c>
       <c r="G493" t="n">
         <v>279426000</v>
@@ -11832,7 +11832,7 @@
         <v>194.1300048828125</v>
       </c>
       <c r="F495" t="n">
-        <v>161.2201232910156</v>
+        <v>161.2200622558594</v>
       </c>
       <c r="G495" t="n">
         <v>379387000</v>
@@ -11855,7 +11855,7 @@
         <v>195.9400024414062</v>
       </c>
       <c r="F496" t="n">
-        <v>162.7232513427734</v>
+        <v>162.7232666015625</v>
       </c>
       <c r="G496" t="n">
         <v>464041000</v>
@@ -11878,7 +11878,7 @@
         <v>195.8200073242188</v>
       </c>
       <c r="F497" t="n">
-        <v>163.4028625488281</v>
+        <v>163.4028167724609</v>
       </c>
       <c r="G497" t="n">
         <v>405387100</v>
@@ -11901,7 +11901,7 @@
         <v>198.1999969482422</v>
       </c>
       <c r="F498" t="n">
-        <v>165.3887939453125</v>
+        <v>165.3888397216797</v>
       </c>
       <c r="G498" t="n">
         <v>266085000</v>
@@ -11924,7 +11924,7 @@
         <v>196.6100006103516</v>
       </c>
       <c r="F499" t="n">
-        <v>164.0619964599609</v>
+        <v>164.0620422363281</v>
       </c>
       <c r="G499" t="n">
         <v>406114000</v>
@@ -11947,7 +11947,7 @@
         <v>197.7100067138672</v>
       </c>
       <c r="F500" t="n">
-        <v>164.97998046875</v>
+        <v>164.9799346923828</v>
       </c>
       <c r="G500" t="n">
         <v>519679400</v>
@@ -11970,7 +11970,7 @@
         <v>197.7200012207031</v>
       </c>
       <c r="F501" t="n">
-        <v>164.9882659912109</v>
+        <v>164.9883270263672</v>
       </c>
       <c r="G501" t="n">
         <v>334607000</v>
@@ -11993,7 +11993,7 @@
         <v>192.5</v>
       </c>
       <c r="F502" t="n">
-        <v>160.6324310302734</v>
+        <v>160.6324005126953</v>
       </c>
       <c r="G502" t="n">
         <v>626687000</v>
@@ -12016,7 +12016,7 @@
         <v>193.2400054931641</v>
       </c>
       <c r="F503" t="n">
-        <v>161.2499542236328</v>
+        <v>161.2499389648438</v>
       </c>
       <c r="G503" t="n">
         <v>591595000</v>
@@ -12062,7 +12062,7 @@
         <v>199.1900024414062</v>
       </c>
       <c r="F505" t="n">
-        <v>166.2149505615234</v>
+        <v>166.2149353027344</v>
       </c>
       <c r="G505" t="n">
         <v>351220000</v>
@@ -12085,7 +12085,7 @@
         <v>200.7100067138672</v>
       </c>
       <c r="F506" t="n">
-        <v>167.4833068847656</v>
+        <v>167.4832916259766</v>
       </c>
       <c r="G506" t="n">
         <v>283264000</v>
@@ -12131,7 +12131,7 @@
         <v>199.1300048828125</v>
       </c>
       <c r="F508" t="n">
-        <v>166.1648406982422</v>
+        <v>166.1648101806641</v>
       </c>
       <c r="G508" t="n">
         <v>404171700</v>
@@ -12154,7 +12154,7 @@
         <v>200.6999969482422</v>
       </c>
       <c r="F509" t="n">
-        <v>167.4749298095703</v>
+        <v>167.4749450683594</v>
       </c>
       <c r="G509" t="n">
         <v>560507000</v>
@@ -12177,7 +12177,7 @@
         <v>197.8999938964844</v>
       </c>
       <c r="F510" t="n">
-        <v>165.910400390625</v>
+        <v>165.9104309082031</v>
       </c>
       <c r="G510" t="n">
         <v>598069000</v>
@@ -12200,7 +12200,7 @@
         <v>196.5200042724609</v>
       </c>
       <c r="F511" t="n">
-        <v>164.7534790039062</v>
+        <v>164.7534637451172</v>
       </c>
       <c r="G511" t="n">
         <v>683066000</v>
@@ -12223,7 +12223,7 @@
         <v>190.5399932861328</v>
       </c>
       <c r="F512" t="n">
-        <v>159.7401123046875</v>
+        <v>159.7400970458984</v>
       </c>
       <c r="G512" t="n">
         <v>871766000</v>
@@ -12292,7 +12292,7 @@
         <v>201.6600036621094</v>
       </c>
       <c r="F515" t="n">
-        <v>169.0625915527344</v>
+        <v>169.0626678466797</v>
       </c>
       <c r="G515" t="n">
         <v>592480000</v>
@@ -12315,7 +12315,7 @@
         <v>203.3399963378906</v>
       </c>
       <c r="F516" t="n">
-        <v>170.4710540771484</v>
+        <v>170.4710693359375</v>
       </c>
       <c r="G516" t="n">
         <v>475281000</v>
@@ -12338,7 +12338,7 @@
         <v>204.2400054931641</v>
       </c>
       <c r="F517" t="n">
-        <v>171.2256164550781</v>
+        <v>171.2255706787109</v>
       </c>
       <c r="G517" t="n">
         <v>376714100</v>
@@ -12361,7 +12361,7 @@
         <v>206.6799926757812</v>
       </c>
       <c r="F518" t="n">
-        <v>173.2711791992188</v>
+        <v>173.2711639404297</v>
       </c>
       <c r="G518" t="n">
         <v>454049700</v>
@@ -12384,7 +12384,7 @@
         <v>207.1999969482422</v>
       </c>
       <c r="F519" t="n">
-        <v>173.7071228027344</v>
+        <v>173.7070770263672</v>
       </c>
       <c r="G519" t="n">
         <v>265047000</v>
@@ -12407,7 +12407,7 @@
         <v>208</v>
       </c>
       <c r="F520" t="n">
-        <v>174.3778076171875</v>
+        <v>174.3777923583984</v>
       </c>
       <c r="G520" t="n">
         <v>429769700</v>
@@ -12430,7 +12430,7 @@
         <v>200.8899993896484</v>
       </c>
       <c r="F521" t="n">
-        <v>168.4171142578125</v>
+        <v>168.4170837402344</v>
       </c>
       <c r="G521" t="n">
         <v>754967700</v>
@@ -12453,7 +12453,7 @@
         <v>206.5200042724609</v>
       </c>
       <c r="F522" t="n">
-        <v>173.1370697021484</v>
+        <v>173.1370239257812</v>
       </c>
       <c r="G522" t="n">
         <v>1206138200</v>
@@ -12499,7 +12499,7 @@
         <v>205.4299926757812</v>
       </c>
       <c r="F524" t="n">
-        <v>173.1737823486328</v>
+        <v>173.1737365722656</v>
       </c>
       <c r="G524" t="n">
         <v>404984400</v>
@@ -12522,7 +12522,7 @@
         <v>204.25</v>
       </c>
       <c r="F525" t="n">
-        <v>172.1790618896484</v>
+        <v>172.1790466308594</v>
       </c>
       <c r="G525" t="n">
         <v>809915800</v>
@@ -12545,7 +12545,7 @@
         <v>201.6300048828125</v>
       </c>
       <c r="F526" t="n">
-        <v>169.970458984375</v>
+        <v>169.9703979492188</v>
       </c>
       <c r="G526" t="n">
         <v>940434000</v>
@@ -12568,7 +12568,7 @@
         <v>204.9700012207031</v>
       </c>
       <c r="F527" t="n">
-        <v>172.7860260009766</v>
+        <v>172.7859954833984</v>
       </c>
       <c r="G527" t="n">
         <v>545806600</v>
@@ -12591,7 +12591,7 @@
         <v>199.4499969482422</v>
       </c>
       <c r="F528" t="n">
-        <v>168.1327209472656</v>
+        <v>168.1328125</v>
       </c>
       <c r="G528" t="n">
         <v>765883700</v>
@@ -12614,7 +12614,7 @@
         <v>205.5500030517578</v>
       </c>
       <c r="F529" t="n">
-        <v>173.2749481201172</v>
+        <v>173.27490234375</v>
       </c>
       <c r="G529" t="n">
         <v>645251800</v>
@@ -12637,7 +12637,7 @@
         <v>209.7799987792969</v>
       </c>
       <c r="F530" t="n">
-        <v>176.8407592773438</v>
+        <v>176.8407440185547</v>
       </c>
       <c r="G530" t="n">
         <v>465687300</v>
@@ -12683,7 +12683,7 @@
         <v>210.6600036621094</v>
       </c>
       <c r="F532" t="n">
-        <v>177.5825958251953</v>
+        <v>177.5825500488281</v>
       </c>
       <c r="G532" t="n">
         <v>400719000</v>
@@ -12706,7 +12706,7 @@
         <v>207.5</v>
       </c>
       <c r="F533" t="n">
-        <v>174.9187469482422</v>
+        <v>174.9187316894531</v>
       </c>
       <c r="G533" t="n">
         <v>577315400</v>
@@ -12752,7 +12752,7 @@
         <v>210.4100036621094</v>
       </c>
       <c r="F535" t="n">
-        <v>177.3718566894531</v>
+        <v>177.3717956542969</v>
       </c>
       <c r="G535" t="n">
         <v>755050500</v>
@@ -12775,7 +12775,7 @@
         <v>205.7400054931641</v>
       </c>
       <c r="F536" t="n">
-        <v>174.2093048095703</v>
+        <v>174.2092895507812</v>
       </c>
       <c r="G536" t="n">
         <v>581117700</v>
@@ -12798,7 +12798,7 @@
         <v>206.4400024414062</v>
       </c>
       <c r="F537" t="n">
-        <v>174.802001953125</v>
+        <v>174.8019866943359</v>
       </c>
       <c r="G537" t="n">
         <v>447153600</v>
@@ -12890,7 +12890,7 @@
         <v>210.7200012207031</v>
       </c>
       <c r="F541" t="n">
-        <v>178.4260559082031</v>
+        <v>178.4260101318359</v>
       </c>
       <c r="G541" t="n">
         <v>556611100</v>
@@ -12913,7 +12913,7 @@
         <v>211.6199951171875</v>
       </c>
       <c r="F542" t="n">
-        <v>179.1881408691406</v>
+        <v>179.1881256103516</v>
       </c>
       <c r="G542" t="n">
         <v>563435800</v>
@@ -12936,7 +12936,7 @@
         <v>212.4400024414062</v>
       </c>
       <c r="F543" t="n">
-        <v>179.8824920654297</v>
+        <v>179.8825378417969</v>
       </c>
       <c r="G543" t="n">
         <v>462547700</v>
@@ -12959,7 +12959,7 @@
         <v>212.9900054931641</v>
       </c>
       <c r="F544" t="n">
-        <v>180.34814453125</v>
+        <v>180.3481903076172</v>
       </c>
       <c r="G544" t="n">
         <v>345719900</v>
@@ -12982,7 +12982,7 @@
         <v>211.1399993896484</v>
       </c>
       <c r="F545" t="n">
-        <v>178.7816619873047</v>
+        <v>178.7816772460938</v>
       </c>
       <c r="G545" t="n">
         <v>417416800</v>
@@ -13005,7 +13005,7 @@
         <v>209.7700042724609</v>
       </c>
       <c r="F546" t="n">
-        <v>177.6216888427734</v>
+        <v>177.6216583251953</v>
       </c>
       <c r="G546" t="n">
         <v>546278200</v>
@@ -13028,7 +13028,7 @@
         <v>210.0099945068359</v>
       </c>
       <c r="F547" t="n">
-        <v>177.8248596191406</v>
+        <v>177.8248748779297</v>
       </c>
       <c r="G547" t="n">
         <v>537908100</v>
@@ -13051,7 +13051,7 @@
         <v>210.8099975585938</v>
       </c>
       <c r="F548" t="n">
-        <v>178.5022430419922</v>
+        <v>178.5022583007812</v>
       </c>
       <c r="G548" t="n">
         <v>632747600</v>
@@ -13074,7 +13074,7 @@
         <v>209.8200073242188</v>
       </c>
       <c r="F549" t="n">
-        <v>178.5282135009766</v>
+        <v>178.5281982421875</v>
       </c>
       <c r="G549" t="n">
         <v>432762300</v>
@@ -13097,7 +13097,7 @@
         <v>207.3099975585938</v>
       </c>
       <c r="F550" t="n">
-        <v>176.3925018310547</v>
+        <v>176.3924713134766</v>
       </c>
       <c r="G550" t="n">
         <v>625900000</v>
@@ -13120,7 +13120,7 @@
         <v>207.4799957275391</v>
       </c>
       <c r="F551" t="n">
-        <v>176.5371246337891</v>
+        <v>176.5371551513672</v>
       </c>
       <c r="G551" t="n">
         <v>729385700</v>
@@ -13166,7 +13166,7 @@
         <v>208</v>
       </c>
       <c r="F553" t="n">
-        <v>176.9795837402344</v>
+        <v>176.9796447753906</v>
       </c>
       <c r="G553" t="n">
         <v>445343800</v>
@@ -13189,7 +13189,7 @@
         <v>210.5</v>
       </c>
       <c r="F554" t="n">
-        <v>179.1067504882812</v>
+        <v>179.1068420410156</v>
       </c>
       <c r="G554" t="n">
         <v>556268500</v>
@@ -13235,7 +13235,7 @@
         <v>209.4199981689453</v>
       </c>
       <c r="F556" t="n">
-        <v>178.1878051757812</v>
+        <v>178.1878356933594</v>
       </c>
       <c r="G556" t="n">
         <v>540645600</v>
@@ -13281,7 +13281,7 @@
         <v>199.2799987792969</v>
       </c>
       <c r="F558" t="n">
-        <v>169.5601196289062</v>
+        <v>169.56005859375</v>
       </c>
       <c r="G558" t="n">
         <v>1650892700</v>
@@ -13304,7 +13304,7 @@
         <v>192.5899963378906</v>
       </c>
       <c r="F559" t="n">
-        <v>163.8677825927734</v>
+        <v>163.8678131103516</v>
       </c>
       <c r="G559" t="n">
         <v>938737300</v>
@@ -13350,7 +13350,7 @@
         <v>195.4499969482422</v>
       </c>
       <c r="F561" t="n">
-        <v>166.3012542724609</v>
+        <v>166.3012390136719</v>
       </c>
       <c r="G561" t="n">
         <v>792543900</v>
@@ -13373,7 +13373,7 @@
         <v>192.8500061035156</v>
       </c>
       <c r="F562" t="n">
-        <v>164.9421234130859</v>
+        <v>164.9420928955078</v>
       </c>
       <c r="G562" t="n">
         <v>666841300</v>
@@ -13465,7 +13465,7 @@
         <v>207.5099945068359</v>
       </c>
       <c r="F566" t="n">
-        <v>177.4806060791016</v>
+        <v>177.4806365966797</v>
       </c>
       <c r="G566" t="n">
         <v>576364400</v>
@@ -13488,7 +13488,7 @@
         <v>207.9299926757812</v>
       </c>
       <c r="F567" t="n">
-        <v>177.8398742675781</v>
+        <v>177.8398284912109</v>
       </c>
       <c r="G567" t="n">
         <v>504447900</v>
@@ -13534,7 +13534,7 @@
         <v>202.5399932861328</v>
       </c>
       <c r="F569" t="n">
-        <v>173.2297973632812</v>
+        <v>173.2298278808594</v>
       </c>
       <c r="G569" t="n">
         <v>549621600</v>
@@ -13557,7 +13557,7 @@
         <v>209.3099975585938</v>
       </c>
       <c r="F570" t="n">
-        <v>179.0200958251953</v>
+        <v>179.0201416015625</v>
       </c>
       <c r="G570" t="n">
         <v>542343400</v>
@@ -13603,7 +13603,7 @@
         <v>209.6199951171875</v>
       </c>
       <c r="F572" t="n">
-        <v>179.2852783203125</v>
+        <v>179.2852630615234</v>
       </c>
       <c r="G572" t="n">
         <v>678260500</v>
@@ -13649,7 +13649,7 @@
         <v>200.0200042724609</v>
       </c>
       <c r="F574" t="n">
-        <v>171.0745086669922</v>
+        <v>171.0744781494141</v>
       </c>
       <c r="G574" t="n">
         <v>957957800</v>
@@ -13672,7 +13672,7 @@
         <v>205.6799926757812</v>
       </c>
       <c r="F575" t="n">
-        <v>176.9623718261719</v>
+        <v>176.9623413085938</v>
       </c>
       <c r="G575" t="n">
         <v>369647300</v>
@@ -13695,7 +13695,7 @@
         <v>203.8699951171875</v>
       </c>
       <c r="F576" t="n">
-        <v>175.4050750732422</v>
+        <v>175.4050903320312</v>
       </c>
       <c r="G576" t="n">
         <v>336736200</v>
@@ -13718,7 +13718,7 @@
         <v>191.9199981689453</v>
       </c>
       <c r="F577" t="n">
-        <v>165.1236419677734</v>
+        <v>165.1235809326172</v>
       </c>
       <c r="G577" t="n">
         <v>908565200</v>
@@ -13741,7 +13741,7 @@
         <v>187.8099975585938</v>
       </c>
       <c r="F578" t="n">
-        <v>161.5874481201172</v>
+        <v>161.5874786376953</v>
       </c>
       <c r="G578" t="n">
         <v>1147082700</v>
@@ -13764,7 +13764,7 @@
         <v>190.5200042724609</v>
       </c>
       <c r="F579" t="n">
-        <v>163.9191131591797</v>
+        <v>163.9190673828125</v>
       </c>
       <c r="G579" t="n">
         <v>845884700</v>
@@ -13787,7 +13787,7 @@
         <v>193.7200012207031</v>
       </c>
       <c r="F580" t="n">
-        <v>166.6722717285156</v>
+        <v>166.6722564697266</v>
       </c>
       <c r="G580" t="n">
         <v>811418300</v>
@@ -13810,7 +13810,7 @@
         <v>187.9499969482422</v>
       </c>
       <c r="F581" t="n">
-        <v>161.7078704833984</v>
+        <v>161.7079010009766</v>
       </c>
       <c r="G581" t="n">
         <v>844001500</v>
@@ -13833,7 +13833,7 @@
         <v>186.6300048828125</v>
       </c>
       <c r="F582" t="n">
-        <v>160.5722198486328</v>
+        <v>160.5722351074219</v>
       </c>
       <c r="G582" t="n">
         <v>870945200</v>
@@ -13856,7 +13856,7 @@
         <v>192</v>
       </c>
       <c r="F583" t="n">
-        <v>165.1924285888672</v>
+        <v>165.1924133300781</v>
       </c>
       <c r="G583" t="n">
         <v>473396200</v>
@@ -13879,7 +13879,7 @@
         <v>195.0899963378906</v>
       </c>
       <c r="F584" t="n">
-        <v>167.8509826660156</v>
+        <v>167.8509979248047</v>
       </c>
       <c r="G584" t="n">
         <v>606469800</v>
@@ -13902,7 +13902,7 @@
         <v>200.4299926757812</v>
       </c>
       <c r="F585" t="n">
-        <v>172.4453735351562</v>
+        <v>172.4454193115234</v>
       </c>
       <c r="G585" t="n">
         <v>594598600</v>
@@ -13948,7 +13948,7 @@
         <v>204.3800048828125</v>
       </c>
       <c r="F587" t="n">
-        <v>175.8438873291016</v>
+        <v>175.8439025878906</v>
       </c>
       <c r="G587" t="n">
         <v>568735200</v>
@@ -13971,7 +13971,7 @@
         <v>203.1199951171875</v>
       </c>
       <c r="F588" t="n">
-        <v>175.6611938476562</v>
+        <v>175.6612091064453</v>
       </c>
       <c r="G588" t="n">
         <v>335812000</v>
@@ -13994,7 +13994,7 @@
         <v>206.9199981689453</v>
       </c>
       <c r="F589" t="n">
-        <v>178.9474639892578</v>
+        <v>178.9474487304688</v>
       </c>
       <c r="G589" t="n">
         <v>450704000</v>
@@ -14017,7 +14017,7 @@
         <v>204.5</v>
       </c>
       <c r="F590" t="n">
-        <v>176.8545684814453</v>
+        <v>176.8546295166016</v>
       </c>
       <c r="G590" t="n">
         <v>463898600</v>
@@ -14040,7 +14040,7 @@
         <v>207.7799987792969</v>
       </c>
       <c r="F591" t="n">
-        <v>179.6912078857422</v>
+        <v>179.6912231445312</v>
       </c>
       <c r="G591" t="n">
         <v>436419000</v>
@@ -14063,7 +14063,7 @@
         <v>208.9700012207031</v>
       </c>
       <c r="F592" t="n">
-        <v>180.7203216552734</v>
+        <v>180.7203521728516</v>
       </c>
       <c r="G592" t="n">
         <v>436894100</v>
@@ -14086,7 +14086,7 @@
         <v>206.3300018310547</v>
       </c>
       <c r="F593" t="n">
-        <v>178.4372711181641</v>
+        <v>178.437255859375</v>
       </c>
       <c r="G593" t="n">
         <v>459000400</v>
@@ -14109,7 +14109,7 @@
         <v>205.7200012207031</v>
       </c>
       <c r="F594" t="n">
-        <v>177.9096527099609</v>
+        <v>177.9096832275391</v>
       </c>
       <c r="G594" t="n">
         <v>417788100</v>
@@ -14132,7 +14132,7 @@
         <v>204.7599945068359</v>
       </c>
       <c r="F595" t="n">
-        <v>177.0794372558594</v>
+        <v>177.0794067382812</v>
       </c>
       <c r="G595" t="n">
         <v>419635000</v>
@@ -14178,7 +14178,7 @@
         <v>210.2400054931641</v>
       </c>
       <c r="F597" t="n">
-        <v>181.8186492919922</v>
+        <v>181.8186798095703</v>
       </c>
       <c r="G597" t="n">
         <v>348333700</v>
@@ -14201,7 +14201,7 @@
         <v>210.2799987792969</v>
       </c>
       <c r="F598" t="n">
-        <v>181.8532562255859</v>
+        <v>181.8532409667969</v>
       </c>
       <c r="G598" t="n">
         <v>344617400</v>
@@ -14224,7 +14224,7 @@
         <v>210.0700073242188</v>
       </c>
       <c r="F599" t="n">
-        <v>181.6716156005859</v>
+        <v>181.6716003417969</v>
       </c>
       <c r="G599" t="n">
         <v>379648800</v>
@@ -14270,7 +14270,7 @@
         <v>203.2400054931641</v>
       </c>
       <c r="F601" t="n">
-        <v>176.6790161132812</v>
+        <v>176.6790008544922</v>
       </c>
       <c r="G601" t="n">
         <v>686987600</v>
@@ -14293,7 +14293,7 @@
         <v>209.9199981689453</v>
       </c>
       <c r="F602" t="n">
-        <v>182.4860076904297</v>
+        <v>182.4859771728516</v>
       </c>
       <c r="G602" t="n">
         <v>798564000</v>
@@ -14316,7 +14316,7 @@
         <v>212.6499938964844</v>
       </c>
       <c r="F603" t="n">
-        <v>184.8592071533203</v>
+        <v>184.8592529296875</v>
       </c>
       <c r="G603" t="n">
         <v>425390000</v>
@@ -14385,7 +14385,7 @@
         <v>217.1199951171875</v>
       </c>
       <c r="F606" t="n">
-        <v>188.7450408935547</v>
+        <v>188.7451019287109</v>
       </c>
       <c r="G606" t="n">
         <v>354592600</v>
@@ -14408,7 +14408,7 @@
         <v>218.1799926757812</v>
       </c>
       <c r="F607" t="n">
-        <v>189.6665191650391</v>
+        <v>189.6664886474609</v>
       </c>
       <c r="G607" t="n">
         <v>338078200</v>
@@ -14431,7 +14431,7 @@
         <v>218.4600067138672</v>
       </c>
       <c r="F608" t="n">
-        <v>189.9098815917969</v>
+        <v>189.9099273681641</v>
       </c>
       <c r="G608" t="n">
         <v>282917100</v>
@@ -14454,7 +14454,7 @@
         <v>218.5399932861328</v>
       </c>
       <c r="F609" t="n">
-        <v>189.9794616699219</v>
+        <v>189.9794311523438</v>
       </c>
       <c r="G609" t="n">
         <v>306593700</v>
@@ -14500,7 +14500,7 @@
         <v>218.3699951171875</v>
       </c>
       <c r="F611" t="n">
-        <v>189.8316955566406</v>
+        <v>189.8316650390625</v>
       </c>
       <c r="G611" t="n">
         <v>391024300</v>
@@ -14523,7 +14523,7 @@
         <v>213.2799987792969</v>
       </c>
       <c r="F612" t="n">
-        <v>185.4069213867188</v>
+        <v>185.4068908691406</v>
       </c>
       <c r="G612" t="n">
         <v>428949000</v>
@@ -14546,7 +14546,7 @@
         <v>213.3699951171875</v>
       </c>
       <c r="F613" t="n">
-        <v>185.485107421875</v>
+        <v>185.4851379394531</v>
       </c>
       <c r="G613" t="n">
         <v>774789500</v>
@@ -14569,7 +14569,7 @@
         <v>215.9900054931641</v>
       </c>
       <c r="F614" t="n">
-        <v>188.7112121582031</v>
+        <v>188.711181640625</v>
       </c>
       <c r="G614" t="n">
         <v>410509800</v>
@@ -14592,7 +14592,7 @@
         <v>216.3000030517578</v>
       </c>
       <c r="F615" t="n">
-        <v>188.9820709228516</v>
+        <v>188.9820556640625</v>
       </c>
       <c r="G615" t="n">
         <v>501006600</v>
@@ -14615,7 +14615,7 @@
         <v>215.0399932861328</v>
       </c>
       <c r="F616" t="n">
-        <v>187.8811340332031</v>
+        <v>187.8811492919922</v>
       </c>
       <c r="G616" t="n">
         <v>428991900</v>
@@ -14638,7 +14638,7 @@
         <v>213.1199951171875</v>
       </c>
       <c r="F617" t="n">
-        <v>186.2036590576172</v>
+        <v>186.2036743164062</v>
       </c>
       <c r="G617" t="n">
         <v>450791700</v>
@@ -14661,7 +14661,7 @@
         <v>213.9799957275391</v>
       </c>
       <c r="F618" t="n">
-        <v>186.9550323486328</v>
+        <v>186.9550476074219</v>
       </c>
       <c r="G618" t="n">
         <v>364393500</v>
@@ -14684,7 +14684,7 @@
         <v>212.5399932861328</v>
       </c>
       <c r="F619" t="n">
-        <v>185.6968994140625</v>
+        <v>185.6969299316406</v>
       </c>
       <c r="G619" t="n">
         <v>420237800</v>
@@ -14707,7 +14707,7 @@
         <v>208.5500030517578</v>
       </c>
       <c r="F620" t="n">
-        <v>182.2108459472656</v>
+        <v>182.2108154296875</v>
       </c>
       <c r="G620" t="n">
         <v>485446500</v>
@@ -14730,7 +14730,7 @@
         <v>216.4199981689453</v>
       </c>
       <c r="F621" t="n">
-        <v>189.0868682861328</v>
+        <v>189.0868988037109</v>
       </c>
       <c r="G621" t="n">
         <v>747662000</v>
@@ -14753,7 +14753,7 @@
         <v>218.5</v>
       </c>
       <c r="F622" t="n">
-        <v>190.9042053222656</v>
+        <v>190.9041595458984</v>
       </c>
       <c r="G622" t="n">
         <v>407913300</v>
@@ -14776,7 +14776,7 @@
         <v>221.5200042724609</v>
       </c>
       <c r="F623" t="n">
-        <v>193.5427398681641</v>
+        <v>193.5427551269531</v>
       </c>
       <c r="G623" t="n">
         <v>234324100</v>
@@ -14822,7 +14822,7 @@
         <v>226.5099945068359</v>
       </c>
       <c r="F625" t="n">
-        <v>197.9025421142578</v>
+        <v>197.9025115966797</v>
       </c>
       <c r="G625" t="n">
         <v>426173500</v>
@@ -14845,7 +14845,7 @@
         <v>225.0399932861328</v>
       </c>
       <c r="F626" t="n">
-        <v>196.6181945800781</v>
+        <v>196.6181793212891</v>
       </c>
       <c r="G626" t="n">
         <v>636388200</v>
@@ -14868,7 +14868,7 @@
         <v>225.7100067138672</v>
       </c>
       <c r="F627" t="n">
-        <v>198.365966796875</v>
+        <v>198.3659362792969</v>
       </c>
       <c r="G627" t="n">
         <v>341005800</v>
@@ -14891,7 +14891,7 @@
         <v>223.5299987792969</v>
       </c>
       <c r="F628" t="n">
-        <v>196.4500427246094</v>
+        <v>196.4499816894531</v>
       </c>
       <c r="G628" t="n">
         <v>264461900</v>
@@ -14914,7 +14914,7 @@
         <v>227.2100067138672</v>
       </c>
       <c r="F629" t="n">
-        <v>199.6842041015625</v>
+        <v>199.6842346191406</v>
       </c>
       <c r="G629" t="n">
         <v>320049800</v>
@@ -14937,7 +14937,7 @@
         <v>227.0500030517578</v>
       </c>
       <c r="F630" t="n">
-        <v>199.5435485839844</v>
+        <v>199.5436248779297</v>
       </c>
       <c r="G630" t="n">
         <v>320192700</v>
@@ -14960,7 +14960,7 @@
         <v>226.7400054931641</v>
       </c>
       <c r="F631" t="n">
-        <v>199.2711486816406</v>
+        <v>199.2711334228516</v>
       </c>
       <c r="G631" t="n">
         <v>311811500</v>
@@ -15029,7 +15029,7 @@
         <v>231.5099945068359</v>
       </c>
       <c r="F634" t="n">
-        <v>203.4632415771484</v>
+        <v>203.4632873535156</v>
       </c>
       <c r="G634" t="n">
         <v>299258600</v>
@@ -15052,7 +15052,7 @@
         <v>235.0899963378906</v>
       </c>
       <c r="F635" t="n">
-        <v>206.6095733642578</v>
+        <v>206.6095428466797</v>
       </c>
       <c r="G635" t="n">
         <v>375003400</v>
@@ -15075,7 +15075,7 @@
         <v>236.7400054931641</v>
       </c>
       <c r="F636" t="n">
-        <v>208.0596618652344</v>
+        <v>208.0596771240234</v>
       </c>
       <c r="G636" t="n">
         <v>308058800</v>
@@ -15098,7 +15098,7 @@
         <v>238.4199981689453</v>
       </c>
       <c r="F637" t="n">
-        <v>209.5361938476562</v>
+        <v>209.5361785888672</v>
       </c>
       <c r="G637" t="n">
         <v>454855800</v>
@@ -15121,7 +15121,7 @@
         <v>237.6900024414062</v>
       </c>
       <c r="F638" t="n">
-        <v>208.8945617675781</v>
+        <v>208.8945922851562</v>
       </c>
       <c r="G638" t="n">
         <v>371339600</v>
@@ -15144,7 +15144,7 @@
         <v>237.0299987792969</v>
       </c>
       <c r="F639" t="n">
-        <v>208.3144989013672</v>
+        <v>208.3145751953125</v>
       </c>
       <c r="G639" t="n">
         <v>380565500</v>
@@ -15167,7 +15167,7 @@
         <v>233.8600006103516</v>
       </c>
       <c r="F640" t="n">
-        <v>206.4226989746094</v>
+        <v>206.4227142333984</v>
       </c>
       <c r="G640" t="n">
         <v>494830700</v>
@@ -15190,7 +15190,7 @@
         <v>235.7400054931641</v>
       </c>
       <c r="F641" t="n">
-        <v>208.0821380615234</v>
+        <v>208.0821533203125</v>
       </c>
       <c r="G641" t="n">
         <v>373359800</v>
@@ -15213,7 +15213,7 @@
         <v>235.1999969482422</v>
       </c>
       <c r="F642" t="n">
-        <v>207.6055145263672</v>
+        <v>207.6054992675781</v>
       </c>
       <c r="G642" t="n">
         <v>394361400</v>
@@ -15236,7 +15236,7 @@
         <v>232.5099945068359</v>
       </c>
       <c r="F643" t="n">
-        <v>205.2310943603516</v>
+        <v>205.2310485839844</v>
       </c>
       <c r="G643" t="n">
         <v>330405400</v>
@@ -15259,7 +15259,7 @@
         <v>234.5899963378906</v>
       </c>
       <c r="F644" t="n">
-        <v>207.0670776367188</v>
+        <v>207.0670623779297</v>
       </c>
       <c r="G644" t="n">
         <v>423293100</v>
@@ -15282,7 +15282,7 @@
         <v>238.0800018310547</v>
       </c>
       <c r="F645" t="n">
-        <v>210.1476135253906</v>
+        <v>210.1475830078125</v>
       </c>
       <c r="G645" t="n">
         <v>401553800</v>
@@ -15305,7 +15305,7 @@
         <v>239.6999969482422</v>
       </c>
       <c r="F646" t="n">
-        <v>211.5775604248047</v>
+        <v>211.5774841308594</v>
       </c>
       <c r="G646" t="n">
         <v>320859900</v>
@@ -15328,7 +15328,7 @@
         <v>238.9799957275391</v>
       </c>
       <c r="F647" t="n">
-        <v>210.9419860839844</v>
+        <v>210.9420471191406</v>
       </c>
       <c r="G647" t="n">
         <v>270313700</v>
@@ -15374,7 +15374,7 @@
         <v>241.7100067138672</v>
       </c>
       <c r="F649" t="n">
-        <v>213.3517303466797</v>
+        <v>213.3517150878906</v>
       </c>
       <c r="G649" t="n">
         <v>266981600</v>
@@ -15397,7 +15397,7 @@
         <v>244.1699981689453</v>
       </c>
       <c r="F650" t="n">
-        <v>215.5230865478516</v>
+        <v>215.5231323242188</v>
       </c>
       <c r="G650" t="n">
         <v>284626000</v>
@@ -15420,7 +15420,7 @@
         <v>243.4100036621094</v>
       </c>
       <c r="F651" t="n">
-        <v>214.8522338867188</v>
+        <v>214.852294921875</v>
       </c>
       <c r="G651" t="n">
         <v>347425600</v>
@@ -15466,7 +15466,7 @@
         <v>243.1300048828125</v>
       </c>
       <c r="F653" t="n">
-        <v>215.6516265869141</v>
+        <v>215.6516418457031</v>
       </c>
       <c r="G653" t="n">
         <v>289142700</v>
@@ -15489,7 +15489,7 @@
         <v>241.8000030517578</v>
       </c>
       <c r="F654" t="n">
-        <v>214.4719848632812</v>
+        <v>214.4720001220703</v>
       </c>
       <c r="G654" t="n">
         <v>402761200</v>
@@ -15535,7 +15535,7 @@
         <v>245.5599975585938</v>
       </c>
       <c r="F656" t="n">
-        <v>217.8069915771484</v>
+        <v>217.8070678710938</v>
       </c>
       <c r="G656" t="n">
         <v>246362600</v>
@@ -15558,7 +15558,7 @@
         <v>246.8800048828125</v>
       </c>
       <c r="F657" t="n">
-        <v>218.9778747558594</v>
+        <v>218.9778442382812</v>
       </c>
       <c r="G657" t="n">
         <v>256784700</v>
@@ -15581,7 +15581,7 @@
         <v>246.9100036621094</v>
       </c>
       <c r="F658" t="n">
-        <v>219.0044403076172</v>
+        <v>219.0044708251953</v>
       </c>
       <c r="G658" t="n">
         <v>269968300</v>
@@ -15604,7 +15604,7 @@
         <v>247.4100036621094</v>
       </c>
       <c r="F659" t="n">
-        <v>219.4479522705078</v>
+        <v>219.4479370117188</v>
       </c>
       <c r="G659" t="n">
         <v>269148100</v>
@@ -15627,7 +15627,7 @@
         <v>244.1199951171875</v>
       </c>
       <c r="F660" t="n">
-        <v>216.52978515625</v>
+        <v>216.5297241210938</v>
       </c>
       <c r="G660" t="n">
         <v>351696400</v>
@@ -15650,7 +15650,7 @@
         <v>242.7100067138672</v>
       </c>
       <c r="F661" t="n">
-        <v>215.2791748046875</v>
+        <v>215.2791595458984</v>
       </c>
       <c r="G661" t="n">
         <v>450488500</v>
@@ -15673,7 +15673,7 @@
         <v>244.5599975585938</v>
       </c>
       <c r="F662" t="n">
-        <v>216.9200439453125</v>
+        <v>216.9200286865234</v>
       </c>
       <c r="G662" t="n">
         <v>294001200</v>
@@ -15696,7 +15696,7 @@
         <v>247.8399963378906</v>
       </c>
       <c r="F663" t="n">
-        <v>219.8292999267578</v>
+        <v>219.8294067382812</v>
       </c>
       <c r="G663" t="n">
         <v>319543000</v>
@@ -15719,7 +15719,7 @@
         <v>246.5800018310547</v>
       </c>
       <c r="F664" t="n">
-        <v>218.7117004394531</v>
+        <v>218.7117462158203</v>
       </c>
       <c r="G664" t="n">
         <v>271183200</v>
@@ -15742,7 +15742,7 @@
         <v>249.1900024414062</v>
       </c>
       <c r="F665" t="n">
-        <v>221.0267791748047</v>
+        <v>221.0267639160156</v>
       </c>
       <c r="G665" t="n">
         <v>378367500</v>
@@ -15765,7 +15765,7 @@
         <v>249.4400024414062</v>
       </c>
       <c r="F666" t="n">
-        <v>222.3465270996094</v>
+        <v>222.3465423583984</v>
       </c>
       <c r="G666" t="n">
         <v>252342800</v>
@@ -15788,7 +15788,7 @@
         <v>251.2299957275391</v>
       </c>
       <c r="F667" t="n">
-        <v>223.9421081542969</v>
+        <v>223.9420928955078</v>
       </c>
       <c r="G667" t="n">
         <v>322504600</v>
@@ -15811,7 +15811,7 @@
         <v>254.3699951171875</v>
       </c>
       <c r="F668" t="n">
-        <v>226.7410430908203</v>
+        <v>226.7410278320312</v>
       </c>
       <c r="G668" t="n">
         <v>325955600</v>
@@ -15834,7 +15834,7 @@
         <v>254.9499969482422</v>
       </c>
       <c r="F669" t="n">
-        <v>227.2580413818359</v>
+        <v>227.2580261230469</v>
       </c>
       <c r="G669" t="n">
         <v>228400300</v>
@@ -15903,7 +15903,7 @@
         <v>258.4500122070312</v>
       </c>
       <c r="F672" t="n">
-        <v>230.3778839111328</v>
+        <v>230.3778991699219</v>
       </c>
       <c r="G672" t="n">
         <v>284832400</v>
@@ -15926,7 +15926,7 @@
         <v>258.0899963378906</v>
       </c>
       <c r="F673" t="n">
-        <v>230.0570068359375</v>
+        <v>230.0569763183594</v>
       </c>
       <c r="G673" t="n">
         <v>312694600</v>
@@ -15949,7 +15949,7 @@
         <v>257.8599853515625</v>
       </c>
       <c r="F674" t="n">
-        <v>229.8519439697266</v>
+        <v>229.8519897460938</v>
       </c>
       <c r="G674" t="n">
         <v>335889100</v>
@@ -15972,7 +15972,7 @@
         <v>260.3599853515625</v>
       </c>
       <c r="F675" t="n">
-        <v>232.0803680419922</v>
+        <v>232.0803833007812</v>
       </c>
       <c r="G675" t="n">
         <v>190142200</v>
@@ -16018,7 +16018,7 @@
         <v>265.510009765625</v>
       </c>
       <c r="F677" t="n">
-        <v>236.6710815429688</v>
+        <v>236.6710662841797</v>
       </c>
       <c r="G677" t="n">
         <v>401716200</v>
@@ -16041,7 +16041,7 @@
         <v>266.510009765625</v>
       </c>
       <c r="F678" t="n">
-        <v>237.5624389648438</v>
+        <v>237.5623931884766</v>
       </c>
       <c r="G678" t="n">
         <v>516455700</v>
@@ -16087,7 +16087,7 @@
         <v>266.8599853515625</v>
       </c>
       <c r="F680" t="n">
-        <v>239.0902709960938</v>
+        <v>239.0903015136719</v>
       </c>
       <c r="G680" t="n">
         <v>244118900</v>
@@ -16110,7 +16110,7 @@
         <v>273.4200134277344</v>
       </c>
       <c r="F681" t="n">
-        <v>244.9676818847656</v>
+        <v>244.9677124023438</v>
       </c>
       <c r="G681" t="n">
         <v>340886500</v>
@@ -16133,7 +16133,7 @@
         <v>277.9200134277344</v>
       </c>
       <c r="F682" t="n">
-        <v>248.9994506835938</v>
+        <v>248.9994049072266</v>
       </c>
       <c r="G682" t="n">
         <v>337325100</v>
@@ -16156,7 +16156,7 @@
         <v>280.4100036621094</v>
       </c>
       <c r="F683" t="n">
-        <v>251.2302551269531</v>
+        <v>251.2303314208984</v>
       </c>
       <c r="G683" t="n">
         <v>461462000</v>
@@ -16179,7 +16179,7 @@
         <v>286.5799865722656</v>
       </c>
       <c r="F684" t="n">
-        <v>256.7581481933594</v>
+        <v>256.7582397460938</v>
       </c>
       <c r="G684" t="n">
         <v>515553600</v>
@@ -16202,7 +16202,7 @@
         <v>275.4500122070312</v>
       </c>
       <c r="F685" t="n">
-        <v>246.7863922119141</v>
+        <v>246.7864227294922</v>
       </c>
       <c r="G685" t="n">
         <v>593556800</v>
@@ -16225,7 +16225,7 @@
         <v>261.5</v>
       </c>
       <c r="F686" t="n">
-        <v>234.2880096435547</v>
+        <v>234.2881164550781</v>
       </c>
       <c r="G686" t="n">
         <v>1347099500</v>
@@ -16248,7 +16248,7 @@
         <v>273.1099853515625</v>
       </c>
       <c r="F687" t="n">
-        <v>244.6899261474609</v>
+        <v>244.6898651123047</v>
       </c>
       <c r="G687" t="n">
         <v>617315700</v>
@@ -16271,7 +16271,7 @@
         <v>274.7099914550781</v>
       </c>
       <c r="F688" t="n">
-        <v>246.1234283447266</v>
+        <v>246.1233978271484</v>
       </c>
       <c r="G688" t="n">
         <v>388531100</v>
@@ -16294,7 +16294,7 @@
         <v>269.0799865722656</v>
       </c>
       <c r="F689" t="n">
-        <v>241.0792694091797</v>
+        <v>241.0793304443359</v>
       </c>
       <c r="G689" t="n">
         <v>623436700</v>
@@ -16317,7 +16317,7 @@
         <v>278.8699951171875</v>
       </c>
       <c r="F690" t="n">
-        <v>249.8505554199219</v>
+        <v>249.8505096435547</v>
       </c>
       <c r="G690" t="n">
         <v>444110600</v>
@@ -16363,7 +16363,7 @@
         <v>258.0499877929688</v>
       </c>
       <c r="F692" t="n">
-        <v>232.1230316162109</v>
+        <v>232.1229705810547</v>
       </c>
       <c r="G692" t="n">
         <v>579996000</v>
@@ -16386,7 +16386,7 @@
         <v>263.1499938964844</v>
       </c>
       <c r="F693" t="n">
-        <v>236.7106323242188</v>
+        <v>236.7105865478516</v>
       </c>
       <c r="G693" t="n">
         <v>529951400</v>
@@ -16432,7 +16432,7 @@
         <v>265.1499938964844</v>
       </c>
       <c r="F695" t="n">
-        <v>238.5096588134766</v>
+        <v>238.5096435546875</v>
       </c>
       <c r="G695" t="n">
         <v>454081800</v>
@@ -16478,7 +16478,7 @@
         <v>266.5599975585938</v>
       </c>
       <c r="F697" t="n">
-        <v>239.7779846191406</v>
+        <v>239.7780151367188</v>
       </c>
       <c r="G697" t="n">
         <v>407069900</v>
@@ -16501,7 +16501,7 @@
         <v>266.0199890136719</v>
       </c>
       <c r="F698" t="n">
-        <v>239.2922668457031</v>
+        <v>239.2922210693359</v>
       </c>
       <c r="G698" t="n">
         <v>470288200</v>
@@ -16524,7 +16524,7 @@
         <v>272.8500061035156</v>
       </c>
       <c r="F699" t="n">
-        <v>245.43603515625</v>
+        <v>245.4360809326172</v>
       </c>
       <c r="G699" t="n">
         <v>314405600</v>
@@ -16547,7 +16547,7 @@
         <v>271.3299865722656</v>
       </c>
       <c r="F700" t="n">
-        <v>244.0687408447266</v>
+        <v>244.0687561035156</v>
       </c>
       <c r="G700" t="n">
         <v>316673700</v>
@@ -16570,7 +16570,7 @@
         <v>272.1499938964844</v>
       </c>
       <c r="F701" t="n">
-        <v>244.8063354492188</v>
+        <v>244.8063507080078</v>
       </c>
       <c r="G701" t="n">
         <v>308105100</v>
@@ -16593,7 +16593,7 @@
         <v>273.6000061035156</v>
       </c>
       <c r="F702" t="n">
-        <v>246.1106872558594</v>
+        <v>246.1106414794922</v>
       </c>
       <c r="G702" t="n">
         <v>350365300</v>
@@ -16616,7 +16616,7 @@
         <v>278.1900024414062</v>
       </c>
       <c r="F703" t="n">
-        <v>250.2394866943359</v>
+        <v>250.239501953125</v>
       </c>
       <c r="G703" t="n">
         <v>304361500</v>
@@ -16708,7 +16708,7 @@
         <v>275.4200134277344</v>
       </c>
       <c r="F707" t="n">
-        <v>248.8602600097656</v>
+        <v>248.8603210449219</v>
       </c>
       <c r="G707" t="n">
         <v>229161500</v>
@@ -16754,7 +16754,7 @@
         <v>279.6799926757812</v>
       </c>
       <c r="F709" t="n">
-        <v>252.7094421386719</v>
+        <v>252.7095031738281</v>
       </c>
       <c r="G709" t="n">
         <v>288859800</v>
@@ -16777,7 +16777,7 @@
         <v>281.4200134277344</v>
       </c>
       <c r="F710" t="n">
-        <v>254.2817077636719</v>
+        <v>254.2816619873047</v>
       </c>
       <c r="G710" t="n">
         <v>328645600</v>
@@ -16800,7 +16800,7 @@
         <v>283.6000061035156</v>
       </c>
       <c r="F711" t="n">
-        <v>256.2515563964844</v>
+        <v>256.2514953613281</v>
       </c>
       <c r="G711" t="n">
         <v>303528100</v>
@@ -16823,7 +16823,7 @@
         <v>283.1600036621094</v>
       </c>
       <c r="F712" t="n">
-        <v>255.8539428710938</v>
+        <v>255.8538970947266</v>
       </c>
       <c r="G712" t="n">
         <v>237505100</v>
@@ -16846,7 +16846,7 @@
         <v>285.0599975585938</v>
       </c>
       <c r="F713" t="n">
-        <v>257.5706787109375</v>
+        <v>257.5707397460938</v>
       </c>
       <c r="G713" t="n">
         <v>348086700</v>
@@ -16869,7 +16869,7 @@
         <v>287.510009765625</v>
       </c>
       <c r="F714" t="n">
-        <v>259.7844543457031</v>
+        <v>259.7844848632812</v>
       </c>
       <c r="G714" t="n">
         <v>258765100</v>
@@ -16892,7 +16892,7 @@
         <v>290.3099975585938</v>
       </c>
       <c r="F715" t="n">
-        <v>262.3143920898438</v>
+        <v>262.3144226074219</v>
       </c>
       <c r="G715" t="n">
         <v>292871700</v>
@@ -16915,7 +16915,7 @@
         <v>287.6000061035156</v>
       </c>
       <c r="F716" t="n">
-        <v>259.8657531738281</v>
+        <v>259.8658142089844</v>
       </c>
       <c r="G716" t="n">
         <v>269481500</v>
@@ -16938,7 +16938,7 @@
         <v>290.8800048828125</v>
       </c>
       <c r="F717" t="n">
-        <v>262.8293762207031</v>
+        <v>262.8294067382812</v>
       </c>
       <c r="G717" t="n">
         <v>266666300</v>
@@ -16984,7 +16984,7 @@
         <v>290.7200012207031</v>
       </c>
       <c r="F719" t="n">
-        <v>263.8740844726562</v>
+        <v>263.8739318847656</v>
       </c>
       <c r="G719" t="n">
         <v>306860200</v>
@@ -17053,7 +17053,7 @@
         <v>276.25</v>
       </c>
       <c r="F722" t="n">
-        <v>250.7401428222656</v>
+        <v>250.7401885986328</v>
       </c>
       <c r="G722" t="n">
         <v>605604600</v>
@@ -17099,7 +17099,7 @@
         <v>271.8900146484375</v>
       </c>
       <c r="F724" t="n">
-        <v>246.7828674316406</v>
+        <v>246.7828369140625</v>
       </c>
       <c r="G724" t="n">
         <v>668290500</v>
@@ -17122,7 +17122,7 @@
         <v>277.760009765625</v>
       </c>
       <c r="F725" t="n">
-        <v>252.1107330322266</v>
+        <v>252.1107482910156</v>
       </c>
       <c r="G725" t="n">
         <v>392858000</v>
@@ -17145,7 +17145,7 @@
         <v>273.7300109863281</v>
       </c>
       <c r="F726" t="n">
-        <v>248.4529571533203</v>
+        <v>248.452880859375</v>
       </c>
       <c r="G726" t="n">
         <v>584955500</v>
@@ -17168,7 +17168,7 @@
         <v>263.25</v>
       </c>
       <c r="F727" t="n">
-        <v>238.9406433105469</v>
+        <v>238.9406890869141</v>
       </c>
       <c r="G727" t="n">
         <v>357454600</v>
@@ -17191,7 +17191,7 @@
         <v>275.6499938964844</v>
       </c>
       <c r="F728" t="n">
-        <v>250.1955261230469</v>
+        <v>250.1955718994141</v>
       </c>
       <c r="G728" t="n">
         <v>463664000</v>
@@ -17214,7 +17214,7 @@
         <v>263.5700073242188</v>
       </c>
       <c r="F729" t="n">
-        <v>239.2311553955078</v>
+        <v>239.2311096191406</v>
       </c>
       <c r="G729" t="n">
         <v>646366600</v>
@@ -17237,7 +17237,7 @@
         <v>260.4700012207031</v>
       </c>
       <c r="F730" t="n">
-        <v>236.4174194335938</v>
+        <v>236.4173889160156</v>
       </c>
       <c r="G730" t="n">
         <v>584550800</v>
@@ -17283,7 +17283,7 @@
         <v>247.75</v>
       </c>
       <c r="F732" t="n">
-        <v>226.1851501464844</v>
+        <v>226.1851654052734</v>
       </c>
       <c r="G732" t="n">
         <v>705164500</v>
@@ -17306,7 +17306,7 @@
         <v>252.3899993896484</v>
       </c>
       <c r="F733" t="n">
-        <v>230.4213104248047</v>
+        <v>230.4212493896484</v>
       </c>
       <c r="G733" t="n">
         <v>557994100</v>
@@ -17329,7 +17329,7 @@
         <v>258.9800109863281</v>
       </c>
       <c r="F734" t="n">
-        <v>236.4376678466797</v>
+        <v>236.4376831054688</v>
       </c>
       <c r="G734" t="n">
         <v>471340300</v>
@@ -17352,7 +17352,7 @@
         <v>266.4599914550781</v>
       </c>
       <c r="F735" t="n">
-        <v>243.2666625976562</v>
+        <v>243.2665710449219</v>
       </c>
       <c r="G735" t="n">
         <v>457771900</v>
@@ -17375,7 +17375,7 @@
         <v>265.7799987792969</v>
       </c>
       <c r="F736" t="n">
-        <v>242.645751953125</v>
+        <v>242.6458129882812</v>
       </c>
       <c r="G736" t="n">
         <v>357649000</v>
@@ -17398,7 +17398,7 @@
         <v>270.0599975585938</v>
       </c>
       <c r="F737" t="n">
-        <v>246.5532073974609</v>
+        <v>246.55322265625</v>
       </c>
       <c r="G737" t="n">
         <v>434018300</v>
@@ -17421,7 +17421,7 @@
         <v>270.4700012207031</v>
       </c>
       <c r="F738" t="n">
-        <v>246.9275665283203</v>
+        <v>246.9275817871094</v>
       </c>
       <c r="G738" t="n">
         <v>369916300</v>
@@ -17444,7 +17444,7 @@
         <v>277.3699951171875</v>
       </c>
       <c r="F739" t="n">
-        <v>253.2269287109375</v>
+        <v>253.2269592285156</v>
       </c>
       <c r="G739" t="n">
         <v>385891900</v>
@@ -17467,7 +17467,7 @@
         <v>279.1400146484375</v>
       </c>
       <c r="F740" t="n">
-        <v>254.8428344726562</v>
+        <v>254.8428039550781</v>
       </c>
       <c r="G740" t="n">
         <v>278060900</v>
@@ -17513,7 +17513,7 @@
         <v>274.4599914550781</v>
       </c>
       <c r="F742" t="n">
-        <v>250.5702819824219</v>
+        <v>250.5702209472656</v>
       </c>
       <c r="G742" t="n">
         <v>421329900</v>
@@ -17536,7 +17536,7 @@
         <v>281.3099975585938</v>
       </c>
       <c r="F743" t="n">
-        <v>256.823974609375</v>
+        <v>256.8240356445312</v>
       </c>
       <c r="G743" t="n">
         <v>374233000</v>
@@ -17559,7 +17559,7 @@
         <v>279.25</v>
       </c>
       <c r="F744" t="n">
-        <v>256.0662841796875</v>
+        <v>256.0662536621094</v>
       </c>
       <c r="G744" t="n">
         <v>439286800</v>
@@ -17582,7 +17582,7 @@
         <v>282.4800109863281</v>
       </c>
       <c r="F745" t="n">
-        <v>259.028076171875</v>
+        <v>259.0280456542969</v>
       </c>
       <c r="G745" t="n">
         <v>364351100</v>
@@ -17605,7 +17605,7 @@
         <v>288.5700073242188</v>
       </c>
       <c r="F746" t="n">
-        <v>264.6125793457031</v>
+        <v>264.6124267578125</v>
       </c>
       <c r="G746" t="n">
         <v>293550700</v>
@@ -17628,7 +17628,7 @@
         <v>290.1600036621094</v>
       </c>
       <c r="F747" t="n">
-        <v>266.0704650878906</v>
+        <v>266.0704345703125</v>
       </c>
       <c r="G747" t="n">
         <v>297131000</v>
@@ -17674,7 +17674,7 @@
         <v>293.4100036621094</v>
       </c>
       <c r="F749" t="n">
-        <v>269.0506286621094</v>
+        <v>269.0506896972656</v>
       </c>
       <c r="G749" t="n">
         <v>251486900</v>
@@ -17697,7 +17697,7 @@
         <v>294.0299987792969</v>
       </c>
       <c r="F750" t="n">
-        <v>269.6192626953125</v>
+        <v>269.619140625</v>
       </c>
       <c r="G750" t="n">
         <v>331555200</v>
@@ -17743,7 +17743,7 @@
         <v>285.8399963378906</v>
       </c>
       <c r="F752" t="n">
-        <v>262.1091613769531</v>
+        <v>262.109130859375</v>
       </c>
       <c r="G752" t="n">
         <v>455352700</v>
@@ -17766,7 +17766,7 @@
         <v>282.7799987792969</v>
       </c>
       <c r="F753" t="n">
-        <v>259.3031921386719</v>
+        <v>259.3031311035156</v>
       </c>
       <c r="G753" t="n">
         <v>313209100</v>
@@ -17789,7 +17789,7 @@
         <v>275.2699890136719</v>
       </c>
       <c r="F754" t="n">
-        <v>252.4167022705078</v>
+        <v>252.4166870117188</v>
       </c>
       <c r="G754" t="n">
         <v>324388900</v>
@@ -17835,7 +17835,7 @@
         <v>289.260009765625</v>
       </c>
       <c r="F756" t="n">
-        <v>265.2452697753906</v>
+        <v>265.2452087402344</v>
       </c>
       <c r="G756" t="n">
         <v>267806600</v>
@@ -17881,7 +17881,7 @@
         <v>293</v>
       </c>
       <c r="F758" t="n">
-        <v>269.9814453125</v>
+        <v>269.9814758300781</v>
       </c>
       <c r="G758" t="n">
         <v>280902400</v>
@@ -17927,7 +17927,7 @@
         <v>300.6499938964844</v>
       </c>
       <c r="F760" t="n">
-        <v>277.0304870605469</v>
+        <v>277.0304565429688</v>
       </c>
       <c r="G760" t="n">
         <v>236543700</v>
@@ -17950,7 +17950,7 @@
         <v>297.1700134277344</v>
       </c>
       <c r="F761" t="n">
-        <v>273.8238525390625</v>
+        <v>273.8238830566406</v>
       </c>
       <c r="G761" t="n">
         <v>216657600</v>
@@ -17996,7 +17996,7 @@
         <v>292.6199951171875</v>
       </c>
       <c r="F763" t="n">
-        <v>269.6312866210938</v>
+        <v>269.6312561035156</v>
       </c>
       <c r="G763" t="n">
         <v>447617000</v>
@@ -18065,7 +18065,7 @@
         <v>284.8500061035156</v>
       </c>
       <c r="F766" t="n">
-        <v>262.4716796875</v>
+        <v>262.4717712402344</v>
       </c>
       <c r="G766" t="n">
         <v>355520800</v>
@@ -18088,7 +18088,7 @@
         <v>292.4500122070312</v>
       </c>
       <c r="F767" t="n">
-        <v>269.4746704101562</v>
+        <v>269.4747009277344</v>
       </c>
       <c r="G767" t="n">
         <v>319590000</v>
@@ -18111,7 +18111,7 @@
         <v>298.0499877929688</v>
       </c>
       <c r="F768" t="n">
-        <v>274.634765625</v>
+        <v>274.6347045898438</v>
       </c>
       <c r="G768" t="n">
         <v>248831100</v>
@@ -18157,7 +18157,7 @@
         <v>298.2799987792969</v>
       </c>
       <c r="F770" t="n">
-        <v>274.8467102050781</v>
+        <v>274.8465881347656</v>
       </c>
       <c r="G770" t="n">
         <v>339168000</v>
@@ -18180,7 +18180,7 @@
         <v>295.3999938964844</v>
       </c>
       <c r="F771" t="n">
-        <v>273.4498596191406</v>
+        <v>273.4499206542969</v>
       </c>
       <c r="G771" t="n">
         <v>351126500</v>
@@ -18203,7 +18203,7 @@
         <v>294.3500061035156</v>
       </c>
       <c r="F772" t="n">
-        <v>272.4778747558594</v>
+        <v>272.4779052734375</v>
       </c>
       <c r="G772" t="n">
         <v>412814300</v>
@@ -18226,7 +18226,7 @@
         <v>296.2799987792969</v>
       </c>
       <c r="F773" t="n">
-        <v>274.2645263671875</v>
+        <v>274.2645568847656</v>
       </c>
       <c r="G773" t="n">
         <v>371694700</v>
@@ -18295,7 +18295,7 @@
         <v>306.1400146484375</v>
       </c>
       <c r="F776" t="n">
-        <v>283.3918151855469</v>
+        <v>283.3918762207031</v>
       </c>
       <c r="G776" t="n">
         <v>276271100</v>
@@ -18341,7 +18341,7 @@
         <v>311.7900085449219</v>
       </c>
       <c r="F778" t="n">
-        <v>288.6219787597656</v>
+        <v>288.6220092773438</v>
       </c>
       <c r="G778" t="n">
         <v>249443100</v>
@@ -18410,7 +18410,7 @@
         <v>314.8699951171875</v>
       </c>
       <c r="F781" t="n">
-        <v>291.4731750488281</v>
+        <v>291.4732055664062</v>
       </c>
       <c r="G781" t="n">
         <v>288425500</v>
@@ -18433,7 +18433,7 @@
         <v>317.3200073242188</v>
       </c>
       <c r="F782" t="n">
-        <v>293.7410583496094</v>
+        <v>293.7411499023438</v>
       </c>
       <c r="G782" t="n">
         <v>318810900</v>
@@ -18456,7 +18456,7 @@
         <v>320.7300109863281</v>
       </c>
       <c r="F783" t="n">
-        <v>296.8976745605469</v>
+        <v>296.897705078125</v>
       </c>
       <c r="G783" t="n">
         <v>424433000</v>
@@ -18479,7 +18479,7 @@
         <v>322.8599853515625</v>
       </c>
       <c r="F784" t="n">
-        <v>300.3388671875</v>
+        <v>300.3388366699219</v>
       </c>
       <c r="G784" t="n">
         <v>146700000</v>
@@ -18502,7 +18502,7 @@
         <v>322.4100036621094</v>
       </c>
       <c r="F785" t="n">
-        <v>299.9203491210938</v>
+        <v>299.9201965332031</v>
       </c>
       <c r="G785" t="n">
         <v>243667300</v>
@@ -18525,7 +18525,7 @@
         <v>325.7099914550781</v>
       </c>
       <c r="F786" t="n">
-        <v>302.9900512695312</v>
+        <v>302.989990234375</v>
       </c>
       <c r="G786" t="n">
         <v>265948900</v>
@@ -18548,7 +18548,7 @@
         <v>331.9500122070312</v>
       </c>
       <c r="F787" t="n">
-        <v>308.7948608398438</v>
+        <v>308.7947998046875</v>
       </c>
       <c r="G787" t="n">
         <v>331872500</v>
@@ -18571,7 +18571,7 @@
         <v>328.7699890136719</v>
       </c>
       <c r="F788" t="n">
-        <v>305.8365783691406</v>
+        <v>305.8366088867188</v>
       </c>
       <c r="G788" t="n">
         <v>266198700</v>
@@ -18617,7 +18617,7 @@
         <v>332.2000122070312</v>
       </c>
       <c r="F790" t="n">
-        <v>309.0273742675781</v>
+        <v>309.0272827148438</v>
       </c>
       <c r="G790" t="n">
         <v>312106400</v>
@@ -18663,7 +18663,7 @@
         <v>333.4800109863281</v>
       </c>
       <c r="F792" t="n">
-        <v>310.2180786132812</v>
+        <v>310.2180480957031</v>
       </c>
       <c r="G792" t="n">
         <v>293992500</v>
@@ -18686,7 +18686,7 @@
         <v>296.260009765625</v>
       </c>
       <c r="F793" t="n">
-        <v>275.5942993164062</v>
+        <v>275.5943908691406</v>
       </c>
       <c r="G793" t="n">
         <v>1244104700</v>
@@ -18709,7 +18709,7 @@
         <v>297.4599914550781</v>
       </c>
       <c r="F794" t="n">
-        <v>276.7106323242188</v>
+        <v>276.7106018066406</v>
       </c>
       <c r="G794" t="n">
         <v>1130490100</v>
@@ -18732,7 +18732,7 @@
         <v>269.3200073242188</v>
       </c>
       <c r="F795" t="n">
-        <v>250.5335388183594</v>
+        <v>250.5335235595703</v>
       </c>
       <c r="G795" t="n">
         <v>1562964500</v>
@@ -18755,7 +18755,7 @@
         <v>228.8000030517578</v>
       </c>
       <c r="F796" t="n">
-        <v>212.8400268554688</v>
+        <v>212.8399963378906</v>
       </c>
       <c r="G796" t="n">
         <v>1523388400</v>
@@ -18778,7 +18778,7 @@
         <v>253.4199981689453</v>
       </c>
       <c r="F797" t="n">
-        <v>237.1288757324219</v>
+        <v>237.1288909912109</v>
       </c>
       <c r="G797" t="n">
         <v>1342924000</v>
@@ -18824,7 +18824,7 @@
         <v>278.2000122070312</v>
       </c>
       <c r="F799" t="n">
-        <v>260.3158874511719</v>
+        <v>260.3158569335938</v>
       </c>
       <c r="G799" t="n">
         <v>733262100</v>
@@ -18847,7 +18847,7 @@
         <v>286.6400146484375</v>
       </c>
       <c r="F800" t="n">
-        <v>268.21337890625</v>
+        <v>268.2133483886719</v>
       </c>
       <c r="G800" t="n">
         <v>649240600</v>
@@ -18893,7 +18893,7 @@
         <v>282.7900085449219</v>
       </c>
       <c r="F802" t="n">
-        <v>264.6108703613281</v>
+        <v>264.6108093261719</v>
       </c>
       <c r="G802" t="n">
         <v>549993900</v>
@@ -18916,7 +18916,7 @@
         <v>292.4400024414062</v>
       </c>
       <c r="F803" t="n">
-        <v>273.6405334472656</v>
+        <v>273.6404724121094</v>
       </c>
       <c r="G803" t="n">
         <v>385778500</v>
@@ -18939,7 +18939,7 @@
         <v>286.2799987792969</v>
       </c>
       <c r="F804" t="n">
-        <v>267.8764343261719</v>
+        <v>267.8764953613281</v>
       </c>
       <c r="G804" t="n">
         <v>553230300</v>
@@ -18962,7 +18962,7 @@
         <v>295.4400024414062</v>
       </c>
       <c r="F805" t="n">
-        <v>276.4475708007812</v>
+        <v>276.4476318359375</v>
       </c>
       <c r="G805" t="n">
         <v>443006900</v>
@@ -18985,7 +18985,7 @@
         <v>304.3200073242188</v>
       </c>
       <c r="F806" t="n">
-        <v>284.7567443847656</v>
+        <v>284.7567749023438</v>
       </c>
       <c r="G806" t="n">
         <v>403264800</v>
@@ -19008,7 +19008,7 @@
         <v>319.3399963378906</v>
       </c>
       <c r="F807" t="n">
-        <v>298.8111877441406</v>
+        <v>298.8112487792969</v>
       </c>
       <c r="G807" t="n">
         <v>448912200</v>
@@ -19031,7 +19031,7 @@
         <v>304.2099914550781</v>
       </c>
       <c r="F808" t="n">
-        <v>284.65380859375</v>
+        <v>284.6538696289062</v>
       </c>
       <c r="G808" t="n">
         <v>650043700</v>
@@ -19077,7 +19077,7 @@
         <v>300.0499877929688</v>
       </c>
       <c r="F810" t="n">
-        <v>281.9967956542969</v>
+        <v>281.9967346191406</v>
       </c>
       <c r="G810" t="n">
         <v>493363100</v>
@@ -19100,7 +19100,7 @@
         <v>312.2300109863281</v>
       </c>
       <c r="F811" t="n">
-        <v>293.4439392089844</v>
+        <v>293.4439697265625</v>
       </c>
       <c r="G811" t="n">
         <v>334908800</v>
@@ -19192,7 +19192,7 @@
         <v>326.5199890136719</v>
       </c>
       <c r="F815" t="n">
-        <v>306.8740844726562</v>
+        <v>306.8741455078125</v>
       </c>
       <c r="G815" t="n">
         <v>301090700</v>
@@ -19215,7 +19215,7 @@
         <v>334.5700073242188</v>
       </c>
       <c r="F816" t="n">
-        <v>314.4398193359375</v>
+        <v>314.4398498535156</v>
       </c>
       <c r="G816" t="n">
         <v>238681200</v>
@@ -19238,7 +19238,7 @@
         <v>336.8399963378906</v>
       </c>
       <c r="F817" t="n">
-        <v>316.5731811523438</v>
+        <v>316.5732421875</v>
       </c>
       <c r="G817" t="n">
         <v>256734100</v>
@@ -19284,7 +19284,7 @@
         <v>350.5799865722656</v>
       </c>
       <c r="F819" t="n">
-        <v>329.4864807128906</v>
+        <v>329.4865112304688</v>
       </c>
       <c r="G819" t="n">
         <v>244465300</v>
@@ -19330,7 +19330,7 @@
         <v>334.0599975585938</v>
       </c>
       <c r="F821" t="n">
-        <v>313.9604797363281</v>
+        <v>313.9605712890625</v>
       </c>
       <c r="G821" t="n">
         <v>381177300</v>
@@ -19376,7 +19376,7 @@
         <v>328.7300109863281</v>
       </c>
       <c r="F823" t="n">
-        <v>310.1879577636719</v>
+        <v>310.1878967285156</v>
       </c>
       <c r="G823" t="n">
         <v>403925800</v>
@@ -19422,7 +19422,7 @@
         <v>346.8500061035156</v>
       </c>
       <c r="F825" t="n">
-        <v>327.285888671875</v>
+        <v>327.2858581542969</v>
       </c>
       <c r="G825" t="n">
         <v>297612700</v>
@@ -19445,7 +19445,7 @@
         <v>347.2900085449219</v>
       </c>
       <c r="F826" t="n">
-        <v>327.7009887695312</v>
+        <v>327.7010192871094</v>
       </c>
       <c r="G826" t="n">
         <v>361231500</v>
@@ -19468,7 +19468,7 @@
         <v>345.7799987792969</v>
       </c>
       <c r="F827" t="n">
-        <v>326.2762451171875</v>
+        <v>326.2761840820312</v>
       </c>
       <c r="G827" t="n">
         <v>296595700</v>
@@ -19491,7 +19491,7 @@
         <v>326.5400085449219</v>
       </c>
       <c r="F828" t="n">
-        <v>308.1214904785156</v>
+        <v>308.1214599609375</v>
       </c>
       <c r="G828" t="n">
         <v>495446400</v>
@@ -19514,7 +19514,7 @@
         <v>350.1600036621094</v>
       </c>
       <c r="F829" t="n">
-        <v>330.4091491699219</v>
+        <v>330.4091186523438</v>
       </c>
       <c r="G829" t="n">
         <v>463334900</v>
@@ -19583,7 +19583,7 @@
         <v>363.6700134277344</v>
       </c>
       <c r="F832" t="n">
-        <v>343.1570434570312</v>
+        <v>343.1571350097656</v>
       </c>
       <c r="G832" t="n">
         <v>199491500</v>
@@ -19629,7 +19629,7 @@
         <v>366.2999877929688</v>
       </c>
       <c r="F834" t="n">
-        <v>345.6387634277344</v>
+        <v>345.6387023925781</v>
       </c>
       <c r="G834" t="n">
         <v>280935500</v>
@@ -19675,7 +19675,7 @@
         <v>369</v>
       </c>
       <c r="F836" t="n">
-        <v>349.6706237792969</v>
+        <v>349.670654296875</v>
       </c>
       <c r="G836" t="n">
         <v>216995000</v>
@@ -19744,7 +19744,7 @@
         <v>375.7000122070312</v>
       </c>
       <c r="F839" t="n">
-        <v>356.0197448730469</v>
+        <v>356.0197143554688</v>
       </c>
       <c r="G839" t="n">
         <v>306035100</v>
@@ -19813,7 +19813,7 @@
         <v>387.7099914550781</v>
       </c>
       <c r="F842" t="n">
-        <v>367.4005126953125</v>
+        <v>367.4005432128906</v>
       </c>
       <c r="G842" t="n">
         <v>288507800</v>
@@ -19859,7 +19859,7 @@
         <v>390.0299987792969</v>
       </c>
       <c r="F844" t="n">
-        <v>369.5990600585938</v>
+        <v>369.5990295410156</v>
       </c>
       <c r="G844" t="n">
         <v>246216800</v>
@@ -19882,7 +19882,7 @@
         <v>380.3599853515625</v>
       </c>
       <c r="F845" t="n">
-        <v>360.435546875</v>
+        <v>360.4356079101562</v>
       </c>
       <c r="G845" t="n">
         <v>546504300</v>
@@ -19928,7 +19928,7 @@
         <v>394.0599975585938</v>
       </c>
       <c r="F847" t="n">
-        <v>373.41796875</v>
+        <v>373.4179382324219</v>
       </c>
       <c r="G847" t="n">
         <v>497580800</v>
@@ -19951,7 +19951,7 @@
         <v>389.4800109863281</v>
       </c>
       <c r="F848" t="n">
-        <v>369.0778503417969</v>
+        <v>369.0779113769531</v>
       </c>
       <c r="G848" t="n">
         <v>474082600</v>
@@ -19974,7 +19974,7 @@
         <v>395.9800109863281</v>
       </c>
       <c r="F849" t="n">
-        <v>376.4663696289062</v>
+        <v>376.4664611816406</v>
       </c>
       <c r="G849" t="n">
         <v>492591500</v>
@@ -20066,7 +20066,7 @@
         <v>416.739990234375</v>
       </c>
       <c r="F853" t="n">
-        <v>396.2033081054688</v>
+        <v>396.2032470703125</v>
       </c>
       <c r="G853" t="n">
         <v>397935300</v>
@@ -20089,7 +20089,7 @@
         <v>417.2999877929688</v>
       </c>
       <c r="F854" t="n">
-        <v>396.7357482910156</v>
+        <v>396.7356872558594</v>
       </c>
       <c r="G854" t="n">
         <v>318795700</v>
@@ -20135,7 +20135,7 @@
         <v>416.5799865722656</v>
       </c>
       <c r="F856" t="n">
-        <v>396.0511474609375</v>
+        <v>396.0512084960938</v>
       </c>
       <c r="G856" t="n">
         <v>522147000</v>
@@ -20158,7 +20158,7 @@
         <v>414.9400024414062</v>
       </c>
       <c r="F857" t="n">
-        <v>394.4920349121094</v>
+        <v>394.4920654296875</v>
       </c>
       <c r="G857" t="n">
         <v>386007400</v>
@@ -20181,7 +20181,7 @@
         <v>420.0400085449219</v>
       </c>
       <c r="F858" t="n">
-        <v>399.3407287597656</v>
+        <v>399.3407592773438</v>
       </c>
       <c r="G858" t="n">
         <v>267144600</v>
@@ -20204,7 +20204,7 @@
         <v>422.6000061035156</v>
       </c>
       <c r="F859" t="n">
-        <v>401.7745666503906</v>
+        <v>401.7745056152344</v>
       </c>
       <c r="G859" t="n">
         <v>217391300</v>
@@ -20250,7 +20250,7 @@
         <v>414.9200134277344</v>
       </c>
       <c r="F861" t="n">
-        <v>394.4730224609375</v>
+        <v>394.4730529785156</v>
       </c>
       <c r="G861" t="n">
         <v>383879100</v>
@@ -20273,7 +20273,7 @@
         <v>426.6099853515625</v>
       </c>
       <c r="F862" t="n">
-        <v>406.9138488769531</v>
+        <v>406.913818359375</v>
       </c>
       <c r="G862" t="n">
         <v>283207500</v>
@@ -20296,7 +20296,7 @@
         <v>433.7200012207031</v>
       </c>
       <c r="F863" t="n">
-        <v>413.6955261230469</v>
+        <v>413.695556640625</v>
       </c>
       <c r="G863" t="n">
         <v>265096700</v>
@@ -20319,7 +20319,7 @@
         <v>435.5199890136719</v>
       </c>
       <c r="F864" t="n">
-        <v>415.4124145507812</v>
+        <v>415.4124755859375</v>
       </c>
       <c r="G864" t="n">
         <v>306093700</v>
@@ -20365,7 +20365,7 @@
         <v>439.9400024414062</v>
       </c>
       <c r="F866" t="n">
-        <v>419.6283264160156</v>
+        <v>419.62841796875</v>
       </c>
       <c r="G866" t="n">
         <v>423964700</v>
@@ -20388,7 +20388,7 @@
         <v>438.510009765625</v>
       </c>
       <c r="F867" t="n">
-        <v>418.2644958496094</v>
+        <v>418.2644653320312</v>
       </c>
       <c r="G867" t="n">
         <v>279975200</v>
@@ -20434,7 +20434,7 @@
         <v>445.9200134277344</v>
       </c>
       <c r="F869" t="n">
-        <v>425.332275390625</v>
+        <v>425.3323364257812</v>
       </c>
       <c r="G869" t="n">
         <v>206975900</v>
@@ -20457,7 +20457,7 @@
         <v>443.3599853515625</v>
       </c>
       <c r="F870" t="n">
-        <v>422.8904724121094</v>
+        <v>422.8905029296875</v>
       </c>
       <c r="G870" t="n">
         <v>420586700</v>
@@ -20503,7 +20503,7 @@
         <v>453.0799865722656</v>
       </c>
       <c r="F872" t="n">
-        <v>432.1617431640625</v>
+        <v>432.1617126464844</v>
       </c>
       <c r="G872" t="n">
         <v>246050500</v>
@@ -20526,7 +20526,7 @@
         <v>445.4400024414062</v>
       </c>
       <c r="F873" t="n">
-        <v>424.8744506835938</v>
+        <v>424.8744812011719</v>
       </c>
       <c r="G873" t="n">
         <v>255772000</v>
@@ -20549,7 +20549,7 @@
         <v>441.3999938964844</v>
       </c>
       <c r="F874" t="n">
-        <v>421.0209655761719</v>
+        <v>421.0210266113281</v>
       </c>
       <c r="G874" t="n">
         <v>436939600</v>
@@ -20572,7 +20572,7 @@
         <v>443.9100036621094</v>
       </c>
       <c r="F875" t="n">
-        <v>424.7715759277344</v>
+        <v>424.7716064453125</v>
       </c>
       <c r="G875" t="n">
         <v>499812500</v>
@@ -20595,7 +20595,7 @@
         <v>434.239990234375</v>
       </c>
       <c r="F876" t="n">
-        <v>415.5184326171875</v>
+        <v>415.5184631347656</v>
       </c>
       <c r="G876" t="n">
         <v>543882700</v>
@@ -20618,7 +20618,7 @@
         <v>437.8599853515625</v>
       </c>
       <c r="F877" t="n">
-        <v>418.9823913574219</v>
+        <v>418.982421875</v>
       </c>
       <c r="G877" t="n">
         <v>479279600</v>
@@ -20641,7 +20641,7 @@
         <v>445.8699951171875</v>
       </c>
       <c r="F878" t="n">
-        <v>426.6470642089844</v>
+        <v>426.6471252441406</v>
       </c>
       <c r="G878" t="n">
         <v>345885500</v>
@@ -20664,7 +20664,7 @@
         <v>453.1199951171875</v>
       </c>
       <c r="F879" t="n">
-        <v>433.5845336914062</v>
+        <v>433.58447265625</v>
       </c>
       <c r="G879" t="n">
         <v>258932100</v>
@@ -20687,7 +20687,7 @@
         <v>459.25</v>
       </c>
       <c r="F880" t="n">
-        <v>439.4502563476562</v>
+        <v>439.4502258300781</v>
       </c>
       <c r="G880" t="n">
         <v>295327900</v>
@@ -20710,7 +20710,7 @@
         <v>468.5299987792969</v>
       </c>
       <c r="F881" t="n">
-        <v>448.3302001953125</v>
+        <v>448.3301391601562</v>
       </c>
       <c r="G881" t="n">
         <v>269089500</v>
@@ -20733,7 +20733,7 @@
         <v>467.2699890136719</v>
       </c>
       <c r="F882" t="n">
-        <v>447.1244506835938</v>
+        <v>447.1244201660156</v>
       </c>
       <c r="G882" t="n">
         <v>259299200</v>
@@ -20756,7 +20756,7 @@
         <v>468.8900146484375</v>
       </c>
       <c r="F883" t="n">
-        <v>448.6746215820312</v>
+        <v>448.6746826171875</v>
       </c>
       <c r="G883" t="n">
         <v>251637500</v>
@@ -20802,7 +20802,7 @@
         <v>453.4200134277344</v>
       </c>
       <c r="F885" t="n">
-        <v>433.87158203125</v>
+        <v>433.8716430664062</v>
       </c>
       <c r="G885" t="n">
         <v>631737000</v>
@@ -20825,7 +20825,7 @@
         <v>470.739990234375</v>
       </c>
       <c r="F886" t="n">
-        <v>450.4448547363281</v>
+        <v>450.4449157714844</v>
       </c>
       <c r="G886" t="n">
         <v>405133400</v>
@@ -20871,7 +20871,7 @@
         <v>470.6000061035156</v>
       </c>
       <c r="F888" t="n">
-        <v>451.8929443359375</v>
+        <v>451.8929748535156</v>
       </c>
       <c r="G888" t="n">
         <v>292271000</v>
@@ -20917,7 +20917,7 @@
         <v>466.0899963378906</v>
       </c>
       <c r="F890" t="n">
-        <v>447.562255859375</v>
+        <v>447.5622253417969</v>
       </c>
       <c r="G890" t="n">
         <v>420356300</v>
@@ -20940,7 +20940,7 @@
         <v>464.7200012207031</v>
       </c>
       <c r="F891" t="n">
-        <v>446.2466735839844</v>
+        <v>446.2467041015625</v>
       </c>
       <c r="G891" t="n">
         <v>448334500</v>
@@ -20963,7 +20963,7 @@
         <v>437.9800109863281</v>
       </c>
       <c r="F892" t="n">
-        <v>420.5696716308594</v>
+        <v>420.5696411132812</v>
       </c>
       <c r="G892" t="n">
         <v>543717600</v>
@@ -20986,7 +20986,7 @@
         <v>441.9500122070312</v>
       </c>
       <c r="F893" t="n">
-        <v>424.3818054199219</v>
+        <v>424.3818664550781</v>
       </c>
       <c r="G893" t="n">
         <v>920508000</v>
@@ -21032,7 +21032,7 @@
         <v>440.4599914550781</v>
       </c>
       <c r="F895" t="n">
-        <v>422.9510498046875</v>
+        <v>422.9510803222656</v>
       </c>
       <c r="G895" t="n">
         <v>551393100</v>
@@ -21055,7 +21055,7 @@
         <v>434.2300109863281</v>
       </c>
       <c r="F896" t="n">
-        <v>416.9687194824219</v>
+        <v>416.96875</v>
       </c>
       <c r="G896" t="n">
         <v>531254600</v>
@@ -21078,7 +21078,7 @@
         <v>437.75</v>
       </c>
       <c r="F897" t="n">
-        <v>420.3487854003906</v>
+        <v>420.3487243652344</v>
       </c>
       <c r="G897" t="n">
         <v>592717200</v>
@@ -21170,7 +21170,7 @@
         <v>452.6900024414062</v>
       </c>
       <c r="F901" t="n">
-        <v>436.0453491210938</v>
+        <v>436.0452880859375</v>
       </c>
       <c r="G901" t="n">
         <v>384264500</v>
@@ -21193,7 +21193,7 @@
         <v>452.9200134277344</v>
       </c>
       <c r="F902" t="n">
-        <v>436.266845703125</v>
+        <v>436.2669067382812</v>
       </c>
       <c r="G902" t="n">
         <v>445526900</v>
@@ -21216,7 +21216,7 @@
         <v>447.5700073242188</v>
       </c>
       <c r="F903" t="n">
-        <v>431.1136169433594</v>
+        <v>431.1135864257812</v>
       </c>
       <c r="G903" t="n">
         <v>398083400</v>
@@ -21239,7 +21239,7 @@
         <v>437.7900085449219</v>
       </c>
       <c r="F904" t="n">
-        <v>421.6931762695312</v>
+        <v>421.6931457519531</v>
       </c>
       <c r="G904" t="n">
         <v>346074000</v>
@@ -21285,7 +21285,7 @@
         <v>412</v>
       </c>
       <c r="F906" t="n">
-        <v>396.8514099121094</v>
+        <v>396.8514404296875</v>
       </c>
       <c r="G906" t="n">
         <v>596614200</v>
@@ -21308,7 +21308,7 @@
         <v>411.3399963378906</v>
       </c>
       <c r="F907" t="n">
-        <v>396.2156982421875</v>
+        <v>396.2157287597656</v>
       </c>
       <c r="G907" t="n">
         <v>727288500</v>
@@ -21331,7 +21331,7 @@
         <v>401.7200012207031</v>
       </c>
       <c r="F908" t="n">
-        <v>386.9494323730469</v>
+        <v>386.9494018554688</v>
       </c>
       <c r="G908" t="n">
         <v>659709500</v>
@@ -21354,7 +21354,7 @@
         <v>389.6300048828125</v>
       </c>
       <c r="F909" t="n">
-        <v>375.303955078125</v>
+        <v>375.3039245605469</v>
       </c>
       <c r="G909" t="n">
         <v>509269500</v>
@@ -21377,7 +21377,7 @@
         <v>415.260009765625</v>
       </c>
       <c r="F910" t="n">
-        <v>399.9915771484375</v>
+        <v>399.9916076660156</v>
       </c>
       <c r="G910" t="n">
         <v>426273600</v>
@@ -21423,7 +21423,7 @@
         <v>389.7999877929688</v>
       </c>
       <c r="F912" t="n">
-        <v>375.4677124023438</v>
+        <v>375.4676818847656</v>
       </c>
       <c r="G912" t="n">
         <v>400315000</v>
@@ -21446,7 +21446,7 @@
         <v>365.8599853515625</v>
       </c>
       <c r="F913" t="n">
-        <v>352.4079284667969</v>
+        <v>352.4078674316406</v>
       </c>
       <c r="G913" t="n">
         <v>645270700</v>
@@ -21492,7 +21492,7 @@
         <v>381.239990234375</v>
       </c>
       <c r="F915" t="n">
-        <v>368.8086853027344</v>
+        <v>368.8087158203125</v>
       </c>
       <c r="G915" t="n">
         <v>405582500</v>
@@ -21561,7 +21561,7 @@
         <v>395.0899963378906</v>
       </c>
       <c r="F918" t="n">
-        <v>382.2071228027344</v>
+        <v>382.2071533203125</v>
       </c>
       <c r="G918" t="n">
         <v>350654600</v>
@@ -21584,7 +21584,7 @@
         <v>411.989990234375</v>
       </c>
       <c r="F919" t="n">
-        <v>398.5560302734375</v>
+        <v>398.5560607910156</v>
       </c>
       <c r="G919" t="n">
         <v>349890300</v>
@@ -21630,7 +21630,7 @@
         <v>427.1000061035156</v>
       </c>
       <c r="F921" t="n">
-        <v>413.17333984375</v>
+        <v>413.1733093261719</v>
       </c>
       <c r="G921" t="n">
         <v>288667800</v>
@@ -21676,7 +21676,7 @@
         <v>405.3099975585938</v>
       </c>
       <c r="F923" t="n">
-        <v>392.0938720703125</v>
+        <v>392.0938415527344</v>
       </c>
       <c r="G923" t="n">
         <v>330007900</v>
@@ -21699,7 +21699,7 @@
         <v>392.239990234375</v>
       </c>
       <c r="F924" t="n">
-        <v>379.4500122070312</v>
+        <v>379.4500427246094</v>
       </c>
       <c r="G924" t="n">
         <v>405425100</v>
@@ -21745,7 +21745,7 @@
         <v>385.5599975585938</v>
       </c>
       <c r="F926" t="n">
-        <v>372.9878540039062</v>
+        <v>372.9877624511719</v>
       </c>
       <c r="G926" t="n">
         <v>467945700</v>
@@ -21768,7 +21768,7 @@
         <v>367.9500122070312</v>
       </c>
       <c r="F927" t="n">
-        <v>357.414306640625</v>
+        <v>357.4143371582031</v>
       </c>
       <c r="G927" t="n">
         <v>469119500</v>
@@ -21791,7 +21791,7 @@
         <v>357.1799926757812</v>
       </c>
       <c r="F928" t="n">
-        <v>346.95263671875</v>
+        <v>346.9526672363281</v>
       </c>
       <c r="G928" t="n">
         <v>578341000</v>
@@ -21814,7 +21814,7 @@
         <v>362.7900085449219</v>
       </c>
       <c r="F929" t="n">
-        <v>352.4020080566406</v>
+        <v>352.4020690917969</v>
       </c>
       <c r="G929" t="n">
         <v>471548000</v>
@@ -21837,7 +21837,7 @@
         <v>357.6300048828125</v>
       </c>
       <c r="F930" t="n">
-        <v>347.3898010253906</v>
+        <v>347.3897399902344</v>
       </c>
       <c r="G930" t="n">
         <v>516508900</v>
@@ -21906,7 +21906,7 @@
         <v>376.3500061035156</v>
       </c>
       <c r="F933" t="n">
-        <v>365.5738220214844</v>
+        <v>365.57373046875</v>
       </c>
       <c r="G933" t="n">
         <v>499634600</v>
@@ -21952,7 +21952,7 @@
         <v>396.0299987792969</v>
       </c>
       <c r="F935" t="n">
-        <v>384.6902465820312</v>
+        <v>384.6902160644531</v>
       </c>
       <c r="G935" t="n">
         <v>401025300</v>
@@ -21975,7 +21975,7 @@
         <v>402.3299865722656</v>
       </c>
       <c r="F936" t="n">
-        <v>390.809814453125</v>
+        <v>390.8098449707031</v>
       </c>
       <c r="G936" t="n">
         <v>210479200</v>
@@ -21998,7 +21998,7 @@
         <v>406.9100036621094</v>
       </c>
       <c r="F937" t="n">
-        <v>395.2586975097656</v>
+        <v>395.2586669921875</v>
       </c>
       <c r="G937" t="n">
         <v>426499200</v>
@@ -22021,7 +22021,7 @@
         <v>393.2799987792969</v>
       </c>
       <c r="F938" t="n">
-        <v>382.0189514160156</v>
+        <v>382.0189819335938</v>
       </c>
       <c r="G938" t="n">
         <v>363375500</v>
@@ -22044,7 +22044,7 @@
         <v>383.2699890136719</v>
       </c>
       <c r="F939" t="n">
-        <v>372.2955627441406</v>
+        <v>372.2955932617188</v>
       </c>
       <c r="G939" t="n">
         <v>544863500</v>
@@ -22067,7 +22067,7 @@
         <v>382.9100036621094</v>
       </c>
       <c r="F940" t="n">
-        <v>373.6539001464844</v>
+        <v>373.6539306640625</v>
       </c>
       <c r="G940" t="n">
         <v>392450900</v>
@@ -22113,7 +22113,7 @@
         <v>388.0799865722656</v>
       </c>
       <c r="F942" t="n">
-        <v>378.6988830566406</v>
+        <v>378.6989135742188</v>
       </c>
       <c r="G942" t="n">
         <v>341944900</v>
@@ -22136,7 +22136,7 @@
         <v>398.5</v>
       </c>
       <c r="F943" t="n">
-        <v>388.8670349121094</v>
+        <v>388.8670654296875</v>
       </c>
       <c r="G943" t="n">
         <v>362278900</v>
@@ -22182,7 +22182,7 @@
         <v>405.6799926757812</v>
       </c>
       <c r="F945" t="n">
-        <v>395.8734436035156</v>
+        <v>395.8735046386719</v>
       </c>
       <c r="G945" t="n">
         <v>369137600</v>
@@ -22228,7 +22228,7 @@
         <v>408.0400085449219</v>
       </c>
       <c r="F947" t="n">
-        <v>398.1763916015625</v>
+        <v>398.1764526367188</v>
       </c>
       <c r="G947" t="n">
         <v>376978100</v>
@@ -22297,7 +22297,7 @@
         <v>404.1900024414062</v>
       </c>
       <c r="F950" t="n">
-        <v>394.4194946289062</v>
+        <v>394.4195251464844</v>
       </c>
       <c r="G950" t="n">
         <v>451837900</v>
@@ -22320,7 +22320,7 @@
         <v>385.9100036621094</v>
       </c>
       <c r="F951" t="n">
-        <v>376.5813598632812</v>
+        <v>376.5813903808594</v>
       </c>
       <c r="G951" t="n">
         <v>557051400</v>
@@ -22343,7 +22343,7 @@
         <v>389.989990234375</v>
       </c>
       <c r="F952" t="n">
-        <v>380.562744140625</v>
+        <v>380.5627136230469</v>
       </c>
       <c r="G952" t="n">
         <v>764346900</v>
@@ -22366,7 +22366,7 @@
         <v>395.75</v>
       </c>
       <c r="F953" t="n">
-        <v>387.6573791503906</v>
+        <v>387.6574096679688</v>
       </c>
       <c r="G953" t="n">
         <v>523360300</v>
@@ -22458,7 +22458,7 @@
         <v>412.2000122070312</v>
       </c>
       <c r="F957" t="n">
-        <v>403.77099609375</v>
+        <v>403.7709655761719</v>
       </c>
       <c r="G957" t="n">
         <v>334521500</v>
@@ -22481,7 +22481,7 @@
         <v>415.9299926757812</v>
       </c>
       <c r="F958" t="n">
-        <v>407.4246826171875</v>
+        <v>407.4247131347656</v>
       </c>
       <c r="G958" t="n">
         <v>424849800</v>
@@ -22527,7 +22527,7 @@
         <v>411.5899963378906</v>
       </c>
       <c r="F960" t="n">
-        <v>403.1734924316406</v>
+        <v>403.1734619140625</v>
       </c>
       <c r="G960" t="n">
         <v>336006300</v>
@@ -22573,7 +22573,7 @@
         <v>420.0199890136719</v>
       </c>
       <c r="F962" t="n">
-        <v>411.4310607910156</v>
+        <v>411.4310913085938</v>
       </c>
       <c r="G962" t="n">
         <v>421134200</v>
@@ -22596,7 +22596,7 @@
         <v>427.9200134277344</v>
       </c>
       <c r="F963" t="n">
-        <v>419.1695556640625</v>
+        <v>419.1695861816406</v>
       </c>
       <c r="G963" t="n">
         <v>363259500</v>
@@ -22619,7 +22619,7 @@
         <v>429.8999938964844</v>
       </c>
       <c r="F964" t="n">
-        <v>421.1090393066406</v>
+        <v>421.1090087890625</v>
       </c>
       <c r="G964" t="n">
         <v>362551300</v>
@@ -22642,7 +22642,7 @@
         <v>439.4599914550781</v>
       </c>
       <c r="F965" t="n">
-        <v>430.4735717773438</v>
+        <v>430.4735412597656</v>
       </c>
       <c r="G965" t="n">
         <v>497040500</v>
@@ -22665,7 +22665,7 @@
         <v>433.2099914550781</v>
       </c>
       <c r="F966" t="n">
-        <v>425.9276123046875</v>
+        <v>425.9277038574219</v>
       </c>
       <c r="G966" t="n">
         <v>315854400</v>
@@ -22711,7 +22711,7 @@
         <v>438.5499877929688</v>
       </c>
       <c r="F968" t="n">
-        <v>431.1779174804688</v>
+        <v>431.1778869628906</v>
       </c>
       <c r="G968" t="n">
         <v>257946200</v>
@@ -22734,7 +22734,7 @@
         <v>449.2799987792969</v>
       </c>
       <c r="F969" t="n">
-        <v>441.7274780273438</v>
+        <v>441.7275085449219</v>
       </c>
       <c r="G969" t="n">
         <v>361018800</v>
@@ -22780,7 +22780,7 @@
         <v>456.9200134277344</v>
       </c>
       <c r="F971" t="n">
-        <v>449.2391357421875</v>
+        <v>449.2391052246094</v>
       </c>
       <c r="G971" t="n">
         <v>352473700</v>
@@ -22803,7 +22803,7 @@
         <v>446.8099975585938</v>
       </c>
       <c r="F972" t="n">
-        <v>439.2990112304688</v>
+        <v>439.2990417480469</v>
       </c>
       <c r="G972" t="n">
         <v>375593700</v>
@@ -22826,7 +22826,7 @@
         <v>445.6499938964844</v>
       </c>
       <c r="F973" t="n">
-        <v>438.1585998535156</v>
+        <v>438.1585388183594</v>
       </c>
       <c r="G973" t="n">
         <v>370178500</v>
@@ -22849,7 +22849,7 @@
         <v>436.5</v>
       </c>
       <c r="F974" t="n">
-        <v>429.1623840332031</v>
+        <v>429.162353515625</v>
       </c>
       <c r="G974" t="n">
         <v>398151800</v>
@@ -22872,7 +22872,7 @@
         <v>439.9700012207031</v>
       </c>
       <c r="F975" t="n">
-        <v>432.5740051269531</v>
+        <v>432.5740356445312</v>
       </c>
       <c r="G975" t="n">
         <v>393065300</v>
@@ -22895,7 +22895,7 @@
         <v>451.1900024414062</v>
       </c>
       <c r="F976" t="n">
-        <v>443.6054077148438</v>
+        <v>443.6054382324219</v>
       </c>
       <c r="G976" t="n">
         <v>338691500</v>
@@ -22918,7 +22918,7 @@
         <v>445.5199890136719</v>
       </c>
       <c r="F977" t="n">
-        <v>438.0307312011719</v>
+        <v>438.0307006835938</v>
       </c>
       <c r="G977" t="n">
         <v>257939800</v>
@@ -22964,7 +22964,7 @@
         <v>430.4200134277344</v>
       </c>
       <c r="F979" t="n">
-        <v>424.6773071289062</v>
+        <v>424.6772766113281</v>
       </c>
       <c r="G979" t="n">
         <v>409635200</v>
@@ -23010,7 +23010,7 @@
         <v>429.5400085449219</v>
       </c>
       <c r="F981" t="n">
-        <v>423.8090515136719</v>
+        <v>423.8090209960938</v>
       </c>
       <c r="G981" t="n">
         <v>458357600</v>
@@ -23056,7 +23056,7 @@
         <v>421.1900024414062</v>
       </c>
       <c r="F983" t="n">
-        <v>415.5704040527344</v>
+        <v>415.5704345703125</v>
       </c>
       <c r="G983" t="n">
         <v>489486500</v>
@@ -23125,7 +23125,7 @@
         <v>440.6099853515625</v>
       </c>
       <c r="F986" t="n">
-        <v>434.7313537597656</v>
+        <v>434.7312927246094</v>
       </c>
       <c r="G986" t="n">
         <v>366470400</v>
@@ -23148,7 +23148,7 @@
         <v>450.7900085449219</v>
       </c>
       <c r="F987" t="n">
-        <v>444.7755126953125</v>
+        <v>444.7755432128906</v>
       </c>
       <c r="G987" t="n">
         <v>376539600</v>
@@ -23171,7 +23171,7 @@
         <v>455.2999877929688</v>
       </c>
       <c r="F988" t="n">
-        <v>449.2253112792969</v>
+        <v>449.225341796875</v>
       </c>
       <c r="G988" t="n">
         <v>208313100</v>
@@ -23332,7 +23332,7 @@
         <v>476.6799926757812</v>
       </c>
       <c r="F995" t="n">
-        <v>472.2269287109375</v>
+        <v>472.2269592285156</v>
       </c>
       <c r="G995" t="n">
         <v>344005800</v>
@@ -23355,7 +23355,7 @@
         <v>482.4299926757812</v>
       </c>
       <c r="F996" t="n">
-        <v>477.9232482910156</v>
+        <v>477.9232177734375</v>
       </c>
       <c r="G996" t="n">
         <v>356448300</v>
@@ -23447,7 +23447,7 @@
         <v>499.510009765625</v>
       </c>
       <c r="F1000" t="n">
-        <v>494.8436889648438</v>
+        <v>494.8436584472656</v>
       </c>
       <c r="G1000" t="n">
         <v>375133500</v>
@@ -23470,7 +23470,7 @@
         <v>507.8500061035156</v>
       </c>
       <c r="F1001" t="n">
-        <v>503.1057739257812</v>
+        <v>503.1057434082031</v>
       </c>
       <c r="G1001" t="n">
         <v>269064800</v>
@@ -23516,7 +23516,7 @@
         <v>511.7200012207031</v>
       </c>
       <c r="F1003" t="n">
-        <v>506.9396057128906</v>
+        <v>506.9396362304688</v>
       </c>
       <c r="G1003" t="n">
         <v>336114900</v>
@@ -24220,42 +24220,42 @@
         <v>571.2999877929688</v>
       </c>
       <c r="C1034" t="n">
-        <v>573.780029296875</v>
+        <v>577.7100219726562</v>
       </c>
       <c r="D1034" t="n">
         <v>566.6300048828125</v>
       </c>
       <c r="E1034" t="n">
-        <v>573.1699829101562</v>
+        <v>577.1400146484375</v>
       </c>
       <c r="F1034" t="n">
-        <v>573.1699829101562</v>
+        <v>577.1400146484375</v>
       </c>
       <c r="G1034" t="n">
-        <v>87283300</v>
+        <v>125204900</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" s="2" t="n">
-        <v>45573</v>
+        <v>45574</v>
       </c>
       <c r="B1035" t="n">
-        <v>570.4199829101562</v>
+        <v>573.1599731445312</v>
       </c>
       <c r="C1035" t="n">
-        <v>573.780029296875</v>
+        <v>577.709228515625</v>
       </c>
       <c r="D1035" t="n">
-        <v>569.5299072265625</v>
+        <v>572.5499877929688</v>
       </c>
       <c r="E1035" t="n">
-        <v>573.1699829101562</v>
+        <v>577.1400146484375</v>
       </c>
       <c r="F1035" t="n">
-        <v>573.1699829101562</v>
+        <v>577.1400146484375</v>
       </c>
       <c r="G1035" t="n">
-        <v>37044077</v>
+        <v>34648991</v>
       </c>
     </row>
   </sheetData>

--- a/static/etfs/spy_weekly.xlsx
+++ b/static/etfs/spy_weekly.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1035"/>
+  <dimension ref="A1:G1036"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
         <v>120.870002746582</v>
       </c>
       <c r="F2" t="n">
-        <v>83.23469543457031</v>
+        <v>83.23471069335938</v>
       </c>
       <c r="G2" t="n">
         <v>28648800</v>
@@ -516,7 +516,7 @@
         <v>118.4400024414062</v>
       </c>
       <c r="F3" t="n">
-        <v>81.56134796142578</v>
+        <v>81.56133270263672</v>
       </c>
       <c r="G3" t="n">
         <v>294245300</v>
@@ -539,7 +539,7 @@
         <v>118.2399978637695</v>
       </c>
       <c r="F4" t="n">
-        <v>81.42360687255859</v>
+        <v>81.423583984375</v>
       </c>
       <c r="G4" t="n">
         <v>289953500</v>
@@ -562,7 +562,7 @@
         <v>116.7799987792969</v>
       </c>
       <c r="F5" t="n">
-        <v>80.418212890625</v>
+        <v>80.41819000244141</v>
       </c>
       <c r="G5" t="n">
         <v>246980300</v>
@@ -585,7 +585,7 @@
         <v>117.4300003051758</v>
       </c>
       <c r="F6" t="n">
-        <v>80.86578369140625</v>
+        <v>80.86579895019531</v>
       </c>
       <c r="G6" t="n">
         <v>300499700</v>
@@ -608,7 +608,7 @@
         <v>120.2300033569336</v>
       </c>
       <c r="F7" t="n">
-        <v>82.79399108886719</v>
+        <v>82.79396057128906</v>
       </c>
       <c r="G7" t="n">
         <v>253704500</v>
@@ -700,7 +700,7 @@
         <v>122.7300033569336</v>
       </c>
       <c r="F11" t="n">
-        <v>84.51556396484375</v>
+        <v>84.51554870605469</v>
       </c>
       <c r="G11" t="n">
         <v>298301500</v>
@@ -746,7 +746,7 @@
         <v>118.5400009155273</v>
       </c>
       <c r="F13" t="n">
-        <v>81.63017272949219</v>
+        <v>81.63018798828125</v>
       </c>
       <c r="G13" t="n">
         <v>296465300</v>
@@ -792,7 +792,7 @@
         <v>117.4300003051758</v>
       </c>
       <c r="F15" t="n">
-        <v>81.18347930908203</v>
+        <v>81.18346405029297</v>
       </c>
       <c r="G15" t="n">
         <v>339758600</v>
@@ -815,7 +815,7 @@
         <v>118</v>
       </c>
       <c r="F16" t="n">
-        <v>81.57752990722656</v>
+        <v>81.57748413085938</v>
       </c>
       <c r="G16" t="n">
         <v>282210800</v>
@@ -838,7 +838,7 @@
         <v>114.1500015258789</v>
       </c>
       <c r="F17" t="n">
-        <v>78.9158935546875</v>
+        <v>78.91590881347656</v>
       </c>
       <c r="G17" t="n">
         <v>421835900</v>
@@ -861,7 +861,7 @@
         <v>115.5699996948242</v>
       </c>
       <c r="F18" t="n">
-        <v>79.89760589599609</v>
+        <v>79.89757537841797</v>
       </c>
       <c r="G18" t="n">
         <v>448499200</v>
@@ -884,7 +884,7 @@
         <v>115.75</v>
       </c>
       <c r="F19" t="n">
-        <v>80.02200317382812</v>
+        <v>80.02201843261719</v>
       </c>
       <c r="G19" t="n">
         <v>385517300</v>
@@ -907,7 +907,7 @@
         <v>117.0899963378906</v>
       </c>
       <c r="F20" t="n">
-        <v>80.94837951660156</v>
+        <v>80.94841003417969</v>
       </c>
       <c r="G20" t="n">
         <v>387404500</v>
@@ -953,7 +953,7 @@
         <v>119.120002746582</v>
       </c>
       <c r="F22" t="n">
-        <v>82.35179901123047</v>
+        <v>82.35179138183594</v>
       </c>
       <c r="G22" t="n">
         <v>296337300</v>
@@ -976,7 +976,7 @@
         <v>120.25</v>
       </c>
       <c r="F23" t="n">
-        <v>83.13301086425781</v>
+        <v>83.13302612304688</v>
       </c>
       <c r="G23" t="n">
         <v>217163100</v>
@@ -999,7 +999,7 @@
         <v>120.1500015258789</v>
       </c>
       <c r="F24" t="n">
-        <v>83.06388854980469</v>
+        <v>83.06389617919922</v>
       </c>
       <c r="G24" t="n">
         <v>213692100</v>
@@ -1022,7 +1022,7 @@
         <v>120.1999969482422</v>
       </c>
       <c r="F25" t="n">
-        <v>83.09847259521484</v>
+        <v>83.09843444824219</v>
       </c>
       <c r="G25" t="n">
         <v>242547500</v>
@@ -1045,7 +1045,7 @@
         <v>121.3600006103516</v>
       </c>
       <c r="F26" t="n">
-        <v>83.90041351318359</v>
+        <v>83.90042114257812</v>
       </c>
       <c r="G26" t="n">
         <v>234529800</v>
@@ -1068,7 +1068,7 @@
         <v>118.9800033569336</v>
       </c>
       <c r="F27" t="n">
-        <v>82.58699035644531</v>
+        <v>82.58702850341797</v>
       </c>
       <c r="G27" t="n">
         <v>247967400</v>
@@ -1091,7 +1091,7 @@
         <v>119.5299987792969</v>
       </c>
       <c r="F28" t="n">
-        <v>82.96874237060547</v>
+        <v>82.96875</v>
       </c>
       <c r="G28" t="n">
         <v>243700800</v>
@@ -1114,7 +1114,7 @@
         <v>121.3199996948242</v>
       </c>
       <c r="F29" t="n">
-        <v>84.21124267578125</v>
+        <v>84.21127319335938</v>
       </c>
       <c r="G29" t="n">
         <v>271672600</v>
@@ -1137,7 +1137,7 @@
         <v>122.8399963378906</v>
       </c>
       <c r="F30" t="n">
-        <v>85.26631927490234</v>
+        <v>85.26630401611328</v>
       </c>
       <c r="G30" t="n">
         <v>262456400</v>
@@ -1183,7 +1183,7 @@
         <v>123.7399978637695</v>
       </c>
       <c r="F32" t="n">
-        <v>85.89100646972656</v>
+        <v>85.89102935791016</v>
       </c>
       <c r="G32" t="n">
         <v>253480800</v>
@@ -1206,7 +1206,7 @@
         <v>122.879997253418</v>
       </c>
       <c r="F33" t="n">
-        <v>85.29410552978516</v>
+        <v>85.29408264160156</v>
       </c>
       <c r="G33" t="n">
         <v>226853900</v>
@@ -1252,7 +1252,7 @@
         <v>122.4700012207031</v>
       </c>
       <c r="F35" t="n">
-        <v>85.00950622558594</v>
+        <v>85.00951385498047</v>
       </c>
       <c r="G35" t="n">
         <v>263656400</v>
@@ -1298,7 +1298,7 @@
         <v>122.2699966430664</v>
       </c>
       <c r="F37" t="n">
-        <v>84.87066650390625</v>
+        <v>84.87065887451172</v>
       </c>
       <c r="G37" t="n">
         <v>355516700</v>
@@ -1344,7 +1344,7 @@
         <v>123.5</v>
       </c>
       <c r="F39" t="n">
-        <v>85.72445678710938</v>
+        <v>85.72441864013672</v>
       </c>
       <c r="G39" t="n">
         <v>297720700</v>
@@ -1367,7 +1367,7 @@
         <v>121.4400024414062</v>
       </c>
       <c r="F40" t="n">
-        <v>84.65333557128906</v>
+        <v>84.65340423583984</v>
       </c>
       <c r="G40" t="n">
         <v>376270000</v>
@@ -1390,7 +1390,7 @@
         <v>123.0400009155273</v>
       </c>
       <c r="F41" t="n">
-        <v>85.76869964599609</v>
+        <v>85.76871490478516</v>
       </c>
       <c r="G41" t="n">
         <v>309618600</v>
@@ -1413,7 +1413,7 @@
         <v>119.6100006103516</v>
       </c>
       <c r="F42" t="n">
-        <v>83.37770080566406</v>
+        <v>83.37773132324219</v>
       </c>
       <c r="G42" t="n">
         <v>434426400</v>
@@ -1436,7 +1436,7 @@
         <v>118.6699981689453</v>
       </c>
       <c r="F43" t="n">
-        <v>82.72247314453125</v>
+        <v>82.72248077392578</v>
       </c>
       <c r="G43" t="n">
         <v>416521100</v>
@@ -1459,7 +1459,7 @@
         <v>118.129997253418</v>
       </c>
       <c r="F44" t="n">
-        <v>82.34602355957031</v>
+        <v>82.34604644775391</v>
       </c>
       <c r="G44" t="n">
         <v>488216200</v>
@@ -1482,7 +1482,7 @@
         <v>119.8000030517578</v>
       </c>
       <c r="F45" t="n">
-        <v>83.51014709472656</v>
+        <v>83.51011657714844</v>
       </c>
       <c r="G45" t="n">
         <v>367703800</v>
@@ -1505,7 +1505,7 @@
         <v>122.1100006103516</v>
       </c>
       <c r="F46" t="n">
-        <v>85.12042236328125</v>
+        <v>85.12041473388672</v>
       </c>
       <c r="G46" t="n">
         <v>362129900</v>
@@ -1528,7 +1528,7 @@
         <v>123.7600021362305</v>
       </c>
       <c r="F47" t="n">
-        <v>86.27058410644531</v>
+        <v>86.27061462402344</v>
       </c>
       <c r="G47" t="n">
         <v>260500100</v>
@@ -1574,7 +1574,7 @@
         <v>127.129997253418</v>
       </c>
       <c r="F49" t="n">
-        <v>88.6197509765625</v>
+        <v>88.61975860595703</v>
       </c>
       <c r="G49" t="n">
         <v>182584700</v>
@@ -1597,7 +1597,7 @@
         <v>126.8499984741211</v>
       </c>
       <c r="F50" t="n">
-        <v>88.42459106445312</v>
+        <v>88.42456817626953</v>
       </c>
       <c r="G50" t="n">
         <v>274412200</v>
@@ -1620,7 +1620,7 @@
         <v>126.3300018310547</v>
       </c>
       <c r="F51" t="n">
-        <v>88.06211853027344</v>
+        <v>88.06211090087891</v>
       </c>
       <c r="G51" t="n">
         <v>297378200</v>
@@ -1643,7 +1643,7 @@
         <v>126.3600006103516</v>
       </c>
       <c r="F52" t="n">
-        <v>88.0830078125</v>
+        <v>88.08299255371094</v>
       </c>
       <c r="G52" t="n">
         <v>303534400</v>
@@ -1666,7 +1666,7 @@
         <v>126.7600021362305</v>
       </c>
       <c r="F53" t="n">
-        <v>88.83024597167969</v>
+        <v>88.83026885986328</v>
       </c>
       <c r="G53" t="n">
         <v>207368300</v>
@@ -1689,7 +1689,7 @@
         <v>124.5100021362305</v>
       </c>
       <c r="F54" t="n">
-        <v>87.25347900390625</v>
+        <v>87.25350189208984</v>
       </c>
       <c r="G54" t="n">
         <v>152698300</v>
@@ -1712,7 +1712,7 @@
         <v>128.4400024414062</v>
       </c>
       <c r="F55" t="n">
-        <v>90.00753784179688</v>
+        <v>90.00752258300781</v>
       </c>
       <c r="G55" t="n">
         <v>235349700</v>
@@ -1735,7 +1735,7 @@
         <v>128.6799926757812</v>
       </c>
       <c r="F56" t="n">
-        <v>90.17572021484375</v>
+        <v>90.17573547363281</v>
       </c>
       <c r="G56" t="n">
         <v>223453000</v>
@@ -1758,7 +1758,7 @@
         <v>125.9700012207031</v>
       </c>
       <c r="F57" t="n">
-        <v>88.27660369873047</v>
+        <v>88.27661895751953</v>
       </c>
       <c r="G57" t="n">
         <v>323622400</v>
@@ -1781,7 +1781,7 @@
         <v>128.5399932861328</v>
       </c>
       <c r="F58" t="n">
-        <v>90.07760620117188</v>
+        <v>90.07763671875</v>
       </c>
       <c r="G58" t="n">
         <v>344839100</v>
@@ -1827,7 +1827,7 @@
         <v>126.6399993896484</v>
       </c>
       <c r="F60" t="n">
-        <v>88.74613189697266</v>
+        <v>88.74615478515625</v>
       </c>
       <c r="G60" t="n">
         <v>302674200</v>
@@ -1850,7 +1850,7 @@
         <v>128.8099975585938</v>
       </c>
       <c r="F61" t="n">
-        <v>90.26682281494141</v>
+        <v>90.26683807373047</v>
       </c>
       <c r="G61" t="n">
         <v>330104900</v>
@@ -1873,7 +1873,7 @@
         <v>129.4100036621094</v>
       </c>
       <c r="F62" t="n">
-        <v>90.68726348876953</v>
+        <v>90.68731689453125</v>
       </c>
       <c r="G62" t="n">
         <v>168983600</v>
@@ -1896,7 +1896,7 @@
         <v>128.7599945068359</v>
       </c>
       <c r="F63" t="n">
-        <v>90.23175811767578</v>
+        <v>90.23178863525391</v>
       </c>
       <c r="G63" t="n">
         <v>292939800</v>
@@ -1919,7 +1919,7 @@
         <v>128.5899963378906</v>
       </c>
       <c r="F64" t="n">
-        <v>90.11266326904297</v>
+        <v>90.11264801025391</v>
       </c>
       <c r="G64" t="n">
         <v>302756000</v>
@@ -1942,7 +1942,7 @@
         <v>130.6199951171875</v>
       </c>
       <c r="F65" t="n">
-        <v>91.53520965576172</v>
+        <v>91.53524780273438</v>
       </c>
       <c r="G65" t="n">
         <v>281568500</v>
@@ -1988,7 +1988,7 @@
         <v>129.8300018310547</v>
       </c>
       <c r="F67" t="n">
-        <v>91.34344482421875</v>
+        <v>91.34342956542969</v>
       </c>
       <c r="G67" t="n">
         <v>309605900</v>
@@ -2011,7 +2011,7 @@
         <v>129.5399932861328</v>
       </c>
       <c r="F68" t="n">
-        <v>91.13939666748047</v>
+        <v>91.13936614990234</v>
       </c>
       <c r="G68" t="n">
         <v>305128300</v>
@@ -2034,7 +2034,7 @@
         <v>128.7100067138672</v>
       </c>
       <c r="F69" t="n">
-        <v>90.555419921875</v>
+        <v>90.55545043945312</v>
       </c>
       <c r="G69" t="n">
         <v>208381400</v>
@@ -2080,7 +2080,7 @@
         <v>131.4700012207031</v>
       </c>
       <c r="F71" t="n">
-        <v>92.49728393554688</v>
+        <v>92.49723815917969</v>
       </c>
       <c r="G71" t="n">
         <v>384501600</v>
@@ -2103,7 +2103,7 @@
         <v>132.5200042724609</v>
       </c>
       <c r="F72" t="n">
-        <v>93.23599243164062</v>
+        <v>93.23600769042969</v>
       </c>
       <c r="G72" t="n">
         <v>280384700</v>
@@ -2126,7 +2126,7 @@
         <v>129.2400054931641</v>
       </c>
       <c r="F73" t="n">
-        <v>90.92829895019531</v>
+        <v>90.92833709716797</v>
       </c>
       <c r="G73" t="n">
         <v>296612300</v>
@@ -2149,7 +2149,7 @@
         <v>127.0999984741211</v>
       </c>
       <c r="F74" t="n">
-        <v>89.42267608642578</v>
+        <v>89.42270660400391</v>
       </c>
       <c r="G74" t="n">
         <v>503172100</v>
@@ -2195,7 +2195,7 @@
         <v>129</v>
       </c>
       <c r="F76" t="n">
-        <v>90.75946044921875</v>
+        <v>90.75948333740234</v>
       </c>
       <c r="G76" t="n">
         <v>324770400</v>
@@ -2218,7 +2218,7 @@
         <v>125.3499984741211</v>
       </c>
       <c r="F77" t="n">
-        <v>88.19145965576172</v>
+        <v>88.19143676757812</v>
       </c>
       <c r="G77" t="n">
         <v>625132500</v>
@@ -2241,7 +2241,7 @@
         <v>124.6500015258789</v>
       </c>
       <c r="F78" t="n">
-        <v>87.69896697998047</v>
+        <v>87.69894409179688</v>
       </c>
       <c r="G78" t="n">
         <v>673381600</v>
@@ -2264,7 +2264,7 @@
         <v>124.4400024414062</v>
       </c>
       <c r="F79" t="n">
-        <v>87.93821716308594</v>
+        <v>87.93820953369141</v>
       </c>
       <c r="G79" t="n">
         <v>364980400</v>
@@ -2287,7 +2287,7 @@
         <v>127.2799987792969</v>
       </c>
       <c r="F80" t="n">
-        <v>89.94515228271484</v>
+        <v>89.94516754150391</v>
       </c>
       <c r="G80" t="n">
         <v>334910500</v>
@@ -2333,7 +2333,7 @@
         <v>123.5199966430664</v>
       </c>
       <c r="F82" t="n">
-        <v>87.28802490234375</v>
+        <v>87.28807067871094</v>
       </c>
       <c r="G82" t="n">
         <v>422814400</v>
@@ -2356,7 +2356,7 @@
         <v>123.9499969482422</v>
       </c>
       <c r="F83" t="n">
-        <v>87.59194183349609</v>
+        <v>87.59192657470703</v>
       </c>
       <c r="G83" t="n">
         <v>551315100</v>
@@ -2379,7 +2379,7 @@
         <v>127.9800033569336</v>
       </c>
       <c r="F84" t="n">
-        <v>90.43984222412109</v>
+        <v>90.43981170654297</v>
       </c>
       <c r="G84" t="n">
         <v>442284600</v>
@@ -2402,7 +2402,7 @@
         <v>128.1999969482422</v>
       </c>
       <c r="F85" t="n">
-        <v>90.59527587890625</v>
+        <v>90.59529876708984</v>
       </c>
       <c r="G85" t="n">
         <v>339577600</v>
@@ -2425,7 +2425,7 @@
         <v>127.0100021362305</v>
       </c>
       <c r="F86" t="n">
-        <v>89.75437164306641</v>
+        <v>89.75436401367188</v>
       </c>
       <c r="G86" t="n">
         <v>331993700</v>
@@ -2448,7 +2448,7 @@
         <v>130.6900024414062</v>
       </c>
       <c r="F87" t="n">
-        <v>92.35489654541016</v>
+        <v>92.35490417480469</v>
       </c>
       <c r="G87" t="n">
         <v>327000800</v>
@@ -2471,7 +2471,7 @@
         <v>129.8099975585938</v>
       </c>
       <c r="F88" t="n">
-        <v>91.73300170898438</v>
+        <v>91.73304748535156</v>
       </c>
       <c r="G88" t="n">
         <v>269304600</v>
@@ -2517,7 +2517,7 @@
         <v>130.2799987792969</v>
       </c>
       <c r="F90" t="n">
-        <v>92.06516265869141</v>
+        <v>92.06517028808594</v>
       </c>
       <c r="G90" t="n">
         <v>237509600</v>
@@ -2540,7 +2540,7 @@
         <v>131.9600067138672</v>
       </c>
       <c r="F91" t="n">
-        <v>93.25233459472656</v>
+        <v>93.25238037109375</v>
       </c>
       <c r="G91" t="n">
         <v>335779100</v>
@@ -2563,7 +2563,7 @@
         <v>131.4700012207031</v>
       </c>
       <c r="F92" t="n">
-        <v>93.31472778320312</v>
+        <v>93.314697265625</v>
       </c>
       <c r="G92" t="n">
         <v>386346600</v>
@@ -2586,7 +2586,7 @@
         <v>133.5800018310547</v>
       </c>
       <c r="F93" t="n">
-        <v>94.81233978271484</v>
+        <v>94.81233215332031</v>
       </c>
       <c r="G93" t="n">
         <v>355258100</v>
@@ -2609,7 +2609,7 @@
         <v>135.0099945068359</v>
       </c>
       <c r="F94" t="n">
-        <v>95.82731628417969</v>
+        <v>95.82729339599609</v>
       </c>
       <c r="G94" t="n">
         <v>331175500</v>
@@ -2632,7 +2632,7 @@
         <v>136.6300048828125</v>
       </c>
       <c r="F95" t="n">
-        <v>96.97714233398438</v>
+        <v>96.97716522216797</v>
       </c>
       <c r="G95" t="n">
         <v>314754900</v>
@@ -2655,7 +2655,7 @@
         <v>136.8399963378906</v>
       </c>
       <c r="F96" t="n">
-        <v>97.12625122070312</v>
+        <v>97.12619781494141</v>
       </c>
       <c r="G96" t="n">
         <v>331779900</v>
@@ -2678,7 +2678,7 @@
         <v>137.9100036621094</v>
       </c>
       <c r="F97" t="n">
-        <v>97.88568115234375</v>
+        <v>97.88568878173828</v>
       </c>
       <c r="G97" t="n">
         <v>344641900</v>
@@ -2701,7 +2701,7 @@
         <v>136.5399932861328</v>
       </c>
       <c r="F98" t="n">
-        <v>96.91326141357422</v>
+        <v>96.91328430175781</v>
       </c>
       <c r="G98" t="n">
         <v>336037000</v>
@@ -2747,7 +2747,7 @@
         <v>140.4199981689453</v>
       </c>
       <c r="F100" t="n">
-        <v>99.66724395751953</v>
+        <v>99.667236328125</v>
       </c>
       <c r="G100" t="n">
         <v>365694400</v>
@@ -2770,7 +2770,7 @@
         <v>140.3500061035156</v>
       </c>
       <c r="F101" t="n">
-        <v>99.61756134033203</v>
+        <v>99.61752319335938</v>
       </c>
       <c r="G101" t="n">
         <v>197045400</v>
@@ -2793,7 +2793,7 @@
         <v>140.2200012207031</v>
       </c>
       <c r="F102" t="n">
-        <v>99.52525329589844</v>
+        <v>99.52523803710938</v>
       </c>
       <c r="G102" t="n">
         <v>491307200</v>
@@ -2816,7 +2816,7 @@
         <v>141.4199981689453</v>
       </c>
       <c r="F103" t="n">
-        <v>100.3770294189453</v>
+        <v>100.3770065307617</v>
       </c>
       <c r="G103" t="n">
         <v>356923700</v>
@@ -2839,7 +2839,7 @@
         <v>142.3399963378906</v>
       </c>
       <c r="F104" t="n">
-        <v>101.0300445556641</v>
+        <v>101.0299987792969</v>
       </c>
       <c r="G104" t="n">
         <v>308363800</v>
@@ -2885,7 +2885,7 @@
         <v>141.6199951171875</v>
       </c>
       <c r="F106" t="n">
-        <v>101.0790100097656</v>
+        <v>101.0790023803711</v>
       </c>
       <c r="G106" t="n">
         <v>155174000</v>
@@ -2908,7 +2908,7 @@
         <v>140.5399932861328</v>
       </c>
       <c r="F107" t="n">
-        <v>100.3081893920898</v>
+        <v>100.3081741333008</v>
       </c>
       <c r="G107" t="n">
         <v>241073500</v>
@@ -2931,7 +2931,7 @@
         <v>143.2400054931641</v>
       </c>
       <c r="F108" t="n">
-        <v>102.2352828979492</v>
+        <v>102.2352523803711</v>
       </c>
       <c r="G108" t="n">
         <v>329610500</v>
@@ -2954,7 +2954,7 @@
         <v>142.8200073242188</v>
       </c>
       <c r="F109" t="n">
-        <v>101.9354858398438</v>
+        <v>101.9355163574219</v>
       </c>
       <c r="G109" t="n">
         <v>220263000</v>
@@ -3000,7 +3000,7 @@
         <v>144.8099975585938</v>
       </c>
       <c r="F111" t="n">
-        <v>103.3557968139648</v>
+        <v>103.3558197021484</v>
       </c>
       <c r="G111" t="n">
         <v>347310200</v>
@@ -3023,7 +3023,7 @@
         <v>143.9400024414062</v>
       </c>
       <c r="F112" t="n">
-        <v>102.7348709106445</v>
+        <v>102.7349166870117</v>
       </c>
       <c r="G112" t="n">
         <v>308181700</v>
@@ -3046,7 +3046,7 @@
         <v>145.7299957275391</v>
       </c>
       <c r="F113" t="n">
-        <v>104.0124969482422</v>
+        <v>104.0124664306641</v>
       </c>
       <c r="G113" t="n">
         <v>274335200</v>
@@ -3069,7 +3069,7 @@
         <v>145.3000030517578</v>
       </c>
       <c r="F114" t="n">
-        <v>103.7055587768555</v>
+        <v>103.7055816650391</v>
       </c>
       <c r="G114" t="n">
         <v>271917000</v>
@@ -3092,7 +3092,7 @@
         <v>138.6699981689453</v>
       </c>
       <c r="F115" t="n">
-        <v>98.97351837158203</v>
+        <v>98.9735107421875</v>
       </c>
       <c r="G115" t="n">
         <v>896598200</v>
@@ -3115,7 +3115,7 @@
         <v>140.7799987792969</v>
       </c>
       <c r="F116" t="n">
-        <v>100.4794769287109</v>
+        <v>100.4794692993164</v>
       </c>
       <c r="G116" t="n">
         <v>627885300</v>
@@ -3138,7 +3138,7 @@
         <v>138.5299987792969</v>
       </c>
       <c r="F117" t="n">
-        <v>98.87355804443359</v>
+        <v>98.87358856201172</v>
       </c>
       <c r="G117" t="n">
         <v>756793400</v>
@@ -3161,7 +3161,7 @@
         <v>143.3899993896484</v>
       </c>
       <c r="F118" t="n">
-        <v>102.7482223510742</v>
+        <v>102.7482528686523</v>
       </c>
       <c r="G118" t="n">
         <v>524036300</v>
@@ -3184,7 +3184,7 @@
         <v>142</v>
       </c>
       <c r="F119" t="n">
-        <v>101.7522201538086</v>
+        <v>101.7522354125977</v>
       </c>
       <c r="G119" t="n">
         <v>634186800</v>
@@ -3207,7 +3207,7 @@
         <v>144.2400054931641</v>
       </c>
       <c r="F120" t="n">
-        <v>103.3573150634766</v>
+        <v>103.3573455810547</v>
       </c>
       <c r="G120" t="n">
         <v>272652200</v>
@@ -3230,7 +3230,7 @@
         <v>145.3200073242188</v>
       </c>
       <c r="F121" t="n">
-        <v>104.1312103271484</v>
+        <v>104.1312713623047</v>
       </c>
       <c r="G121" t="n">
         <v>413774500</v>
@@ -3253,7 +3253,7 @@
         <v>148.6199951171875</v>
       </c>
       <c r="F122" t="n">
-        <v>106.4958953857422</v>
+        <v>106.4958801269531</v>
       </c>
       <c r="G122" t="n">
         <v>506895800</v>
@@ -3322,7 +3322,7 @@
         <v>150.8600006103516</v>
       </c>
       <c r="F125" t="n">
-        <v>108.1009750366211</v>
+        <v>108.1009979248047</v>
       </c>
       <c r="G125" t="n">
         <v>513142200</v>
@@ -3345,7 +3345,7 @@
         <v>152.6199951171875</v>
       </c>
       <c r="F126" t="n">
-        <v>109.3621444702148</v>
+        <v>109.3621597290039</v>
       </c>
       <c r="G126" t="n">
         <v>603182100</v>
@@ -3368,7 +3368,7 @@
         <v>151.6900024414062</v>
       </c>
       <c r="F127" t="n">
-        <v>108.695686340332</v>
+        <v>108.6957244873047</v>
       </c>
       <c r="G127" t="n">
         <v>661502200</v>
@@ -3391,7 +3391,7 @@
         <v>154.0800018310547</v>
       </c>
       <c r="F128" t="n">
-        <v>110.4083404541016</v>
+        <v>110.4083480834961</v>
       </c>
       <c r="G128" t="n">
         <v>433672000</v>
@@ -3437,7 +3437,7 @@
         <v>153.0700073242188</v>
       </c>
       <c r="F130" t="n">
-        <v>109.6845932006836</v>
+        <v>109.6845474243164</v>
       </c>
       <c r="G130" t="n">
         <v>829549100</v>
@@ -3483,7 +3483,7 @@
         <v>150.4299926757812</v>
       </c>
       <c r="F132" t="n">
-        <v>108.257438659668</v>
+        <v>108.257453918457</v>
       </c>
       <c r="G132" t="n">
         <v>1001504900</v>
@@ -3506,7 +3506,7 @@
         <v>152.9799957275391</v>
       </c>
       <c r="F133" t="n">
-        <v>110.0925674438477</v>
+        <v>110.0925903320312</v>
       </c>
       <c r="G133" t="n">
         <v>327793400</v>
@@ -3529,7 +3529,7 @@
         <v>154.8500061035156</v>
       </c>
       <c r="F134" t="n">
-        <v>111.4383392333984</v>
+        <v>111.4383163452148</v>
       </c>
       <c r="G134" t="n">
         <v>673995100</v>
@@ -3575,7 +3575,7 @@
         <v>145.1100006103516</v>
       </c>
       <c r="F136" t="n">
-        <v>104.4288940429688</v>
+        <v>104.4289016723633</v>
       </c>
       <c r="G136" t="n">
         <v>1533710900</v>
@@ -3598,7 +3598,7 @@
         <v>143.8000030517578</v>
       </c>
       <c r="F137" t="n">
-        <v>103.486198425293</v>
+        <v>103.4861602783203</v>
       </c>
       <c r="G137" t="n">
         <v>1721820800</v>
@@ -3621,7 +3621,7 @@
         <v>144.7100067138672</v>
       </c>
       <c r="F138" t="n">
-        <v>104.1410598754883</v>
+        <v>104.1410446166992</v>
       </c>
       <c r="G138" t="n">
         <v>1601119800</v>
@@ -3644,7 +3644,7 @@
         <v>144.7100067138672</v>
       </c>
       <c r="F139" t="n">
-        <v>104.1410598754883</v>
+        <v>104.1410446166992</v>
       </c>
       <c r="G139" t="n">
         <v>1704847500</v>
@@ -3667,7 +3667,7 @@
         <v>148.3300018310547</v>
       </c>
       <c r="F140" t="n">
-        <v>106.7461700439453</v>
+        <v>106.7462005615234</v>
       </c>
       <c r="G140" t="n">
         <v>850360700</v>
@@ -3690,7 +3690,7 @@
         <v>147.5899963378906</v>
       </c>
       <c r="F141" t="n">
-        <v>106.2136306762695</v>
+        <v>106.2136611938477</v>
       </c>
       <c r="G141" t="n">
         <v>917764000</v>
@@ -3736,7 +3736,7 @@
         <v>148.8999938964844</v>
       </c>
       <c r="F143" t="n">
-        <v>107.1563720703125</v>
+        <v>107.156379699707</v>
       </c>
       <c r="G143" t="n">
         <v>779932400</v>
@@ -3759,7 +3759,7 @@
         <v>151.9700012207031</v>
       </c>
       <c r="F144" t="n">
-        <v>109.3657150268555</v>
+        <v>109.3656921386719</v>
       </c>
       <c r="G144" t="n">
         <v>884054500</v>
@@ -3782,7 +3782,7 @@
         <v>152.5800018310547</v>
       </c>
       <c r="F145" t="n">
-        <v>110.3256378173828</v>
+        <v>110.3256225585938</v>
       </c>
       <c r="G145" t="n">
         <v>653372500</v>
@@ -3805,7 +3805,7 @@
         <v>155.8500061035156</v>
       </c>
       <c r="F146" t="n">
-        <v>112.6900253295898</v>
+        <v>112.6900634765625</v>
       </c>
       <c r="G146" t="n">
         <v>591641100</v>
@@ -3828,7 +3828,7 @@
         <v>156.3300018310547</v>
       </c>
       <c r="F147" t="n">
-        <v>113.0371322631836</v>
+        <v>113.0370788574219</v>
       </c>
       <c r="G147" t="n">
         <v>625121600</v>
@@ -3851,7 +3851,7 @@
         <v>149.6699981689453</v>
       </c>
       <c r="F148" t="n">
-        <v>108.2215118408203</v>
+        <v>108.2215270996094</v>
       </c>
       <c r="G148" t="n">
         <v>989902300</v>
@@ -3874,7 +3874,7 @@
         <v>153.6199951171875</v>
       </c>
       <c r="F149" t="n">
-        <v>111.0775985717773</v>
+        <v>111.0775680541992</v>
       </c>
       <c r="G149" t="n">
         <v>1182627600</v>
@@ -3897,7 +3897,7 @@
         <v>151.1999969482422</v>
       </c>
       <c r="F150" t="n">
-        <v>109.327751159668</v>
+        <v>109.3278274536133</v>
       </c>
       <c r="G150" t="n">
         <v>1125046000</v>
@@ -3920,7 +3920,7 @@
         <v>145.1399993896484</v>
       </c>
       <c r="F151" t="n">
-        <v>104.9460296630859</v>
+        <v>104.9459915161133</v>
       </c>
       <c r="G151" t="n">
         <v>1363536200</v>
@@ -3943,7 +3943,7 @@
         <v>145.7899932861328</v>
       </c>
       <c r="F152" t="n">
-        <v>105.4159851074219</v>
+        <v>105.4159774780273</v>
       </c>
       <c r="G152" t="n">
         <v>1236645700</v>
@@ -3966,7 +3966,7 @@
         <v>144.1300048828125</v>
       </c>
       <c r="F153" t="n">
-        <v>104.2156753540039</v>
+        <v>104.2156829833984</v>
       </c>
       <c r="G153" t="n">
         <v>1019214300</v>
@@ -3989,7 +3989,7 @@
         <v>148.6600036621094</v>
       </c>
       <c r="F154" t="n">
-        <v>107.4911956787109</v>
+        <v>107.4912338256836</v>
       </c>
       <c r="G154" t="n">
         <v>1189044700</v>
@@ -4012,7 +4012,7 @@
         <v>150.9100036621094</v>
       </c>
       <c r="F155" t="n">
-        <v>109.1181106567383</v>
+        <v>109.1181335449219</v>
       </c>
       <c r="G155" t="n">
         <v>757531800</v>
@@ -4058,7 +4058,7 @@
         <v>148.1300048828125</v>
       </c>
       <c r="F157" t="n">
-        <v>107.1079559326172</v>
+        <v>107.1080169677734</v>
       </c>
       <c r="G157" t="n">
         <v>982654100</v>
@@ -4081,7 +4081,7 @@
         <v>147.3000030517578</v>
       </c>
       <c r="F158" t="n">
-        <v>107.0730438232422</v>
+        <v>107.0731048583984</v>
       </c>
       <c r="G158" t="n">
         <v>352074300</v>
@@ -4104,7 +4104,7 @@
         <v>141.3099975585938</v>
       </c>
       <c r="F159" t="n">
-        <v>102.7189483642578</v>
+        <v>102.7189788818359</v>
       </c>
       <c r="G159" t="n">
         <v>670526600</v>
@@ -4127,7 +4127,7 @@
         <v>140.1499938964844</v>
       </c>
       <c r="F160" t="n">
-        <v>101.8757705688477</v>
+        <v>101.8757171630859</v>
       </c>
       <c r="G160" t="n">
         <v>1465959400</v>
@@ -4150,7 +4150,7 @@
         <v>132.0599975585938</v>
       </c>
       <c r="F161" t="n">
-        <v>95.99507904052734</v>
+        <v>95.99503326416016</v>
       </c>
       <c r="G161" t="n">
         <v>1535562300</v>
@@ -4219,7 +4219,7 @@
         <v>133.0700073242188</v>
       </c>
       <c r="F164" t="n">
-        <v>96.729248046875</v>
+        <v>96.72925567626953</v>
       </c>
       <c r="G164" t="n">
         <v>1181381300</v>
@@ -4242,7 +4242,7 @@
         <v>135.1399993896484</v>
       </c>
       <c r="F165" t="n">
-        <v>98.23393249511719</v>
+        <v>98.23391723632812</v>
       </c>
       <c r="G165" t="n">
         <v>996516000</v>
@@ -4265,7 +4265,7 @@
         <v>135.6199951171875</v>
       </c>
       <c r="F166" t="n">
-        <v>98.58286285400391</v>
+        <v>98.58285522460938</v>
       </c>
       <c r="G166" t="n">
         <v>771817900</v>
@@ -4288,7 +4288,7 @@
         <v>133.8200073242188</v>
       </c>
       <c r="F167" t="n">
-        <v>97.27442169189453</v>
+        <v>97.27444458007812</v>
       </c>
       <c r="G167" t="n">
         <v>994469800</v>
@@ -4311,7 +4311,7 @@
         <v>129.7100067138672</v>
       </c>
       <c r="F168" t="n">
-        <v>94.28681945800781</v>
+        <v>94.28683471679688</v>
       </c>
       <c r="G168" t="n">
         <v>1317024300</v>
@@ -4357,7 +4357,7 @@
         <v>132.0800018310547</v>
       </c>
       <c r="F170" t="n">
-        <v>96.00959777832031</v>
+        <v>96.00962829589844</v>
       </c>
       <c r="G170" t="n">
         <v>1331020000</v>
@@ -4380,7 +4380,7 @@
         <v>131.5099945068359</v>
       </c>
       <c r="F171" t="n">
-        <v>96.06853485107422</v>
+        <v>96.06851959228516</v>
       </c>
       <c r="G171" t="n">
         <v>1004908100</v>
@@ -4403,7 +4403,7 @@
         <v>136.8899993896484</v>
       </c>
       <c r="F172" t="n">
-        <v>99.99864196777344</v>
+        <v>99.99861907958984</v>
       </c>
       <c r="G172" t="n">
         <v>1012481800</v>
@@ -4426,7 +4426,7 @@
         <v>133.3800048828125</v>
       </c>
       <c r="F173" t="n">
-        <v>97.43458557128906</v>
+        <v>97.4345703125</v>
       </c>
       <c r="G173" t="n">
         <v>914734500</v>
@@ -4449,7 +4449,7 @@
         <v>138.4799957275391</v>
       </c>
       <c r="F174" t="n">
-        <v>101.1601409912109</v>
+        <v>101.1601715087891</v>
       </c>
       <c r="G174" t="n">
         <v>920376400</v>
@@ -4472,7 +4472,7 @@
         <v>139.6000061035156</v>
       </c>
       <c r="F175" t="n">
-        <v>101.9783020019531</v>
+        <v>101.9783401489258</v>
       </c>
       <c r="G175" t="n">
         <v>894231800</v>
@@ -4495,7 +4495,7 @@
         <v>141.5099945068359</v>
       </c>
       <c r="F176" t="n">
-        <v>103.3735809326172</v>
+        <v>103.3735961914062</v>
       </c>
       <c r="G176" t="n">
         <v>808385200</v>
@@ -4564,7 +4564,7 @@
         <v>137.6399993896484</v>
       </c>
       <c r="F179" t="n">
-        <v>100.546516418457</v>
+        <v>100.546501159668</v>
       </c>
       <c r="G179" t="n">
         <v>949138100</v>
@@ -4587,7 +4587,7 @@
         <v>140.3500061035156</v>
       </c>
       <c r="F180" t="n">
-        <v>102.5261917114258</v>
+        <v>102.5261840820312</v>
       </c>
       <c r="G180" t="n">
         <v>640900200</v>
@@ -4610,7 +4610,7 @@
         <v>136.2899932861328</v>
       </c>
       <c r="F181" t="n">
-        <v>99.56034088134766</v>
+        <v>99.56033325195312</v>
       </c>
       <c r="G181" t="n">
         <v>1321816700</v>
@@ -4633,7 +4633,7 @@
         <v>136.1499938964844</v>
       </c>
       <c r="F182" t="n">
-        <v>99.45807647705078</v>
+        <v>99.45800018310547</v>
       </c>
       <c r="G182" t="n">
         <v>1269907600</v>
@@ -4656,7 +4656,7 @@
         <v>131.5800018310547</v>
       </c>
       <c r="F183" t="n">
-        <v>96.11968231201172</v>
+        <v>96.11968994140625</v>
       </c>
       <c r="G183" t="n">
         <v>1236913800</v>
@@ -4679,7 +4679,7 @@
         <v>127.5299987792969</v>
       </c>
       <c r="F184" t="n">
-        <v>93.62709045410156</v>
+        <v>93.62710571289062</v>
       </c>
       <c r="G184" t="n">
         <v>1321449300</v>
@@ -4702,7 +4702,7 @@
         <v>126.3099975585938</v>
       </c>
       <c r="F185" t="n">
-        <v>92.73143768310547</v>
+        <v>92.73143005371094</v>
       </c>
       <c r="G185" t="n">
         <v>1174881700</v>
@@ -4725,7 +4725,7 @@
         <v>123.8399963378906</v>
       </c>
       <c r="F186" t="n">
-        <v>90.91805267333984</v>
+        <v>90.91807556152344</v>
       </c>
       <c r="G186" t="n">
         <v>2002730700</v>
@@ -4748,7 +4748,7 @@
         <v>125.9800033569336</v>
       </c>
       <c r="F187" t="n">
-        <v>92.48916625976562</v>
+        <v>92.48914337158203</v>
       </c>
       <c r="G187" t="n">
         <v>1839386900</v>
@@ -4771,7 +4771,7 @@
         <v>125.4800033569336</v>
       </c>
       <c r="F188" t="n">
-        <v>92.12209320068359</v>
+        <v>92.12208557128906</v>
       </c>
       <c r="G188" t="n">
         <v>1299231100</v>
@@ -4794,7 +4794,7 @@
         <v>126.1600036621094</v>
       </c>
       <c r="F189" t="n">
-        <v>92.62132263183594</v>
+        <v>92.62128448486328</v>
       </c>
       <c r="G189" t="n">
         <v>1347509900</v>
@@ -4817,7 +4817,7 @@
         <v>129.3699951171875</v>
       </c>
       <c r="F190" t="n">
-        <v>94.97798156738281</v>
+        <v>94.97794342041016</v>
       </c>
       <c r="G190" t="n">
         <v>1156496800</v>
@@ -4886,7 +4886,7 @@
         <v>128.7899932861328</v>
       </c>
       <c r="F193" t="n">
-        <v>94.55214691162109</v>
+        <v>94.55213165283203</v>
       </c>
       <c r="G193" t="n">
         <v>858819800</v>
@@ -4909,7 +4909,7 @@
         <v>124.4199981689453</v>
       </c>
       <c r="F194" t="n">
-        <v>91.34388732910156</v>
+        <v>91.3438720703125</v>
       </c>
       <c r="G194" t="n">
         <v>1133857800</v>
@@ -4932,7 +4932,7 @@
         <v>126.0899963378906</v>
       </c>
       <c r="F195" t="n">
-        <v>92.56990051269531</v>
+        <v>92.56991577148438</v>
       </c>
       <c r="G195" t="n">
         <v>1713539300</v>
@@ -4955,7 +4955,7 @@
         <v>124.120002746582</v>
       </c>
       <c r="F196" t="n">
-        <v>91.12364196777344</v>
+        <v>91.12362670898438</v>
       </c>
       <c r="G196" t="n">
         <v>2966649400</v>
@@ -4978,7 +4978,7 @@
         <v>120.8499984741211</v>
       </c>
       <c r="F197" t="n">
-        <v>89.23648071289062</v>
+        <v>89.2364501953125</v>
       </c>
       <c r="G197" t="n">
         <v>1503425700</v>
@@ -5024,7 +5024,7 @@
         <v>88.5</v>
       </c>
       <c r="F199" t="n">
-        <v>65.3489990234375</v>
+        <v>65.34901428222656</v>
       </c>
       <c r="G199" t="n">
         <v>3281575900</v>
@@ -5047,7 +5047,7 @@
         <v>93.20999908447266</v>
       </c>
       <c r="F200" t="n">
-        <v>68.82693481445312</v>
+        <v>68.82695007324219</v>
       </c>
       <c r="G200" t="n">
         <v>2671940000</v>
@@ -5070,7 +5070,7 @@
         <v>87.04000091552734</v>
       </c>
       <c r="F201" t="n">
-        <v>64.27094268798828</v>
+        <v>64.27095794677734</v>
       </c>
       <c r="G201" t="n">
         <v>2374443200</v>
@@ -5093,7 +5093,7 @@
         <v>96.83000183105469</v>
       </c>
       <c r="F202" t="n">
-        <v>71.49993133544922</v>
+        <v>71.49996948242188</v>
       </c>
       <c r="G202" t="n">
         <v>2394474300</v>
@@ -5139,7 +5139,7 @@
         <v>86.62000274658203</v>
       </c>
       <c r="F204" t="n">
-        <v>63.96080017089844</v>
+        <v>63.9608154296875</v>
       </c>
       <c r="G204" t="n">
         <v>2468096000</v>
@@ -5162,7 +5162,7 @@
         <v>79.51999664306641</v>
       </c>
       <c r="F205" t="n">
-        <v>58.71811294555664</v>
+        <v>58.71811676025391</v>
       </c>
       <c r="G205" t="n">
         <v>3030111200</v>
@@ -5185,7 +5185,7 @@
         <v>90.08999633789062</v>
       </c>
       <c r="F206" t="n">
-        <v>66.52306365966797</v>
+        <v>66.52310943603516</v>
       </c>
       <c r="G206" t="n">
         <v>1465860000</v>
@@ -5208,7 +5208,7 @@
         <v>87.93000030517578</v>
       </c>
       <c r="F207" t="n">
-        <v>64.92811584472656</v>
+        <v>64.92813873291016</v>
       </c>
       <c r="G207" t="n">
         <v>2275378100</v>
@@ -5231,7 +5231,7 @@
         <v>88.98999786376953</v>
       </c>
       <c r="F208" t="n">
-        <v>65.71083831787109</v>
+        <v>65.71083068847656</v>
       </c>
       <c r="G208" t="n">
         <v>1959958100</v>
@@ -5254,7 +5254,7 @@
         <v>88.19000244140625</v>
       </c>
       <c r="F209" t="n">
-        <v>65.12010955810547</v>
+        <v>65.12015533447266</v>
       </c>
       <c r="G209" t="n">
         <v>1592338100</v>
@@ -5277,7 +5277,7 @@
         <v>87.16000366210938</v>
       </c>
       <c r="F210" t="n">
-        <v>64.88199615478516</v>
+        <v>64.88202667236328</v>
       </c>
       <c r="G210" t="n">
         <v>602214000</v>
@@ -5300,7 +5300,7 @@
         <v>92.95999908447266</v>
       </c>
       <c r="F211" t="n">
-        <v>69.19954681396484</v>
+        <v>69.19955444335938</v>
       </c>
       <c r="G211" t="n">
         <v>717605700</v>
@@ -5323,7 +5323,7 @@
         <v>89.08999633789062</v>
       </c>
       <c r="F212" t="n">
-        <v>66.31870269775391</v>
+        <v>66.31868743896484</v>
       </c>
       <c r="G212" t="n">
         <v>1444297800</v>
@@ -5346,7 +5346,7 @@
         <v>85.05999755859375</v>
       </c>
       <c r="F213" t="n">
-        <v>63.31880569458008</v>
+        <v>63.31880950927734</v>
       </c>
       <c r="G213" t="n">
         <v>2001666900</v>
@@ -5392,7 +5392,7 @@
         <v>82.83000183105469</v>
       </c>
       <c r="F215" t="n">
-        <v>61.65873718261719</v>
+        <v>61.65876770019531</v>
       </c>
       <c r="G215" t="n">
         <v>1599551600</v>
@@ -5415,7 +5415,7 @@
         <v>86.98000335693359</v>
       </c>
       <c r="F216" t="n">
-        <v>64.74802398681641</v>
+        <v>64.74803924560547</v>
       </c>
       <c r="G216" t="n">
         <v>1673389500</v>
@@ -5461,7 +5461,7 @@
         <v>77.41999816894531</v>
       </c>
       <c r="F218" t="n">
-        <v>57.63153457641602</v>
+        <v>57.63154220581055</v>
       </c>
       <c r="G218" t="n">
         <v>1635919000</v>
@@ -5484,7 +5484,7 @@
         <v>73.93000030517578</v>
       </c>
       <c r="F219" t="n">
-        <v>55.03359985351562</v>
+        <v>55.03358459472656</v>
       </c>
       <c r="G219" t="n">
         <v>2101752900</v>
@@ -5530,7 +5530,7 @@
         <v>76.08999633789062</v>
       </c>
       <c r="F221" t="n">
-        <v>56.64147567749023</v>
+        <v>56.6414909362793</v>
       </c>
       <c r="G221" t="n">
         <v>1889958900</v>
@@ -5576,7 +5576,7 @@
         <v>81.61000061035156</v>
       </c>
       <c r="F223" t="n">
-        <v>61.18541717529297</v>
+        <v>61.18540954589844</v>
       </c>
       <c r="G223" t="n">
         <v>1936336900</v>
@@ -5599,7 +5599,7 @@
         <v>84.26000213623047</v>
       </c>
       <c r="F224" t="n">
-        <v>63.17220687866211</v>
+        <v>63.17218017578125</v>
       </c>
       <c r="G224" t="n">
         <v>1826242100</v>
@@ -5622,7 +5622,7 @@
         <v>85.80999755859375</v>
       </c>
       <c r="F225" t="n">
-        <v>64.33425140380859</v>
+        <v>64.33425903320312</v>
       </c>
       <c r="G225" t="n">
         <v>1023870700</v>
@@ -5645,7 +5645,7 @@
         <v>87.08000183105469</v>
       </c>
       <c r="F226" t="n">
-        <v>65.28643798828125</v>
+        <v>65.28645324707031</v>
       </c>
       <c r="G226" t="n">
         <v>1350024300</v>
@@ -5668,7 +5668,7 @@
         <v>86.66000366210938</v>
       </c>
       <c r="F227" t="n">
-        <v>64.97152709960938</v>
+        <v>64.97154235839844</v>
       </c>
       <c r="G227" t="n">
         <v>1360782900</v>
@@ -5714,7 +5714,7 @@
         <v>92.98000335693359</v>
       </c>
       <c r="F229" t="n">
-        <v>69.70981597900391</v>
+        <v>69.70982360839844</v>
       </c>
       <c r="G229" t="n">
         <v>1438907000</v>
@@ -5737,7 +5737,7 @@
         <v>88.70999908447266</v>
       </c>
       <c r="F230" t="n">
-        <v>66.50849151611328</v>
+        <v>66.50843811035156</v>
       </c>
       <c r="G230" t="n">
         <v>1331575400</v>
@@ -5760,7 +5760,7 @@
         <v>89.01999664306641</v>
       </c>
       <c r="F231" t="n">
-        <v>66.74089050292969</v>
+        <v>66.74088287353516</v>
       </c>
       <c r="G231" t="n">
         <v>1159072100</v>
@@ -5783,7 +5783,7 @@
         <v>92.52999877929688</v>
       </c>
       <c r="F232" t="n">
-        <v>69.3724365234375</v>
+        <v>69.37245941162109</v>
       </c>
       <c r="G232" t="n">
         <v>1030070800</v>
@@ -5829,7 +5829,7 @@
         <v>95.08000183105469</v>
       </c>
       <c r="F234" t="n">
-        <v>71.28424835205078</v>
+        <v>71.28427124023438</v>
       </c>
       <c r="G234" t="n">
         <v>1219567000</v>
@@ -5898,7 +5898,7 @@
         <v>89.80999755859375</v>
       </c>
       <c r="F237" t="n">
-        <v>67.71354675292969</v>
+        <v>67.71352386474609</v>
       </c>
       <c r="G237" t="n">
         <v>782720500</v>
@@ -5921,7 +5921,7 @@
         <v>87.95999908447266</v>
       </c>
       <c r="F238" t="n">
-        <v>66.31869506835938</v>
+        <v>66.31868743896484</v>
       </c>
       <c r="G238" t="n">
         <v>956936900</v>
@@ -5944,7 +5944,7 @@
         <v>94.12999725341797</v>
       </c>
       <c r="F239" t="n">
-        <v>70.97064971923828</v>
+        <v>70.97065734863281</v>
       </c>
       <c r="G239" t="n">
         <v>989515000</v>
@@ -5967,7 +5967,7 @@
         <v>98.05999755859375</v>
       </c>
       <c r="F240" t="n">
-        <v>73.93374633789062</v>
+        <v>73.93372344970703</v>
       </c>
       <c r="G240" t="n">
         <v>990764400</v>
@@ -5990,7 +5990,7 @@
         <v>98.80999755859375</v>
       </c>
       <c r="F241" t="n">
-        <v>74.49921417236328</v>
+        <v>74.49919891357422</v>
       </c>
       <c r="G241" t="n">
         <v>973277300</v>
@@ -6013,7 +6013,7 @@
         <v>101.1999969482422</v>
       </c>
       <c r="F242" t="n">
-        <v>76.30118560791016</v>
+        <v>76.30120086669922</v>
       </c>
       <c r="G242" t="n">
         <v>951062600</v>
@@ -6036,7 +6036,7 @@
         <v>100.7900009155273</v>
       </c>
       <c r="F243" t="n">
-        <v>75.99205017089844</v>
+        <v>75.99207305908203</v>
       </c>
       <c r="G243" t="n">
         <v>883317700</v>
@@ -6082,7 +6082,7 @@
         <v>103.379997253418</v>
       </c>
       <c r="F245" t="n">
-        <v>77.94483947753906</v>
+        <v>77.94483184814453</v>
       </c>
       <c r="G245" t="n">
         <v>944464800</v>
@@ -6105,7 +6105,7 @@
         <v>102.0599975585938</v>
       </c>
       <c r="F246" t="n">
-        <v>76.94959259033203</v>
+        <v>76.9495849609375</v>
       </c>
       <c r="G246" t="n">
         <v>955393600</v>
@@ -6151,7 +6151,7 @@
         <v>106.7200012207031</v>
       </c>
       <c r="F248" t="n">
-        <v>80.46309661865234</v>
+        <v>80.46304321289062</v>
       </c>
       <c r="G248" t="n">
         <v>935766000</v>
@@ -6220,7 +6220,7 @@
         <v>107.2600021362305</v>
       </c>
       <c r="F251" t="n">
-        <v>81.25545501708984</v>
+        <v>81.25540161132812</v>
       </c>
       <c r="G251" t="n">
         <v>829880500</v>
@@ -6243,7 +6243,7 @@
         <v>108.8899993896484</v>
       </c>
       <c r="F252" t="n">
-        <v>82.49024200439453</v>
+        <v>82.49021911621094</v>
       </c>
       <c r="G252" t="n">
         <v>833088300</v>
@@ -6312,7 +6312,7 @@
         <v>107.129997253418</v>
       </c>
       <c r="F255" t="n">
-        <v>81.15694427490234</v>
+        <v>81.15692138671875</v>
       </c>
       <c r="G255" t="n">
         <v>1081551600</v>
@@ -6335,7 +6335,7 @@
         <v>109.620002746582</v>
       </c>
       <c r="F256" t="n">
-        <v>83.04325103759766</v>
+        <v>83.04325866699219</v>
       </c>
       <c r="G256" t="n">
         <v>808969200</v>
@@ -6358,7 +6358,7 @@
         <v>109.4300003051758</v>
       </c>
       <c r="F257" t="n">
-        <v>82.89933013916016</v>
+        <v>82.89933776855469</v>
       </c>
       <c r="G257" t="n">
         <v>857473700</v>
@@ -6404,7 +6404,7 @@
         <v>111.0100021362305</v>
       </c>
       <c r="F259" t="n">
-        <v>84.09621429443359</v>
+        <v>84.09626007080078</v>
       </c>
       <c r="G259" t="n">
         <v>895036300</v>
@@ -6427,7 +6427,7 @@
         <v>111.1100006103516</v>
       </c>
       <c r="F260" t="n">
-        <v>84.17201232910156</v>
+        <v>84.17200469970703</v>
       </c>
       <c r="G260" t="n">
         <v>715769500</v>
@@ -6450,7 +6450,7 @@
         <v>110.2099990844727</v>
       </c>
       <c r="F261" t="n">
-        <v>83.49020385742188</v>
+        <v>83.49019622802734</v>
       </c>
       <c r="G261" t="n">
         <v>740889800</v>
@@ -6473,7 +6473,7 @@
         <v>112.4800033569336</v>
       </c>
       <c r="F262" t="n">
-        <v>85.66860961914062</v>
+        <v>85.66857147216797</v>
       </c>
       <c r="G262" t="n">
         <v>361207700</v>
@@ -6496,7 +6496,7 @@
         <v>111.4400024414062</v>
       </c>
       <c r="F263" t="n">
-        <v>84.87653350830078</v>
+        <v>84.87649536132812</v>
       </c>
       <c r="G263" t="n">
         <v>331857300</v>
@@ -6519,7 +6519,7 @@
         <v>114.5699996948242</v>
       </c>
       <c r="F264" t="n">
-        <v>87.26041412353516</v>
+        <v>87.26042175292969</v>
       </c>
       <c r="G264" t="n">
         <v>604092800</v>
@@ -6565,7 +6565,7 @@
         <v>109.2099990844727</v>
       </c>
       <c r="F266" t="n">
-        <v>83.17806243896484</v>
+        <v>83.17805480957031</v>
       </c>
       <c r="G266" t="n">
         <v>1046464900</v>
@@ -6588,7 +6588,7 @@
         <v>107.3899993896484</v>
       </c>
       <c r="F267" t="n">
-        <v>81.7918701171875</v>
+        <v>81.79187774658203</v>
       </c>
       <c r="G267" t="n">
         <v>1296751500</v>
@@ -6611,7 +6611,7 @@
         <v>106.6600036621094</v>
       </c>
       <c r="F268" t="n">
-        <v>81.23587799072266</v>
+        <v>81.23590087890625</v>
       </c>
       <c r="G268" t="n">
         <v>1427225100</v>
@@ -6634,7 +6634,7 @@
         <v>108.0400009155273</v>
       </c>
       <c r="F269" t="n">
-        <v>82.28696441650391</v>
+        <v>82.28693389892578</v>
       </c>
       <c r="G269" t="n">
         <v>1330712600</v>
@@ -6680,7 +6680,7 @@
         <v>110.7399978637695</v>
       </c>
       <c r="F271" t="n">
-        <v>84.34336090087891</v>
+        <v>84.34335327148438</v>
       </c>
       <c r="G271" t="n">
         <v>949418600</v>
@@ -6703,7 +6703,7 @@
         <v>114.25</v>
       </c>
       <c r="F272" t="n">
-        <v>87.01667022705078</v>
+        <v>87.01669311523438</v>
       </c>
       <c r="G272" t="n">
         <v>771376300</v>
@@ -6726,7 +6726,7 @@
         <v>115.4599990844727</v>
       </c>
       <c r="F273" t="n">
-        <v>87.93828582763672</v>
+        <v>87.93830108642578</v>
       </c>
       <c r="G273" t="n">
         <v>778142600</v>
@@ -6749,7 +6749,7 @@
         <v>115.9700012207031</v>
       </c>
       <c r="F274" t="n">
-        <v>88.32670593261719</v>
+        <v>88.32669067382812</v>
       </c>
       <c r="G274" t="n">
         <v>916108100</v>
@@ -6818,7 +6818,7 @@
         <v>119.5500030517578</v>
       </c>
       <c r="F277" t="n">
-        <v>91.42829895019531</v>
+        <v>91.42835998535156</v>
       </c>
       <c r="G277" t="n">
         <v>692518600</v>
@@ -6841,7 +6841,7 @@
         <v>119.3600006103516</v>
       </c>
       <c r="F278" t="n">
-        <v>91.28301239013672</v>
+        <v>91.28299713134766</v>
       </c>
       <c r="G278" t="n">
         <v>908333600</v>
@@ -6864,7 +6864,7 @@
         <v>121.8099975585938</v>
       </c>
       <c r="F279" t="n">
-        <v>93.15666961669922</v>
+        <v>93.15670776367188</v>
       </c>
       <c r="G279" t="n">
         <v>861261700</v>
@@ -6887,7 +6887,7 @@
         <v>118.8099975585938</v>
       </c>
       <c r="F280" t="n">
-        <v>90.86237335205078</v>
+        <v>90.86238098144531</v>
       </c>
       <c r="G280" t="n">
         <v>1263760600</v>
@@ -6910,7 +6910,7 @@
         <v>111.2600021362305</v>
       </c>
       <c r="F281" t="n">
-        <v>85.08836364746094</v>
+        <v>85.08835601806641</v>
       </c>
       <c r="G281" t="n">
         <v>2156989900</v>
@@ -6933,7 +6933,7 @@
         <v>113.8899993896484</v>
       </c>
       <c r="F282" t="n">
-        <v>87.09968566894531</v>
+        <v>87.09972381591797</v>
       </c>
       <c r="G282" t="n">
         <v>1529670400</v>
@@ -6956,7 +6956,7 @@
         <v>109.1100006103516</v>
       </c>
       <c r="F283" t="n">
-        <v>83.44410705566406</v>
+        <v>83.44412231445312</v>
       </c>
       <c r="G283" t="n">
         <v>2112367000</v>
@@ -6979,7 +6979,7 @@
         <v>109.370002746582</v>
       </c>
       <c r="F284" t="n">
-        <v>83.64295196533203</v>
+        <v>83.64295959472656</v>
       </c>
       <c r="G284" t="n">
         <v>1614851500</v>
@@ -7002,7 +7002,7 @@
         <v>106.8199996948242</v>
       </c>
       <c r="F285" t="n">
-        <v>81.69281768798828</v>
+        <v>81.69278717041016</v>
       </c>
       <c r="G285" t="n">
         <v>1143247000</v>
@@ -7025,7 +7025,7 @@
         <v>109.6800003051758</v>
       </c>
       <c r="F286" t="n">
-        <v>83.88002014160156</v>
+        <v>83.87999725341797</v>
       </c>
       <c r="G286" t="n">
         <v>1422425500</v>
@@ -7048,7 +7048,7 @@
         <v>111.7300033569336</v>
       </c>
       <c r="F287" t="n">
-        <v>85.44783020019531</v>
+        <v>85.44778442382812</v>
       </c>
       <c r="G287" t="n">
         <v>1099031200</v>
@@ -7094,7 +7094,7 @@
         <v>102.1999969482422</v>
       </c>
       <c r="F289" t="n">
-        <v>78.53138732910156</v>
+        <v>78.53142547607422</v>
       </c>
       <c r="G289" t="n">
         <v>1443279800</v>
@@ -7117,7 +7117,7 @@
         <v>107.9599990844727</v>
       </c>
       <c r="F290" t="n">
-        <v>82.95743560791016</v>
+        <v>82.95742797851562</v>
       </c>
       <c r="G290" t="n">
         <v>866546700</v>
@@ -7163,7 +7163,7 @@
         <v>110.4100036621094</v>
       </c>
       <c r="F292" t="n">
-        <v>84.84007263183594</v>
+        <v>84.84004211425781</v>
       </c>
       <c r="G292" t="n">
         <v>1206200500</v>
@@ -7209,7 +7209,7 @@
         <v>112.3899993896484</v>
       </c>
       <c r="F294" t="n">
-        <v>86.36148071289062</v>
+        <v>86.36150360107422</v>
       </c>
       <c r="G294" t="n">
         <v>873294300</v>
@@ -7232,7 +7232,7 @@
         <v>108.3099975585938</v>
       </c>
       <c r="F295" t="n">
-        <v>83.22641754150391</v>
+        <v>83.22637939453125</v>
       </c>
       <c r="G295" t="n">
         <v>1035364700</v>
@@ -7255,7 +7255,7 @@
         <v>107.5299987792969</v>
       </c>
       <c r="F296" t="n">
-        <v>82.62702178955078</v>
+        <v>82.62702941894531</v>
       </c>
       <c r="G296" t="n">
         <v>978649500</v>
@@ -7278,7 +7278,7 @@
         <v>106.8600006103516</v>
       </c>
       <c r="F297" t="n">
-        <v>82.11219024658203</v>
+        <v>82.1121826171875</v>
       </c>
       <c r="G297" t="n">
         <v>1213491400</v>
@@ -7301,7 +7301,7 @@
         <v>110.8899993896484</v>
       </c>
       <c r="F298" t="n">
-        <v>85.20889282226562</v>
+        <v>85.20886993408203</v>
       </c>
       <c r="G298" t="n">
         <v>1066309300</v>
@@ -7324,7 +7324,7 @@
         <v>111.4800033569336</v>
       </c>
       <c r="F299" t="n">
-        <v>85.66224670410156</v>
+        <v>85.66223907470703</v>
       </c>
       <c r="G299" t="n">
         <v>566735000</v>
@@ -7370,7 +7370,7 @@
         <v>114.8199996948242</v>
       </c>
       <c r="F301" t="n">
-        <v>88.7010498046875</v>
+        <v>88.70104217529297</v>
       </c>
       <c r="G301" t="n">
         <v>1086292800</v>
@@ -7393,7 +7393,7 @@
         <v>114.6100006103516</v>
       </c>
       <c r="F302" t="n">
-        <v>88.53884887695312</v>
+        <v>88.53882598876953</v>
       </c>
       <c r="G302" t="n">
         <v>979380500</v>
@@ -7416,7 +7416,7 @@
         <v>116.5400009155273</v>
       </c>
       <c r="F303" t="n">
-        <v>90.02980804443359</v>
+        <v>90.02979278564453</v>
       </c>
       <c r="G303" t="n">
         <v>887034000</v>
@@ -7439,7 +7439,7 @@
         <v>117.6999969482422</v>
       </c>
       <c r="F304" t="n">
-        <v>90.92591857910156</v>
+        <v>90.92595672607422</v>
       </c>
       <c r="G304" t="n">
         <v>941124800</v>
@@ -7462,7 +7462,7 @@
         <v>118.3499984741211</v>
       </c>
       <c r="F305" t="n">
-        <v>91.42809295654297</v>
+        <v>91.42806243896484</v>
       </c>
       <c r="G305" t="n">
         <v>951659200</v>
@@ -7485,7 +7485,7 @@
         <v>118.4899978637695</v>
       </c>
       <c r="F306" t="n">
-        <v>91.53620910644531</v>
+        <v>91.53621673583984</v>
       </c>
       <c r="G306" t="n">
         <v>813034100</v>
@@ -7508,7 +7508,7 @@
         <v>122.7200012207031</v>
       </c>
       <c r="F307" t="n">
-        <v>94.80400848388672</v>
+        <v>94.80400085449219</v>
       </c>
       <c r="G307" t="n">
         <v>954817000</v>
@@ -7531,7 +7531,7 @@
         <v>120.1999969482422</v>
       </c>
       <c r="F308" t="n">
-        <v>92.85722351074219</v>
+        <v>92.85723876953125</v>
       </c>
       <c r="G308" t="n">
         <v>961202500</v>
@@ -7554,7 +7554,7 @@
         <v>120.2900009155273</v>
       </c>
       <c r="F309" t="n">
-        <v>92.9267578125</v>
+        <v>92.92677307128906</v>
       </c>
       <c r="G309" t="n">
         <v>990392500</v>
@@ -7577,7 +7577,7 @@
         <v>118.8000030517578</v>
       </c>
       <c r="F310" t="n">
-        <v>91.77569580078125</v>
+        <v>91.77571105957031</v>
       </c>
       <c r="G310" t="n">
         <v>619723900</v>
@@ -7600,7 +7600,7 @@
         <v>122.8899993896484</v>
       </c>
       <c r="F311" t="n">
-        <v>94.935302734375</v>
+        <v>94.93531036376953</v>
       </c>
       <c r="G311" t="n">
         <v>1021112700</v>
@@ -7623,7 +7623,7 @@
         <v>124.4800033569336</v>
       </c>
       <c r="F312" t="n">
-        <v>96.16366577148438</v>
+        <v>96.16365814208984</v>
       </c>
       <c r="G312" t="n">
         <v>688927500</v>
@@ -7646,7 +7646,7 @@
         <v>124.3000030517578</v>
       </c>
       <c r="F313" t="n">
-        <v>96.02459716796875</v>
+        <v>96.02458953857422</v>
       </c>
       <c r="G313" t="n">
         <v>767995900</v>
@@ -7669,7 +7669,7 @@
         <v>125.5999984741211</v>
       </c>
       <c r="F314" t="n">
-        <v>97.53913116455078</v>
+        <v>97.53913879394531</v>
       </c>
       <c r="G314" t="n">
         <v>362982800</v>
@@ -7692,7 +7692,7 @@
         <v>125.75</v>
       </c>
       <c r="F315" t="n">
-        <v>97.65562438964844</v>
+        <v>97.65564727783203</v>
       </c>
       <c r="G315" t="n">
         <v>339304000</v>
@@ -7715,7 +7715,7 @@
         <v>127.1399993896484</v>
       </c>
       <c r="F316" t="n">
-        <v>98.73508453369141</v>
+        <v>98.73507690429688</v>
       </c>
       <c r="G316" t="n">
         <v>688663800</v>
@@ -7738,7 +7738,7 @@
         <v>129.3000030517578</v>
       </c>
       <c r="F317" t="n">
-        <v>100.4125442504883</v>
+        <v>100.4125289916992</v>
       </c>
       <c r="G317" t="n">
         <v>587344200</v>
@@ -7761,7 +7761,7 @@
         <v>128.3699951171875</v>
       </c>
       <c r="F318" t="n">
-        <v>99.69026947021484</v>
+        <v>99.69028472900391</v>
       </c>
       <c r="G318" t="n">
         <v>593568300</v>
@@ -7784,7 +7784,7 @@
         <v>127.7200012207031</v>
       </c>
       <c r="F319" t="n">
-        <v>99.18551635742188</v>
+        <v>99.18550109863281</v>
       </c>
       <c r="G319" t="n">
         <v>841489200</v>
@@ -7807,7 +7807,7 @@
         <v>131.1499938964844</v>
       </c>
       <c r="F320" t="n">
-        <v>101.8491821289062</v>
+        <v>101.8491744995117</v>
       </c>
       <c r="G320" t="n">
         <v>715288600</v>
@@ -7830,7 +7830,7 @@
         <v>133.1100006103516</v>
       </c>
       <c r="F321" t="n">
-        <v>103.3713226318359</v>
+        <v>103.3713455200195</v>
       </c>
       <c r="G321" t="n">
         <v>658367400</v>
@@ -7853,7 +7853,7 @@
         <v>134.5299987792969</v>
       </c>
       <c r="F322" t="n">
-        <v>104.4740753173828</v>
+        <v>104.4740447998047</v>
       </c>
       <c r="G322" t="n">
         <v>591262500</v>
@@ -7876,7 +7876,7 @@
         <v>132.3300018310547</v>
       </c>
       <c r="F323" t="n">
-        <v>102.7655792236328</v>
+        <v>102.7656021118164</v>
       </c>
       <c r="G323" t="n">
         <v>862818700</v>
@@ -7945,7 +7945,7 @@
         <v>127.7600021362305</v>
       </c>
       <c r="F326" t="n">
-        <v>99.21659088134766</v>
+        <v>99.21658325195312</v>
       </c>
       <c r="G326" t="n">
         <v>1547968900</v>
@@ -7968,7 +7968,7 @@
         <v>131.3000030517578</v>
       </c>
       <c r="F327" t="n">
-        <v>102.4086608886719</v>
+        <v>102.4086380004883</v>
       </c>
       <c r="G327" t="n">
         <v>746906900</v>
@@ -7991,7 +7991,7 @@
         <v>133.1499938964844</v>
       </c>
       <c r="F328" t="n">
-        <v>103.8515625</v>
+        <v>103.8515548706055</v>
       </c>
       <c r="G328" t="n">
         <v>661783400</v>
@@ -8014,7 +8014,7 @@
         <v>132.8600006103516</v>
       </c>
       <c r="F329" t="n">
-        <v>103.6253814697266</v>
+        <v>103.6253662109375</v>
       </c>
       <c r="G329" t="n">
         <v>660648900</v>
@@ -8037,7 +8037,7 @@
         <v>132.0399932861328</v>
       </c>
       <c r="F330" t="n">
-        <v>102.9858169555664</v>
+        <v>102.9858016967773</v>
       </c>
       <c r="G330" t="n">
         <v>775858900</v>
@@ -8060,7 +8060,7 @@
         <v>133.7799987792969</v>
       </c>
       <c r="F331" t="n">
-        <v>104.3429183959961</v>
+        <v>104.3429565429688</v>
       </c>
       <c r="G331" t="n">
         <v>627087300</v>
@@ -8083,7 +8083,7 @@
         <v>136.4299926757812</v>
       </c>
       <c r="F332" t="n">
-        <v>106.4098434448242</v>
+        <v>106.4098205566406</v>
       </c>
       <c r="G332" t="n">
         <v>595273300</v>
@@ -8106,7 +8106,7 @@
         <v>134.1999969482422</v>
       </c>
       <c r="F333" t="n">
-        <v>104.6704940795898</v>
+        <v>104.670524597168</v>
       </c>
       <c r="G333" t="n">
         <v>897019400</v>
@@ -8129,7 +8129,7 @@
         <v>134.0399932861328</v>
       </c>
       <c r="F334" t="n">
-        <v>104.5457534790039</v>
+        <v>104.5457382202148</v>
       </c>
       <c r="G334" t="n">
         <v>751471200</v>
@@ -8152,7 +8152,7 @@
         <v>133.6100006103516</v>
       </c>
       <c r="F335" t="n">
-        <v>104.2103652954102</v>
+        <v>104.2103271484375</v>
       </c>
       <c r="G335" t="n">
         <v>771663900</v>
@@ -8175,7 +8175,7 @@
         <v>133.5099945068359</v>
       </c>
       <c r="F336" t="n">
-        <v>104.1323547363281</v>
+        <v>104.1323318481445</v>
       </c>
       <c r="G336" t="n">
         <v>752721600</v>
@@ -8198,7 +8198,7 @@
         <v>130.4199981689453</v>
       </c>
       <c r="F337" t="n">
-        <v>101.7222900390625</v>
+        <v>101.722297668457</v>
       </c>
       <c r="G337" t="n">
         <v>832982500</v>
@@ -8221,7 +8221,7 @@
         <v>127.5999984741211</v>
       </c>
       <c r="F338" t="n">
-        <v>99.52278900146484</v>
+        <v>99.52279663085938</v>
       </c>
       <c r="G338" t="n">
         <v>939901900</v>
@@ -8244,7 +8244,7 @@
         <v>127.0500030517578</v>
       </c>
       <c r="F339" t="n">
-        <v>99.09380340576172</v>
+        <v>99.09381103515625</v>
       </c>
       <c r="G339" t="n">
         <v>1210445900</v>
@@ -8267,7 +8267,7 @@
         <v>126.8099975585938</v>
       </c>
       <c r="F340" t="n">
-        <v>99.39695739746094</v>
+        <v>99.39698028564453</v>
       </c>
       <c r="G340" t="n">
         <v>1089755100</v>
@@ -8290,7 +8290,7 @@
         <v>133.9199981689453</v>
       </c>
       <c r="F341" t="n">
-        <v>104.9699554443359</v>
+        <v>104.9699859619141</v>
       </c>
       <c r="G341" t="n">
         <v>1004464900</v>
@@ -8313,7 +8313,7 @@
         <v>134.3999938964844</v>
       </c>
       <c r="F342" t="n">
-        <v>105.34619140625</v>
+        <v>105.3461990356445</v>
       </c>
       <c r="G342" t="n">
         <v>673832300</v>
@@ -8336,7 +8336,7 @@
         <v>131.6900024414062</v>
       </c>
       <c r="F343" t="n">
-        <v>103.2220306396484</v>
+        <v>103.2220611572266</v>
       </c>
       <c r="G343" t="n">
         <v>1060781500</v>
@@ -8359,7 +8359,7 @@
         <v>134.5800018310547</v>
       </c>
       <c r="F344" t="n">
-        <v>105.4872894287109</v>
+        <v>105.4872817993164</v>
       </c>
       <c r="G344" t="n">
         <v>871838100</v>
@@ -8382,7 +8382,7 @@
         <v>129.3300018310547</v>
       </c>
       <c r="F345" t="n">
-        <v>101.372184753418</v>
+        <v>101.372200012207</v>
       </c>
       <c r="G345" t="n">
         <v>1031930400</v>
@@ -8405,7 +8405,7 @@
         <v>120.0800018310547</v>
       </c>
       <c r="F346" t="n">
-        <v>94.12181854248047</v>
+        <v>94.121826171875</v>
       </c>
       <c r="G346" t="n">
         <v>2219616500</v>
@@ -8428,7 +8428,7 @@
         <v>118.120002746582</v>
       </c>
       <c r="F347" t="n">
-        <v>92.58552551269531</v>
+        <v>92.58551025390625</v>
       </c>
       <c r="G347" t="n">
         <v>2884411300</v>
@@ -8451,7 +8451,7 @@
         <v>112.6399993896484</v>
       </c>
       <c r="F348" t="n">
-        <v>88.29013061523438</v>
+        <v>88.29014587402344</v>
       </c>
       <c r="G348" t="n">
         <v>1732344500</v>
@@ -8497,7 +8497,7 @@
         <v>117.8499984741211</v>
       </c>
       <c r="F350" t="n">
-        <v>92.37388610839844</v>
+        <v>92.37389373779297</v>
       </c>
       <c r="G350" t="n">
         <v>1244224400</v>
@@ -8520,7 +8520,7 @@
         <v>115.9199981689453</v>
       </c>
       <c r="F351" t="n">
-        <v>90.86110687255859</v>
+        <v>90.86111450195312</v>
       </c>
       <c r="G351" t="n">
         <v>1125697000</v>
@@ -8543,7 +8543,7 @@
         <v>121.5199966430664</v>
       </c>
       <c r="F352" t="n">
-        <v>95.25052642822266</v>
+        <v>95.25051879882812</v>
       </c>
       <c r="G352" t="n">
         <v>1509003200</v>
@@ -8566,7 +8566,7 @@
         <v>113.5400009155273</v>
       </c>
       <c r="F353" t="n">
-        <v>89.45603179931641</v>
+        <v>89.45603942871094</v>
       </c>
       <c r="G353" t="n">
         <v>1597854300</v>
@@ -8589,7 +8589,7 @@
         <v>113.1500015258789</v>
       </c>
       <c r="F354" t="n">
-        <v>89.14875793457031</v>
+        <v>89.14878082275391</v>
       </c>
       <c r="G354" t="n">
         <v>1445625600</v>
@@ -8635,7 +8635,7 @@
         <v>122.5699996948242</v>
       </c>
       <c r="F356" t="n">
-        <v>96.57061004638672</v>
+        <v>96.57059478759766</v>
       </c>
       <c r="G356" t="n">
         <v>1145235600</v>
@@ -8658,7 +8658,7 @@
         <v>123.9700012207031</v>
       </c>
       <c r="F357" t="n">
-        <v>97.67361450195312</v>
+        <v>97.67364501953125</v>
       </c>
       <c r="G357" t="n">
         <v>1288845800</v>
@@ -8681,7 +8681,7 @@
         <v>128.6000061035156</v>
       </c>
       <c r="F358" t="n">
-        <v>101.3215255737305</v>
+        <v>101.3215179443359</v>
       </c>
       <c r="G358" t="n">
         <v>1379992900</v>
@@ -8704,7 +8704,7 @@
         <v>125.4800033569336</v>
       </c>
       <c r="F359" t="n">
-        <v>98.86333465576172</v>
+        <v>98.86334228515625</v>
       </c>
       <c r="G359" t="n">
         <v>1430006500</v>
@@ -8727,7 +8727,7 @@
         <v>126.6600036621094</v>
       </c>
       <c r="F360" t="n">
-        <v>99.79305267333984</v>
+        <v>99.79303741455078</v>
       </c>
       <c r="G360" t="n">
         <v>1180816400</v>
@@ -8750,7 +8750,7 @@
         <v>121.9800033569336</v>
       </c>
       <c r="F361" t="n">
-        <v>96.10573577880859</v>
+        <v>96.10576629638672</v>
       </c>
       <c r="G361" t="n">
         <v>1126550200</v>
@@ -8773,7 +8773,7 @@
         <v>116.3399963378906</v>
       </c>
       <c r="F362" t="n">
-        <v>91.66212463378906</v>
+        <v>91.66209411621094</v>
       </c>
       <c r="G362" t="n">
         <v>769992600</v>
@@ -8796,7 +8796,7 @@
         <v>124.8600006103516</v>
       </c>
       <c r="F363" t="n">
-        <v>98.37485504150391</v>
+        <v>98.37483978271484</v>
       </c>
       <c r="G363" t="n">
         <v>1132431500</v>
@@ -8819,7 +8819,7 @@
         <v>126.0500030517578</v>
       </c>
       <c r="F364" t="n">
-        <v>99.31243133544922</v>
+        <v>99.31241607666016</v>
       </c>
       <c r="G364" t="n">
         <v>1091882700</v>
@@ -8842,7 +8842,7 @@
         <v>121.5899963378906</v>
       </c>
       <c r="F365" t="n">
-        <v>95.79844665527344</v>
+        <v>95.7984619140625</v>
       </c>
       <c r="G365" t="n">
         <v>1119195300</v>
@@ -8865,7 +8865,7 @@
         <v>126.3899993896484</v>
       </c>
       <c r="F366" t="n">
-        <v>100.2118377685547</v>
+        <v>100.2118606567383</v>
       </c>
       <c r="G366" t="n">
         <v>815204600</v>
@@ -8888,7 +8888,7 @@
         <v>125.5</v>
       </c>
       <c r="F367" t="n">
-        <v>99.50617980957031</v>
+        <v>99.50619506835938</v>
       </c>
       <c r="G367" t="n">
         <v>424289000</v>
@@ -8934,7 +8934,7 @@
         <v>128.8399963378906</v>
       </c>
       <c r="F369" t="n">
-        <v>102.1544036865234</v>
+        <v>102.1543960571289</v>
       </c>
       <c r="G369" t="n">
         <v>625172800</v>
@@ -8957,7 +8957,7 @@
         <v>131.9499969482422</v>
       </c>
       <c r="F370" t="n">
-        <v>104.6202545166016</v>
+        <v>104.620246887207</v>
       </c>
       <c r="G370" t="n">
         <v>560163500</v>
@@ -8980,7 +8980,7 @@
         <v>131.8200073242188</v>
       </c>
       <c r="F371" t="n">
-        <v>104.5171737670898</v>
+        <v>104.5171966552734</v>
       </c>
       <c r="G371" t="n">
         <v>751131900</v>
@@ -9003,7 +9003,7 @@
         <v>134.5399932861328</v>
       </c>
       <c r="F372" t="n">
-        <v>106.6737823486328</v>
+        <v>106.6738204956055</v>
       </c>
       <c r="G372" t="n">
         <v>744447200</v>
@@ -9026,7 +9026,7 @@
         <v>134.3600006103516</v>
       </c>
       <c r="F373" t="n">
-        <v>106.531120300293</v>
+        <v>106.5311050415039</v>
       </c>
       <c r="G373" t="n">
         <v>699094400</v>
@@ -9049,7 +9049,7 @@
         <v>136.4100036621094</v>
       </c>
       <c r="F374" t="n">
-        <v>108.1565322875977</v>
+        <v>108.1564788818359</v>
       </c>
       <c r="G374" t="n">
         <v>792803700</v>
@@ -9072,7 +9072,7 @@
         <v>136.9299926757812</v>
       </c>
       <c r="F375" t="n">
-        <v>108.5688018798828</v>
+        <v>108.5687789916992</v>
       </c>
       <c r="G375" t="n">
         <v>501741000</v>
@@ -9095,7 +9095,7 @@
         <v>137.3099975585938</v>
       </c>
       <c r="F376" t="n">
-        <v>108.8700866699219</v>
+        <v>108.8701095581055</v>
       </c>
       <c r="G376" t="n">
         <v>726681300</v>
@@ -9118,7 +9118,7 @@
         <v>137.5700073242188</v>
       </c>
       <c r="F377" t="n">
-        <v>109.0762634277344</v>
+        <v>109.0762405395508</v>
       </c>
       <c r="G377" t="n">
         <v>726392800</v>
@@ -9141,7 +9141,7 @@
         <v>140.3000030517578</v>
       </c>
       <c r="F378" t="n">
-        <v>111.2407684326172</v>
+        <v>111.2407913208008</v>
       </c>
       <c r="G378" t="n">
         <v>751269600</v>
@@ -9164,7 +9164,7 @@
         <v>139.6499938964844</v>
       </c>
       <c r="F379" t="n">
-        <v>111.2106552124023</v>
+        <v>111.2106475830078</v>
       </c>
       <c r="G379" t="n">
         <v>625146900</v>
@@ -9187,7 +9187,7 @@
         <v>140.8099975585938</v>
       </c>
       <c r="F380" t="n">
-        <v>112.1344299316406</v>
+        <v>112.1344223022461</v>
       </c>
       <c r="G380" t="n">
         <v>689045100</v>
@@ -9210,7 +9210,7 @@
         <v>139.7899932861328</v>
       </c>
       <c r="F381" t="n">
-        <v>111.3221054077148</v>
+        <v>111.3221282958984</v>
       </c>
       <c r="G381" t="n">
         <v>591883200</v>
@@ -9233,7 +9233,7 @@
         <v>137.1399993896484</v>
       </c>
       <c r="F382" t="n">
-        <v>109.2118301391602</v>
+        <v>109.2118225097656</v>
       </c>
       <c r="G382" t="n">
         <v>840617400</v>
@@ -9256,7 +9256,7 @@
         <v>137.9499969482422</v>
       </c>
       <c r="F383" t="n">
-        <v>109.8568496704102</v>
+        <v>109.856819152832</v>
       </c>
       <c r="G383" t="n">
         <v>761453400</v>
@@ -9279,7 +9279,7 @@
         <v>140.3899993896484</v>
       </c>
       <c r="F384" t="n">
-        <v>111.7999649047852</v>
+        <v>111.7999496459961</v>
       </c>
       <c r="G384" t="n">
         <v>726597900</v>
@@ -9302,7 +9302,7 @@
         <v>137</v>
       </c>
       <c r="F385" t="n">
-        <v>109.1003341674805</v>
+        <v>109.1003036499023</v>
       </c>
       <c r="G385" t="n">
         <v>712692400</v>
@@ -9325,7 +9325,7 @@
         <v>135.6100006103516</v>
       </c>
       <c r="F386" t="n">
-        <v>107.9933929443359</v>
+        <v>107.9934158325195</v>
       </c>
       <c r="G386" t="n">
         <v>865528500</v>
@@ -9371,7 +9371,7 @@
         <v>132.1000061035156</v>
       </c>
       <c r="F388" t="n">
-        <v>105.1982116699219</v>
+        <v>105.1982040405273</v>
       </c>
       <c r="G388" t="n">
         <v>883173900</v>
@@ -9394,7 +9394,7 @@
         <v>128.1600036621094</v>
       </c>
       <c r="F389" t="n">
-        <v>102.0605773925781</v>
+        <v>102.0605850219727</v>
       </c>
       <c r="G389" t="n">
         <v>764680800</v>
@@ -9417,7 +9417,7 @@
         <v>133.1000061035156</v>
       </c>
       <c r="F390" t="n">
-        <v>105.9945907592773</v>
+        <v>105.9945755004883</v>
       </c>
       <c r="G390" t="n">
         <v>879586100</v>
@@ -9440,7 +9440,7 @@
         <v>134.1399993896484</v>
       </c>
       <c r="F391" t="n">
-        <v>106.8227615356445</v>
+        <v>106.82275390625</v>
       </c>
       <c r="G391" t="n">
         <v>923971800</v>
@@ -9463,7 +9463,7 @@
         <v>133.4600067138672</v>
       </c>
       <c r="F392" t="n">
-        <v>106.8319702148438</v>
+        <v>106.8319396972656</v>
       </c>
       <c r="G392" t="n">
         <v>810496700</v>
@@ -9486,7 +9486,7 @@
         <v>136.1000061035156</v>
       </c>
       <c r="F393" t="n">
-        <v>108.945198059082</v>
+        <v>108.9452133178711</v>
       </c>
       <c r="G393" t="n">
         <v>777590700</v>
@@ -9532,7 +9532,7 @@
         <v>135.75</v>
       </c>
       <c r="F395" t="n">
-        <v>108.6650161743164</v>
+        <v>108.6650466918945</v>
       </c>
       <c r="G395" t="n">
         <v>686624500</v>
@@ -9578,7 +9578,7 @@
         <v>138.6799926757812</v>
       </c>
       <c r="F397" t="n">
-        <v>111.0104141235352</v>
+        <v>111.0104370117188</v>
       </c>
       <c r="G397" t="n">
         <v>840929800</v>
@@ -9601,7 +9601,7 @@
         <v>139.3500061035156</v>
       </c>
       <c r="F398" t="n">
-        <v>111.546745300293</v>
+        <v>111.5467758178711</v>
       </c>
       <c r="G398" t="n">
         <v>723033300</v>
@@ -9624,7 +9624,7 @@
         <v>140.8399963378906</v>
       </c>
       <c r="F399" t="n">
-        <v>112.7394638061523</v>
+        <v>112.7394866943359</v>
       </c>
       <c r="G399" t="n">
         <v>475710400</v>
@@ -9647,7 +9647,7 @@
         <v>142.1799926757812</v>
       </c>
       <c r="F400" t="n">
-        <v>113.8121032714844</v>
+        <v>113.8120956420898</v>
       </c>
       <c r="G400" t="n">
         <v>455720100</v>
@@ -9670,7 +9670,7 @@
         <v>141.5099945068359</v>
       </c>
       <c r="F401" t="n">
-        <v>113.2757873535156</v>
+        <v>113.2757720947266</v>
       </c>
       <c r="G401" t="n">
         <v>528027900</v>
@@ -9693,7 +9693,7 @@
         <v>141.1600036621094</v>
       </c>
       <c r="F402" t="n">
-        <v>112.9956130981445</v>
+        <v>112.9956359863281</v>
       </c>
       <c r="G402" t="n">
         <v>458457100</v>
@@ -9716,7 +9716,7 @@
         <v>144.3300018310547</v>
       </c>
       <c r="F403" t="n">
-        <v>115.5331497192383</v>
+        <v>115.5331649780273</v>
       </c>
       <c r="G403" t="n">
         <v>486431100</v>
@@ -9739,7 +9739,7 @@
         <v>147.2400054931641</v>
       </c>
       <c r="F404" t="n">
-        <v>117.8625411987305</v>
+        <v>117.8625106811523</v>
       </c>
       <c r="G404" t="n">
         <v>658106600</v>
@@ -9762,7 +9762,7 @@
         <v>145.8699951171875</v>
       </c>
       <c r="F405" t="n">
-        <v>116.7658386230469</v>
+        <v>116.7658767700195</v>
       </c>
       <c r="G405" t="n">
         <v>608820000</v>
@@ -9785,7 +9785,7 @@
         <v>143.9700012207031</v>
       </c>
       <c r="F406" t="n">
-        <v>115.8601531982422</v>
+        <v>115.8601608276367</v>
       </c>
       <c r="G406" t="n">
         <v>637875800</v>
@@ -9808,7 +9808,7 @@
         <v>146.1399993896484</v>
       </c>
       <c r="F407" t="n">
-        <v>117.6064834594727</v>
+        <v>117.6065216064453</v>
       </c>
       <c r="G407" t="n">
         <v>619770200</v>
@@ -9831,7 +9831,7 @@
         <v>142.8899993896484</v>
       </c>
       <c r="F408" t="n">
-        <v>114.9910583496094</v>
+        <v>114.9910354614258</v>
       </c>
       <c r="G408" t="n">
         <v>599319200</v>
@@ -9854,7 +9854,7 @@
         <v>143.3899993896484</v>
       </c>
       <c r="F409" t="n">
-        <v>115.3934173583984</v>
+        <v>115.3933944702148</v>
       </c>
       <c r="G409" t="n">
         <v>679092400</v>
@@ -9877,7 +9877,7 @@
         <v>141.3500061035156</v>
       </c>
       <c r="F410" t="n">
-        <v>113.7517166137695</v>
+        <v>113.7517318725586</v>
       </c>
       <c r="G410" t="n">
         <v>718295200</v>
@@ -9900,7 +9900,7 @@
         <v>141.5599975585938</v>
       </c>
       <c r="F411" t="n">
-        <v>113.9207077026367</v>
+        <v>113.9207000732422</v>
       </c>
       <c r="G411" t="n">
         <v>342136300</v>
@@ -9923,7 +9923,7 @@
         <v>138.1600036621094</v>
       </c>
       <c r="F412" t="n">
-        <v>111.1845474243164</v>
+        <v>111.1845779418945</v>
       </c>
       <c r="G412" t="n">
         <v>852323700</v>
@@ -9969,7 +9969,7 @@
         <v>141.3500061035156</v>
       </c>
       <c r="F414" t="n">
-        <v>113.7517166137695</v>
+        <v>113.7517318725586</v>
       </c>
       <c r="G414" t="n">
         <v>418423200</v>
@@ -9992,7 +9992,7 @@
         <v>142.1499938964844</v>
       </c>
       <c r="F415" t="n">
-        <v>114.3955154418945</v>
+        <v>114.3954849243164</v>
       </c>
       <c r="G415" t="n">
         <v>693511300</v>
@@ -10015,7 +10015,7 @@
         <v>142.4100036621094</v>
       </c>
       <c r="F416" t="n">
-        <v>114.6047744750977</v>
+        <v>114.604736328125</v>
       </c>
       <c r="G416" t="n">
         <v>611416000</v>
@@ -10038,7 +10038,7 @@
         <v>142.1000061035156</v>
       </c>
       <c r="F417" t="n">
-        <v>114.3552780151367</v>
+        <v>114.3553237915039</v>
       </c>
       <c r="G417" t="n">
         <v>670707900</v>
@@ -10061,7 +10061,7 @@
         <v>142.7899932861328</v>
       </c>
       <c r="F418" t="n">
-        <v>114.910530090332</v>
+        <v>114.9105911254883</v>
       </c>
       <c r="G418" t="n">
         <v>886267200</v>
@@ -10084,7 +10084,7 @@
         <v>140.0299987792969</v>
       </c>
       <c r="F419" t="n">
-        <v>113.4886474609375</v>
+        <v>113.4886932373047</v>
       </c>
       <c r="G419" t="n">
         <v>477549600</v>
@@ -10107,7 +10107,7 @@
         <v>146.3699951171875</v>
       </c>
       <c r="F420" t="n">
-        <v>118.6270294189453</v>
+        <v>118.6269912719727</v>
       </c>
       <c r="G420" t="n">
         <v>697573700</v>
@@ -10130,7 +10130,7 @@
         <v>147.0700073242188</v>
       </c>
       <c r="F421" t="n">
-        <v>119.1943283081055</v>
+        <v>119.1943206787109</v>
       </c>
       <c r="G421" t="n">
         <v>566665900</v>
@@ -10153,7 +10153,7 @@
         <v>148.3300018310547</v>
       </c>
       <c r="F422" t="n">
-        <v>120.215461730957</v>
+        <v>120.2154922485352</v>
       </c>
       <c r="G422" t="n">
         <v>591328800</v>
@@ -10176,7 +10176,7 @@
         <v>150.25</v>
       </c>
       <c r="F423" t="n">
-        <v>121.7715377807617</v>
+        <v>121.7715759277344</v>
       </c>
       <c r="G423" t="n">
         <v>510031400</v>
@@ -10199,7 +10199,7 @@
         <v>151.2400054931641</v>
       </c>
       <c r="F424" t="n">
-        <v>122.5739517211914</v>
+        <v>122.5739288330078</v>
       </c>
       <c r="G424" t="n">
         <v>596648600</v>
@@ -10222,7 +10222,7 @@
         <v>151.8000030517578</v>
       </c>
       <c r="F425" t="n">
-        <v>123.0278091430664</v>
+        <v>123.0277786254883</v>
       </c>
       <c r="G425" t="n">
         <v>677372500</v>
@@ -10245,7 +10245,7 @@
         <v>152.1100006103516</v>
       </c>
       <c r="F426" t="n">
-        <v>123.2790451049805</v>
+        <v>123.2790298461914</v>
       </c>
       <c r="G426" t="n">
         <v>517551100</v>
@@ -10268,7 +10268,7 @@
         <v>151.8899993896484</v>
       </c>
       <c r="F427" t="n">
-        <v>123.1007232666016</v>
+        <v>123.1007080078125</v>
       </c>
       <c r="G427" t="n">
         <v>545293800</v>
@@ -10291,7 +10291,7 @@
         <v>152.1100006103516</v>
       </c>
       <c r="F428" t="n">
-        <v>123.2790451049805</v>
+        <v>123.2790298461914</v>
       </c>
       <c r="G428" t="n">
         <v>880703700</v>
@@ -10314,7 +10314,7 @@
         <v>155.4400024414062</v>
       </c>
       <c r="F429" t="n">
-        <v>125.9778671264648</v>
+        <v>125.9778823852539</v>
       </c>
       <c r="G429" t="n">
         <v>524491200</v>
@@ -10337,7 +10337,7 @@
         <v>155.8300018310547</v>
       </c>
       <c r="F430" t="n">
-        <v>126.2939224243164</v>
+        <v>126.2939910888672</v>
       </c>
       <c r="G430" t="n">
         <v>546984500</v>
@@ -10360,7 +10360,7 @@
         <v>155.6000061035156</v>
       </c>
       <c r="F431" t="n">
-        <v>126.6684265136719</v>
+        <v>126.6684188842773</v>
       </c>
       <c r="G431" t="n">
         <v>647799500</v>
@@ -10383,7 +10383,7 @@
         <v>156.6699981689453</v>
       </c>
       <c r="F432" t="n">
-        <v>127.5394287109375</v>
+        <v>127.5393905639648</v>
       </c>
       <c r="G432" t="n">
         <v>441062300</v>
@@ -10406,7 +10406,7 @@
         <v>155.1600036621094</v>
       </c>
       <c r="F433" t="n">
-        <v>126.3102035522461</v>
+        <v>126.310173034668</v>
       </c>
       <c r="G433" t="n">
         <v>646416800</v>
@@ -10429,7 +10429,7 @@
         <v>158.8000030517578</v>
       </c>
       <c r="F434" t="n">
-        <v>129.2734069824219</v>
+        <v>129.2733917236328</v>
       </c>
       <c r="G434" t="n">
         <v>550706900</v>
@@ -10452,7 +10452,7 @@
         <v>155.4799957275391</v>
       </c>
       <c r="F435" t="n">
-        <v>126.5707626342773</v>
+        <v>126.5707168579102</v>
       </c>
       <c r="G435" t="n">
         <v>908872400</v>
@@ -10475,7 +10475,7 @@
         <v>158.2400054931641</v>
       </c>
       <c r="F436" t="n">
-        <v>128.8175659179688</v>
+        <v>128.8176116943359</v>
       </c>
       <c r="G436" t="n">
         <v>596455400</v>
@@ -10498,7 +10498,7 @@
         <v>161.3699951171875</v>
       </c>
       <c r="F437" t="n">
-        <v>131.3655395507812</v>
+        <v>131.3656005859375</v>
       </c>
       <c r="G437" t="n">
         <v>584067600</v>
@@ -10521,7 +10521,7 @@
         <v>163.4100036621094</v>
       </c>
       <c r="F438" t="n">
-        <v>133.0263061523438</v>
+        <v>133.0262451171875</v>
       </c>
       <c r="G438" t="n">
         <v>464602100</v>
@@ -10567,7 +10567,7 @@
         <v>165.3099975585938</v>
       </c>
       <c r="F440" t="n">
-        <v>134.5730133056641</v>
+        <v>134.5729675292969</v>
       </c>
       <c r="G440" t="n">
         <v>787545500</v>
@@ -10590,7 +10590,7 @@
         <v>163.4499969482422</v>
       </c>
       <c r="F441" t="n">
-        <v>133.0588531494141</v>
+        <v>133.0587615966797</v>
       </c>
       <c r="G441" t="n">
         <v>588687100</v>
@@ -10613,7 +10613,7 @@
         <v>164.8000030517578</v>
       </c>
       <c r="F442" t="n">
-        <v>134.1578216552734</v>
+        <v>134.1577606201172</v>
       </c>
       <c r="G442" t="n">
         <v>926323300</v>
@@ -10636,7 +10636,7 @@
         <v>163.1799926757812</v>
       </c>
       <c r="F443" t="n">
-        <v>132.8390350341797</v>
+        <v>132.8390502929688</v>
       </c>
       <c r="G443" t="n">
         <v>747319300</v>
@@ -10659,7 +10659,7 @@
         <v>159.0700073242188</v>
       </c>
       <c r="F444" t="n">
-        <v>129.4932556152344</v>
+        <v>129.4932861328125</v>
       </c>
       <c r="G444" t="n">
         <v>1050353400</v>
@@ -10682,7 +10682,7 @@
         <v>160.4199981689453</v>
       </c>
       <c r="F445" t="n">
-        <v>131.2832641601562</v>
+        <v>131.283203125</v>
       </c>
       <c r="G445" t="n">
         <v>809325800</v>
@@ -10705,7 +10705,7 @@
         <v>163.0200042724609</v>
       </c>
       <c r="F446" t="n">
-        <v>133.4110107421875</v>
+        <v>133.4109802246094</v>
       </c>
       <c r="G446" t="n">
         <v>484451800</v>
@@ -10728,7 +10728,7 @@
         <v>167.5099945068359</v>
       </c>
       <c r="F447" t="n">
-        <v>137.0854949951172</v>
+        <v>137.08544921875</v>
       </c>
       <c r="G447" t="n">
         <v>588605500</v>
@@ -10751,7 +10751,7 @@
         <v>169.1699981689453</v>
       </c>
       <c r="F448" t="n">
-        <v>138.4439849853516</v>
+        <v>138.4439697265625</v>
       </c>
       <c r="G448" t="n">
         <v>458478400</v>
@@ -10774,7 +10774,7 @@
         <v>169.1100006103516</v>
       </c>
       <c r="F449" t="n">
-        <v>138.3948822021484</v>
+        <v>138.3948516845703</v>
       </c>
       <c r="G449" t="n">
         <v>492075500</v>
@@ -10797,7 +10797,7 @@
         <v>170.9499969482422</v>
       </c>
       <c r="F450" t="n">
-        <v>139.9006195068359</v>
+        <v>139.9006652832031</v>
       </c>
       <c r="G450" t="n">
         <v>508848400</v>
@@ -10820,7 +10820,7 @@
         <v>169.3099975585938</v>
       </c>
       <c r="F451" t="n">
-        <v>138.5585174560547</v>
+        <v>138.5585479736328</v>
       </c>
       <c r="G451" t="n">
         <v>420361400</v>
@@ -10843,7 +10843,7 @@
         <v>165.8300018310547</v>
       </c>
       <c r="F452" t="n">
-        <v>135.7105865478516</v>
+        <v>135.7106170654297</v>
       </c>
       <c r="G452" t="n">
         <v>513028500</v>
@@ -10866,7 +10866,7 @@
         <v>166.6199951171875</v>
       </c>
       <c r="F453" t="n">
-        <v>136.3571472167969</v>
+        <v>136.3571624755859</v>
       </c>
       <c r="G453" t="n">
         <v>537622800</v>
@@ -10889,7 +10889,7 @@
         <v>163.6499938964844</v>
       </c>
       <c r="F454" t="n">
-        <v>133.9265441894531</v>
+        <v>133.9265594482422</v>
       </c>
       <c r="G454" t="n">
         <v>610563900</v>
@@ -10912,7 +10912,7 @@
         <v>166.0399932861328</v>
       </c>
       <c r="F455" t="n">
-        <v>135.8824615478516</v>
+        <v>135.8825073242188</v>
       </c>
       <c r="G455" t="n">
         <v>462611500</v>
@@ -10935,7 +10935,7 @@
         <v>169.3300018310547</v>
       </c>
       <c r="F456" t="n">
-        <v>138.5748748779297</v>
+        <v>138.5749053955078</v>
       </c>
       <c r="G456" t="n">
         <v>443889200</v>
@@ -10958,7 +10958,7 @@
         <v>170.7200012207031</v>
       </c>
       <c r="F457" t="n">
-        <v>139.7124633789062</v>
+        <v>139.7124481201172</v>
       </c>
       <c r="G457" t="n">
         <v>671767100</v>
@@ -10981,7 +10981,7 @@
         <v>168.9100036621094</v>
       </c>
       <c r="F458" t="n">
-        <v>138.9050598144531</v>
+        <v>138.9049682617188</v>
       </c>
       <c r="G458" t="n">
         <v>504544800</v>
@@ -11004,7 +11004,7 @@
         <v>168.8899993896484</v>
       </c>
       <c r="F459" t="n">
-        <v>138.8885192871094</v>
+        <v>138.8884887695312</v>
       </c>
       <c r="G459" t="n">
         <v>658023000</v>
@@ -11027,7 +11027,7 @@
         <v>170.2599945068359</v>
       </c>
       <c r="F460" t="n">
-        <v>140.0151824951172</v>
+        <v>140.0152130126953</v>
       </c>
       <c r="G460" t="n">
         <v>744278000</v>
@@ -11096,7 +11096,7 @@
         <v>176.2100067138672</v>
       </c>
       <c r="F463" t="n">
-        <v>144.908203125</v>
+        <v>144.9082336425781</v>
       </c>
       <c r="G463" t="n">
         <v>588982000</v>
@@ -11119,7 +11119,7 @@
         <v>177.2899932861328</v>
       </c>
       <c r="F464" t="n">
-        <v>145.7963256835938</v>
+        <v>145.79638671875</v>
       </c>
       <c r="G464" t="n">
         <v>552563000</v>
@@ -11142,7 +11142,7 @@
         <v>180.0500030517578</v>
       </c>
       <c r="F465" t="n">
-        <v>148.0660858154297</v>
+        <v>148.0661010742188</v>
       </c>
       <c r="G465" t="n">
         <v>456701000</v>
@@ -11165,7 +11165,7 @@
         <v>180.8099975585938</v>
       </c>
       <c r="F466" t="n">
-        <v>148.6911315917969</v>
+        <v>148.6910858154297</v>
       </c>
       <c r="G466" t="n">
         <v>497733000</v>
@@ -11188,7 +11188,7 @@
         <v>181</v>
       </c>
       <c r="F467" t="n">
-        <v>148.8473510742188</v>
+        <v>148.8473815917969</v>
       </c>
       <c r="G467" t="n">
         <v>281150900</v>
@@ -11211,7 +11211,7 @@
         <v>180.9400024414062</v>
       </c>
       <c r="F468" t="n">
-        <v>148.7980041503906</v>
+        <v>148.7979583740234</v>
       </c>
       <c r="G468" t="n">
         <v>573984000</v>
@@ -11234,7 +11234,7 @@
         <v>178.1100006103516</v>
       </c>
       <c r="F469" t="n">
-        <v>146.4707183837891</v>
+        <v>146.4706878662109</v>
       </c>
       <c r="G469" t="n">
         <v>505064000</v>
@@ -11280,7 +11280,7 @@
         <v>183.8500061035156</v>
       </c>
       <c r="F471" t="n">
-        <v>152.0119323730469</v>
+        <v>152.0118713378906</v>
       </c>
       <c r="G471" t="n">
         <v>256145800</v>
@@ -11303,7 +11303,7 @@
         <v>182.8899993896484</v>
       </c>
       <c r="F472" t="n">
-        <v>151.2180786132812</v>
+        <v>151.2181396484375</v>
       </c>
       <c r="G472" t="n">
         <v>344004400</v>
@@ -11349,7 +11349,7 @@
         <v>183.6399993896484</v>
       </c>
       <c r="F474" t="n">
-        <v>151.8382720947266</v>
+        <v>151.8382415771484</v>
       </c>
       <c r="G474" t="n">
         <v>533573200</v>
@@ -11372,7 +11372,7 @@
         <v>178.8899993896484</v>
       </c>
       <c r="F475" t="n">
-        <v>147.9108581542969</v>
+        <v>147.9108276367188</v>
       </c>
       <c r="G475" t="n">
         <v>491066100</v>
@@ -11418,7 +11418,7 @@
         <v>179.6799926757812</v>
       </c>
       <c r="F477" t="n">
-        <v>148.5640563964844</v>
+        <v>148.5640411376953</v>
       </c>
       <c r="G477" t="n">
         <v>887744800</v>
@@ -11441,7 +11441,7 @@
         <v>184.0200042724609</v>
       </c>
       <c r="F478" t="n">
-        <v>152.1524505615234</v>
+        <v>152.1523895263672</v>
       </c>
       <c r="G478" t="n">
         <v>501791200</v>
@@ -11464,7 +11464,7 @@
         <v>183.8899993896484</v>
       </c>
       <c r="F479" t="n">
-        <v>152.0449523925781</v>
+        <v>152.0449371337891</v>
       </c>
       <c r="G479" t="n">
         <v>430099700</v>
@@ -11487,7 +11487,7 @@
         <v>186.2899932861328</v>
       </c>
       <c r="F480" t="n">
-        <v>154.0293579101562</v>
+        <v>154.0293731689453</v>
       </c>
       <c r="G480" t="n">
         <v>574548900</v>
@@ -11510,7 +11510,7 @@
         <v>188.2599945068359</v>
       </c>
       <c r="F481" t="n">
-        <v>155.6582183837891</v>
+        <v>155.6581573486328</v>
       </c>
       <c r="G481" t="n">
         <v>620701300</v>
@@ -11533,7 +11533,7 @@
         <v>184.6600036621094</v>
       </c>
       <c r="F482" t="n">
-        <v>152.6816253662109</v>
+        <v>152.6816101074219</v>
       </c>
       <c r="G482" t="n">
         <v>587706600</v>
@@ -11556,7 +11556,7 @@
         <v>186.1999969482422</v>
       </c>
       <c r="F483" t="n">
-        <v>153.9549255371094</v>
+        <v>153.9548950195312</v>
       </c>
       <c r="G483" t="n">
         <v>656800400</v>
@@ -11579,7 +11579,7 @@
         <v>185.4900054931641</v>
       </c>
       <c r="F484" t="n">
-        <v>154.0447845458984</v>
+        <v>154.0447998046875</v>
       </c>
       <c r="G484" t="n">
         <v>589131000</v>
@@ -11625,7 +11625,7 @@
         <v>181.5099945068359</v>
       </c>
       <c r="F486" t="n">
-        <v>150.7394561767578</v>
+        <v>150.7394714355469</v>
       </c>
       <c r="G486" t="n">
         <v>693927000</v>
@@ -11648,7 +11648,7 @@
         <v>186.3899993896484</v>
       </c>
       <c r="F487" t="n">
-        <v>154.7921600341797</v>
+        <v>154.7921905517578</v>
       </c>
       <c r="G487" t="n">
         <v>499927000</v>
@@ -11671,7 +11671,7 @@
         <v>186.2899932861328</v>
       </c>
       <c r="F488" t="n">
-        <v>154.7091217041016</v>
+        <v>154.7091674804688</v>
       </c>
       <c r="G488" t="n">
         <v>416538000</v>
@@ -11694,7 +11694,7 @@
         <v>188.0599975585938</v>
       </c>
       <c r="F489" t="n">
-        <v>156.1791229248047</v>
+        <v>156.1790771484375</v>
       </c>
       <c r="G489" t="n">
         <v>511868000</v>
@@ -11717,7 +11717,7 @@
         <v>187.9600067138672</v>
       </c>
       <c r="F490" t="n">
-        <v>156.0960388183594</v>
+        <v>156.0960693359375</v>
       </c>
       <c r="G490" t="n">
         <v>445134000</v>
@@ -11740,7 +11740,7 @@
         <v>188.0500030517578</v>
       </c>
       <c r="F491" t="n">
-        <v>156.1707611083984</v>
+        <v>156.1707763671875</v>
       </c>
       <c r="G491" t="n">
         <v>478175000</v>
@@ -11763,7 +11763,7 @@
         <v>190.3500061035156</v>
       </c>
       <c r="F492" t="n">
-        <v>158.0808410644531</v>
+        <v>158.0808715820312</v>
       </c>
       <c r="G492" t="n">
         <v>387217800</v>
@@ -11786,7 +11786,7 @@
         <v>192.6799926757812</v>
       </c>
       <c r="F493" t="n">
-        <v>160.0158996582031</v>
+        <v>160.0158843994141</v>
       </c>
       <c r="G493" t="n">
         <v>279426000</v>
@@ -11832,7 +11832,7 @@
         <v>194.1300048828125</v>
       </c>
       <c r="F495" t="n">
-        <v>161.2200622558594</v>
+        <v>161.2200927734375</v>
       </c>
       <c r="G495" t="n">
         <v>379387000</v>
@@ -11855,7 +11855,7 @@
         <v>195.9400024414062</v>
       </c>
       <c r="F496" t="n">
-        <v>162.7232666015625</v>
+        <v>162.7232360839844</v>
       </c>
       <c r="G496" t="n">
         <v>464041000</v>
@@ -11878,7 +11878,7 @@
         <v>195.8200073242188</v>
       </c>
       <c r="F497" t="n">
-        <v>163.4028167724609</v>
+        <v>163.40283203125</v>
       </c>
       <c r="G497" t="n">
         <v>405387100</v>
@@ -11901,7 +11901,7 @@
         <v>198.1999969482422</v>
       </c>
       <c r="F498" t="n">
-        <v>165.3888397216797</v>
+        <v>165.3887939453125</v>
       </c>
       <c r="G498" t="n">
         <v>266085000</v>
@@ -11924,7 +11924,7 @@
         <v>196.6100006103516</v>
       </c>
       <c r="F499" t="n">
-        <v>164.0620422363281</v>
+        <v>164.0620574951172</v>
       </c>
       <c r="G499" t="n">
         <v>406114000</v>
@@ -11947,7 +11947,7 @@
         <v>197.7100067138672</v>
       </c>
       <c r="F500" t="n">
-        <v>164.9799346923828</v>
+        <v>164.9799499511719</v>
       </c>
       <c r="G500" t="n">
         <v>519679400</v>
@@ -11970,7 +11970,7 @@
         <v>197.7200012207031</v>
       </c>
       <c r="F501" t="n">
-        <v>164.9883270263672</v>
+        <v>164.9883117675781</v>
       </c>
       <c r="G501" t="n">
         <v>334607000</v>
@@ -11993,7 +11993,7 @@
         <v>192.5</v>
       </c>
       <c r="F502" t="n">
-        <v>160.6324005126953</v>
+        <v>160.6324462890625</v>
       </c>
       <c r="G502" t="n">
         <v>626687000</v>
@@ -12016,7 +12016,7 @@
         <v>193.2400054931641</v>
       </c>
       <c r="F503" t="n">
-        <v>161.2499389648438</v>
+        <v>161.2498779296875</v>
       </c>
       <c r="G503" t="n">
         <v>591595000</v>
@@ -12039,7 +12039,7 @@
         <v>195.7200012207031</v>
       </c>
       <c r="F504" t="n">
-        <v>163.3193664550781</v>
+        <v>163.3193511962891</v>
       </c>
       <c r="G504" t="n">
         <v>414545000</v>
@@ -12062,7 +12062,7 @@
         <v>199.1900024414062</v>
       </c>
       <c r="F505" t="n">
-        <v>166.2149353027344</v>
+        <v>166.2149505615234</v>
       </c>
       <c r="G505" t="n">
         <v>351220000</v>
@@ -12085,7 +12085,7 @@
         <v>200.7100067138672</v>
       </c>
       <c r="F506" t="n">
-        <v>167.4832916259766</v>
+        <v>167.4833068847656</v>
       </c>
       <c r="G506" t="n">
         <v>283264000</v>
@@ -12108,7 +12108,7 @@
         <v>201.1100006103516</v>
       </c>
       <c r="F507" t="n">
-        <v>167.8170928955078</v>
+        <v>167.8171081542969</v>
       </c>
       <c r="G507" t="n">
         <v>317301000</v>
@@ -12131,7 +12131,7 @@
         <v>199.1300048828125</v>
       </c>
       <c r="F508" t="n">
-        <v>166.1648101806641</v>
+        <v>166.1648864746094</v>
       </c>
       <c r="G508" t="n">
         <v>404171700</v>
@@ -12154,7 +12154,7 @@
         <v>200.6999969482422</v>
       </c>
       <c r="F509" t="n">
-        <v>167.4749450683594</v>
+        <v>167.4749298095703</v>
       </c>
       <c r="G509" t="n">
         <v>560507000</v>
@@ -12177,7 +12177,7 @@
         <v>197.8999938964844</v>
       </c>
       <c r="F510" t="n">
-        <v>165.9104309082031</v>
+        <v>165.9103851318359</v>
       </c>
       <c r="G510" t="n">
         <v>598069000</v>
@@ -12200,7 +12200,7 @@
         <v>196.5200042724609</v>
       </c>
       <c r="F511" t="n">
-        <v>164.7534637451172</v>
+        <v>164.7534942626953</v>
       </c>
       <c r="G511" t="n">
         <v>683066000</v>
@@ -12223,7 +12223,7 @@
         <v>190.5399932861328</v>
       </c>
       <c r="F512" t="n">
-        <v>159.7400970458984</v>
+        <v>159.7401123046875</v>
       </c>
       <c r="G512" t="n">
         <v>871766000</v>
@@ -12246,7 +12246,7 @@
         <v>188.4700012207031</v>
       </c>
       <c r="F513" t="n">
-        <v>158.0047149658203</v>
+        <v>158.0047302246094</v>
       </c>
       <c r="G513" t="n">
         <v>1312517000</v>
@@ -12269,7 +12269,7 @@
         <v>196.4299926757812</v>
       </c>
       <c r="F514" t="n">
-        <v>164.6780090332031</v>
+        <v>164.6780395507812</v>
       </c>
       <c r="G514" t="n">
         <v>709653000</v>
@@ -12292,7 +12292,7 @@
         <v>201.6600036621094</v>
       </c>
       <c r="F515" t="n">
-        <v>169.0626678466797</v>
+        <v>169.0626220703125</v>
       </c>
       <c r="G515" t="n">
         <v>592480000</v>
@@ -12315,7 +12315,7 @@
         <v>203.3399963378906</v>
       </c>
       <c r="F516" t="n">
-        <v>170.4710693359375</v>
+        <v>170.4710235595703</v>
       </c>
       <c r="G516" t="n">
         <v>475281000</v>
@@ -12338,7 +12338,7 @@
         <v>204.2400054931641</v>
       </c>
       <c r="F517" t="n">
-        <v>171.2255706787109</v>
+        <v>171.2255554199219</v>
       </c>
       <c r="G517" t="n">
         <v>376714100</v>
@@ -12361,7 +12361,7 @@
         <v>206.6799926757812</v>
       </c>
       <c r="F518" t="n">
-        <v>173.2711639404297</v>
+        <v>173.2712097167969</v>
       </c>
       <c r="G518" t="n">
         <v>454049700</v>
@@ -12384,7 +12384,7 @@
         <v>207.1999969482422</v>
       </c>
       <c r="F519" t="n">
-        <v>173.7070770263672</v>
+        <v>173.7071075439453</v>
       </c>
       <c r="G519" t="n">
         <v>265047000</v>
@@ -12407,7 +12407,7 @@
         <v>208</v>
       </c>
       <c r="F520" t="n">
-        <v>174.3777923583984</v>
+        <v>174.3778076171875</v>
       </c>
       <c r="G520" t="n">
         <v>429769700</v>
@@ -12430,7 +12430,7 @@
         <v>200.8899993896484</v>
       </c>
       <c r="F521" t="n">
-        <v>168.4170837402344</v>
+        <v>168.4170989990234</v>
       </c>
       <c r="G521" t="n">
         <v>754967700</v>
@@ -12453,7 +12453,7 @@
         <v>206.5200042724609</v>
       </c>
       <c r="F522" t="n">
-        <v>173.1370239257812</v>
+        <v>173.1370544433594</v>
       </c>
       <c r="G522" t="n">
         <v>1206138200</v>
@@ -12476,7 +12476,7 @@
         <v>208.4400024414062</v>
       </c>
       <c r="F523" t="n">
-        <v>175.7111511230469</v>
+        <v>175.7111206054688</v>
       </c>
       <c r="G523" t="n">
         <v>370776900</v>
@@ -12499,7 +12499,7 @@
         <v>205.4299926757812</v>
       </c>
       <c r="F524" t="n">
-        <v>173.1737365722656</v>
+        <v>173.1737213134766</v>
       </c>
       <c r="G524" t="n">
         <v>404984400</v>
@@ -12545,7 +12545,7 @@
         <v>201.6300048828125</v>
       </c>
       <c r="F526" t="n">
-        <v>169.9703979492188</v>
+        <v>169.970458984375</v>
       </c>
       <c r="G526" t="n">
         <v>940434000</v>
@@ -12568,7 +12568,7 @@
         <v>204.9700012207031</v>
       </c>
       <c r="F527" t="n">
-        <v>172.7859954833984</v>
+        <v>172.7859802246094</v>
       </c>
       <c r="G527" t="n">
         <v>545806600</v>
@@ -12591,7 +12591,7 @@
         <v>199.4499969482422</v>
       </c>
       <c r="F528" t="n">
-        <v>168.1328125</v>
+        <v>168.1327056884766</v>
       </c>
       <c r="G528" t="n">
         <v>765883700</v>
@@ -12614,7 +12614,7 @@
         <v>205.5500030517578</v>
       </c>
       <c r="F529" t="n">
-        <v>173.27490234375</v>
+        <v>173.2749176025391</v>
       </c>
       <c r="G529" t="n">
         <v>645251800</v>
@@ -12637,7 +12637,7 @@
         <v>209.7799987792969</v>
       </c>
       <c r="F530" t="n">
-        <v>176.8407440185547</v>
+        <v>176.8407745361328</v>
       </c>
       <c r="G530" t="n">
         <v>465687300</v>
@@ -12660,7 +12660,7 @@
         <v>211.2400054931641</v>
       </c>
       <c r="F531" t="n">
-        <v>178.0714721679688</v>
+        <v>178.071533203125</v>
       </c>
       <c r="G531" t="n">
         <v>389980000</v>
@@ -12683,7 +12683,7 @@
         <v>210.6600036621094</v>
       </c>
       <c r="F532" t="n">
-        <v>177.5825500488281</v>
+        <v>177.5825653076172</v>
       </c>
       <c r="G532" t="n">
         <v>400719000</v>
@@ -12729,7 +12729,7 @@
         <v>205.8300018310547</v>
       </c>
       <c r="F534" t="n">
-        <v>173.5109710693359</v>
+        <v>173.5109558105469</v>
       </c>
       <c r="G534" t="n">
         <v>613490300</v>
@@ -12752,7 +12752,7 @@
         <v>210.4100036621094</v>
       </c>
       <c r="F535" t="n">
-        <v>177.3717956542969</v>
+        <v>177.3717803955078</v>
       </c>
       <c r="G535" t="n">
         <v>755050500</v>
@@ -12798,7 +12798,7 @@
         <v>206.4400024414062</v>
       </c>
       <c r="F537" t="n">
-        <v>174.8019866943359</v>
+        <v>174.8019714355469</v>
       </c>
       <c r="G537" t="n">
         <v>447153600</v>
@@ -12867,7 +12867,7 @@
         <v>211.6499938964844</v>
       </c>
       <c r="F540" t="n">
-        <v>179.2134857177734</v>
+        <v>179.2135314941406</v>
       </c>
       <c r="G540" t="n">
         <v>406927200</v>
@@ -12890,7 +12890,7 @@
         <v>210.7200012207031</v>
       </c>
       <c r="F541" t="n">
-        <v>178.4260101318359</v>
+        <v>178.4260711669922</v>
       </c>
       <c r="G541" t="n">
         <v>556611100</v>
@@ -12913,7 +12913,7 @@
         <v>211.6199951171875</v>
       </c>
       <c r="F542" t="n">
-        <v>179.1881256103516</v>
+        <v>179.1881103515625</v>
       </c>
       <c r="G542" t="n">
         <v>563435800</v>
@@ -12936,7 +12936,7 @@
         <v>212.4400024414062</v>
       </c>
       <c r="F543" t="n">
-        <v>179.8825378417969</v>
+        <v>179.8824615478516</v>
       </c>
       <c r="G543" t="n">
         <v>462547700</v>
@@ -12959,7 +12959,7 @@
         <v>212.9900054931641</v>
       </c>
       <c r="F544" t="n">
-        <v>180.3481903076172</v>
+        <v>180.3482055664062</v>
       </c>
       <c r="G544" t="n">
         <v>345719900</v>
@@ -12982,7 +12982,7 @@
         <v>211.1399993896484</v>
       </c>
       <c r="F545" t="n">
-        <v>178.7816772460938</v>
+        <v>178.7816619873047</v>
       </c>
       <c r="G545" t="n">
         <v>417416800</v>
@@ -13028,7 +13028,7 @@
         <v>210.0099945068359</v>
       </c>
       <c r="F547" t="n">
-        <v>177.8248748779297</v>
+        <v>177.8249206542969</v>
       </c>
       <c r="G547" t="n">
         <v>537908100</v>
@@ -13051,7 +13051,7 @@
         <v>210.8099975585938</v>
       </c>
       <c r="F548" t="n">
-        <v>178.5022583007812</v>
+        <v>178.5022430419922</v>
       </c>
       <c r="G548" t="n">
         <v>632747600</v>
@@ -13074,7 +13074,7 @@
         <v>209.8200073242188</v>
       </c>
       <c r="F549" t="n">
-        <v>178.5281982421875</v>
+        <v>178.5282135009766</v>
       </c>
       <c r="G549" t="n">
         <v>432762300</v>
@@ -13097,7 +13097,7 @@
         <v>207.3099975585938</v>
       </c>
       <c r="F550" t="n">
-        <v>176.3924713134766</v>
+        <v>176.3925018310547</v>
       </c>
       <c r="G550" t="n">
         <v>625900000</v>
@@ -13120,7 +13120,7 @@
         <v>207.4799957275391</v>
       </c>
       <c r="F551" t="n">
-        <v>176.5371551513672</v>
+        <v>176.5371704101562</v>
       </c>
       <c r="G551" t="n">
         <v>729385700</v>
@@ -13143,7 +13143,7 @@
         <v>212.4799957275391</v>
       </c>
       <c r="F552" t="n">
-        <v>180.7914733886719</v>
+        <v>180.7914581298828</v>
       </c>
       <c r="G552" t="n">
         <v>481406400</v>
@@ -13166,7 +13166,7 @@
         <v>208</v>
       </c>
       <c r="F553" t="n">
-        <v>176.9796447753906</v>
+        <v>176.9795837402344</v>
       </c>
       <c r="G553" t="n">
         <v>445343800</v>
@@ -13189,7 +13189,7 @@
         <v>210.5</v>
       </c>
       <c r="F554" t="n">
-        <v>179.1068420410156</v>
+        <v>179.1067504882812</v>
       </c>
       <c r="G554" t="n">
         <v>556268500</v>
@@ -13235,7 +13235,7 @@
         <v>209.4199981689453</v>
       </c>
       <c r="F556" t="n">
-        <v>178.1878356933594</v>
+        <v>178.1878662109375</v>
       </c>
       <c r="G556" t="n">
         <v>540645600</v>
@@ -13281,7 +13281,7 @@
         <v>199.2799987792969</v>
       </c>
       <c r="F558" t="n">
-        <v>169.56005859375</v>
+        <v>169.5601043701172</v>
       </c>
       <c r="G558" t="n">
         <v>1650892700</v>
@@ -13304,7 +13304,7 @@
         <v>192.5899963378906</v>
       </c>
       <c r="F559" t="n">
-        <v>163.8678131103516</v>
+        <v>163.8678283691406</v>
       </c>
       <c r="G559" t="n">
         <v>938737300</v>
@@ -13327,7 +13327,7 @@
         <v>196.7400054931641</v>
       </c>
       <c r="F560" t="n">
-        <v>167.3988800048828</v>
+        <v>167.3988647460938</v>
       </c>
       <c r="G560" t="n">
         <v>543675700</v>
@@ -13350,7 +13350,7 @@
         <v>195.4499969482422</v>
       </c>
       <c r="F561" t="n">
-        <v>166.3012390136719</v>
+        <v>166.30126953125</v>
       </c>
       <c r="G561" t="n">
         <v>792543900</v>
@@ -13373,7 +13373,7 @@
         <v>192.8500061035156</v>
       </c>
       <c r="F562" t="n">
-        <v>164.9420928955078</v>
+        <v>164.942138671875</v>
       </c>
       <c r="G562" t="n">
         <v>666841300</v>
@@ -13396,7 +13396,7 @@
         <v>195</v>
       </c>
       <c r="F563" t="n">
-        <v>166.7809600830078</v>
+        <v>166.7809906005859</v>
       </c>
       <c r="G563" t="n">
         <v>843095800</v>
@@ -13442,7 +13442,7 @@
         <v>203.2700042724609</v>
       </c>
       <c r="F565" t="n">
-        <v>173.8542022705078</v>
+        <v>173.8541870117188</v>
       </c>
       <c r="G565" t="n">
         <v>492262800</v>
@@ -13465,7 +13465,7 @@
         <v>207.5099945068359</v>
       </c>
       <c r="F566" t="n">
-        <v>177.4806365966797</v>
+        <v>177.4805755615234</v>
       </c>
       <c r="G566" t="n">
         <v>576364400</v>
@@ -13488,7 +13488,7 @@
         <v>207.9299926757812</v>
       </c>
       <c r="F567" t="n">
-        <v>177.8398284912109</v>
+        <v>177.8398590087891</v>
       </c>
       <c r="G567" t="n">
         <v>504447900</v>
@@ -13511,7 +13511,7 @@
         <v>210.0399932861328</v>
       </c>
       <c r="F568" t="n">
-        <v>179.6444549560547</v>
+        <v>179.6444702148438</v>
       </c>
       <c r="G568" t="n">
         <v>466621600</v>
@@ -13534,7 +13534,7 @@
         <v>202.5399932861328</v>
       </c>
       <c r="F569" t="n">
-        <v>173.2298278808594</v>
+        <v>173.2298431396484</v>
       </c>
       <c r="G569" t="n">
         <v>549621600</v>
@@ -13557,7 +13557,7 @@
         <v>209.3099975585938</v>
       </c>
       <c r="F570" t="n">
-        <v>179.0201416015625</v>
+        <v>179.0200958251953</v>
       </c>
       <c r="G570" t="n">
         <v>542343400</v>
@@ -13580,7 +13580,7 @@
         <v>209.5599975585938</v>
       </c>
       <c r="F571" t="n">
-        <v>179.2339477539062</v>
+        <v>179.2339782714844</v>
       </c>
       <c r="G571" t="n">
         <v>253103500</v>
@@ -13603,7 +13603,7 @@
         <v>209.6199951171875</v>
       </c>
       <c r="F572" t="n">
-        <v>179.2852630615234</v>
+        <v>179.2852478027344</v>
       </c>
       <c r="G572" t="n">
         <v>678260500</v>
@@ -13649,7 +13649,7 @@
         <v>200.0200042724609</v>
       </c>
       <c r="F574" t="n">
-        <v>171.0744781494141</v>
+        <v>171.0745239257812</v>
       </c>
       <c r="G574" t="n">
         <v>957957800</v>
@@ -13672,7 +13672,7 @@
         <v>205.6799926757812</v>
       </c>
       <c r="F575" t="n">
-        <v>176.9623413085938</v>
+        <v>176.9623870849609</v>
       </c>
       <c r="G575" t="n">
         <v>369647300</v>
@@ -13695,7 +13695,7 @@
         <v>203.8699951171875</v>
       </c>
       <c r="F576" t="n">
-        <v>175.4050903320312</v>
+        <v>175.4051361083984</v>
       </c>
       <c r="G576" t="n">
         <v>336736200</v>
@@ -13718,7 +13718,7 @@
         <v>191.9199981689453</v>
       </c>
       <c r="F577" t="n">
-        <v>165.1235809326172</v>
+        <v>165.1236114501953</v>
       </c>
       <c r="G577" t="n">
         <v>908565200</v>
@@ -13741,7 +13741,7 @@
         <v>187.8099975585938</v>
       </c>
       <c r="F578" t="n">
-        <v>161.5874786376953</v>
+        <v>161.5874633789062</v>
       </c>
       <c r="G578" t="n">
         <v>1147082700</v>
@@ -13764,7 +13764,7 @@
         <v>190.5200042724609</v>
       </c>
       <c r="F579" t="n">
-        <v>163.9190673828125</v>
+        <v>163.9190826416016</v>
       </c>
       <c r="G579" t="n">
         <v>845884700</v>
@@ -13787,7 +13787,7 @@
         <v>193.7200012207031</v>
       </c>
       <c r="F580" t="n">
-        <v>166.6722564697266</v>
+        <v>166.6722869873047</v>
       </c>
       <c r="G580" t="n">
         <v>811418300</v>
@@ -13810,7 +13810,7 @@
         <v>187.9499969482422</v>
       </c>
       <c r="F581" t="n">
-        <v>161.7079010009766</v>
+        <v>161.7078857421875</v>
       </c>
       <c r="G581" t="n">
         <v>844001500</v>
@@ -13833,7 +13833,7 @@
         <v>186.6300048828125</v>
       </c>
       <c r="F582" t="n">
-        <v>160.5722351074219</v>
+        <v>160.5722198486328</v>
       </c>
       <c r="G582" t="n">
         <v>870945200</v>
@@ -13856,7 +13856,7 @@
         <v>192</v>
       </c>
       <c r="F583" t="n">
-        <v>165.1924133300781</v>
+        <v>165.1924438476562</v>
       </c>
       <c r="G583" t="n">
         <v>473396200</v>
@@ -13879,7 +13879,7 @@
         <v>195.0899963378906</v>
       </c>
       <c r="F584" t="n">
-        <v>167.8509979248047</v>
+        <v>167.8510284423828</v>
       </c>
       <c r="G584" t="n">
         <v>606469800</v>
@@ -13902,7 +13902,7 @@
         <v>200.4299926757812</v>
       </c>
       <c r="F585" t="n">
-        <v>172.4454193115234</v>
+        <v>172.4454040527344</v>
       </c>
       <c r="G585" t="n">
         <v>594598600</v>
@@ -13925,7 +13925,7 @@
         <v>202.7599945068359</v>
       </c>
       <c r="F586" t="n">
-        <v>174.4501037597656</v>
+        <v>174.4500579833984</v>
       </c>
       <c r="G586" t="n">
         <v>613798300</v>
@@ -13948,7 +13948,7 @@
         <v>204.3800048828125</v>
       </c>
       <c r="F587" t="n">
-        <v>175.8439025878906</v>
+        <v>175.8439178466797</v>
       </c>
       <c r="G587" t="n">
         <v>568735200</v>
@@ -13971,7 +13971,7 @@
         <v>203.1199951171875</v>
       </c>
       <c r="F588" t="n">
-        <v>175.6612091064453</v>
+        <v>175.6611785888672</v>
       </c>
       <c r="G588" t="n">
         <v>335812000</v>
@@ -13994,7 +13994,7 @@
         <v>206.9199981689453</v>
       </c>
       <c r="F589" t="n">
-        <v>178.9474487304688</v>
+        <v>178.9474792480469</v>
       </c>
       <c r="G589" t="n">
         <v>450704000</v>
@@ -14017,7 +14017,7 @@
         <v>204.5</v>
       </c>
       <c r="F590" t="n">
-        <v>176.8546295166016</v>
+        <v>176.8546142578125</v>
       </c>
       <c r="G590" t="n">
         <v>463898600</v>
@@ -14040,7 +14040,7 @@
         <v>207.7799987792969</v>
       </c>
       <c r="F591" t="n">
-        <v>179.6912231445312</v>
+        <v>179.6911773681641</v>
       </c>
       <c r="G591" t="n">
         <v>436419000</v>
@@ -14109,7 +14109,7 @@
         <v>205.7200012207031</v>
       </c>
       <c r="F594" t="n">
-        <v>177.9096832275391</v>
+        <v>177.9096984863281</v>
       </c>
       <c r="G594" t="n">
         <v>417788100</v>
@@ -14132,7 +14132,7 @@
         <v>204.7599945068359</v>
       </c>
       <c r="F595" t="n">
-        <v>177.0794067382812</v>
+        <v>177.0794219970703</v>
       </c>
       <c r="G595" t="n">
         <v>419635000</v>
@@ -14155,7 +14155,7 @@
         <v>205.4900054931641</v>
       </c>
       <c r="F596" t="n">
-        <v>177.7108001708984</v>
+        <v>177.7107696533203</v>
       </c>
       <c r="G596" t="n">
         <v>532894700</v>
@@ -14178,7 +14178,7 @@
         <v>210.2400054931641</v>
       </c>
       <c r="F597" t="n">
-        <v>181.8186798095703</v>
+        <v>181.818603515625</v>
       </c>
       <c r="G597" t="n">
         <v>348333700</v>
@@ -14201,7 +14201,7 @@
         <v>210.2799987792969</v>
       </c>
       <c r="F598" t="n">
-        <v>181.8532409667969</v>
+        <v>181.8532104492188</v>
       </c>
       <c r="G598" t="n">
         <v>344617400</v>
@@ -14224,7 +14224,7 @@
         <v>210.0700073242188</v>
       </c>
       <c r="F599" t="n">
-        <v>181.6716003417969</v>
+        <v>181.6716613769531</v>
       </c>
       <c r="G599" t="n">
         <v>379648800</v>
@@ -14247,7 +14247,7 @@
         <v>206.5200042724609</v>
       </c>
       <c r="F600" t="n">
-        <v>178.6015625</v>
+        <v>178.6014862060547</v>
       </c>
       <c r="G600" t="n">
         <v>618523800</v>
@@ -14270,7 +14270,7 @@
         <v>203.2400054931641</v>
       </c>
       <c r="F601" t="n">
-        <v>176.6790008544922</v>
+        <v>176.6790313720703</v>
       </c>
       <c r="G601" t="n">
         <v>686987600</v>
@@ -14316,7 +14316,7 @@
         <v>212.6499938964844</v>
       </c>
       <c r="F603" t="n">
-        <v>184.8592529296875</v>
+        <v>184.8592376708984</v>
       </c>
       <c r="G603" t="n">
         <v>425390000</v>
@@ -14339,7 +14339,7 @@
         <v>215.8300018310547</v>
       </c>
       <c r="F604" t="n">
-        <v>187.6236572265625</v>
+        <v>187.6236114501953</v>
       </c>
       <c r="G604" t="n">
         <v>460619900</v>
@@ -14385,7 +14385,7 @@
         <v>217.1199951171875</v>
       </c>
       <c r="F606" t="n">
-        <v>188.7451019287109</v>
+        <v>188.7450408935547</v>
       </c>
       <c r="G606" t="n">
         <v>354592600</v>
@@ -14408,7 +14408,7 @@
         <v>218.1799926757812</v>
       </c>
       <c r="F607" t="n">
-        <v>189.6664886474609</v>
+        <v>189.6665191650391</v>
       </c>
       <c r="G607" t="n">
         <v>338078200</v>
@@ -14431,7 +14431,7 @@
         <v>218.4600067138672</v>
       </c>
       <c r="F608" t="n">
-        <v>189.9099273681641</v>
+        <v>189.909912109375</v>
       </c>
       <c r="G608" t="n">
         <v>282917100</v>
@@ -14454,7 +14454,7 @@
         <v>218.5399932861328</v>
       </c>
       <c r="F609" t="n">
-        <v>189.9794311523438</v>
+        <v>189.9794769287109</v>
       </c>
       <c r="G609" t="n">
         <v>306593700</v>
@@ -14500,7 +14500,7 @@
         <v>218.3699951171875</v>
       </c>
       <c r="F611" t="n">
-        <v>189.8316650390625</v>
+        <v>189.8316955566406</v>
       </c>
       <c r="G611" t="n">
         <v>391024300</v>
@@ -14638,7 +14638,7 @@
         <v>213.1199951171875</v>
       </c>
       <c r="F617" t="n">
-        <v>186.2036743164062</v>
+        <v>186.2036285400391</v>
       </c>
       <c r="G617" t="n">
         <v>450791700</v>
@@ -14661,7 +14661,7 @@
         <v>213.9799957275391</v>
       </c>
       <c r="F618" t="n">
-        <v>186.9550476074219</v>
+        <v>186.9549713134766</v>
       </c>
       <c r="G618" t="n">
         <v>364393500</v>
@@ -14684,7 +14684,7 @@
         <v>212.5399932861328</v>
       </c>
       <c r="F619" t="n">
-        <v>185.6969299316406</v>
+        <v>185.6969146728516</v>
       </c>
       <c r="G619" t="n">
         <v>420237800</v>
@@ -14707,7 +14707,7 @@
         <v>208.5500030517578</v>
       </c>
       <c r="F620" t="n">
-        <v>182.2108154296875</v>
+        <v>182.2108612060547</v>
       </c>
       <c r="G620" t="n">
         <v>485446500</v>
@@ -14730,7 +14730,7 @@
         <v>216.4199981689453</v>
       </c>
       <c r="F621" t="n">
-        <v>189.0868988037109</v>
+        <v>189.0868682861328</v>
       </c>
       <c r="G621" t="n">
         <v>747662000</v>
@@ -14753,7 +14753,7 @@
         <v>218.5</v>
       </c>
       <c r="F622" t="n">
-        <v>190.9041595458984</v>
+        <v>190.9042053222656</v>
       </c>
       <c r="G622" t="n">
         <v>407913300</v>
@@ -14776,7 +14776,7 @@
         <v>221.5200042724609</v>
       </c>
       <c r="F623" t="n">
-        <v>193.5427551269531</v>
+        <v>193.5427856445312</v>
       </c>
       <c r="G623" t="n">
         <v>234324100</v>
@@ -14799,7 +14799,7 @@
         <v>219.6799926757812</v>
       </c>
       <c r="F624" t="n">
-        <v>191.9351501464844</v>
+        <v>191.9351348876953</v>
       </c>
       <c r="G624" t="n">
         <v>413631800</v>
@@ -14822,7 +14822,7 @@
         <v>226.5099945068359</v>
       </c>
       <c r="F625" t="n">
-        <v>197.9025115966797</v>
+        <v>197.9025726318359</v>
       </c>
       <c r="G625" t="n">
         <v>426173500</v>
@@ -14845,7 +14845,7 @@
         <v>225.0399932861328</v>
       </c>
       <c r="F626" t="n">
-        <v>196.6181793212891</v>
+        <v>196.6181945800781</v>
       </c>
       <c r="G626" t="n">
         <v>636388200</v>
@@ -14868,7 +14868,7 @@
         <v>225.7100067138672</v>
       </c>
       <c r="F627" t="n">
-        <v>198.3659362792969</v>
+        <v>198.365966796875</v>
       </c>
       <c r="G627" t="n">
         <v>341005800</v>
@@ -14891,7 +14891,7 @@
         <v>223.5299987792969</v>
       </c>
       <c r="F628" t="n">
-        <v>196.4499816894531</v>
+        <v>196.4500274658203</v>
       </c>
       <c r="G628" t="n">
         <v>264461900</v>
@@ -14914,7 +14914,7 @@
         <v>227.2100067138672</v>
       </c>
       <c r="F629" t="n">
-        <v>199.6842346191406</v>
+        <v>199.6841888427734</v>
       </c>
       <c r="G629" t="n">
         <v>320049800</v>
@@ -14937,7 +14937,7 @@
         <v>227.0500030517578</v>
       </c>
       <c r="F630" t="n">
-        <v>199.5436248779297</v>
+        <v>199.5436096191406</v>
       </c>
       <c r="G630" t="n">
         <v>320192700</v>
@@ -14960,7 +14960,7 @@
         <v>226.7400054931641</v>
       </c>
       <c r="F631" t="n">
-        <v>199.2711334228516</v>
+        <v>199.2711639404297</v>
       </c>
       <c r="G631" t="n">
         <v>311811500</v>
@@ -14983,7 +14983,7 @@
         <v>228.9700012207031</v>
       </c>
       <c r="F632" t="n">
-        <v>201.23095703125</v>
+        <v>201.2310028076172</v>
       </c>
       <c r="G632" t="n">
         <v>374736400</v>
@@ -15006,7 +15006,7 @@
         <v>229.3399963378906</v>
       </c>
       <c r="F633" t="n">
-        <v>201.5561676025391</v>
+        <v>201.5561981201172</v>
       </c>
       <c r="G633" t="n">
         <v>384956600</v>
@@ -15029,7 +15029,7 @@
         <v>231.5099945068359</v>
       </c>
       <c r="F634" t="n">
-        <v>203.4632873535156</v>
+        <v>203.4632263183594</v>
       </c>
       <c r="G634" t="n">
         <v>299258600</v>
@@ -15075,7 +15075,7 @@
         <v>236.7400054931641</v>
       </c>
       <c r="F636" t="n">
-        <v>208.0596771240234</v>
+        <v>208.0596923828125</v>
       </c>
       <c r="G636" t="n">
         <v>308058800</v>
@@ -15098,7 +15098,7 @@
         <v>238.4199981689453</v>
       </c>
       <c r="F637" t="n">
-        <v>209.5361785888672</v>
+        <v>209.5361480712891</v>
       </c>
       <c r="G637" t="n">
         <v>454855800</v>
@@ -15144,7 +15144,7 @@
         <v>237.0299987792969</v>
       </c>
       <c r="F639" t="n">
-        <v>208.3145751953125</v>
+        <v>208.3145294189453</v>
       </c>
       <c r="G639" t="n">
         <v>380565500</v>
@@ -15167,7 +15167,7 @@
         <v>233.8600006103516</v>
       </c>
       <c r="F640" t="n">
-        <v>206.4227142333984</v>
+        <v>206.4227294921875</v>
       </c>
       <c r="G640" t="n">
         <v>494830700</v>
@@ -15190,7 +15190,7 @@
         <v>235.7400054931641</v>
       </c>
       <c r="F641" t="n">
-        <v>208.0821533203125</v>
+        <v>208.0821228027344</v>
       </c>
       <c r="G641" t="n">
         <v>373359800</v>
@@ -15213,7 +15213,7 @@
         <v>235.1999969482422</v>
       </c>
       <c r="F642" t="n">
-        <v>207.6054992675781</v>
+        <v>207.60546875</v>
       </c>
       <c r="G642" t="n">
         <v>394361400</v>
@@ -15236,7 +15236,7 @@
         <v>232.5099945068359</v>
       </c>
       <c r="F643" t="n">
-        <v>205.2310485839844</v>
+        <v>205.2310791015625</v>
       </c>
       <c r="G643" t="n">
         <v>330405400</v>
@@ -15282,7 +15282,7 @@
         <v>238.0800018310547</v>
       </c>
       <c r="F645" t="n">
-        <v>210.1475830078125</v>
+        <v>210.1475677490234</v>
       </c>
       <c r="G645" t="n">
         <v>401553800</v>
@@ -15305,7 +15305,7 @@
         <v>239.6999969482422</v>
       </c>
       <c r="F646" t="n">
-        <v>211.5774841308594</v>
+        <v>211.5775299072266</v>
       </c>
       <c r="G646" t="n">
         <v>320859900</v>
@@ -15328,7 +15328,7 @@
         <v>238.9799957275391</v>
       </c>
       <c r="F647" t="n">
-        <v>210.9420471191406</v>
+        <v>210.9420318603516</v>
       </c>
       <c r="G647" t="n">
         <v>270313700</v>
@@ -15351,7 +15351,7 @@
         <v>238.3099975585938</v>
       </c>
       <c r="F648" t="n">
-        <v>210.3506011962891</v>
+        <v>210.3506469726562</v>
       </c>
       <c r="G648" t="n">
         <v>507393900</v>
@@ -15397,7 +15397,7 @@
         <v>244.1699981689453</v>
       </c>
       <c r="F650" t="n">
-        <v>215.5231323242188</v>
+        <v>215.5231018066406</v>
       </c>
       <c r="G650" t="n">
         <v>284626000</v>
@@ -15420,7 +15420,7 @@
         <v>243.4100036621094</v>
       </c>
       <c r="F651" t="n">
-        <v>214.852294921875</v>
+        <v>214.8522796630859</v>
       </c>
       <c r="G651" t="n">
         <v>347425600</v>
@@ -15443,7 +15443,7 @@
         <v>242.6399993896484</v>
       </c>
       <c r="F652" t="n">
-        <v>214.1725921630859</v>
+        <v>214.1725769042969</v>
       </c>
       <c r="G652" t="n">
         <v>375795400</v>
@@ -15489,7 +15489,7 @@
         <v>241.8000030517578</v>
       </c>
       <c r="F654" t="n">
-        <v>214.4720001220703</v>
+        <v>214.4720153808594</v>
       </c>
       <c r="G654" t="n">
         <v>402761200</v>
@@ -15512,7 +15512,7 @@
         <v>242.1100006103516</v>
       </c>
       <c r="F655" t="n">
-        <v>214.7469482421875</v>
+        <v>214.7468872070312</v>
       </c>
       <c r="G655" t="n">
         <v>216954500</v>
@@ -15535,7 +15535,7 @@
         <v>245.5599975585938</v>
       </c>
       <c r="F656" t="n">
-        <v>217.8070678710938</v>
+        <v>217.8070373535156</v>
       </c>
       <c r="G656" t="n">
         <v>246362600</v>
@@ -15558,7 +15558,7 @@
         <v>246.8800048828125</v>
       </c>
       <c r="F657" t="n">
-        <v>218.9778442382812</v>
+        <v>218.9778289794922</v>
       </c>
       <c r="G657" t="n">
         <v>256784700</v>
@@ -15581,7 +15581,7 @@
         <v>246.9100036621094</v>
       </c>
       <c r="F658" t="n">
-        <v>219.0044708251953</v>
+        <v>219.0044860839844</v>
       </c>
       <c r="G658" t="n">
         <v>269968300</v>
@@ -15627,7 +15627,7 @@
         <v>244.1199951171875</v>
       </c>
       <c r="F660" t="n">
-        <v>216.5297241210938</v>
+        <v>216.5297546386719</v>
       </c>
       <c r="G660" t="n">
         <v>351696400</v>
@@ -15673,7 +15673,7 @@
         <v>244.5599975585938</v>
       </c>
       <c r="F662" t="n">
-        <v>216.9200286865234</v>
+        <v>216.9200439453125</v>
       </c>
       <c r="G662" t="n">
         <v>294001200</v>
@@ -15696,7 +15696,7 @@
         <v>247.8399963378906</v>
       </c>
       <c r="F663" t="n">
-        <v>219.8294067382812</v>
+        <v>219.8293609619141</v>
       </c>
       <c r="G663" t="n">
         <v>319543000</v>
@@ -15719,7 +15719,7 @@
         <v>246.5800018310547</v>
       </c>
       <c r="F664" t="n">
-        <v>218.7117462158203</v>
+        <v>218.7117309570312</v>
       </c>
       <c r="G664" t="n">
         <v>271183200</v>
@@ -15742,7 +15742,7 @@
         <v>249.1900024414062</v>
       </c>
       <c r="F665" t="n">
-        <v>221.0267639160156</v>
+        <v>221.0267791748047</v>
       </c>
       <c r="G665" t="n">
         <v>378367500</v>
@@ -15765,7 +15765,7 @@
         <v>249.4400024414062</v>
       </c>
       <c r="F666" t="n">
-        <v>222.3465423583984</v>
+        <v>222.3465118408203</v>
       </c>
       <c r="G666" t="n">
         <v>252342800</v>
@@ -15811,7 +15811,7 @@
         <v>254.3699951171875</v>
       </c>
       <c r="F668" t="n">
-        <v>226.7410278320312</v>
+        <v>226.7410125732422</v>
       </c>
       <c r="G668" t="n">
         <v>325955600</v>
@@ -15834,7 +15834,7 @@
         <v>254.9499969482422</v>
       </c>
       <c r="F669" t="n">
-        <v>227.2580261230469</v>
+        <v>227.2580718994141</v>
       </c>
       <c r="G669" t="n">
         <v>228400300</v>
@@ -15857,7 +15857,7 @@
         <v>257.1099853515625</v>
       </c>
       <c r="F670" t="n">
-        <v>229.1834106445312</v>
+        <v>229.1834411621094</v>
       </c>
       <c r="G670" t="n">
         <v>261751200</v>
@@ -15903,7 +15903,7 @@
         <v>258.4500122070312</v>
       </c>
       <c r="F672" t="n">
-        <v>230.3778991699219</v>
+        <v>230.3778839111328</v>
       </c>
       <c r="G672" t="n">
         <v>284832400</v>
@@ -15949,7 +15949,7 @@
         <v>257.8599853515625</v>
       </c>
       <c r="F674" t="n">
-        <v>229.8519897460938</v>
+        <v>229.8519287109375</v>
       </c>
       <c r="G674" t="n">
         <v>335889100</v>
@@ -15972,7 +15972,7 @@
         <v>260.3599853515625</v>
       </c>
       <c r="F675" t="n">
-        <v>232.0803833007812</v>
+        <v>232.0803985595703</v>
       </c>
       <c r="G675" t="n">
         <v>190142200</v>
@@ -15995,7 +15995,7 @@
         <v>264.4599914550781</v>
       </c>
       <c r="F676" t="n">
-        <v>235.7351226806641</v>
+        <v>235.7350616455078</v>
       </c>
       <c r="G676" t="n">
         <v>521044000</v>
@@ -16018,7 +16018,7 @@
         <v>265.510009765625</v>
       </c>
       <c r="F677" t="n">
-        <v>236.6710662841797</v>
+        <v>236.6710357666016</v>
       </c>
       <c r="G677" t="n">
         <v>401716200</v>
@@ -16041,7 +16041,7 @@
         <v>266.510009765625</v>
       </c>
       <c r="F678" t="n">
-        <v>237.5623931884766</v>
+        <v>237.5624084472656</v>
       </c>
       <c r="G678" t="n">
         <v>516455700</v>
@@ -16064,7 +16064,7 @@
         <v>267.510009765625</v>
       </c>
       <c r="F679" t="n">
-        <v>239.6726379394531</v>
+        <v>239.672607421875</v>
       </c>
       <c r="G679" t="n">
         <v>388541200</v>
@@ -16110,7 +16110,7 @@
         <v>273.4200134277344</v>
       </c>
       <c r="F681" t="n">
-        <v>244.9677124023438</v>
+        <v>244.9676971435547</v>
       </c>
       <c r="G681" t="n">
         <v>340886500</v>
@@ -16133,7 +16133,7 @@
         <v>277.9200134277344</v>
       </c>
       <c r="F682" t="n">
-        <v>248.9994049072266</v>
+        <v>248.9994812011719</v>
       </c>
       <c r="G682" t="n">
         <v>337325100</v>
@@ -16156,7 +16156,7 @@
         <v>280.4100036621094</v>
       </c>
       <c r="F683" t="n">
-        <v>251.2303314208984</v>
+        <v>251.2302398681641</v>
       </c>
       <c r="G683" t="n">
         <v>461462000</v>
@@ -16179,7 +16179,7 @@
         <v>286.5799865722656</v>
       </c>
       <c r="F684" t="n">
-        <v>256.7582397460938</v>
+        <v>256.7581787109375</v>
       </c>
       <c r="G684" t="n">
         <v>515553600</v>
@@ -16225,7 +16225,7 @@
         <v>261.5</v>
       </c>
       <c r="F686" t="n">
-        <v>234.2881164550781</v>
+        <v>234.2880859375</v>
       </c>
       <c r="G686" t="n">
         <v>1347099500</v>
@@ -16248,7 +16248,7 @@
         <v>273.1099853515625</v>
       </c>
       <c r="F687" t="n">
-        <v>244.6898651123047</v>
+        <v>244.6899261474609</v>
       </c>
       <c r="G687" t="n">
         <v>617315700</v>
@@ -16271,7 +16271,7 @@
         <v>274.7099914550781</v>
       </c>
       <c r="F688" t="n">
-        <v>246.1233978271484</v>
+        <v>246.1234588623047</v>
       </c>
       <c r="G688" t="n">
         <v>388531100</v>
@@ -16294,7 +16294,7 @@
         <v>269.0799865722656</v>
       </c>
       <c r="F689" t="n">
-        <v>241.0793304443359</v>
+        <v>241.0792236328125</v>
       </c>
       <c r="G689" t="n">
         <v>623436700</v>
@@ -16317,7 +16317,7 @@
         <v>278.8699951171875</v>
       </c>
       <c r="F690" t="n">
-        <v>249.8505096435547</v>
+        <v>249.8504943847656</v>
       </c>
       <c r="G690" t="n">
         <v>444110600</v>
@@ -16340,7 +16340,7 @@
         <v>274.2000122070312</v>
       </c>
       <c r="F691" t="n">
-        <v>245.6664733886719</v>
+        <v>245.6664581298828</v>
       </c>
       <c r="G691" t="n">
         <v>453565500</v>
@@ -16363,7 +16363,7 @@
         <v>258.0499877929688</v>
       </c>
       <c r="F692" t="n">
-        <v>232.1229705810547</v>
+        <v>232.1230316162109</v>
       </c>
       <c r="G692" t="n">
         <v>579996000</v>
@@ -16386,7 +16386,7 @@
         <v>263.1499938964844</v>
       </c>
       <c r="F693" t="n">
-        <v>236.7105865478516</v>
+        <v>236.7106323242188</v>
       </c>
       <c r="G693" t="n">
         <v>529951400</v>
@@ -16409,7 +16409,7 @@
         <v>259.7200012207031</v>
       </c>
       <c r="F694" t="n">
-        <v>233.6252288818359</v>
+        <v>233.625244140625</v>
       </c>
       <c r="G694" t="n">
         <v>692132300</v>
@@ -16432,7 +16432,7 @@
         <v>265.1499938964844</v>
       </c>
       <c r="F695" t="n">
-        <v>238.5096435546875</v>
+        <v>238.5096130371094</v>
       </c>
       <c r="G695" t="n">
         <v>454081800</v>
@@ -16455,7 +16455,7 @@
         <v>266.6099853515625</v>
       </c>
       <c r="F696" t="n">
-        <v>239.8229827880859</v>
+        <v>239.8229675292969</v>
       </c>
       <c r="G696" t="n">
         <v>363000200</v>
@@ -16478,7 +16478,7 @@
         <v>266.5599975585938</v>
       </c>
       <c r="F697" t="n">
-        <v>239.7780151367188</v>
+        <v>239.7780303955078</v>
       </c>
       <c r="G697" t="n">
         <v>407069900</v>
@@ -16501,7 +16501,7 @@
         <v>266.0199890136719</v>
       </c>
       <c r="F698" t="n">
-        <v>239.2922210693359</v>
+        <v>239.292236328125</v>
       </c>
       <c r="G698" t="n">
         <v>470288200</v>
@@ -16524,7 +16524,7 @@
         <v>272.8500061035156</v>
       </c>
       <c r="F699" t="n">
-        <v>245.4360809326172</v>
+        <v>245.4360198974609</v>
       </c>
       <c r="G699" t="n">
         <v>314405600</v>
@@ -16547,7 +16547,7 @@
         <v>271.3299865722656</v>
       </c>
       <c r="F700" t="n">
-        <v>244.0687561035156</v>
+        <v>244.0687713623047</v>
       </c>
       <c r="G700" t="n">
         <v>316673700</v>
@@ -16593,7 +16593,7 @@
         <v>273.6000061035156</v>
       </c>
       <c r="F702" t="n">
-        <v>246.1106414794922</v>
+        <v>246.1107330322266</v>
       </c>
       <c r="G702" t="n">
         <v>350365300</v>
@@ -16616,7 +16616,7 @@
         <v>278.1900024414062</v>
       </c>
       <c r="F703" t="n">
-        <v>250.239501953125</v>
+        <v>250.2394866943359</v>
       </c>
       <c r="G703" t="n">
         <v>304361500</v>
@@ -16639,7 +16639,7 @@
         <v>277.1300048828125</v>
       </c>
       <c r="F704" t="n">
-        <v>249.2860565185547</v>
+        <v>249.2859344482422</v>
       </c>
       <c r="G704" t="n">
         <v>407431300</v>
@@ -16662,7 +16662,7 @@
         <v>274.739990234375</v>
       </c>
       <c r="F705" t="n">
-        <v>248.2458953857422</v>
+        <v>248.2458801269531</v>
       </c>
       <c r="G705" t="n">
         <v>330194500</v>
@@ -16685,7 +16685,7 @@
         <v>271.2799987792969</v>
       </c>
       <c r="F706" t="n">
-        <v>245.1195526123047</v>
+        <v>245.1195068359375</v>
       </c>
       <c r="G706" t="n">
         <v>485755300</v>
@@ -16708,7 +16708,7 @@
         <v>275.4200134277344</v>
       </c>
       <c r="F707" t="n">
-        <v>248.8603210449219</v>
+        <v>248.8603363037109</v>
       </c>
       <c r="G707" t="n">
         <v>229161500</v>
@@ -16731,7 +16731,7 @@
         <v>279.5899963378906</v>
       </c>
       <c r="F708" t="n">
-        <v>252.628173828125</v>
+        <v>252.6281127929688</v>
       </c>
       <c r="G708" t="n">
         <v>287912600</v>
@@ -16754,7 +16754,7 @@
         <v>279.6799926757812</v>
       </c>
       <c r="F709" t="n">
-        <v>252.7095031738281</v>
+        <v>252.7094573974609</v>
       </c>
       <c r="G709" t="n">
         <v>288859800</v>
@@ -16777,7 +16777,7 @@
         <v>281.4200134277344</v>
       </c>
       <c r="F710" t="n">
-        <v>254.2816619873047</v>
+        <v>254.2816925048828</v>
       </c>
       <c r="G710" t="n">
         <v>328645600</v>
@@ -16800,7 +16800,7 @@
         <v>283.6000061035156</v>
       </c>
       <c r="F711" t="n">
-        <v>256.2514953613281</v>
+        <v>256.25146484375</v>
       </c>
       <c r="G711" t="n">
         <v>303528100</v>
@@ -16823,7 +16823,7 @@
         <v>283.1600036621094</v>
       </c>
       <c r="F712" t="n">
-        <v>255.8538970947266</v>
+        <v>255.8539123535156</v>
       </c>
       <c r="G712" t="n">
         <v>237505100</v>
@@ -16846,7 +16846,7 @@
         <v>285.0599975585938</v>
       </c>
       <c r="F713" t="n">
-        <v>257.5707397460938</v>
+        <v>257.5706176757812</v>
       </c>
       <c r="G713" t="n">
         <v>348086700</v>
@@ -16869,7 +16869,7 @@
         <v>287.510009765625</v>
       </c>
       <c r="F714" t="n">
-        <v>259.7844848632812</v>
+        <v>259.784423828125</v>
       </c>
       <c r="G714" t="n">
         <v>258765100</v>
@@ -16915,7 +16915,7 @@
         <v>287.6000061035156</v>
       </c>
       <c r="F716" t="n">
-        <v>259.8658142089844</v>
+        <v>259.86572265625</v>
       </c>
       <c r="G716" t="n">
         <v>269481500</v>
@@ -16938,7 +16938,7 @@
         <v>290.8800048828125</v>
       </c>
       <c r="F717" t="n">
-        <v>262.8294067382812</v>
+        <v>262.8294982910156</v>
       </c>
       <c r="G717" t="n">
         <v>266666300</v>
@@ -16984,7 +16984,7 @@
         <v>290.7200012207031</v>
       </c>
       <c r="F719" t="n">
-        <v>263.8739318847656</v>
+        <v>263.8740539550781</v>
       </c>
       <c r="G719" t="n">
         <v>306860200</v>
@@ -17007,7 +17007,7 @@
         <v>287.8200073242188</v>
       </c>
       <c r="F720" t="n">
-        <v>261.2417907714844</v>
+        <v>261.2418212890625</v>
       </c>
       <c r="G720" t="n">
         <v>391529300</v>
@@ -17030,7 +17030,7 @@
         <v>275.9500122070312</v>
       </c>
       <c r="F721" t="n">
-        <v>250.4679260253906</v>
+        <v>250.4679412841797</v>
       </c>
       <c r="G721" t="n">
         <v>834839200</v>
@@ -17053,7 +17053,7 @@
         <v>276.25</v>
       </c>
       <c r="F722" t="n">
-        <v>250.7401885986328</v>
+        <v>250.7401580810547</v>
       </c>
       <c r="G722" t="n">
         <v>605604600</v>
@@ -17076,7 +17076,7 @@
         <v>265.3299865722656</v>
       </c>
       <c r="F723" t="n">
-        <v>240.8285980224609</v>
+        <v>240.8285675048828</v>
       </c>
       <c r="G723" t="n">
         <v>746211300</v>
@@ -17099,7 +17099,7 @@
         <v>271.8900146484375</v>
       </c>
       <c r="F724" t="n">
-        <v>246.7828369140625</v>
+        <v>246.7828521728516</v>
       </c>
       <c r="G724" t="n">
         <v>668290500</v>
@@ -17145,7 +17145,7 @@
         <v>273.7300109863281</v>
       </c>
       <c r="F726" t="n">
-        <v>248.452880859375</v>
+        <v>248.4528961181641</v>
       </c>
       <c r="G726" t="n">
         <v>584955500</v>
@@ -17191,7 +17191,7 @@
         <v>275.6499938964844</v>
       </c>
       <c r="F728" t="n">
-        <v>250.1955718994141</v>
+        <v>250.1956024169922</v>
       </c>
       <c r="G728" t="n">
         <v>463664000</v>
@@ -17214,7 +17214,7 @@
         <v>263.5700073242188</v>
       </c>
       <c r="F729" t="n">
-        <v>239.2311096191406</v>
+        <v>239.2311401367188</v>
       </c>
       <c r="G729" t="n">
         <v>646366600</v>
@@ -17237,7 +17237,7 @@
         <v>260.4700012207031</v>
       </c>
       <c r="F730" t="n">
-        <v>236.4173889160156</v>
+        <v>236.4173736572266</v>
       </c>
       <c r="G730" t="n">
         <v>584550800</v>
@@ -17260,7 +17260,7 @@
         <v>240.6999969482422</v>
       </c>
       <c r="F731" t="n">
-        <v>218.4730377197266</v>
+        <v>218.4729766845703</v>
       </c>
       <c r="G731" t="n">
         <v>1022399200</v>
@@ -17283,7 +17283,7 @@
         <v>247.75</v>
       </c>
       <c r="F732" t="n">
-        <v>226.1851654052734</v>
+        <v>226.1851196289062</v>
       </c>
       <c r="G732" t="n">
         <v>705164500</v>
@@ -17329,7 +17329,7 @@
         <v>258.9800109863281</v>
       </c>
       <c r="F734" t="n">
-        <v>236.4376831054688</v>
+        <v>236.4376678466797</v>
       </c>
       <c r="G734" t="n">
         <v>471340300</v>
@@ -17352,7 +17352,7 @@
         <v>266.4599914550781</v>
       </c>
       <c r="F735" t="n">
-        <v>243.2665710449219</v>
+        <v>243.2665405273438</v>
       </c>
       <c r="G735" t="n">
         <v>457771900</v>
@@ -17398,7 +17398,7 @@
         <v>270.0599975585938</v>
       </c>
       <c r="F737" t="n">
-        <v>246.55322265625</v>
+        <v>246.5531768798828</v>
       </c>
       <c r="G737" t="n">
         <v>434018300</v>
@@ -17444,7 +17444,7 @@
         <v>277.3699951171875</v>
       </c>
       <c r="F739" t="n">
-        <v>253.2269592285156</v>
+        <v>253.2269897460938</v>
       </c>
       <c r="G739" t="n">
         <v>385891900</v>
@@ -17467,7 +17467,7 @@
         <v>279.1400146484375</v>
       </c>
       <c r="F740" t="n">
-        <v>254.8428039550781</v>
+        <v>254.8428649902344</v>
       </c>
       <c r="G740" t="n">
         <v>278060900</v>
@@ -17490,7 +17490,7 @@
         <v>280.4200134277344</v>
       </c>
       <c r="F741" t="n">
-        <v>256.0115051269531</v>
+        <v>256.011474609375</v>
       </c>
       <c r="G741" t="n">
         <v>330945200</v>
@@ -17513,7 +17513,7 @@
         <v>274.4599914550781</v>
       </c>
       <c r="F742" t="n">
-        <v>250.5702209472656</v>
+        <v>250.5702514648438</v>
       </c>
       <c r="G742" t="n">
         <v>421329900</v>
@@ -17536,7 +17536,7 @@
         <v>281.3099975585938</v>
       </c>
       <c r="F743" t="n">
-        <v>256.8240356445312</v>
+        <v>256.823974609375</v>
       </c>
       <c r="G743" t="n">
         <v>374233000</v>
@@ -17559,7 +17559,7 @@
         <v>279.25</v>
       </c>
       <c r="F744" t="n">
-        <v>256.0662536621094</v>
+        <v>256.0663146972656</v>
       </c>
       <c r="G744" t="n">
         <v>439286800</v>
@@ -17605,7 +17605,7 @@
         <v>288.5700073242188</v>
       </c>
       <c r="F746" t="n">
-        <v>264.6124267578125</v>
+        <v>264.6124877929688</v>
       </c>
       <c r="G746" t="n">
         <v>293550700</v>
@@ -17628,7 +17628,7 @@
         <v>290.1600036621094</v>
       </c>
       <c r="F747" t="n">
-        <v>266.0704345703125</v>
+        <v>266.0704956054688</v>
       </c>
       <c r="G747" t="n">
         <v>297131000</v>
@@ -17651,7 +17651,7 @@
         <v>290.0199890136719</v>
       </c>
       <c r="F748" t="n">
-        <v>265.9421691894531</v>
+        <v>265.942138671875</v>
       </c>
       <c r="G748" t="n">
         <v>228726700</v>
@@ -17697,7 +17697,7 @@
         <v>294.0299987792969</v>
       </c>
       <c r="F750" t="n">
-        <v>269.619140625</v>
+        <v>269.6192321777344</v>
       </c>
       <c r="G750" t="n">
         <v>331555200</v>
@@ -17743,7 +17743,7 @@
         <v>285.8399963378906</v>
       </c>
       <c r="F752" t="n">
-        <v>262.109130859375</v>
+        <v>262.1091918945312</v>
       </c>
       <c r="G752" t="n">
         <v>455352700</v>
@@ -17766,7 +17766,7 @@
         <v>282.7799987792969</v>
       </c>
       <c r="F753" t="n">
-        <v>259.3031311035156</v>
+        <v>259.30322265625</v>
       </c>
       <c r="G753" t="n">
         <v>313209100</v>
@@ -17789,7 +17789,7 @@
         <v>275.2699890136719</v>
       </c>
       <c r="F754" t="n">
-        <v>252.4166870117188</v>
+        <v>252.4167327880859</v>
       </c>
       <c r="G754" t="n">
         <v>324388900</v>
@@ -17812,7 +17812,7 @@
         <v>287.6499938964844</v>
       </c>
       <c r="F755" t="n">
-        <v>263.7689514160156</v>
+        <v>263.7688598632812</v>
       </c>
       <c r="G755" t="n">
         <v>388532200</v>
@@ -17835,7 +17835,7 @@
         <v>289.260009765625</v>
       </c>
       <c r="F756" t="n">
-        <v>265.2452087402344</v>
+        <v>265.2452697753906</v>
       </c>
       <c r="G756" t="n">
         <v>267806600</v>
@@ -17904,7 +17904,7 @@
         <v>298.4599914550781</v>
       </c>
       <c r="F759" t="n">
-        <v>275.0124816894531</v>
+        <v>275.0125427246094</v>
       </c>
       <c r="G759" t="n">
         <v>232786300</v>
@@ -17927,7 +17927,7 @@
         <v>300.6499938964844</v>
       </c>
       <c r="F760" t="n">
-        <v>277.0304565429688</v>
+        <v>277.0304260253906</v>
       </c>
       <c r="G760" t="n">
         <v>236543700</v>
@@ -17973,7 +17973,7 @@
         <v>302.010009765625</v>
       </c>
       <c r="F762" t="n">
-        <v>278.2835998535156</v>
+        <v>278.2835388183594</v>
       </c>
       <c r="G762" t="n">
         <v>235894000</v>
@@ -17996,7 +17996,7 @@
         <v>292.6199951171875</v>
       </c>
       <c r="F763" t="n">
-        <v>269.6312561035156</v>
+        <v>269.63134765625</v>
       </c>
       <c r="G763" t="n">
         <v>447617000</v>
@@ -18019,7 +18019,7 @@
         <v>291.6199951171875</v>
       </c>
       <c r="F764" t="n">
-        <v>268.7098693847656</v>
+        <v>268.7098388671875</v>
       </c>
       <c r="G764" t="n">
         <v>621473300</v>
@@ -18042,7 +18042,7 @@
         <v>288.8500061035156</v>
       </c>
       <c r="F765" t="n">
-        <v>266.1575012207031</v>
+        <v>266.1575317382812</v>
       </c>
       <c r="G765" t="n">
         <v>478024400</v>
@@ -18088,7 +18088,7 @@
         <v>292.4500122070312</v>
       </c>
       <c r="F767" t="n">
-        <v>269.4747009277344</v>
+        <v>269.4746398925781</v>
       </c>
       <c r="G767" t="n">
         <v>319590000</v>
@@ -18134,7 +18134,7 @@
         <v>301.0899963378906</v>
       </c>
       <c r="F769" t="n">
-        <v>277.4359436035156</v>
+        <v>277.4358825683594</v>
       </c>
       <c r="G769" t="n">
         <v>313042000</v>
@@ -18157,7 +18157,7 @@
         <v>298.2799987792969</v>
       </c>
       <c r="F770" t="n">
-        <v>274.8465881347656</v>
+        <v>274.8467102050781</v>
       </c>
       <c r="G770" t="n">
         <v>339168000</v>
@@ -18180,7 +18180,7 @@
         <v>295.3999938964844</v>
       </c>
       <c r="F771" t="n">
-        <v>273.4499206542969</v>
+        <v>273.4498901367188</v>
       </c>
       <c r="G771" t="n">
         <v>351126500</v>
@@ -18203,7 +18203,7 @@
         <v>294.3500061035156</v>
       </c>
       <c r="F772" t="n">
-        <v>272.4779052734375</v>
+        <v>272.4779357910156</v>
       </c>
       <c r="G772" t="n">
         <v>412814300</v>
@@ -18226,7 +18226,7 @@
         <v>296.2799987792969</v>
       </c>
       <c r="F773" t="n">
-        <v>274.2645568847656</v>
+        <v>274.2645263671875</v>
       </c>
       <c r="G773" t="n">
         <v>371694700</v>
@@ -18272,7 +18272,7 @@
         <v>301.6000061035156</v>
       </c>
       <c r="F775" t="n">
-        <v>279.1891784667969</v>
+        <v>279.189208984375</v>
       </c>
       <c r="G775" t="n">
         <v>202654000</v>
@@ -18318,7 +18318,7 @@
         <v>308.9400024414062</v>
       </c>
       <c r="F777" t="n">
-        <v>285.9837341308594</v>
+        <v>285.9837951660156</v>
       </c>
       <c r="G777" t="n">
         <v>253331600</v>
@@ -18341,7 +18341,7 @@
         <v>311.7900085449219</v>
       </c>
       <c r="F778" t="n">
-        <v>288.6220092773438</v>
+        <v>288.6220703125</v>
       </c>
       <c r="G778" t="n">
         <v>249443100</v>
@@ -18364,7 +18364,7 @@
         <v>310.9599914550781</v>
       </c>
       <c r="F779" t="n">
-        <v>287.8536376953125</v>
+        <v>287.8536682128906</v>
       </c>
       <c r="G779" t="n">
         <v>295953800</v>
@@ -18387,7 +18387,7 @@
         <v>314.3099975585938</v>
       </c>
       <c r="F780" t="n">
-        <v>290.9548034667969</v>
+        <v>290.9547424316406</v>
       </c>
       <c r="G780" t="n">
         <v>167253500</v>
@@ -18410,7 +18410,7 @@
         <v>314.8699951171875</v>
       </c>
       <c r="F781" t="n">
-        <v>291.4732055664062</v>
+        <v>291.4730834960938</v>
       </c>
       <c r="G781" t="n">
         <v>288425500</v>
@@ -18433,7 +18433,7 @@
         <v>317.3200073242188</v>
       </c>
       <c r="F782" t="n">
-        <v>293.7411499023438</v>
+        <v>293.7410278320312</v>
       </c>
       <c r="G782" t="n">
         <v>318810900</v>
@@ -18456,7 +18456,7 @@
         <v>320.7300109863281</v>
       </c>
       <c r="F783" t="n">
-        <v>296.897705078125</v>
+        <v>296.8976745605469</v>
       </c>
       <c r="G783" t="n">
         <v>424433000</v>
@@ -18502,7 +18502,7 @@
         <v>322.4100036621094</v>
       </c>
       <c r="F785" t="n">
-        <v>299.9201965332031</v>
+        <v>299.9202575683594</v>
       </c>
       <c r="G785" t="n">
         <v>243667300</v>
@@ -18525,7 +18525,7 @@
         <v>325.7099914550781</v>
       </c>
       <c r="F786" t="n">
-        <v>302.989990234375</v>
+        <v>302.9900207519531</v>
       </c>
       <c r="G786" t="n">
         <v>265948900</v>
@@ -18548,7 +18548,7 @@
         <v>331.9500122070312</v>
       </c>
       <c r="F787" t="n">
-        <v>308.7947998046875</v>
+        <v>308.7948303222656</v>
       </c>
       <c r="G787" t="n">
         <v>331872500</v>
@@ -18571,7 +18571,7 @@
         <v>328.7699890136719</v>
       </c>
       <c r="F788" t="n">
-        <v>305.8366088867188</v>
+        <v>305.8365783691406</v>
       </c>
       <c r="G788" t="n">
         <v>266198700</v>
@@ -18617,7 +18617,7 @@
         <v>332.2000122070312</v>
       </c>
       <c r="F790" t="n">
-        <v>309.0272827148438</v>
+        <v>309.0274047851562</v>
       </c>
       <c r="G790" t="n">
         <v>312106400</v>
@@ -18640,7 +18640,7 @@
         <v>337.6000061035156</v>
       </c>
       <c r="F791" t="n">
-        <v>314.0506286621094</v>
+        <v>314.0507202148438</v>
       </c>
       <c r="G791" t="n">
         <v>260011300</v>
@@ -18663,7 +18663,7 @@
         <v>333.4800109863281</v>
       </c>
       <c r="F792" t="n">
-        <v>310.2180480957031</v>
+        <v>310.2180786132812</v>
       </c>
       <c r="G792" t="n">
         <v>293992500</v>
@@ -18686,7 +18686,7 @@
         <v>296.260009765625</v>
       </c>
       <c r="F793" t="n">
-        <v>275.5943908691406</v>
+        <v>275.5943603515625</v>
       </c>
       <c r="G793" t="n">
         <v>1244104700</v>
@@ -18709,7 +18709,7 @@
         <v>297.4599914550781</v>
       </c>
       <c r="F794" t="n">
-        <v>276.7106018066406</v>
+        <v>276.7106323242188</v>
       </c>
       <c r="G794" t="n">
         <v>1130490100</v>
@@ -18732,7 +18732,7 @@
         <v>269.3200073242188</v>
       </c>
       <c r="F795" t="n">
-        <v>250.5335235595703</v>
+        <v>250.5335388183594</v>
       </c>
       <c r="G795" t="n">
         <v>1562964500</v>
@@ -18755,7 +18755,7 @@
         <v>228.8000030517578</v>
       </c>
       <c r="F796" t="n">
-        <v>212.8399963378906</v>
+        <v>212.8400421142578</v>
       </c>
       <c r="G796" t="n">
         <v>1523388400</v>
@@ -18801,7 +18801,7 @@
         <v>248.1900024414062</v>
       </c>
       <c r="F798" t="n">
-        <v>232.2350769042969</v>
+        <v>232.2350921630859</v>
       </c>
       <c r="G798" t="n">
         <v>869026800</v>
@@ -18824,7 +18824,7 @@
         <v>278.2000122070312</v>
       </c>
       <c r="F799" t="n">
-        <v>260.3158569335938</v>
+        <v>260.31591796875</v>
       </c>
       <c r="G799" t="n">
         <v>733262100</v>
@@ -18847,7 +18847,7 @@
         <v>286.6400146484375</v>
       </c>
       <c r="F800" t="n">
-        <v>268.2133483886719</v>
+        <v>268.2134094238281</v>
       </c>
       <c r="G800" t="n">
         <v>649240600</v>
@@ -18870,7 +18870,7 @@
         <v>282.9700012207031</v>
       </c>
       <c r="F801" t="n">
-        <v>264.7792358398438</v>
+        <v>264.7792663574219</v>
       </c>
       <c r="G801" t="n">
         <v>509219500</v>
@@ -18916,7 +18916,7 @@
         <v>292.4400024414062</v>
       </c>
       <c r="F803" t="n">
-        <v>273.6404724121094</v>
+        <v>273.6404418945312</v>
       </c>
       <c r="G803" t="n">
         <v>385778500</v>
@@ -18962,7 +18962,7 @@
         <v>295.4400024414062</v>
       </c>
       <c r="F805" t="n">
-        <v>276.4476318359375</v>
+        <v>276.4476623535156</v>
       </c>
       <c r="G805" t="n">
         <v>443006900</v>
@@ -19008,7 +19008,7 @@
         <v>319.3399963378906</v>
       </c>
       <c r="F807" t="n">
-        <v>298.8112487792969</v>
+        <v>298.8112182617188</v>
       </c>
       <c r="G807" t="n">
         <v>448912200</v>
@@ -19031,7 +19031,7 @@
         <v>304.2099914550781</v>
       </c>
       <c r="F808" t="n">
-        <v>284.6538696289062</v>
+        <v>284.65380859375</v>
       </c>
       <c r="G808" t="n">
         <v>650043700</v>
@@ -19146,7 +19146,7 @@
         <v>321.7200012207031</v>
       </c>
       <c r="F813" t="n">
-        <v>302.3629455566406</v>
+        <v>302.3629760742188</v>
       </c>
       <c r="G813" t="n">
         <v>401248400</v>
@@ -19169,7 +19169,7 @@
         <v>320.8800048828125</v>
       </c>
       <c r="F814" t="n">
-        <v>301.5735168457031</v>
+        <v>301.573486328125</v>
       </c>
       <c r="G814" t="n">
         <v>320898500</v>
@@ -19192,7 +19192,7 @@
         <v>326.5199890136719</v>
       </c>
       <c r="F815" t="n">
-        <v>306.8741455078125</v>
+        <v>306.8741149902344</v>
       </c>
       <c r="G815" t="n">
         <v>301090700</v>
@@ -19215,7 +19215,7 @@
         <v>334.5700073242188</v>
       </c>
       <c r="F816" t="n">
-        <v>314.4398498535156</v>
+        <v>314.4398193359375</v>
       </c>
       <c r="G816" t="n">
         <v>238681200</v>
@@ -19238,7 +19238,7 @@
         <v>336.8399963378906</v>
       </c>
       <c r="F817" t="n">
-        <v>316.5732421875</v>
+        <v>316.5731506347656</v>
       </c>
       <c r="G817" t="n">
         <v>256734100</v>
@@ -19261,7 +19261,7 @@
         <v>339.4800109863281</v>
       </c>
       <c r="F818" t="n">
-        <v>319.0543518066406</v>
+        <v>319.0543823242188</v>
       </c>
       <c r="G818" t="n">
         <v>239583500</v>
@@ -19284,7 +19284,7 @@
         <v>350.5799865722656</v>
       </c>
       <c r="F819" t="n">
-        <v>329.4865112304688</v>
+        <v>329.4864807128906</v>
       </c>
       <c r="G819" t="n">
         <v>244465300</v>
@@ -19330,7 +19330,7 @@
         <v>334.0599975585938</v>
       </c>
       <c r="F821" t="n">
-        <v>313.9605712890625</v>
+        <v>313.9605102539062</v>
       </c>
       <c r="G821" t="n">
         <v>381177300</v>
@@ -19353,7 +19353,7 @@
         <v>330.6499938964844</v>
       </c>
       <c r="F822" t="n">
-        <v>310.7556762695312</v>
+        <v>310.755615234375</v>
       </c>
       <c r="G822" t="n">
         <v>398023800</v>
@@ -19376,7 +19376,7 @@
         <v>328.7300109863281</v>
       </c>
       <c r="F823" t="n">
-        <v>310.1878967285156</v>
+        <v>310.1879577636719</v>
       </c>
       <c r="G823" t="n">
         <v>403925800</v>
@@ -19445,7 +19445,7 @@
         <v>347.2900085449219</v>
       </c>
       <c r="F826" t="n">
-        <v>327.7010192871094</v>
+        <v>327.7010498046875</v>
       </c>
       <c r="G826" t="n">
         <v>361231500</v>
@@ -19491,7 +19491,7 @@
         <v>326.5400085449219</v>
       </c>
       <c r="F828" t="n">
-        <v>308.1214599609375</v>
+        <v>308.1213989257812</v>
       </c>
       <c r="G828" t="n">
         <v>495446400</v>
@@ -19514,7 +19514,7 @@
         <v>350.1600036621094</v>
       </c>
       <c r="F829" t="n">
-        <v>330.4091186523438</v>
+        <v>330.4090881347656</v>
       </c>
       <c r="G829" t="n">
         <v>463334900</v>
@@ -19537,7 +19537,7 @@
         <v>358.1000061035156</v>
       </c>
       <c r="F830" t="n">
-        <v>337.9012451171875</v>
+        <v>337.9012145996094</v>
       </c>
       <c r="G830" t="n">
         <v>446943600</v>
@@ -19560,7 +19560,7 @@
         <v>355.3299865722656</v>
       </c>
       <c r="F831" t="n">
-        <v>335.2875366210938</v>
+        <v>335.2874755859375</v>
       </c>
       <c r="G831" t="n">
         <v>341601600</v>
@@ -19583,7 +19583,7 @@
         <v>363.6700134277344</v>
       </c>
       <c r="F832" t="n">
-        <v>343.1571350097656</v>
+        <v>343.1571044921875</v>
       </c>
       <c r="G832" t="n">
         <v>199491500</v>
@@ -19606,7 +19606,7 @@
         <v>369.8500061035156</v>
       </c>
       <c r="F833" t="n">
-        <v>348.9884948730469</v>
+        <v>348.9885559082031</v>
       </c>
       <c r="G833" t="n">
         <v>317663000</v>
@@ -19629,7 +19629,7 @@
         <v>366.2999877929688</v>
       </c>
       <c r="F834" t="n">
-        <v>345.6387023925781</v>
+        <v>345.6387939453125</v>
       </c>
       <c r="G834" t="n">
         <v>280935500</v>
@@ -19675,7 +19675,7 @@
         <v>369</v>
       </c>
       <c r="F836" t="n">
-        <v>349.670654296875</v>
+        <v>349.6706237792969</v>
       </c>
       <c r="G836" t="n">
         <v>216995000</v>
@@ -19744,7 +19744,7 @@
         <v>375.7000122070312</v>
       </c>
       <c r="F839" t="n">
-        <v>356.0197143554688</v>
+        <v>356.0196838378906</v>
       </c>
       <c r="G839" t="n">
         <v>306035100</v>
@@ -19790,7 +19790,7 @@
         <v>370.0700073242188</v>
       </c>
       <c r="F841" t="n">
-        <v>350.6846618652344</v>
+        <v>350.6846008300781</v>
       </c>
       <c r="G841" t="n">
         <v>457381600</v>
@@ -19813,7 +19813,7 @@
         <v>387.7099914550781</v>
       </c>
       <c r="F842" t="n">
-        <v>367.4005432128906</v>
+        <v>367.4005737304688</v>
       </c>
       <c r="G842" t="n">
         <v>288507800</v>
@@ -19836,7 +19836,7 @@
         <v>392.6400146484375</v>
       </c>
       <c r="F843" t="n">
-        <v>372.0723876953125</v>
+        <v>372.072265625</v>
       </c>
       <c r="G843" t="n">
         <v>226577300</v>
@@ -19859,7 +19859,7 @@
         <v>390.0299987792969</v>
       </c>
       <c r="F844" t="n">
-        <v>369.5990295410156</v>
+        <v>369.5990600585938</v>
       </c>
       <c r="G844" t="n">
         <v>246216800</v>
@@ -19882,7 +19882,7 @@
         <v>380.3599853515625</v>
       </c>
       <c r="F845" t="n">
-        <v>360.4356079101562</v>
+        <v>360.435546875</v>
       </c>
       <c r="G845" t="n">
         <v>546504300</v>
@@ -19905,7 +19905,7 @@
         <v>383.6300048828125</v>
       </c>
       <c r="F846" t="n">
-        <v>363.5342407226562</v>
+        <v>363.5342102050781</v>
       </c>
       <c r="G846" t="n">
         <v>640356900</v>
@@ -19928,7 +19928,7 @@
         <v>394.0599975585938</v>
       </c>
       <c r="F847" t="n">
-        <v>373.4179382324219</v>
+        <v>373.4179992675781</v>
       </c>
       <c r="G847" t="n">
         <v>497580800</v>
@@ -19951,7 +19951,7 @@
         <v>389.4800109863281</v>
       </c>
       <c r="F848" t="n">
-        <v>369.0779113769531</v>
+        <v>369.0778198242188</v>
       </c>
       <c r="G848" t="n">
         <v>474082600</v>
@@ -19974,7 +19974,7 @@
         <v>395.9800109863281</v>
       </c>
       <c r="F849" t="n">
-        <v>376.4664611816406</v>
+        <v>376.4663696289062</v>
       </c>
       <c r="G849" t="n">
         <v>492591500</v>
@@ -20020,7 +20020,7 @@
         <v>411.489990234375</v>
       </c>
       <c r="F851" t="n">
-        <v>391.2120361328125</v>
+        <v>391.2120056152344</v>
       </c>
       <c r="G851" t="n">
         <v>328509800</v>
@@ -20066,7 +20066,7 @@
         <v>416.739990234375</v>
       </c>
       <c r="F853" t="n">
-        <v>396.2032470703125</v>
+        <v>396.2032775878906</v>
       </c>
       <c r="G853" t="n">
         <v>397935300</v>
@@ -20089,7 +20089,7 @@
         <v>417.2999877929688</v>
       </c>
       <c r="F854" t="n">
-        <v>396.7356872558594</v>
+        <v>396.7356567382812</v>
       </c>
       <c r="G854" t="n">
         <v>318795700</v>
@@ -20112,7 +20112,7 @@
         <v>422.1199951171875</v>
       </c>
       <c r="F855" t="n">
-        <v>401.3182373046875</v>
+        <v>401.3181762695312</v>
       </c>
       <c r="G855" t="n">
         <v>371936900</v>
@@ -20135,7 +20135,7 @@
         <v>416.5799865722656</v>
       </c>
       <c r="F856" t="n">
-        <v>396.0512084960938</v>
+        <v>396.0511779785156</v>
       </c>
       <c r="G856" t="n">
         <v>522147000</v>
@@ -20158,7 +20158,7 @@
         <v>414.9400024414062</v>
       </c>
       <c r="F857" t="n">
-        <v>394.4920654296875</v>
+        <v>394.4920043945312</v>
       </c>
       <c r="G857" t="n">
         <v>386007400</v>
@@ -20181,7 +20181,7 @@
         <v>420.0400085449219</v>
       </c>
       <c r="F858" t="n">
-        <v>399.3407592773438</v>
+        <v>399.3406066894531</v>
       </c>
       <c r="G858" t="n">
         <v>267144600</v>
@@ -20204,7 +20204,7 @@
         <v>422.6000061035156</v>
       </c>
       <c r="F859" t="n">
-        <v>401.7745056152344</v>
+        <v>401.7746276855469</v>
       </c>
       <c r="G859" t="n">
         <v>217391300</v>
@@ -20227,7 +20227,7 @@
         <v>424.3099975585938</v>
       </c>
       <c r="F860" t="n">
-        <v>403.4002380371094</v>
+        <v>403.4002685546875</v>
       </c>
       <c r="G860" t="n">
         <v>243716500</v>
@@ -20296,7 +20296,7 @@
         <v>433.7200012207031</v>
       </c>
       <c r="F863" t="n">
-        <v>413.695556640625</v>
+        <v>413.6956176757812</v>
       </c>
       <c r="G863" t="n">
         <v>265096700</v>
@@ -20319,7 +20319,7 @@
         <v>435.5199890136719</v>
       </c>
       <c r="F864" t="n">
-        <v>415.4124755859375</v>
+        <v>415.4124450683594</v>
       </c>
       <c r="G864" t="n">
         <v>306093700</v>
@@ -20365,7 +20365,7 @@
         <v>439.9400024414062</v>
       </c>
       <c r="F866" t="n">
-        <v>419.62841796875</v>
+        <v>419.6284484863281</v>
       </c>
       <c r="G866" t="n">
         <v>423964700</v>
@@ -20411,7 +20411,7 @@
         <v>442.489990234375</v>
       </c>
       <c r="F868" t="n">
-        <v>422.0606384277344</v>
+        <v>422.0606689453125</v>
       </c>
       <c r="G868" t="n">
         <v>249469100</v>
@@ -20480,7 +20480,7 @@
         <v>450.25</v>
       </c>
       <c r="F871" t="n">
-        <v>429.46240234375</v>
+        <v>429.4623718261719</v>
       </c>
       <c r="G871" t="n">
         <v>269312100</v>
@@ -20503,7 +20503,7 @@
         <v>453.0799865722656</v>
       </c>
       <c r="F872" t="n">
-        <v>432.1617126464844</v>
+        <v>432.1618041992188</v>
       </c>
       <c r="G872" t="n">
         <v>246050500</v>
@@ -20526,7 +20526,7 @@
         <v>445.4400024414062</v>
       </c>
       <c r="F873" t="n">
-        <v>424.8744812011719</v>
+        <v>424.8744506835938</v>
       </c>
       <c r="G873" t="n">
         <v>255772000</v>
@@ -20572,7 +20572,7 @@
         <v>443.9100036621094</v>
       </c>
       <c r="F875" t="n">
-        <v>424.7716064453125</v>
+        <v>424.7716369628906</v>
       </c>
       <c r="G875" t="n">
         <v>499812500</v>
@@ -20595,7 +20595,7 @@
         <v>434.239990234375</v>
       </c>
       <c r="F876" t="n">
-        <v>415.5184631347656</v>
+        <v>415.5185241699219</v>
       </c>
       <c r="G876" t="n">
         <v>543882700</v>
@@ -20618,7 +20618,7 @@
         <v>437.8599853515625</v>
       </c>
       <c r="F877" t="n">
-        <v>418.982421875</v>
+        <v>418.9823608398438</v>
       </c>
       <c r="G877" t="n">
         <v>479279600</v>
@@ -20641,7 +20641,7 @@
         <v>445.8699951171875</v>
       </c>
       <c r="F878" t="n">
-        <v>426.6471252441406</v>
+        <v>426.6470642089844</v>
       </c>
       <c r="G878" t="n">
         <v>345885500</v>
@@ -20664,7 +20664,7 @@
         <v>453.1199951171875</v>
       </c>
       <c r="F879" t="n">
-        <v>433.58447265625</v>
+        <v>433.5845031738281</v>
       </c>
       <c r="G879" t="n">
         <v>258932100</v>
@@ -20687,7 +20687,7 @@
         <v>459.25</v>
       </c>
       <c r="F880" t="n">
-        <v>439.4502258300781</v>
+        <v>439.4502563476562</v>
       </c>
       <c r="G880" t="n">
         <v>295327900</v>
@@ -20710,7 +20710,7 @@
         <v>468.5299987792969</v>
       </c>
       <c r="F881" t="n">
-        <v>448.3301391601562</v>
+        <v>448.3301696777344</v>
       </c>
       <c r="G881" t="n">
         <v>269089500</v>
@@ -20733,7 +20733,7 @@
         <v>467.2699890136719</v>
       </c>
       <c r="F882" t="n">
-        <v>447.1244201660156</v>
+        <v>447.1244812011719</v>
       </c>
       <c r="G882" t="n">
         <v>259299200</v>
@@ -20779,7 +20779,7 @@
         <v>458.9700012207031</v>
       </c>
       <c r="F884" t="n">
-        <v>439.1822814941406</v>
+        <v>439.1823120117188</v>
       </c>
       <c r="G884" t="n">
         <v>320496900</v>
@@ -20802,7 +20802,7 @@
         <v>453.4200134277344</v>
       </c>
       <c r="F885" t="n">
-        <v>433.8716430664062</v>
+        <v>433.8716125488281</v>
       </c>
       <c r="G885" t="n">
         <v>631737000</v>
@@ -20825,7 +20825,7 @@
         <v>470.739990234375</v>
       </c>
       <c r="F886" t="n">
-        <v>450.4449157714844</v>
+        <v>450.4448547363281</v>
       </c>
       <c r="G886" t="n">
         <v>405133400</v>
@@ -20848,7 +20848,7 @@
         <v>459.8699951171875</v>
       </c>
       <c r="F887" t="n">
-        <v>440.0435485839844</v>
+        <v>440.04345703125</v>
       </c>
       <c r="G887" t="n">
         <v>553968300</v>
@@ -20894,7 +20894,7 @@
         <v>474.9599914550781</v>
       </c>
       <c r="F889" t="n">
-        <v>456.0796203613281</v>
+        <v>456.0795593261719</v>
       </c>
       <c r="G889" t="n">
         <v>279152600</v>
@@ -20917,7 +20917,7 @@
         <v>466.0899963378906</v>
       </c>
       <c r="F890" t="n">
-        <v>447.5622253417969</v>
+        <v>447.562255859375</v>
       </c>
       <c r="G890" t="n">
         <v>420356300</v>
@@ -20986,7 +20986,7 @@
         <v>441.9500122070312</v>
       </c>
       <c r="F893" t="n">
-        <v>424.3818664550781</v>
+        <v>424.3818359375</v>
       </c>
       <c r="G893" t="n">
         <v>920508000</v>
@@ -21009,7 +21009,7 @@
         <v>448.7000122070312</v>
       </c>
       <c r="F894" t="n">
-        <v>430.8634948730469</v>
+        <v>430.863525390625</v>
       </c>
       <c r="G894" t="n">
         <v>629246600</v>
@@ -21032,7 +21032,7 @@
         <v>440.4599914550781</v>
       </c>
       <c r="F895" t="n">
-        <v>422.9510803222656</v>
+        <v>422.9510192871094</v>
       </c>
       <c r="G895" t="n">
         <v>551393100</v>
@@ -21055,7 +21055,7 @@
         <v>434.2300109863281</v>
       </c>
       <c r="F896" t="n">
-        <v>416.96875</v>
+        <v>416.9687805175781</v>
       </c>
       <c r="G896" t="n">
         <v>531254600</v>
@@ -21078,7 +21078,7 @@
         <v>437.75</v>
       </c>
       <c r="F897" t="n">
-        <v>420.3487243652344</v>
+        <v>420.3487548828125</v>
       </c>
       <c r="G897" t="n">
         <v>592717200</v>
@@ -21124,7 +21124,7 @@
         <v>420.0700073242188</v>
       </c>
       <c r="F899" t="n">
-        <v>403.3716125488281</v>
+        <v>403.37158203125</v>
       </c>
       <c r="G899" t="n">
         <v>609269100</v>
@@ -21147,7 +21147,7 @@
         <v>444.5199890136719</v>
       </c>
       <c r="F900" t="n">
-        <v>426.8496704101562</v>
+        <v>426.8496398925781</v>
       </c>
       <c r="G900" t="n">
         <v>555925500</v>
@@ -21170,7 +21170,7 @@
         <v>452.6900024414062</v>
       </c>
       <c r="F901" t="n">
-        <v>436.0452880859375</v>
+        <v>436.0453796386719</v>
       </c>
       <c r="G901" t="n">
         <v>384264500</v>
@@ -21193,7 +21193,7 @@
         <v>452.9200134277344</v>
       </c>
       <c r="F902" t="n">
-        <v>436.2669067382812</v>
+        <v>436.2668762207031</v>
       </c>
       <c r="G902" t="n">
         <v>445526900</v>
@@ -21239,7 +21239,7 @@
         <v>437.7900085449219</v>
       </c>
       <c r="F904" t="n">
-        <v>421.6931457519531</v>
+        <v>421.6932373046875</v>
       </c>
       <c r="G904" t="n">
         <v>346074000</v>
@@ -21308,7 +21308,7 @@
         <v>411.3399963378906</v>
       </c>
       <c r="F907" t="n">
-        <v>396.2157287597656</v>
+        <v>396.2156982421875</v>
       </c>
       <c r="G907" t="n">
         <v>727288500</v>
@@ -21331,7 +21331,7 @@
         <v>401.7200012207031</v>
       </c>
       <c r="F908" t="n">
-        <v>386.9494018554688</v>
+        <v>386.9494323730469</v>
       </c>
       <c r="G908" t="n">
         <v>659709500</v>
@@ -21354,7 +21354,7 @@
         <v>389.6300048828125</v>
       </c>
       <c r="F909" t="n">
-        <v>375.3039245605469</v>
+        <v>375.303955078125</v>
       </c>
       <c r="G909" t="n">
         <v>509269500</v>
@@ -21377,7 +21377,7 @@
         <v>415.260009765625</v>
       </c>
       <c r="F910" t="n">
-        <v>399.9916076660156</v>
+        <v>399.9915771484375</v>
       </c>
       <c r="G910" t="n">
         <v>426273600</v>
@@ -21400,7 +21400,7 @@
         <v>410.5400085449219</v>
       </c>
       <c r="F911" t="n">
-        <v>395.4451599121094</v>
+        <v>395.4450988769531</v>
       </c>
       <c r="G911" t="n">
         <v>334006700</v>
@@ -21423,7 +21423,7 @@
         <v>389.7999877929688</v>
       </c>
       <c r="F912" t="n">
-        <v>375.4676818847656</v>
+        <v>375.4677124023438</v>
       </c>
       <c r="G912" t="n">
         <v>400315000</v>
@@ -21446,7 +21446,7 @@
         <v>365.8599853515625</v>
       </c>
       <c r="F913" t="n">
-        <v>352.4078674316406</v>
+        <v>352.4079284667969</v>
       </c>
       <c r="G913" t="n">
         <v>645270700</v>
@@ -21469,7 +21469,7 @@
         <v>390.0799865722656</v>
       </c>
       <c r="F914" t="n">
-        <v>377.3604431152344</v>
+        <v>377.3604736328125</v>
       </c>
       <c r="G914" t="n">
         <v>344213700</v>
@@ -21515,7 +21515,7 @@
         <v>388.6700134277344</v>
       </c>
       <c r="F916" t="n">
-        <v>375.9964294433594</v>
+        <v>375.9964599609375</v>
       </c>
       <c r="G916" t="n">
         <v>288787900</v>
@@ -21538,7 +21538,7 @@
         <v>385.1300048828125</v>
       </c>
       <c r="F917" t="n">
-        <v>372.5718994140625</v>
+        <v>372.5719299316406</v>
       </c>
       <c r="G917" t="n">
         <v>373575900</v>
@@ -21561,7 +21561,7 @@
         <v>395.0899963378906</v>
       </c>
       <c r="F918" t="n">
-        <v>382.2071533203125</v>
+        <v>382.2070922851562</v>
       </c>
       <c r="G918" t="n">
         <v>350654600</v>
@@ -21630,7 +21630,7 @@
         <v>427.1000061035156</v>
       </c>
       <c r="F921" t="n">
-        <v>413.1733093261719</v>
+        <v>413.1733703613281</v>
       </c>
       <c r="G921" t="n">
         <v>288667800</v>
@@ -21653,7 +21653,7 @@
         <v>422.1400146484375</v>
       </c>
       <c r="F922" t="n">
-        <v>408.3750610351562</v>
+        <v>408.3750915527344</v>
       </c>
       <c r="G922" t="n">
         <v>293940800</v>
@@ -21745,7 +21745,7 @@
         <v>385.5599975585938</v>
       </c>
       <c r="F926" t="n">
-        <v>372.9877624511719</v>
+        <v>372.9878845214844</v>
       </c>
       <c r="G926" t="n">
         <v>467945700</v>
@@ -21768,7 +21768,7 @@
         <v>367.9500122070312</v>
       </c>
       <c r="F927" t="n">
-        <v>357.4143371582031</v>
+        <v>357.414306640625</v>
       </c>
       <c r="G927" t="n">
         <v>469119500</v>
@@ -21837,7 +21837,7 @@
         <v>357.6300048828125</v>
       </c>
       <c r="F930" t="n">
-        <v>347.3897399902344</v>
+        <v>347.3897705078125</v>
       </c>
       <c r="G930" t="n">
         <v>516508900</v>
@@ -21860,7 +21860,7 @@
         <v>374.2900085449219</v>
       </c>
       <c r="F931" t="n">
-        <v>363.57275390625</v>
+        <v>363.5727844238281</v>
       </c>
       <c r="G931" t="n">
         <v>489399500</v>
@@ -21906,7 +21906,7 @@
         <v>376.3500061035156</v>
       </c>
       <c r="F933" t="n">
-        <v>365.57373046875</v>
+        <v>365.5736999511719</v>
       </c>
       <c r="G933" t="n">
         <v>499634600</v>
@@ -21929,7 +21929,7 @@
         <v>398.510009765625</v>
       </c>
       <c r="F934" t="n">
-        <v>387.0992431640625</v>
+        <v>387.0991821289062</v>
       </c>
       <c r="G934" t="n">
         <v>466719200</v>
@@ -21952,7 +21952,7 @@
         <v>396.0299987792969</v>
       </c>
       <c r="F935" t="n">
-        <v>384.6902160644531</v>
+        <v>384.6902465820312</v>
       </c>
       <c r="G935" t="n">
         <v>401025300</v>
@@ -21975,7 +21975,7 @@
         <v>402.3299865722656</v>
       </c>
       <c r="F936" t="n">
-        <v>390.8098449707031</v>
+        <v>390.8098754882812</v>
       </c>
       <c r="G936" t="n">
         <v>210479200</v>
@@ -21998,7 +21998,7 @@
         <v>406.9100036621094</v>
       </c>
       <c r="F937" t="n">
-        <v>395.2586669921875</v>
+        <v>395.2587280273438</v>
       </c>
       <c r="G937" t="n">
         <v>426499200</v>
@@ -22021,7 +22021,7 @@
         <v>393.2799987792969</v>
       </c>
       <c r="F938" t="n">
-        <v>382.0189819335938</v>
+        <v>382.0190124511719</v>
       </c>
       <c r="G938" t="n">
         <v>363375500</v>
@@ -22044,7 +22044,7 @@
         <v>383.2699890136719</v>
       </c>
       <c r="F939" t="n">
-        <v>372.2955932617188</v>
+        <v>372.2955627441406</v>
       </c>
       <c r="G939" t="n">
         <v>544863500</v>
@@ -22067,7 +22067,7 @@
         <v>382.9100036621094</v>
       </c>
       <c r="F940" t="n">
-        <v>373.6539306640625</v>
+        <v>373.6539001464844</v>
       </c>
       <c r="G940" t="n">
         <v>392450900</v>
@@ -22090,7 +22090,7 @@
         <v>382.4299926757812</v>
       </c>
       <c r="F941" t="n">
-        <v>373.1855163574219</v>
+        <v>373.1854858398438</v>
       </c>
       <c r="G941" t="n">
         <v>273542800</v>
@@ -22113,7 +22113,7 @@
         <v>388.0799865722656</v>
       </c>
       <c r="F942" t="n">
-        <v>378.6989135742188</v>
+        <v>378.6989440917969</v>
       </c>
       <c r="G942" t="n">
         <v>341944900</v>
@@ -22136,7 +22136,7 @@
         <v>398.5</v>
       </c>
       <c r="F943" t="n">
-        <v>388.8670654296875</v>
+        <v>388.8670043945312</v>
       </c>
       <c r="G943" t="n">
         <v>362278900</v>
@@ -22182,7 +22182,7 @@
         <v>405.6799926757812</v>
       </c>
       <c r="F945" t="n">
-        <v>395.8735046386719</v>
+        <v>395.8734130859375</v>
       </c>
       <c r="G945" t="n">
         <v>369137600</v>
@@ -22205,7 +22205,7 @@
         <v>412.3500061035156</v>
       </c>
       <c r="F946" t="n">
-        <v>402.3822326660156</v>
+        <v>402.3822021484375</v>
       </c>
       <c r="G946" t="n">
         <v>458864300</v>
@@ -22228,7 +22228,7 @@
         <v>408.0400085449219</v>
       </c>
       <c r="F947" t="n">
-        <v>398.1764526367188</v>
+        <v>398.1764221191406</v>
       </c>
       <c r="G947" t="n">
         <v>376978100</v>
@@ -22251,7 +22251,7 @@
         <v>407.260009765625</v>
       </c>
       <c r="F948" t="n">
-        <v>397.415283203125</v>
+        <v>397.4153137207031</v>
       </c>
       <c r="G948" t="n">
         <v>380547800</v>
@@ -22274,7 +22274,7 @@
         <v>396.3800048828125</v>
       </c>
       <c r="F949" t="n">
-        <v>386.7983093261719</v>
+        <v>386.7982482910156</v>
       </c>
       <c r="G949" t="n">
         <v>370835000</v>
@@ -22297,7 +22297,7 @@
         <v>404.1900024414062</v>
       </c>
       <c r="F950" t="n">
-        <v>394.4195251464844</v>
+        <v>394.4194946289062</v>
       </c>
       <c r="G950" t="n">
         <v>451837900</v>
@@ -22343,7 +22343,7 @@
         <v>389.989990234375</v>
       </c>
       <c r="F952" t="n">
-        <v>380.5627136230469</v>
+        <v>380.562744140625</v>
       </c>
       <c r="G952" t="n">
         <v>764346900</v>
@@ -22366,7 +22366,7 @@
         <v>395.75</v>
       </c>
       <c r="F953" t="n">
-        <v>387.6574096679688</v>
+        <v>387.6573791503906</v>
       </c>
       <c r="G953" t="n">
         <v>523360300</v>
@@ -22389,7 +22389,7 @@
         <v>409.3900146484375</v>
       </c>
       <c r="F954" t="n">
-        <v>401.0184631347656</v>
+        <v>401.0184936523438</v>
       </c>
       <c r="G954" t="n">
         <v>396282600</v>
@@ -22458,7 +22458,7 @@
         <v>412.2000122070312</v>
       </c>
       <c r="F957" t="n">
-        <v>403.7709655761719</v>
+        <v>403.77099609375</v>
       </c>
       <c r="G957" t="n">
         <v>334521500</v>
@@ -22504,7 +22504,7 @@
         <v>412.6300048828125</v>
       </c>
       <c r="F959" t="n">
-        <v>404.1922302246094</v>
+        <v>404.1921997070312</v>
       </c>
       <c r="G959" t="n">
         <v>440398500</v>
@@ -22550,7 +22550,7 @@
         <v>418.6199951171875</v>
       </c>
       <c r="F961" t="n">
-        <v>410.0596923828125</v>
+        <v>410.0597534179688</v>
       </c>
       <c r="G961" t="n">
         <v>400138800</v>
@@ -22573,7 +22573,7 @@
         <v>420.0199890136719</v>
       </c>
       <c r="F962" t="n">
-        <v>411.4310913085938</v>
+        <v>411.4311218261719</v>
       </c>
       <c r="G962" t="n">
         <v>421134200</v>
@@ -22619,7 +22619,7 @@
         <v>429.8999938964844</v>
       </c>
       <c r="F964" t="n">
-        <v>421.1090087890625</v>
+        <v>421.1091003417969</v>
       </c>
       <c r="G964" t="n">
         <v>362551300</v>
@@ -22642,7 +22642,7 @@
         <v>439.4599914550781</v>
       </c>
       <c r="F965" t="n">
-        <v>430.4735412597656</v>
+        <v>430.4735717773438</v>
       </c>
       <c r="G965" t="n">
         <v>497040500</v>
@@ -22665,7 +22665,7 @@
         <v>433.2099914550781</v>
       </c>
       <c r="F966" t="n">
-        <v>425.9277038574219</v>
+        <v>425.9276733398438</v>
       </c>
       <c r="G966" t="n">
         <v>315854400</v>
@@ -22895,7 +22895,7 @@
         <v>451.1900024414062</v>
       </c>
       <c r="F976" t="n">
-        <v>443.6054382324219</v>
+        <v>443.6054077148438</v>
       </c>
       <c r="G976" t="n">
         <v>338691500</v>
@@ -22918,7 +22918,7 @@
         <v>445.5199890136719</v>
       </c>
       <c r="F977" t="n">
-        <v>438.0307006835938</v>
+        <v>438.0307312011719</v>
       </c>
       <c r="G977" t="n">
         <v>257939800</v>
@@ -23148,7 +23148,7 @@
         <v>450.7900085449219</v>
       </c>
       <c r="F987" t="n">
-        <v>444.7755432128906</v>
+        <v>444.7755126953125</v>
       </c>
       <c r="G987" t="n">
         <v>376539600</v>
@@ -23171,7 +23171,7 @@
         <v>455.2999877929688</v>
       </c>
       <c r="F988" t="n">
-        <v>449.225341796875</v>
+        <v>449.2253112792969</v>
       </c>
       <c r="G988" t="n">
         <v>208313100</v>
@@ -23286,7 +23286,7 @@
         <v>475.3099975585938</v>
       </c>
       <c r="F993" t="n">
-        <v>470.8697509765625</v>
+        <v>470.8697204589844</v>
       </c>
       <c r="G993" t="n">
         <v>322779500</v>
@@ -23332,7 +23332,7 @@
         <v>476.6799926757812</v>
       </c>
       <c r="F995" t="n">
-        <v>472.2269592285156</v>
+        <v>472.2269287109375</v>
       </c>
       <c r="G995" t="n">
         <v>344005800</v>
@@ -23447,7 +23447,7 @@
         <v>499.510009765625</v>
       </c>
       <c r="F1000" t="n">
-        <v>494.8436584472656</v>
+        <v>494.8436889648438</v>
       </c>
       <c r="G1000" t="n">
         <v>375133500</v>
@@ -23470,7 +23470,7 @@
         <v>507.8500061035156</v>
       </c>
       <c r="F1001" t="n">
-        <v>503.1057434082031</v>
+        <v>503.1057739257812</v>
       </c>
       <c r="G1001" t="n">
         <v>269064800</v>
@@ -23493,7 +23493,7 @@
         <v>512.8499755859375</v>
       </c>
       <c r="F1002" t="n">
-        <v>508.0590209960938</v>
+        <v>508.0590515136719</v>
       </c>
       <c r="G1002" t="n">
         <v>316478500</v>
@@ -23516,7 +23516,7 @@
         <v>511.7200012207031</v>
       </c>
       <c r="F1003" t="n">
-        <v>506.9396362304688</v>
+        <v>506.9396057128906</v>
       </c>
       <c r="G1003" t="n">
         <v>336114900</v>
@@ -23539,7 +23539,7 @@
         <v>509.8299865722656</v>
       </c>
       <c r="F1004" t="n">
-        <v>505.0672607421875</v>
+        <v>505.0672302246094</v>
       </c>
       <c r="G1004" t="n">
         <v>408533300</v>
@@ -23585,7 +23585,7 @@
         <v>523.0700073242188</v>
       </c>
       <c r="F1006" t="n">
-        <v>519.7935791015625</v>
+        <v>519.7936401367188</v>
       </c>
       <c r="G1006" t="n">
         <v>293270500</v>
@@ -23608,7 +23608,7 @@
         <v>518.4299926757812</v>
       </c>
       <c r="F1007" t="n">
-        <v>515.1826782226562</v>
+        <v>515.1826171875</v>
       </c>
       <c r="G1007" t="n">
         <v>367203800</v>
@@ -23746,7 +23746,7 @@
         <v>529.4500122070312</v>
       </c>
       <c r="F1013" t="n">
-        <v>526.1336669921875</v>
+        <v>526.1336059570312</v>
       </c>
       <c r="G1013" t="n">
         <v>263189600</v>
@@ -23838,7 +23838,7 @@
         <v>542.780029296875</v>
       </c>
       <c r="F1017" t="n">
-        <v>539.3801879882812</v>
+        <v>539.380126953125</v>
       </c>
       <c r="G1017" t="n">
         <v>220214800</v>
@@ -24220,42 +24220,65 @@
         <v>571.2999877929688</v>
       </c>
       <c r="C1034" t="n">
-        <v>577.7100219726562</v>
+        <v>580.3300170898438</v>
       </c>
       <c r="D1034" t="n">
         <v>566.6300048828125</v>
       </c>
       <c r="E1034" t="n">
-        <v>577.1400146484375</v>
+        <v>579.5800170898438</v>
       </c>
       <c r="F1034" t="n">
-        <v>577.1400146484375</v>
+        <v>579.5800170898438</v>
       </c>
       <c r="G1034" t="n">
-        <v>125204900</v>
+        <v>211681700</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" s="2" t="n">
-        <v>45574</v>
+        <v>45579</v>
       </c>
       <c r="B1035" t="n">
-        <v>573.1599731445312</v>
+        <v>581.219970703125</v>
       </c>
       <c r="C1035" t="n">
-        <v>577.709228515625</v>
+        <v>585.27001953125</v>
       </c>
       <c r="D1035" t="n">
-        <v>572.5499877929688</v>
+        <v>578.5399780273438</v>
       </c>
       <c r="E1035" t="n">
-        <v>577.1400146484375</v>
+        <v>579.780029296875</v>
       </c>
       <c r="F1035" t="n">
-        <v>577.1400146484375</v>
+        <v>579.780029296875</v>
       </c>
       <c r="G1035" t="n">
-        <v>34648991</v>
+        <v>90328600</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>584.5900268554688</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>584.8900146484375</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>578.5449829101562</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>579.780029296875</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>579.780029296875</v>
+      </c>
+      <c r="G1036" t="n">
+        <v>52815934</v>
       </c>
     </row>
   </sheetData>

--- a/static/etfs/spy_weekly.xlsx
+++ b/static/etfs/spy_weekly.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1036"/>
+  <dimension ref="A1:G1037"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
         <v>120.870002746582</v>
       </c>
       <c r="F2" t="n">
-        <v>83.23471069335938</v>
+        <v>83.23471832275391</v>
       </c>
       <c r="G2" t="n">
         <v>28648800</v>
@@ -516,7 +516,7 @@
         <v>118.4400024414062</v>
       </c>
       <c r="F3" t="n">
-        <v>81.56133270263672</v>
+        <v>81.56137084960938</v>
       </c>
       <c r="G3" t="n">
         <v>294245300</v>
@@ -539,7 +539,7 @@
         <v>118.2399978637695</v>
       </c>
       <c r="F4" t="n">
-        <v>81.423583984375</v>
+        <v>81.42359924316406</v>
       </c>
       <c r="G4" t="n">
         <v>289953500</v>
@@ -562,7 +562,7 @@
         <v>116.7799987792969</v>
       </c>
       <c r="F5" t="n">
-        <v>80.41819000244141</v>
+        <v>80.41822814941406</v>
       </c>
       <c r="G5" t="n">
         <v>246980300</v>
@@ -585,7 +585,7 @@
         <v>117.4300003051758</v>
       </c>
       <c r="F6" t="n">
-        <v>80.86579895019531</v>
+        <v>80.86579132080078</v>
       </c>
       <c r="G6" t="n">
         <v>300499700</v>
@@ -608,7 +608,7 @@
         <v>120.2300033569336</v>
       </c>
       <c r="F7" t="n">
-        <v>82.79396057128906</v>
+        <v>82.79397583007812</v>
       </c>
       <c r="G7" t="n">
         <v>253704500</v>
@@ -631,7 +631,7 @@
         <v>120.7699966430664</v>
       </c>
       <c r="F8" t="n">
-        <v>83.16584777832031</v>
+        <v>83.16581726074219</v>
       </c>
       <c r="G8" t="n">
         <v>238946500</v>
@@ -654,7 +654,7 @@
         <v>120.3899993896484</v>
       </c>
       <c r="F9" t="n">
-        <v>82.90415954589844</v>
+        <v>82.9041748046875</v>
       </c>
       <c r="G9" t="n">
         <v>237655100</v>
@@ -677,7 +677,7 @@
         <v>121.4300003051758</v>
       </c>
       <c r="F10" t="n">
-        <v>83.62033843994141</v>
+        <v>83.62030792236328</v>
       </c>
       <c r="G10" t="n">
         <v>278453700</v>
@@ -700,7 +700,7 @@
         <v>122.7300033569336</v>
       </c>
       <c r="F11" t="n">
-        <v>84.51554870605469</v>
+        <v>84.51555633544922</v>
       </c>
       <c r="G11" t="n">
         <v>298301500</v>
@@ -723,7 +723,7 @@
         <v>120.3899993896484</v>
       </c>
       <c r="F12" t="n">
-        <v>82.90415954589844</v>
+        <v>82.9041748046875</v>
       </c>
       <c r="G12" t="n">
         <v>284193500</v>
@@ -746,7 +746,7 @@
         <v>118.5400009155273</v>
       </c>
       <c r="F13" t="n">
-        <v>81.63018798828125</v>
+        <v>81.63021087646484</v>
       </c>
       <c r="G13" t="n">
         <v>296465300</v>
@@ -769,7 +769,7 @@
         <v>117.1399993896484</v>
       </c>
       <c r="F14" t="n">
-        <v>80.98295593261719</v>
+        <v>80.98296356201172</v>
       </c>
       <c r="G14" t="n">
         <v>276466500</v>
@@ -792,7 +792,7 @@
         <v>117.4300003051758</v>
       </c>
       <c r="F15" t="n">
-        <v>81.18346405029297</v>
+        <v>81.18345642089844</v>
       </c>
       <c r="G15" t="n">
         <v>339758600</v>
@@ -815,7 +815,7 @@
         <v>118</v>
       </c>
       <c r="F16" t="n">
-        <v>81.57748413085938</v>
+        <v>81.57753753662109</v>
       </c>
       <c r="G16" t="n">
         <v>282210800</v>
@@ -838,7 +838,7 @@
         <v>114.1500015258789</v>
       </c>
       <c r="F17" t="n">
-        <v>78.91590881347656</v>
+        <v>78.91586303710938</v>
       </c>
       <c r="G17" t="n">
         <v>421835900</v>
@@ -884,7 +884,7 @@
         <v>115.75</v>
       </c>
       <c r="F19" t="n">
-        <v>80.02201843261719</v>
+        <v>80.02200317382812</v>
       </c>
       <c r="G19" t="n">
         <v>385517300</v>
@@ -907,7 +907,7 @@
         <v>117.0899963378906</v>
       </c>
       <c r="F20" t="n">
-        <v>80.94841003417969</v>
+        <v>80.94834899902344</v>
       </c>
       <c r="G20" t="n">
         <v>387404500</v>
@@ -930,7 +930,7 @@
         <v>115.7200012207031</v>
       </c>
       <c r="F21" t="n">
-        <v>80.00126647949219</v>
+        <v>80.00128173828125</v>
       </c>
       <c r="G21" t="n">
         <v>390365200</v>
@@ -953,7 +953,7 @@
         <v>119.120002746582</v>
       </c>
       <c r="F22" t="n">
-        <v>82.35179138183594</v>
+        <v>82.35182189941406</v>
       </c>
       <c r="G22" t="n">
         <v>296337300</v>
@@ -976,7 +976,7 @@
         <v>120.25</v>
       </c>
       <c r="F23" t="n">
-        <v>83.13302612304688</v>
+        <v>83.13301086425781</v>
       </c>
       <c r="G23" t="n">
         <v>217163100</v>
@@ -999,7 +999,7 @@
         <v>120.1500015258789</v>
       </c>
       <c r="F24" t="n">
-        <v>83.06389617919922</v>
+        <v>83.06387329101562</v>
       </c>
       <c r="G24" t="n">
         <v>213692100</v>
@@ -1022,7 +1022,7 @@
         <v>120.1999969482422</v>
       </c>
       <c r="F25" t="n">
-        <v>83.09843444824219</v>
+        <v>83.09844207763672</v>
       </c>
       <c r="G25" t="n">
         <v>242547500</v>
@@ -1045,7 +1045,7 @@
         <v>121.3600006103516</v>
       </c>
       <c r="F26" t="n">
-        <v>83.90042114257812</v>
+        <v>83.90036773681641</v>
       </c>
       <c r="G26" t="n">
         <v>234529800</v>
@@ -1068,7 +1068,7 @@
         <v>118.9800033569336</v>
       </c>
       <c r="F27" t="n">
-        <v>82.58702850341797</v>
+        <v>82.58696746826172</v>
       </c>
       <c r="G27" t="n">
         <v>247967400</v>
@@ -1091,7 +1091,7 @@
         <v>119.5299987792969</v>
       </c>
       <c r="F28" t="n">
-        <v>82.96875</v>
+        <v>82.96878051757812</v>
       </c>
       <c r="G28" t="n">
         <v>243700800</v>
@@ -1114,7 +1114,7 @@
         <v>121.3199996948242</v>
       </c>
       <c r="F29" t="n">
-        <v>84.21127319335938</v>
+        <v>84.21124267578125</v>
       </c>
       <c r="G29" t="n">
         <v>271672600</v>
@@ -1183,7 +1183,7 @@
         <v>123.7399978637695</v>
       </c>
       <c r="F32" t="n">
-        <v>85.89102935791016</v>
+        <v>85.89099884033203</v>
       </c>
       <c r="G32" t="n">
         <v>253480800</v>
@@ -1206,7 +1206,7 @@
         <v>122.879997253418</v>
       </c>
       <c r="F33" t="n">
-        <v>85.29408264160156</v>
+        <v>85.29409027099609</v>
       </c>
       <c r="G33" t="n">
         <v>226853900</v>
@@ -1252,7 +1252,7 @@
         <v>122.4700012207031</v>
       </c>
       <c r="F35" t="n">
-        <v>85.00951385498047</v>
+        <v>85.00946807861328</v>
       </c>
       <c r="G35" t="n">
         <v>263656400</v>
@@ -1275,7 +1275,7 @@
         <v>120.7600021362305</v>
       </c>
       <c r="F36" t="n">
-        <v>83.82254028320312</v>
+        <v>83.82255554199219</v>
       </c>
       <c r="G36" t="n">
         <v>301773100</v>
@@ -1298,7 +1298,7 @@
         <v>122.2699966430664</v>
       </c>
       <c r="F37" t="n">
-        <v>84.87065887451172</v>
+        <v>84.87065124511719</v>
       </c>
       <c r="G37" t="n">
         <v>355516700</v>
@@ -1321,7 +1321,7 @@
         <v>124.5999984741211</v>
       </c>
       <c r="F38" t="n">
-        <v>86.48797607421875</v>
+        <v>86.48800659179688</v>
       </c>
       <c r="G38" t="n">
         <v>181163600</v>
@@ -1344,7 +1344,7 @@
         <v>123.5</v>
       </c>
       <c r="F39" t="n">
-        <v>85.72441864013672</v>
+        <v>85.72444915771484</v>
       </c>
       <c r="G39" t="n">
         <v>297720700</v>
@@ -1367,7 +1367,7 @@
         <v>121.4400024414062</v>
       </c>
       <c r="F40" t="n">
-        <v>84.65340423583984</v>
+        <v>84.65335845947266</v>
       </c>
       <c r="G40" t="n">
         <v>376270000</v>
@@ -1390,7 +1390,7 @@
         <v>123.0400009155273</v>
       </c>
       <c r="F41" t="n">
-        <v>85.76871490478516</v>
+        <v>85.76869964599609</v>
       </c>
       <c r="G41" t="n">
         <v>309618600</v>
@@ -1413,7 +1413,7 @@
         <v>119.6100006103516</v>
       </c>
       <c r="F42" t="n">
-        <v>83.37773132324219</v>
+        <v>83.37771606445312</v>
       </c>
       <c r="G42" t="n">
         <v>434426400</v>
@@ -1436,7 +1436,7 @@
         <v>118.6699981689453</v>
       </c>
       <c r="F43" t="n">
-        <v>82.72248077392578</v>
+        <v>82.72245788574219</v>
       </c>
       <c r="G43" t="n">
         <v>416521100</v>
@@ -1459,7 +1459,7 @@
         <v>118.129997253418</v>
       </c>
       <c r="F44" t="n">
-        <v>82.34604644775391</v>
+        <v>82.34605407714844</v>
       </c>
       <c r="G44" t="n">
         <v>488216200</v>
@@ -1482,7 +1482,7 @@
         <v>119.8000030517578</v>
       </c>
       <c r="F45" t="n">
-        <v>83.51011657714844</v>
+        <v>83.51015472412109</v>
       </c>
       <c r="G45" t="n">
         <v>367703800</v>
@@ -1505,7 +1505,7 @@
         <v>122.1100006103516</v>
       </c>
       <c r="F46" t="n">
-        <v>85.12041473388672</v>
+        <v>85.12040710449219</v>
       </c>
       <c r="G46" t="n">
         <v>362129900</v>
@@ -1528,7 +1528,7 @@
         <v>123.7600021362305</v>
       </c>
       <c r="F47" t="n">
-        <v>86.27061462402344</v>
+        <v>86.27057647705078</v>
       </c>
       <c r="G47" t="n">
         <v>260500100</v>
@@ -1551,7 +1551,7 @@
         <v>125.129997253418</v>
       </c>
       <c r="F48" t="n">
-        <v>87.22559356689453</v>
+        <v>87.22560119628906</v>
       </c>
       <c r="G48" t="n">
         <v>293972400</v>
@@ -1574,7 +1574,7 @@
         <v>127.129997253418</v>
       </c>
       <c r="F49" t="n">
-        <v>88.61975860595703</v>
+        <v>88.61976623535156</v>
       </c>
       <c r="G49" t="n">
         <v>182584700</v>
@@ -1597,7 +1597,7 @@
         <v>126.8499984741211</v>
       </c>
       <c r="F50" t="n">
-        <v>88.42456817626953</v>
+        <v>88.424560546875</v>
       </c>
       <c r="G50" t="n">
         <v>274412200</v>
@@ -1620,7 +1620,7 @@
         <v>126.3300018310547</v>
       </c>
       <c r="F51" t="n">
-        <v>88.06211090087891</v>
+        <v>88.06210327148438</v>
       </c>
       <c r="G51" t="n">
         <v>297378200</v>
@@ -1666,7 +1666,7 @@
         <v>126.7600021362305</v>
       </c>
       <c r="F53" t="n">
-        <v>88.83026885986328</v>
+        <v>88.8302001953125</v>
       </c>
       <c r="G53" t="n">
         <v>207368300</v>
@@ -1735,7 +1735,7 @@
         <v>128.6799926757812</v>
       </c>
       <c r="F56" t="n">
-        <v>90.17573547363281</v>
+        <v>90.17572021484375</v>
       </c>
       <c r="G56" t="n">
         <v>223453000</v>
@@ -1758,7 +1758,7 @@
         <v>125.9700012207031</v>
       </c>
       <c r="F57" t="n">
-        <v>88.27661895751953</v>
+        <v>88.27664184570312</v>
       </c>
       <c r="G57" t="n">
         <v>323622400</v>
@@ -1781,7 +1781,7 @@
         <v>128.5399932861328</v>
       </c>
       <c r="F58" t="n">
-        <v>90.07763671875</v>
+        <v>90.07759094238281</v>
       </c>
       <c r="G58" t="n">
         <v>344839100</v>
@@ -1804,7 +1804,7 @@
         <v>126.2699966430664</v>
       </c>
       <c r="F59" t="n">
-        <v>88.48689270019531</v>
+        <v>88.48682403564453</v>
       </c>
       <c r="G59" t="n">
         <v>339874900</v>
@@ -1827,7 +1827,7 @@
         <v>126.6399993896484</v>
       </c>
       <c r="F60" t="n">
-        <v>88.74615478515625</v>
+        <v>88.74614715576172</v>
       </c>
       <c r="G60" t="n">
         <v>302674200</v>
@@ -1850,7 +1850,7 @@
         <v>128.8099975585938</v>
       </c>
       <c r="F61" t="n">
-        <v>90.26683807373047</v>
+        <v>90.26683044433594</v>
       </c>
       <c r="G61" t="n">
         <v>330104900</v>
@@ -1873,7 +1873,7 @@
         <v>129.4100036621094</v>
       </c>
       <c r="F62" t="n">
-        <v>90.68731689453125</v>
+        <v>90.68730163574219</v>
       </c>
       <c r="G62" t="n">
         <v>168983600</v>
@@ -1896,7 +1896,7 @@
         <v>128.7599945068359</v>
       </c>
       <c r="F63" t="n">
-        <v>90.23178863525391</v>
+        <v>90.23175811767578</v>
       </c>
       <c r="G63" t="n">
         <v>292939800</v>
@@ -1919,7 +1919,7 @@
         <v>128.5899963378906</v>
       </c>
       <c r="F64" t="n">
-        <v>90.11264801025391</v>
+        <v>90.11265563964844</v>
       </c>
       <c r="G64" t="n">
         <v>302756000</v>
@@ -1942,7 +1942,7 @@
         <v>130.6199951171875</v>
       </c>
       <c r="F65" t="n">
-        <v>91.53524780273438</v>
+        <v>91.53521728515625</v>
       </c>
       <c r="G65" t="n">
         <v>281568500</v>
@@ -1965,7 +1965,7 @@
         <v>130.2100067138672</v>
       </c>
       <c r="F66" t="n">
-        <v>91.61074829101562</v>
+        <v>91.61080169677734</v>
       </c>
       <c r="G66" t="n">
         <v>274160300</v>
@@ -1988,7 +1988,7 @@
         <v>129.8300018310547</v>
       </c>
       <c r="F67" t="n">
-        <v>91.34342956542969</v>
+        <v>91.34342193603516</v>
       </c>
       <c r="G67" t="n">
         <v>309605900</v>
@@ -2057,7 +2057,7 @@
         <v>131.1499938964844</v>
       </c>
       <c r="F70" t="n">
-        <v>92.27211761474609</v>
+        <v>92.27208709716797</v>
       </c>
       <c r="G70" t="n">
         <v>402316600</v>
@@ -2080,7 +2080,7 @@
         <v>131.4700012207031</v>
       </c>
       <c r="F71" t="n">
-        <v>92.49723815917969</v>
+        <v>92.49726104736328</v>
       </c>
       <c r="G71" t="n">
         <v>384501600</v>
@@ -2103,7 +2103,7 @@
         <v>132.5200042724609</v>
       </c>
       <c r="F72" t="n">
-        <v>93.23600769042969</v>
+        <v>93.23599243164062</v>
       </c>
       <c r="G72" t="n">
         <v>280384700</v>
@@ -2126,7 +2126,7 @@
         <v>129.2400054931641</v>
       </c>
       <c r="F73" t="n">
-        <v>90.92833709716797</v>
+        <v>90.92829132080078</v>
       </c>
       <c r="G73" t="n">
         <v>296612300</v>
@@ -2149,7 +2149,7 @@
         <v>127.0999984741211</v>
       </c>
       <c r="F74" t="n">
-        <v>89.42270660400391</v>
+        <v>89.42272186279297</v>
       </c>
       <c r="G74" t="n">
         <v>503172100</v>
@@ -2172,7 +2172,7 @@
         <v>128.3800048828125</v>
       </c>
       <c r="F75" t="n">
-        <v>90.32326507568359</v>
+        <v>90.3232421875</v>
       </c>
       <c r="G75" t="n">
         <v>513231900</v>
@@ -2195,7 +2195,7 @@
         <v>129</v>
       </c>
       <c r="F76" t="n">
-        <v>90.75948333740234</v>
+        <v>90.75945281982422</v>
       </c>
       <c r="G76" t="n">
         <v>324770400</v>
@@ -2218,7 +2218,7 @@
         <v>125.3499984741211</v>
       </c>
       <c r="F77" t="n">
-        <v>88.19143676757812</v>
+        <v>88.19146728515625</v>
       </c>
       <c r="G77" t="n">
         <v>625132500</v>
@@ -2241,7 +2241,7 @@
         <v>124.6500015258789</v>
       </c>
       <c r="F78" t="n">
-        <v>87.69894409179688</v>
+        <v>87.69895935058594</v>
       </c>
       <c r="G78" t="n">
         <v>673381600</v>
@@ -2264,7 +2264,7 @@
         <v>124.4400024414062</v>
       </c>
       <c r="F79" t="n">
-        <v>87.93820953369141</v>
+        <v>87.93816375732422</v>
       </c>
       <c r="G79" t="n">
         <v>364980400</v>
@@ -2287,7 +2287,7 @@
         <v>127.2799987792969</v>
       </c>
       <c r="F80" t="n">
-        <v>89.94516754150391</v>
+        <v>89.94514465332031</v>
       </c>
       <c r="G80" t="n">
         <v>334910500</v>
@@ -2333,7 +2333,7 @@
         <v>123.5199966430664</v>
       </c>
       <c r="F82" t="n">
-        <v>87.28807067871094</v>
+        <v>87.28806304931641</v>
       </c>
       <c r="G82" t="n">
         <v>422814400</v>
@@ -2356,7 +2356,7 @@
         <v>123.9499969482422</v>
       </c>
       <c r="F83" t="n">
-        <v>87.59192657470703</v>
+        <v>87.59190368652344</v>
       </c>
       <c r="G83" t="n">
         <v>551315100</v>
@@ -2379,7 +2379,7 @@
         <v>127.9800033569336</v>
       </c>
       <c r="F84" t="n">
-        <v>90.43981170654297</v>
+        <v>90.43984222412109</v>
       </c>
       <c r="G84" t="n">
         <v>442284600</v>
@@ -2402,7 +2402,7 @@
         <v>128.1999969482422</v>
       </c>
       <c r="F85" t="n">
-        <v>90.59529876708984</v>
+        <v>90.59526824951172</v>
       </c>
       <c r="G85" t="n">
         <v>339577600</v>
@@ -2425,7 +2425,7 @@
         <v>127.0100021362305</v>
       </c>
       <c r="F86" t="n">
-        <v>89.75436401367188</v>
+        <v>89.75434875488281</v>
       </c>
       <c r="G86" t="n">
         <v>331993700</v>
@@ -2448,7 +2448,7 @@
         <v>130.6900024414062</v>
       </c>
       <c r="F87" t="n">
-        <v>92.35490417480469</v>
+        <v>92.3548583984375</v>
       </c>
       <c r="G87" t="n">
         <v>327000800</v>
@@ -2471,7 +2471,7 @@
         <v>129.8099975585938</v>
       </c>
       <c r="F88" t="n">
-        <v>91.73304748535156</v>
+        <v>91.73299407958984</v>
       </c>
       <c r="G88" t="n">
         <v>269304600</v>
@@ -2494,7 +2494,7 @@
         <v>131.4199981689453</v>
       </c>
       <c r="F89" t="n">
-        <v>92.87076568603516</v>
+        <v>92.87075805664062</v>
       </c>
       <c r="G89" t="n">
         <v>250856300</v>
@@ -2517,7 +2517,7 @@
         <v>130.2799987792969</v>
       </c>
       <c r="F90" t="n">
-        <v>92.06517028808594</v>
+        <v>92.06514739990234</v>
       </c>
       <c r="G90" t="n">
         <v>237509600</v>
@@ -2540,7 +2540,7 @@
         <v>131.9600067138672</v>
       </c>
       <c r="F91" t="n">
-        <v>93.25238037109375</v>
+        <v>93.25234985351562</v>
       </c>
       <c r="G91" t="n">
         <v>335779100</v>
@@ -2563,7 +2563,7 @@
         <v>131.4700012207031</v>
       </c>
       <c r="F92" t="n">
-        <v>93.314697265625</v>
+        <v>93.31468963623047</v>
       </c>
       <c r="G92" t="n">
         <v>386346600</v>
@@ -2586,7 +2586,7 @@
         <v>133.5800018310547</v>
       </c>
       <c r="F93" t="n">
-        <v>94.81233215332031</v>
+        <v>94.81236267089844</v>
       </c>
       <c r="G93" t="n">
         <v>355258100</v>
@@ -2609,7 +2609,7 @@
         <v>135.0099945068359</v>
       </c>
       <c r="F94" t="n">
-        <v>95.82729339599609</v>
+        <v>95.82730865478516</v>
       </c>
       <c r="G94" t="n">
         <v>331175500</v>
@@ -2632,7 +2632,7 @@
         <v>136.6300048828125</v>
       </c>
       <c r="F95" t="n">
-        <v>96.97716522216797</v>
+        <v>96.9771728515625</v>
       </c>
       <c r="G95" t="n">
         <v>314754900</v>
@@ -2655,7 +2655,7 @@
         <v>136.8399963378906</v>
       </c>
       <c r="F96" t="n">
-        <v>97.12619781494141</v>
+        <v>97.12622833251953</v>
       </c>
       <c r="G96" t="n">
         <v>331779900</v>
@@ -2678,7 +2678,7 @@
         <v>137.9100036621094</v>
       </c>
       <c r="F97" t="n">
-        <v>97.88568878173828</v>
+        <v>97.88570404052734</v>
       </c>
       <c r="G97" t="n">
         <v>344641900</v>
@@ -2701,7 +2701,7 @@
         <v>136.5399932861328</v>
       </c>
       <c r="F98" t="n">
-        <v>96.91328430175781</v>
+        <v>96.91327667236328</v>
       </c>
       <c r="G98" t="n">
         <v>336037000</v>
@@ -2747,7 +2747,7 @@
         <v>140.4199981689453</v>
       </c>
       <c r="F100" t="n">
-        <v>99.667236328125</v>
+        <v>99.66725921630859</v>
       </c>
       <c r="G100" t="n">
         <v>365694400</v>
@@ -2770,7 +2770,7 @@
         <v>140.3500061035156</v>
       </c>
       <c r="F101" t="n">
-        <v>99.61752319335938</v>
+        <v>99.61754608154297</v>
       </c>
       <c r="G101" t="n">
         <v>197045400</v>
@@ -2793,7 +2793,7 @@
         <v>140.2200012207031</v>
       </c>
       <c r="F102" t="n">
-        <v>99.52523803710938</v>
+        <v>99.5252685546875</v>
       </c>
       <c r="G102" t="n">
         <v>491307200</v>
@@ -2816,7 +2816,7 @@
         <v>141.4199981689453</v>
       </c>
       <c r="F103" t="n">
-        <v>100.3770065307617</v>
+        <v>100.3770141601562</v>
       </c>
       <c r="G103" t="n">
         <v>356923700</v>
@@ -2839,7 +2839,7 @@
         <v>142.3399963378906</v>
       </c>
       <c r="F104" t="n">
-        <v>101.0299987792969</v>
+        <v>101.0300064086914</v>
       </c>
       <c r="G104" t="n">
         <v>308363800</v>
@@ -2862,7 +2862,7 @@
         <v>140.75</v>
       </c>
       <c r="F105" t="n">
-        <v>100.4580917358398</v>
+        <v>100.4580764770508</v>
       </c>
       <c r="G105" t="n">
         <v>266215300</v>
@@ -2885,7 +2885,7 @@
         <v>141.6199951171875</v>
       </c>
       <c r="F106" t="n">
-        <v>101.0790023803711</v>
+        <v>101.0790328979492</v>
       </c>
       <c r="G106" t="n">
         <v>155174000</v>
@@ -2908,7 +2908,7 @@
         <v>140.5399932861328</v>
       </c>
       <c r="F107" t="n">
-        <v>100.3081741333008</v>
+        <v>100.3081665039062</v>
       </c>
       <c r="G107" t="n">
         <v>241073500</v>
@@ -2931,7 +2931,7 @@
         <v>143.2400054931641</v>
       </c>
       <c r="F108" t="n">
-        <v>102.2352523803711</v>
+        <v>102.2352600097656</v>
       </c>
       <c r="G108" t="n">
         <v>329610500</v>
@@ -2954,7 +2954,7 @@
         <v>142.8200073242188</v>
       </c>
       <c r="F109" t="n">
-        <v>101.9355163574219</v>
+        <v>101.9355010986328</v>
       </c>
       <c r="G109" t="n">
         <v>220263000</v>
@@ -3000,7 +3000,7 @@
         <v>144.8099975585938</v>
       </c>
       <c r="F111" t="n">
-        <v>103.3558197021484</v>
+        <v>103.355842590332</v>
       </c>
       <c r="G111" t="n">
         <v>347310200</v>
@@ -3023,7 +3023,7 @@
         <v>143.9400024414062</v>
       </c>
       <c r="F112" t="n">
-        <v>102.7349166870117</v>
+        <v>102.7348861694336</v>
       </c>
       <c r="G112" t="n">
         <v>308181700</v>
@@ -3046,7 +3046,7 @@
         <v>145.7299957275391</v>
       </c>
       <c r="F113" t="n">
-        <v>104.0124664306641</v>
+        <v>104.012451171875</v>
       </c>
       <c r="G113" t="n">
         <v>274335200</v>
@@ -3069,7 +3069,7 @@
         <v>145.3000030517578</v>
       </c>
       <c r="F114" t="n">
-        <v>103.7055816650391</v>
+        <v>103.7055892944336</v>
       </c>
       <c r="G114" t="n">
         <v>271917000</v>
@@ -3115,7 +3115,7 @@
         <v>140.7799987792969</v>
       </c>
       <c r="F116" t="n">
-        <v>100.4794692993164</v>
+        <v>100.4795074462891</v>
       </c>
       <c r="G116" t="n">
         <v>627885300</v>
@@ -3138,7 +3138,7 @@
         <v>138.5299987792969</v>
       </c>
       <c r="F117" t="n">
-        <v>98.87358856201172</v>
+        <v>98.87359619140625</v>
       </c>
       <c r="G117" t="n">
         <v>756793400</v>
@@ -3161,7 +3161,7 @@
         <v>143.3899993896484</v>
       </c>
       <c r="F118" t="n">
-        <v>102.7482528686523</v>
+        <v>102.7482604980469</v>
       </c>
       <c r="G118" t="n">
         <v>524036300</v>
@@ -3207,7 +3207,7 @@
         <v>144.2400054931641</v>
       </c>
       <c r="F120" t="n">
-        <v>103.3573455810547</v>
+        <v>103.3573379516602</v>
       </c>
       <c r="G120" t="n">
         <v>272652200</v>
@@ -3230,7 +3230,7 @@
         <v>145.3200073242188</v>
       </c>
       <c r="F121" t="n">
-        <v>104.1312713623047</v>
+        <v>104.1312484741211</v>
       </c>
       <c r="G121" t="n">
         <v>413774500</v>
@@ -3253,7 +3253,7 @@
         <v>148.6199951171875</v>
       </c>
       <c r="F122" t="n">
-        <v>106.4958801269531</v>
+        <v>106.4958648681641</v>
       </c>
       <c r="G122" t="n">
         <v>506895800</v>
@@ -3276,7 +3276,7 @@
         <v>149.5299987792969</v>
       </c>
       <c r="F123" t="n">
-        <v>107.14794921875</v>
+        <v>107.1479339599609</v>
       </c>
       <c r="G123" t="n">
         <v>497093300</v>
@@ -3299,7 +3299,7 @@
         <v>150.9199981689453</v>
       </c>
       <c r="F124" t="n">
-        <v>108.1439666748047</v>
+        <v>108.1439514160156</v>
       </c>
       <c r="G124" t="n">
         <v>505325300</v>
@@ -3322,7 +3322,7 @@
         <v>150.8600006103516</v>
       </c>
       <c r="F125" t="n">
-        <v>108.1009979248047</v>
+        <v>108.1010131835938</v>
       </c>
       <c r="G125" t="n">
         <v>513142200</v>
@@ -3391,7 +3391,7 @@
         <v>154.0800018310547</v>
       </c>
       <c r="F128" t="n">
-        <v>110.4083480834961</v>
+        <v>110.4083709716797</v>
       </c>
       <c r="G128" t="n">
         <v>433672000</v>
@@ -3414,7 +3414,7 @@
         <v>151.0399932861328</v>
       </c>
       <c r="F129" t="n">
-        <v>108.22998046875</v>
+        <v>108.2299270629883</v>
       </c>
       <c r="G129" t="n">
         <v>777324100</v>
@@ -3437,7 +3437,7 @@
         <v>153.0700073242188</v>
       </c>
       <c r="F130" t="n">
-        <v>109.6845474243164</v>
+        <v>109.6846771240234</v>
       </c>
       <c r="G130" t="n">
         <v>829549100</v>
@@ -3460,7 +3460,7 @@
         <v>150.5500030517578</v>
       </c>
       <c r="F131" t="n">
-        <v>108.3438186645508</v>
+        <v>108.3438262939453</v>
       </c>
       <c r="G131" t="n">
         <v>786735600</v>
@@ -3483,7 +3483,7 @@
         <v>150.4299926757812</v>
       </c>
       <c r="F132" t="n">
-        <v>108.257453918457</v>
+        <v>108.2574462890625</v>
       </c>
       <c r="G132" t="n">
         <v>1001504900</v>
@@ -3506,7 +3506,7 @@
         <v>152.9799957275391</v>
       </c>
       <c r="F133" t="n">
-        <v>110.0925903320312</v>
+        <v>110.0925598144531</v>
       </c>
       <c r="G133" t="n">
         <v>327793400</v>
@@ -3529,7 +3529,7 @@
         <v>154.8500061035156</v>
       </c>
       <c r="F134" t="n">
-        <v>111.4383163452148</v>
+        <v>111.438346862793</v>
       </c>
       <c r="G134" t="n">
         <v>673995100</v>
@@ -3552,7 +3552,7 @@
         <v>153.5</v>
       </c>
       <c r="F135" t="n">
-        <v>110.4668197631836</v>
+        <v>110.466796875</v>
       </c>
       <c r="G135" t="n">
         <v>853182600</v>
@@ -3575,7 +3575,7 @@
         <v>145.1100006103516</v>
       </c>
       <c r="F136" t="n">
-        <v>104.4289016723633</v>
+        <v>104.4288864135742</v>
       </c>
       <c r="G136" t="n">
         <v>1533710900</v>
@@ -3598,7 +3598,7 @@
         <v>143.8000030517578</v>
       </c>
       <c r="F137" t="n">
-        <v>103.4861602783203</v>
+        <v>103.4861755371094</v>
       </c>
       <c r="G137" t="n">
         <v>1721820800</v>
@@ -3621,7 +3621,7 @@
         <v>144.7100067138672</v>
       </c>
       <c r="F138" t="n">
-        <v>104.1410446166992</v>
+        <v>104.1410751342773</v>
       </c>
       <c r="G138" t="n">
         <v>1601119800</v>
@@ -3644,7 +3644,7 @@
         <v>144.7100067138672</v>
       </c>
       <c r="F139" t="n">
-        <v>104.1410446166992</v>
+        <v>104.1410751342773</v>
       </c>
       <c r="G139" t="n">
         <v>1704847500</v>
@@ -3667,7 +3667,7 @@
         <v>148.3300018310547</v>
       </c>
       <c r="F140" t="n">
-        <v>106.7462005615234</v>
+        <v>106.746223449707</v>
       </c>
       <c r="G140" t="n">
         <v>850360700</v>
@@ -3690,7 +3690,7 @@
         <v>147.5899963378906</v>
       </c>
       <c r="F141" t="n">
-        <v>106.2136611938477</v>
+        <v>106.2136764526367</v>
       </c>
       <c r="G141" t="n">
         <v>917764000</v>
@@ -3713,7 +3713,7 @@
         <v>146.0700073242188</v>
       </c>
       <c r="F142" t="n">
-        <v>105.1197738647461</v>
+        <v>105.1197967529297</v>
       </c>
       <c r="G142" t="n">
         <v>649649800</v>
@@ -3736,7 +3736,7 @@
         <v>148.8999938964844</v>
       </c>
       <c r="F143" t="n">
-        <v>107.156379699707</v>
+        <v>107.1563949584961</v>
       </c>
       <c r="G143" t="n">
         <v>779932400</v>
@@ -3759,7 +3759,7 @@
         <v>151.9700012207031</v>
       </c>
       <c r="F144" t="n">
-        <v>109.3656921386719</v>
+        <v>109.3657150268555</v>
       </c>
       <c r="G144" t="n">
         <v>884054500</v>
@@ -3782,7 +3782,7 @@
         <v>152.5800018310547</v>
       </c>
       <c r="F145" t="n">
-        <v>110.3256225585938</v>
+        <v>110.3256301879883</v>
       </c>
       <c r="G145" t="n">
         <v>653372500</v>
@@ -3805,7 +3805,7 @@
         <v>155.8500061035156</v>
       </c>
       <c r="F146" t="n">
-        <v>112.6900634765625</v>
+        <v>112.6900177001953</v>
       </c>
       <c r="G146" t="n">
         <v>591641100</v>
@@ -3828,7 +3828,7 @@
         <v>156.3300018310547</v>
       </c>
       <c r="F147" t="n">
-        <v>113.0370788574219</v>
+        <v>113.0371170043945</v>
       </c>
       <c r="G147" t="n">
         <v>625121600</v>
@@ -3874,7 +3874,7 @@
         <v>153.6199951171875</v>
       </c>
       <c r="F149" t="n">
-        <v>111.0775680541992</v>
+        <v>111.0776062011719</v>
       </c>
       <c r="G149" t="n">
         <v>1182627600</v>
@@ -3897,7 +3897,7 @@
         <v>151.1999969482422</v>
       </c>
       <c r="F150" t="n">
-        <v>109.3278274536133</v>
+        <v>109.3277893066406</v>
       </c>
       <c r="G150" t="n">
         <v>1125046000</v>
@@ -3920,7 +3920,7 @@
         <v>145.1399993896484</v>
       </c>
       <c r="F151" t="n">
-        <v>104.9459915161133</v>
+        <v>104.9459533691406</v>
       </c>
       <c r="G151" t="n">
         <v>1363536200</v>
@@ -3943,7 +3943,7 @@
         <v>145.7899932861328</v>
       </c>
       <c r="F152" t="n">
-        <v>105.4159774780273</v>
+        <v>105.416015625</v>
       </c>
       <c r="G152" t="n">
         <v>1236645700</v>
@@ -3966,7 +3966,7 @@
         <v>144.1300048828125</v>
       </c>
       <c r="F153" t="n">
-        <v>104.2156829833984</v>
+        <v>104.2157363891602</v>
       </c>
       <c r="G153" t="n">
         <v>1019214300</v>
@@ -3989,7 +3989,7 @@
         <v>148.6600036621094</v>
       </c>
       <c r="F154" t="n">
-        <v>107.4912338256836</v>
+        <v>107.4911956787109</v>
       </c>
       <c r="G154" t="n">
         <v>1189044700</v>
@@ -4012,7 +4012,7 @@
         <v>150.9100036621094</v>
       </c>
       <c r="F155" t="n">
-        <v>109.1181335449219</v>
+        <v>109.1180801391602</v>
       </c>
       <c r="G155" t="n">
         <v>757531800</v>
@@ -4035,7 +4035,7 @@
         <v>147.1699981689453</v>
       </c>
       <c r="F156" t="n">
-        <v>106.4138336181641</v>
+        <v>106.4138412475586</v>
       </c>
       <c r="G156" t="n">
         <v>1093400500</v>
@@ -4058,7 +4058,7 @@
         <v>148.1300048828125</v>
       </c>
       <c r="F157" t="n">
-        <v>107.1080169677734</v>
+        <v>107.1079711914062</v>
       </c>
       <c r="G157" t="n">
         <v>982654100</v>
@@ -4081,7 +4081,7 @@
         <v>147.3000030517578</v>
       </c>
       <c r="F158" t="n">
-        <v>107.0731048583984</v>
+        <v>107.0730667114258</v>
       </c>
       <c r="G158" t="n">
         <v>352074300</v>
@@ -4104,7 +4104,7 @@
         <v>141.3099975585938</v>
       </c>
       <c r="F159" t="n">
-        <v>102.7189788818359</v>
+        <v>102.7189254760742</v>
       </c>
       <c r="G159" t="n">
         <v>670526600</v>
@@ -4150,7 +4150,7 @@
         <v>132.0599975585938</v>
       </c>
       <c r="F161" t="n">
-        <v>95.99503326416016</v>
+        <v>95.99504089355469</v>
       </c>
       <c r="G161" t="n">
         <v>1535562300</v>
@@ -4173,7 +4173,7 @@
         <v>133.0399932861328</v>
       </c>
       <c r="F162" t="n">
-        <v>96.70742797851562</v>
+        <v>96.70742034912109</v>
       </c>
       <c r="G162" t="n">
         <v>1477389900</v>
@@ -4196,7 +4196,7 @@
         <v>139.5800018310547</v>
       </c>
       <c r="F163" t="n">
-        <v>101.4613800048828</v>
+        <v>101.4613952636719</v>
       </c>
       <c r="G163" t="n">
         <v>1272366500</v>
@@ -4219,7 +4219,7 @@
         <v>133.0700073242188</v>
       </c>
       <c r="F164" t="n">
-        <v>96.72925567626953</v>
+        <v>96.72924041748047</v>
       </c>
       <c r="G164" t="n">
         <v>1181381300</v>
@@ -4242,7 +4242,7 @@
         <v>135.1399993896484</v>
       </c>
       <c r="F165" t="n">
-        <v>98.23391723632812</v>
+        <v>98.23393249511719</v>
       </c>
       <c r="G165" t="n">
         <v>996516000</v>
@@ -4288,7 +4288,7 @@
         <v>133.8200073242188</v>
       </c>
       <c r="F167" t="n">
-        <v>97.27444458007812</v>
+        <v>97.27442169189453</v>
       </c>
       <c r="G167" t="n">
         <v>994469800</v>
@@ -4334,7 +4334,7 @@
         <v>129.6100006103516</v>
       </c>
       <c r="F169" t="n">
-        <v>94.21414184570312</v>
+        <v>94.21417236328125</v>
       </c>
       <c r="G169" t="n">
         <v>1642477300</v>
@@ -4357,7 +4357,7 @@
         <v>132.0800018310547</v>
       </c>
       <c r="F170" t="n">
-        <v>96.00962829589844</v>
+        <v>96.00962066650391</v>
       </c>
       <c r="G170" t="n">
         <v>1331020000</v>
@@ -4380,7 +4380,7 @@
         <v>131.5099945068359</v>
       </c>
       <c r="F171" t="n">
-        <v>96.06851959228516</v>
+        <v>96.06852722167969</v>
       </c>
       <c r="G171" t="n">
         <v>1004908100</v>
@@ -4426,7 +4426,7 @@
         <v>133.3800048828125</v>
       </c>
       <c r="F173" t="n">
-        <v>97.4345703125</v>
+        <v>97.43457794189453</v>
       </c>
       <c r="G173" t="n">
         <v>914734500</v>
@@ -4449,7 +4449,7 @@
         <v>138.4799957275391</v>
       </c>
       <c r="F174" t="n">
-        <v>101.1601715087891</v>
+        <v>101.1601867675781</v>
       </c>
       <c r="G174" t="n">
         <v>920376400</v>
@@ -4472,7 +4472,7 @@
         <v>139.6000061035156</v>
       </c>
       <c r="F175" t="n">
-        <v>101.9783401489258</v>
+        <v>101.9783096313477</v>
       </c>
       <c r="G175" t="n">
         <v>894231800</v>
@@ -4495,7 +4495,7 @@
         <v>141.5099945068359</v>
       </c>
       <c r="F176" t="n">
-        <v>103.3735961914062</v>
+        <v>103.3735504150391</v>
       </c>
       <c r="G176" t="n">
         <v>808385200</v>
@@ -4518,7 +4518,7 @@
         <v>138.8999938964844</v>
       </c>
       <c r="F177" t="n">
-        <v>101.4669647216797</v>
+        <v>101.4669876098633</v>
       </c>
       <c r="G177" t="n">
         <v>828021000</v>
@@ -4541,7 +4541,7 @@
         <v>142.6600036621094</v>
       </c>
       <c r="F178" t="n">
-        <v>104.2136688232422</v>
+        <v>104.2136611938477</v>
       </c>
       <c r="G178" t="n">
         <v>860072700</v>
@@ -4564,7 +4564,7 @@
         <v>137.6399993896484</v>
       </c>
       <c r="F179" t="n">
-        <v>100.546501159668</v>
+        <v>100.5465087890625</v>
       </c>
       <c r="G179" t="n">
         <v>949138100</v>
@@ -4587,7 +4587,7 @@
         <v>140.3500061035156</v>
       </c>
       <c r="F180" t="n">
-        <v>102.5261840820312</v>
+        <v>102.5262069702148</v>
       </c>
       <c r="G180" t="n">
         <v>640900200</v>
@@ -4633,7 +4633,7 @@
         <v>136.1499938964844</v>
       </c>
       <c r="F182" t="n">
-        <v>99.45800018310547</v>
+        <v>99.45808410644531</v>
       </c>
       <c r="G182" t="n">
         <v>1269907600</v>
@@ -4656,7 +4656,7 @@
         <v>131.5800018310547</v>
       </c>
       <c r="F183" t="n">
-        <v>96.11968994140625</v>
+        <v>96.11969757080078</v>
       </c>
       <c r="G183" t="n">
         <v>1236913800</v>
@@ -4679,7 +4679,7 @@
         <v>127.5299987792969</v>
       </c>
       <c r="F184" t="n">
-        <v>93.62710571289062</v>
+        <v>93.62712097167969</v>
       </c>
       <c r="G184" t="n">
         <v>1321449300</v>
@@ -4702,7 +4702,7 @@
         <v>126.3099975585938</v>
       </c>
       <c r="F185" t="n">
-        <v>92.73143005371094</v>
+        <v>92.73141479492188</v>
       </c>
       <c r="G185" t="n">
         <v>1174881700</v>
@@ -4725,7 +4725,7 @@
         <v>123.8399963378906</v>
       </c>
       <c r="F186" t="n">
-        <v>90.91807556152344</v>
+        <v>90.91804504394531</v>
       </c>
       <c r="G186" t="n">
         <v>2002730700</v>
@@ -4748,7 +4748,7 @@
         <v>125.9800033569336</v>
       </c>
       <c r="F187" t="n">
-        <v>92.48914337158203</v>
+        <v>92.48918151855469</v>
       </c>
       <c r="G187" t="n">
         <v>1839386900</v>
@@ -4771,7 +4771,7 @@
         <v>125.4800033569336</v>
       </c>
       <c r="F188" t="n">
-        <v>92.12208557128906</v>
+        <v>92.12207794189453</v>
       </c>
       <c r="G188" t="n">
         <v>1299231100</v>
@@ -4794,7 +4794,7 @@
         <v>126.1600036621094</v>
       </c>
       <c r="F189" t="n">
-        <v>92.62128448486328</v>
+        <v>92.621337890625</v>
       </c>
       <c r="G189" t="n">
         <v>1347509900</v>
@@ -4817,7 +4817,7 @@
         <v>129.3699951171875</v>
       </c>
       <c r="F190" t="n">
-        <v>94.97794342041016</v>
+        <v>94.97795104980469</v>
       </c>
       <c r="G190" t="n">
         <v>1156496800</v>
@@ -4840,7 +4840,7 @@
         <v>130.1699981689453</v>
       </c>
       <c r="F191" t="n">
-        <v>95.56528472900391</v>
+        <v>95.56527709960938</v>
       </c>
       <c r="G191" t="n">
         <v>1139575900</v>
@@ -4863,7 +4863,7 @@
         <v>129.6499938964844</v>
       </c>
       <c r="F192" t="n">
-        <v>95.18351745605469</v>
+        <v>95.18352508544922</v>
       </c>
       <c r="G192" t="n">
         <v>940772100</v>
@@ -4909,7 +4909,7 @@
         <v>124.4199981689453</v>
       </c>
       <c r="F194" t="n">
-        <v>91.3438720703125</v>
+        <v>91.34387969970703</v>
       </c>
       <c r="G194" t="n">
         <v>1133857800</v>
@@ -4932,7 +4932,7 @@
         <v>126.0899963378906</v>
       </c>
       <c r="F195" t="n">
-        <v>92.56991577148438</v>
+        <v>92.56990814208984</v>
       </c>
       <c r="G195" t="n">
         <v>1713539300</v>
@@ -4955,7 +4955,7 @@
         <v>124.120002746582</v>
       </c>
       <c r="F196" t="n">
-        <v>91.12362670898438</v>
+        <v>91.12360382080078</v>
       </c>
       <c r="G196" t="n">
         <v>2966649400</v>
@@ -4978,7 +4978,7 @@
         <v>120.8499984741211</v>
       </c>
       <c r="F197" t="n">
-        <v>89.2364501953125</v>
+        <v>89.23648834228516</v>
       </c>
       <c r="G197" t="n">
         <v>1503425700</v>
@@ -5001,7 +5001,7 @@
         <v>110.3399963378906</v>
       </c>
       <c r="F198" t="n">
-        <v>81.47582244873047</v>
+        <v>81.47583770751953</v>
       </c>
       <c r="G198" t="n">
         <v>1947635500</v>
@@ -5024,7 +5024,7 @@
         <v>88.5</v>
       </c>
       <c r="F199" t="n">
-        <v>65.34901428222656</v>
+        <v>65.34898376464844</v>
       </c>
       <c r="G199" t="n">
         <v>3281575900</v>
@@ -5047,7 +5047,7 @@
         <v>93.20999908447266</v>
       </c>
       <c r="F200" t="n">
-        <v>68.82695007324219</v>
+        <v>68.82691955566406</v>
       </c>
       <c r="G200" t="n">
         <v>2671940000</v>
@@ -5070,7 +5070,7 @@
         <v>87.04000091552734</v>
       </c>
       <c r="F201" t="n">
-        <v>64.27095794677734</v>
+        <v>64.27093505859375</v>
       </c>
       <c r="G201" t="n">
         <v>2374443200</v>
@@ -5093,7 +5093,7 @@
         <v>96.83000183105469</v>
       </c>
       <c r="F202" t="n">
-        <v>71.49996948242188</v>
+        <v>71.49993896484375</v>
       </c>
       <c r="G202" t="n">
         <v>2394474300</v>
@@ -5116,7 +5116,7 @@
         <v>93.86000061035156</v>
       </c>
       <c r="F203" t="n">
-        <v>69.306884765625</v>
+        <v>69.30690002441406</v>
       </c>
       <c r="G203" t="n">
         <v>1798169800</v>
@@ -5139,7 +5139,7 @@
         <v>86.62000274658203</v>
       </c>
       <c r="F204" t="n">
-        <v>63.9608154296875</v>
+        <v>63.96081924438477</v>
       </c>
       <c r="G204" t="n">
         <v>2468096000</v>
@@ -5162,7 +5162,7 @@
         <v>79.51999664306641</v>
       </c>
       <c r="F205" t="n">
-        <v>58.71811676025391</v>
+        <v>58.7181396484375</v>
       </c>
       <c r="G205" t="n">
         <v>3030111200</v>
@@ -5185,7 +5185,7 @@
         <v>90.08999633789062</v>
       </c>
       <c r="F206" t="n">
-        <v>66.52310943603516</v>
+        <v>66.52308654785156</v>
       </c>
       <c r="G206" t="n">
         <v>1465860000</v>
@@ -5208,7 +5208,7 @@
         <v>87.93000030517578</v>
       </c>
       <c r="F207" t="n">
-        <v>64.92813873291016</v>
+        <v>64.92812347412109</v>
       </c>
       <c r="G207" t="n">
         <v>2275378100</v>
@@ -5231,7 +5231,7 @@
         <v>88.98999786376953</v>
       </c>
       <c r="F208" t="n">
-        <v>65.71083068847656</v>
+        <v>65.71080780029297</v>
       </c>
       <c r="G208" t="n">
         <v>1959958100</v>
@@ -5254,7 +5254,7 @@
         <v>88.19000244140625</v>
       </c>
       <c r="F209" t="n">
-        <v>65.12015533447266</v>
+        <v>65.12014770507812</v>
       </c>
       <c r="G209" t="n">
         <v>1592338100</v>
@@ -5300,7 +5300,7 @@
         <v>92.95999908447266</v>
       </c>
       <c r="F211" t="n">
-        <v>69.19955444335938</v>
+        <v>69.19953918457031</v>
       </c>
       <c r="G211" t="n">
         <v>717605700</v>
@@ -5323,7 +5323,7 @@
         <v>89.08999633789062</v>
       </c>
       <c r="F212" t="n">
-        <v>66.31868743896484</v>
+        <v>66.31869506835938</v>
       </c>
       <c r="G212" t="n">
         <v>1444297800</v>
@@ -5346,7 +5346,7 @@
         <v>85.05999755859375</v>
       </c>
       <c r="F213" t="n">
-        <v>63.31880950927734</v>
+        <v>63.31875610351562</v>
       </c>
       <c r="G213" t="n">
         <v>2001666900</v>
@@ -5369,7 +5369,7 @@
         <v>83.11000061035156</v>
       </c>
       <c r="F214" t="n">
-        <v>61.86717224121094</v>
+        <v>61.86719131469727</v>
       </c>
       <c r="G214" t="n">
         <v>1598956800</v>
@@ -5392,7 +5392,7 @@
         <v>82.83000183105469</v>
       </c>
       <c r="F215" t="n">
-        <v>61.65876770019531</v>
+        <v>61.65876007080078</v>
       </c>
       <c r="G215" t="n">
         <v>1599551600</v>
@@ -5415,7 +5415,7 @@
         <v>86.98000335693359</v>
       </c>
       <c r="F216" t="n">
-        <v>64.74803924560547</v>
+        <v>64.74803161621094</v>
       </c>
       <c r="G216" t="n">
         <v>1673389500</v>
@@ -5438,7 +5438,7 @@
         <v>82.76000213623047</v>
       </c>
       <c r="F217" t="n">
-        <v>61.60665512084961</v>
+        <v>61.60667037963867</v>
       </c>
       <c r="G217" t="n">
         <v>1864031100</v>
@@ -5484,7 +5484,7 @@
         <v>73.93000030517578</v>
       </c>
       <c r="F219" t="n">
-        <v>55.03358459472656</v>
+        <v>55.03357696533203</v>
       </c>
       <c r="G219" t="n">
         <v>2101752900</v>
@@ -5507,7 +5507,7 @@
         <v>68.91999816894531</v>
       </c>
       <c r="F220" t="n">
-        <v>51.30411911010742</v>
+        <v>51.30413436889648</v>
       </c>
       <c r="G220" t="n">
         <v>2308986100</v>
@@ -5576,7 +5576,7 @@
         <v>81.61000061035156</v>
       </c>
       <c r="F223" t="n">
-        <v>61.18540954589844</v>
+        <v>61.18540191650391</v>
       </c>
       <c r="G223" t="n">
         <v>1936336900</v>
@@ -5599,7 +5599,7 @@
         <v>84.26000213623047</v>
       </c>
       <c r="F224" t="n">
-        <v>63.17218017578125</v>
+        <v>63.17220687866211</v>
       </c>
       <c r="G224" t="n">
         <v>1826242100</v>
@@ -5622,7 +5622,7 @@
         <v>85.80999755859375</v>
       </c>
       <c r="F225" t="n">
-        <v>64.33425903320312</v>
+        <v>64.33426666259766</v>
       </c>
       <c r="G225" t="n">
         <v>1023870700</v>
@@ -5645,7 +5645,7 @@
         <v>87.08000183105469</v>
       </c>
       <c r="F226" t="n">
-        <v>65.28645324707031</v>
+        <v>65.28642272949219</v>
       </c>
       <c r="G226" t="n">
         <v>1350024300</v>
@@ -5668,7 +5668,7 @@
         <v>86.66000366210938</v>
       </c>
       <c r="F227" t="n">
-        <v>64.97154235839844</v>
+        <v>64.97151947021484</v>
       </c>
       <c r="G227" t="n">
         <v>1360782900</v>
@@ -5691,7 +5691,7 @@
         <v>87.88999938964844</v>
       </c>
       <c r="F228" t="n">
-        <v>65.89372253417969</v>
+        <v>65.89370727539062</v>
       </c>
       <c r="G228" t="n">
         <v>1386543700</v>
@@ -5714,7 +5714,7 @@
         <v>92.98000335693359</v>
       </c>
       <c r="F229" t="n">
-        <v>69.70982360839844</v>
+        <v>69.70985412597656</v>
       </c>
       <c r="G229" t="n">
         <v>1438907000</v>
@@ -5737,7 +5737,7 @@
         <v>88.70999908447266</v>
       </c>
       <c r="F230" t="n">
-        <v>66.50843811035156</v>
+        <v>66.50846862792969</v>
       </c>
       <c r="G230" t="n">
         <v>1331575400</v>
@@ -5760,7 +5760,7 @@
         <v>89.01999664306641</v>
       </c>
       <c r="F231" t="n">
-        <v>66.74088287353516</v>
+        <v>66.74091339111328</v>
       </c>
       <c r="G231" t="n">
         <v>1159072100</v>
@@ -5783,7 +5783,7 @@
         <v>92.52999877929688</v>
       </c>
       <c r="F232" t="n">
-        <v>69.37245941162109</v>
+        <v>69.37244415283203</v>
       </c>
       <c r="G232" t="n">
         <v>1030070800</v>
@@ -5829,7 +5829,7 @@
         <v>95.08000183105469</v>
       </c>
       <c r="F234" t="n">
-        <v>71.28427124023438</v>
+        <v>71.28425598144531</v>
       </c>
       <c r="G234" t="n">
         <v>1219567000</v>
@@ -5852,7 +5852,7 @@
         <v>92.04000091552734</v>
       </c>
       <c r="F235" t="n">
-        <v>69.00508117675781</v>
+        <v>69.00505828857422</v>
       </c>
       <c r="G235" t="n">
         <v>1102335400</v>
@@ -5875,7 +5875,7 @@
         <v>91.83999633789062</v>
       </c>
       <c r="F236" t="n">
-        <v>69.24408721923828</v>
+        <v>69.24406433105469</v>
       </c>
       <c r="G236" t="n">
         <v>1098791100</v>
@@ -5898,7 +5898,7 @@
         <v>89.80999755859375</v>
       </c>
       <c r="F237" t="n">
-        <v>67.71352386474609</v>
+        <v>67.71351623535156</v>
       </c>
       <c r="G237" t="n">
         <v>782720500</v>
@@ -5921,7 +5921,7 @@
         <v>87.95999908447266</v>
       </c>
       <c r="F238" t="n">
-        <v>66.31868743896484</v>
+        <v>66.31869506835938</v>
       </c>
       <c r="G238" t="n">
         <v>956936900</v>
@@ -5944,7 +5944,7 @@
         <v>94.12999725341797</v>
       </c>
       <c r="F239" t="n">
-        <v>70.97065734863281</v>
+        <v>70.97068023681641</v>
       </c>
       <c r="G239" t="n">
         <v>989515000</v>
@@ -5967,7 +5967,7 @@
         <v>98.05999755859375</v>
       </c>
       <c r="F240" t="n">
-        <v>73.93372344970703</v>
+        <v>73.93373107910156</v>
       </c>
       <c r="G240" t="n">
         <v>990764400</v>
@@ -5990,7 +5990,7 @@
         <v>98.80999755859375</v>
       </c>
       <c r="F241" t="n">
-        <v>74.49919891357422</v>
+        <v>74.49921417236328</v>
       </c>
       <c r="G241" t="n">
         <v>973277300</v>
@@ -6013,7 +6013,7 @@
         <v>101.1999969482422</v>
       </c>
       <c r="F242" t="n">
-        <v>76.30120086669922</v>
+        <v>76.30119323730469</v>
       </c>
       <c r="G242" t="n">
         <v>951062600</v>
@@ -6036,7 +6036,7 @@
         <v>100.7900009155273</v>
       </c>
       <c r="F243" t="n">
-        <v>75.99207305908203</v>
+        <v>75.99205017089844</v>
       </c>
       <c r="G243" t="n">
         <v>883317700</v>
@@ -6059,7 +6059,7 @@
         <v>102.9700012207031</v>
       </c>
       <c r="F244" t="n">
-        <v>77.63571929931641</v>
+        <v>77.63571166992188</v>
       </c>
       <c r="G244" t="n">
         <v>1002678100</v>
@@ -6082,7 +6082,7 @@
         <v>103.379997253418</v>
       </c>
       <c r="F245" t="n">
-        <v>77.94483184814453</v>
+        <v>77.94482421875</v>
       </c>
       <c r="G245" t="n">
         <v>944464800</v>
@@ -6105,7 +6105,7 @@
         <v>102.0599975585938</v>
       </c>
       <c r="F246" t="n">
-        <v>76.9495849609375</v>
+        <v>76.94959259033203</v>
       </c>
       <c r="G246" t="n">
         <v>955393600</v>
@@ -6128,7 +6128,7 @@
         <v>104.7699966430664</v>
       </c>
       <c r="F247" t="n">
-        <v>78.99282836914062</v>
+        <v>78.99284362792969</v>
       </c>
       <c r="G247" t="n">
         <v>602784100</v>
@@ -6151,7 +6151,7 @@
         <v>106.7200012207031</v>
       </c>
       <c r="F248" t="n">
-        <v>80.46304321289062</v>
+        <v>80.46306610107422</v>
       </c>
       <c r="G248" t="n">
         <v>935766000</v>
@@ -6174,7 +6174,7 @@
         <v>104.4499969482422</v>
       </c>
       <c r="F249" t="n">
-        <v>79.12669372558594</v>
+        <v>79.12665557861328</v>
       </c>
       <c r="G249" t="n">
         <v>953661900</v>
@@ -6197,7 +6197,7 @@
         <v>102.4899978637695</v>
       </c>
       <c r="F250" t="n">
-        <v>77.64189147949219</v>
+        <v>77.64186096191406</v>
       </c>
       <c r="G250" t="n">
         <v>1012992100</v>
@@ -6243,7 +6243,7 @@
         <v>108.8899993896484</v>
       </c>
       <c r="F252" t="n">
-        <v>82.49021911621094</v>
+        <v>82.49024200439453</v>
       </c>
       <c r="G252" t="n">
         <v>833088300</v>
@@ -6266,7 +6266,7 @@
         <v>108.0800018310547</v>
       </c>
       <c r="F253" t="n">
-        <v>81.87660217285156</v>
+        <v>81.87660980224609</v>
       </c>
       <c r="G253" t="n">
         <v>1044308000</v>
@@ -6289,7 +6289,7 @@
         <v>103.5599975585938</v>
       </c>
       <c r="F254" t="n">
-        <v>78.45243835449219</v>
+        <v>78.45244598388672</v>
       </c>
       <c r="G254" t="n">
         <v>1267834600</v>
@@ -6312,7 +6312,7 @@
         <v>107.129997253418</v>
       </c>
       <c r="F255" t="n">
-        <v>81.15692138671875</v>
+        <v>81.15691375732422</v>
       </c>
       <c r="G255" t="n">
         <v>1081551600</v>
@@ -6335,7 +6335,7 @@
         <v>109.620002746582</v>
       </c>
       <c r="F256" t="n">
-        <v>83.04325866699219</v>
+        <v>83.04326629638672</v>
       </c>
       <c r="G256" t="n">
         <v>808969200</v>
@@ -6358,7 +6358,7 @@
         <v>109.4300003051758</v>
       </c>
       <c r="F257" t="n">
-        <v>82.89933776855469</v>
+        <v>82.89932250976562</v>
       </c>
       <c r="G257" t="n">
         <v>857473700</v>
@@ -6427,7 +6427,7 @@
         <v>111.1100006103516</v>
       </c>
       <c r="F260" t="n">
-        <v>84.17200469970703</v>
+        <v>84.17201232910156</v>
       </c>
       <c r="G260" t="n">
         <v>715769500</v>
@@ -6450,7 +6450,7 @@
         <v>110.2099990844727</v>
       </c>
       <c r="F261" t="n">
-        <v>83.49019622802734</v>
+        <v>83.49016571044922</v>
       </c>
       <c r="G261" t="n">
         <v>740889800</v>
@@ -6473,7 +6473,7 @@
         <v>112.4800033569336</v>
       </c>
       <c r="F262" t="n">
-        <v>85.66857147216797</v>
+        <v>85.66858673095703</v>
       </c>
       <c r="G262" t="n">
         <v>361207700</v>
@@ -6496,7 +6496,7 @@
         <v>111.4400024414062</v>
       </c>
       <c r="F263" t="n">
-        <v>84.87649536132812</v>
+        <v>84.87651062011719</v>
       </c>
       <c r="G263" t="n">
         <v>331857300</v>
@@ -6519,7 +6519,7 @@
         <v>114.5699996948242</v>
       </c>
       <c r="F264" t="n">
-        <v>87.26042175292969</v>
+        <v>87.26042938232422</v>
       </c>
       <c r="G264" t="n">
         <v>604092800</v>
@@ -6542,7 +6542,7 @@
         <v>113.6399993896484</v>
       </c>
       <c r="F265" t="n">
-        <v>86.55210113525391</v>
+        <v>86.55207061767578</v>
       </c>
       <c r="G265" t="n">
         <v>759533100</v>
@@ -6565,7 +6565,7 @@
         <v>109.2099990844727</v>
       </c>
       <c r="F266" t="n">
-        <v>83.17805480957031</v>
+        <v>83.17806243896484</v>
       </c>
       <c r="G266" t="n">
         <v>1046464900</v>
@@ -6588,7 +6588,7 @@
         <v>107.3899993896484</v>
       </c>
       <c r="F267" t="n">
-        <v>81.79187774658203</v>
+        <v>81.79185485839844</v>
       </c>
       <c r="G267" t="n">
         <v>1296751500</v>
@@ -6611,7 +6611,7 @@
         <v>106.6600036621094</v>
       </c>
       <c r="F268" t="n">
-        <v>81.23590087890625</v>
+        <v>81.23586273193359</v>
       </c>
       <c r="G268" t="n">
         <v>1427225100</v>
@@ -6634,7 +6634,7 @@
         <v>108.0400009155273</v>
       </c>
       <c r="F269" t="n">
-        <v>82.28693389892578</v>
+        <v>82.28694915771484</v>
       </c>
       <c r="G269" t="n">
         <v>1330712600</v>
@@ -6726,7 +6726,7 @@
         <v>115.4599990844727</v>
       </c>
       <c r="F273" t="n">
-        <v>87.93830108642578</v>
+        <v>87.93828582763672</v>
       </c>
       <c r="G273" t="n">
         <v>778142600</v>
@@ -6749,7 +6749,7 @@
         <v>115.9700012207031</v>
       </c>
       <c r="F274" t="n">
-        <v>88.32669067382812</v>
+        <v>88.32671356201172</v>
       </c>
       <c r="G274" t="n">
         <v>916108100</v>
@@ -6772,7 +6772,7 @@
         <v>116.5800018310547</v>
       </c>
       <c r="F275" t="n">
-        <v>89.15692901611328</v>
+        <v>89.15695190429688</v>
       </c>
       <c r="G275" t="n">
         <v>992696800</v>
@@ -6818,7 +6818,7 @@
         <v>119.5500030517578</v>
       </c>
       <c r="F277" t="n">
-        <v>91.42835998535156</v>
+        <v>91.42830657958984</v>
       </c>
       <c r="G277" t="n">
         <v>692518600</v>
@@ -6841,7 +6841,7 @@
         <v>119.3600006103516</v>
       </c>
       <c r="F278" t="n">
-        <v>91.28299713134766</v>
+        <v>91.28302764892578</v>
       </c>
       <c r="G278" t="n">
         <v>908333600</v>
@@ -6910,7 +6910,7 @@
         <v>111.2600021362305</v>
       </c>
       <c r="F281" t="n">
-        <v>85.08835601806641</v>
+        <v>85.08837127685547</v>
       </c>
       <c r="G281" t="n">
         <v>2156989900</v>
@@ -6933,7 +6933,7 @@
         <v>113.8899993896484</v>
       </c>
       <c r="F282" t="n">
-        <v>87.09972381591797</v>
+        <v>87.09968566894531</v>
       </c>
       <c r="G282" t="n">
         <v>1529670400</v>
@@ -6956,7 +6956,7 @@
         <v>109.1100006103516</v>
       </c>
       <c r="F283" t="n">
-        <v>83.44412231445312</v>
+        <v>83.444091796875</v>
       </c>
       <c r="G283" t="n">
         <v>2112367000</v>
@@ -6979,7 +6979,7 @@
         <v>109.370002746582</v>
       </c>
       <c r="F284" t="n">
-        <v>83.64295959472656</v>
+        <v>83.6429443359375</v>
       </c>
       <c r="G284" t="n">
         <v>1614851500</v>
@@ -7002,7 +7002,7 @@
         <v>106.8199996948242</v>
       </c>
       <c r="F285" t="n">
-        <v>81.69278717041016</v>
+        <v>81.69280242919922</v>
       </c>
       <c r="G285" t="n">
         <v>1143247000</v>
@@ -7025,7 +7025,7 @@
         <v>109.6800003051758</v>
       </c>
       <c r="F286" t="n">
-        <v>83.87999725341797</v>
+        <v>83.88003540039062</v>
       </c>
       <c r="G286" t="n">
         <v>1422425500</v>
@@ -7048,7 +7048,7 @@
         <v>111.7300033569336</v>
       </c>
       <c r="F287" t="n">
-        <v>85.44778442382812</v>
+        <v>85.44779968261719</v>
       </c>
       <c r="G287" t="n">
         <v>1099031200</v>
@@ -7071,7 +7071,7 @@
         <v>107.870002746582</v>
       </c>
       <c r="F288" t="n">
-        <v>82.88828277587891</v>
+        <v>82.88829803466797</v>
       </c>
       <c r="G288" t="n">
         <v>1214386100</v>
@@ -7094,7 +7094,7 @@
         <v>102.1999969482422</v>
       </c>
       <c r="F289" t="n">
-        <v>78.53142547607422</v>
+        <v>78.53144073486328</v>
       </c>
       <c r="G289" t="n">
         <v>1443279800</v>
@@ -7117,7 +7117,7 @@
         <v>107.9599990844727</v>
       </c>
       <c r="F290" t="n">
-        <v>82.95742797851562</v>
+        <v>82.95745849609375</v>
       </c>
       <c r="G290" t="n">
         <v>866546700</v>
@@ -7140,7 +7140,7 @@
         <v>106.6600036621094</v>
       </c>
       <c r="F291" t="n">
-        <v>81.95852661132812</v>
+        <v>81.95848846435547</v>
       </c>
       <c r="G291" t="n">
         <v>1043767600</v>
@@ -7163,7 +7163,7 @@
         <v>110.4100036621094</v>
       </c>
       <c r="F292" t="n">
-        <v>84.84004211425781</v>
+        <v>84.84007263183594</v>
       </c>
       <c r="G292" t="n">
         <v>1206200500</v>
@@ -7186,7 +7186,7 @@
         <v>110.2699966430664</v>
       </c>
       <c r="F293" t="n">
-        <v>84.73246765136719</v>
+        <v>84.73248291015625</v>
       </c>
       <c r="G293" t="n">
         <v>992577200</v>
@@ -7209,7 +7209,7 @@
         <v>112.3899993896484</v>
       </c>
       <c r="F294" t="n">
-        <v>86.36150360107422</v>
+        <v>86.36148071289062</v>
       </c>
       <c r="G294" t="n">
         <v>873294300</v>
@@ -7232,7 +7232,7 @@
         <v>108.3099975585938</v>
       </c>
       <c r="F295" t="n">
-        <v>83.22637939453125</v>
+        <v>83.22637176513672</v>
       </c>
       <c r="G295" t="n">
         <v>1035364700</v>
@@ -7278,7 +7278,7 @@
         <v>106.8600006103516</v>
       </c>
       <c r="F297" t="n">
-        <v>82.1121826171875</v>
+        <v>82.11217498779297</v>
       </c>
       <c r="G297" t="n">
         <v>1213491400</v>
@@ -7324,7 +7324,7 @@
         <v>111.4800033569336</v>
       </c>
       <c r="F299" t="n">
-        <v>85.66223907470703</v>
+        <v>85.66225433349609</v>
       </c>
       <c r="G299" t="n">
         <v>566735000</v>
@@ -7347,7 +7347,7 @@
         <v>112.4899978637695</v>
       </c>
       <c r="F300" t="n">
-        <v>86.43833923339844</v>
+        <v>86.43833160400391</v>
       </c>
       <c r="G300" t="n">
         <v>952735300</v>
@@ -7370,7 +7370,7 @@
         <v>114.8199996948242</v>
       </c>
       <c r="F301" t="n">
-        <v>88.70104217529297</v>
+        <v>88.7010498046875</v>
       </c>
       <c r="G301" t="n">
         <v>1086292800</v>
@@ -7416,7 +7416,7 @@
         <v>116.5400009155273</v>
       </c>
       <c r="F303" t="n">
-        <v>90.02979278564453</v>
+        <v>90.02981567382812</v>
       </c>
       <c r="G303" t="n">
         <v>887034000</v>
@@ -7439,7 +7439,7 @@
         <v>117.6999969482422</v>
       </c>
       <c r="F304" t="n">
-        <v>90.92595672607422</v>
+        <v>90.92592620849609</v>
       </c>
       <c r="G304" t="n">
         <v>941124800</v>
@@ -7485,7 +7485,7 @@
         <v>118.4899978637695</v>
       </c>
       <c r="F306" t="n">
-        <v>91.53621673583984</v>
+        <v>91.53620910644531</v>
       </c>
       <c r="G306" t="n">
         <v>813034100</v>
@@ -7508,7 +7508,7 @@
         <v>122.7200012207031</v>
       </c>
       <c r="F307" t="n">
-        <v>94.80400085449219</v>
+        <v>94.80399322509766</v>
       </c>
       <c r="G307" t="n">
         <v>954817000</v>
@@ -7531,7 +7531,7 @@
         <v>120.1999969482422</v>
       </c>
       <c r="F308" t="n">
-        <v>92.85723876953125</v>
+        <v>92.85723114013672</v>
       </c>
       <c r="G308" t="n">
         <v>961202500</v>
@@ -7554,7 +7554,7 @@
         <v>120.2900009155273</v>
       </c>
       <c r="F309" t="n">
-        <v>92.92677307128906</v>
+        <v>92.92676544189453</v>
       </c>
       <c r="G309" t="n">
         <v>990392500</v>
@@ -7600,7 +7600,7 @@
         <v>122.8899993896484</v>
       </c>
       <c r="F311" t="n">
-        <v>94.93531036376953</v>
+        <v>94.93534088134766</v>
       </c>
       <c r="G311" t="n">
         <v>1021112700</v>
@@ -7623,7 +7623,7 @@
         <v>124.4800033569336</v>
       </c>
       <c r="F312" t="n">
-        <v>96.16365814208984</v>
+        <v>96.16361999511719</v>
       </c>
       <c r="G312" t="n">
         <v>688927500</v>
@@ -7646,7 +7646,7 @@
         <v>124.3000030517578</v>
       </c>
       <c r="F313" t="n">
-        <v>96.02458953857422</v>
+        <v>96.02456665039062</v>
       </c>
       <c r="G313" t="n">
         <v>767995900</v>
@@ -7669,7 +7669,7 @@
         <v>125.5999984741211</v>
       </c>
       <c r="F314" t="n">
-        <v>97.53913879394531</v>
+        <v>97.53913116455078</v>
       </c>
       <c r="G314" t="n">
         <v>362982800</v>
@@ -7692,7 +7692,7 @@
         <v>125.75</v>
       </c>
       <c r="F315" t="n">
-        <v>97.65564727783203</v>
+        <v>97.65562438964844</v>
       </c>
       <c r="G315" t="n">
         <v>339304000</v>
@@ -7715,7 +7715,7 @@
         <v>127.1399993896484</v>
       </c>
       <c r="F316" t="n">
-        <v>98.73507690429688</v>
+        <v>98.73509216308594</v>
       </c>
       <c r="G316" t="n">
         <v>688663800</v>
@@ -7738,7 +7738,7 @@
         <v>129.3000030517578</v>
       </c>
       <c r="F317" t="n">
-        <v>100.4125289916992</v>
+        <v>100.412483215332</v>
       </c>
       <c r="G317" t="n">
         <v>587344200</v>
@@ -7761,7 +7761,7 @@
         <v>128.3699951171875</v>
       </c>
       <c r="F318" t="n">
-        <v>99.69028472900391</v>
+        <v>99.69029235839844</v>
       </c>
       <c r="G318" t="n">
         <v>593568300</v>
@@ -7784,7 +7784,7 @@
         <v>127.7200012207031</v>
       </c>
       <c r="F319" t="n">
-        <v>99.18550109863281</v>
+        <v>99.18552398681641</v>
       </c>
       <c r="G319" t="n">
         <v>841489200</v>
@@ -7830,7 +7830,7 @@
         <v>133.1100006103516</v>
       </c>
       <c r="F321" t="n">
-        <v>103.3713455200195</v>
+        <v>103.3713150024414</v>
       </c>
       <c r="G321" t="n">
         <v>658367400</v>
@@ -7853,7 +7853,7 @@
         <v>134.5299987792969</v>
       </c>
       <c r="F322" t="n">
-        <v>104.4740447998047</v>
+        <v>104.4740219116211</v>
       </c>
       <c r="G322" t="n">
         <v>591262500</v>
@@ -7876,7 +7876,7 @@
         <v>132.3300018310547</v>
       </c>
       <c r="F323" t="n">
-        <v>102.7656021118164</v>
+        <v>102.7655868530273</v>
       </c>
       <c r="G323" t="n">
         <v>862818700</v>
@@ -7899,7 +7899,7 @@
         <v>132.4700012207031</v>
       </c>
       <c r="F324" t="n">
-        <v>102.8742828369141</v>
+        <v>102.8743133544922</v>
       </c>
       <c r="G324" t="n">
         <v>1054110800</v>
@@ -7945,7 +7945,7 @@
         <v>127.7600021362305</v>
       </c>
       <c r="F326" t="n">
-        <v>99.21658325195312</v>
+        <v>99.216552734375</v>
       </c>
       <c r="G326" t="n">
         <v>1547968900</v>
@@ -7968,7 +7968,7 @@
         <v>131.3000030517578</v>
       </c>
       <c r="F327" t="n">
-        <v>102.4086380004883</v>
+        <v>102.4086074829102</v>
       </c>
       <c r="G327" t="n">
         <v>746906900</v>
@@ -7991,7 +7991,7 @@
         <v>133.1499938964844</v>
       </c>
       <c r="F328" t="n">
-        <v>103.8515548706055</v>
+        <v>103.8516006469727</v>
       </c>
       <c r="G328" t="n">
         <v>661783400</v>
@@ -8014,7 +8014,7 @@
         <v>132.8600006103516</v>
       </c>
       <c r="F329" t="n">
-        <v>103.6253662109375</v>
+        <v>103.6253509521484</v>
       </c>
       <c r="G329" t="n">
         <v>660648900</v>
@@ -8037,7 +8037,7 @@
         <v>132.0399932861328</v>
       </c>
       <c r="F330" t="n">
-        <v>102.9858016967773</v>
+        <v>102.9857635498047</v>
       </c>
       <c r="G330" t="n">
         <v>775858900</v>
@@ -8060,7 +8060,7 @@
         <v>133.7799987792969</v>
       </c>
       <c r="F331" t="n">
-        <v>104.3429565429688</v>
+        <v>104.3429260253906</v>
       </c>
       <c r="G331" t="n">
         <v>627087300</v>
@@ -8083,7 +8083,7 @@
         <v>136.4299926757812</v>
       </c>
       <c r="F332" t="n">
-        <v>106.4098205566406</v>
+        <v>106.4098129272461</v>
       </c>
       <c r="G332" t="n">
         <v>595273300</v>
@@ -8106,7 +8106,7 @@
         <v>134.1999969482422</v>
       </c>
       <c r="F333" t="n">
-        <v>104.670524597168</v>
+        <v>104.6704940795898</v>
       </c>
       <c r="G333" t="n">
         <v>897019400</v>
@@ -8129,7 +8129,7 @@
         <v>134.0399932861328</v>
       </c>
       <c r="F334" t="n">
-        <v>104.5457382202148</v>
+        <v>104.5457229614258</v>
       </c>
       <c r="G334" t="n">
         <v>751471200</v>
@@ -8152,7 +8152,7 @@
         <v>133.6100006103516</v>
       </c>
       <c r="F335" t="n">
-        <v>104.2103271484375</v>
+        <v>104.210334777832</v>
       </c>
       <c r="G335" t="n">
         <v>771663900</v>
@@ -8175,7 +8175,7 @@
         <v>133.5099945068359</v>
       </c>
       <c r="F336" t="n">
-        <v>104.1323318481445</v>
+        <v>104.1323471069336</v>
       </c>
       <c r="G336" t="n">
         <v>752721600</v>
@@ -8198,7 +8198,7 @@
         <v>130.4199981689453</v>
       </c>
       <c r="F337" t="n">
-        <v>101.722297668457</v>
+        <v>101.7222671508789</v>
       </c>
       <c r="G337" t="n">
         <v>832982500</v>
@@ -8244,7 +8244,7 @@
         <v>127.0500030517578</v>
       </c>
       <c r="F339" t="n">
-        <v>99.09381103515625</v>
+        <v>99.09382629394531</v>
       </c>
       <c r="G339" t="n">
         <v>1210445900</v>
@@ -8267,7 +8267,7 @@
         <v>126.8099975585938</v>
       </c>
       <c r="F340" t="n">
-        <v>99.39698028564453</v>
+        <v>99.39696502685547</v>
       </c>
       <c r="G340" t="n">
         <v>1089755100</v>
@@ -8290,7 +8290,7 @@
         <v>133.9199981689453</v>
       </c>
       <c r="F341" t="n">
-        <v>104.9699859619141</v>
+        <v>104.969970703125</v>
       </c>
       <c r="G341" t="n">
         <v>1004464900</v>
@@ -8313,7 +8313,7 @@
         <v>134.3999938964844</v>
       </c>
       <c r="F342" t="n">
-        <v>105.3461990356445</v>
+        <v>105.3462066650391</v>
       </c>
       <c r="G342" t="n">
         <v>673832300</v>
@@ -8359,7 +8359,7 @@
         <v>134.5800018310547</v>
       </c>
       <c r="F344" t="n">
-        <v>105.4872817993164</v>
+        <v>105.4872894287109</v>
       </c>
       <c r="G344" t="n">
         <v>871838100</v>
@@ -8382,7 +8382,7 @@
         <v>129.3300018310547</v>
       </c>
       <c r="F345" t="n">
-        <v>101.372200012207</v>
+        <v>101.3722076416016</v>
       </c>
       <c r="G345" t="n">
         <v>1031930400</v>
@@ -8405,7 +8405,7 @@
         <v>120.0800018310547</v>
       </c>
       <c r="F346" t="n">
-        <v>94.121826171875</v>
+        <v>94.12184906005859</v>
       </c>
       <c r="G346" t="n">
         <v>2219616500</v>
@@ -8451,7 +8451,7 @@
         <v>112.6399993896484</v>
       </c>
       <c r="F348" t="n">
-        <v>88.29014587402344</v>
+        <v>88.2901611328125</v>
       </c>
       <c r="G348" t="n">
         <v>1732344500</v>
@@ -8474,7 +8474,7 @@
         <v>117.9700012207031</v>
       </c>
       <c r="F349" t="n">
-        <v>92.46796417236328</v>
+        <v>92.46795654296875</v>
       </c>
       <c r="G349" t="n">
         <v>1479958200</v>
@@ -8497,7 +8497,7 @@
         <v>117.8499984741211</v>
       </c>
       <c r="F350" t="n">
-        <v>92.37389373779297</v>
+        <v>92.3739013671875</v>
       </c>
       <c r="G350" t="n">
         <v>1244224400</v>
@@ -8520,7 +8520,7 @@
         <v>115.9199981689453</v>
       </c>
       <c r="F351" t="n">
-        <v>90.86111450195312</v>
+        <v>90.86109161376953</v>
       </c>
       <c r="G351" t="n">
         <v>1125697000</v>
@@ -8543,7 +8543,7 @@
         <v>121.5199966430664</v>
       </c>
       <c r="F352" t="n">
-        <v>95.25051879882812</v>
+        <v>95.25050354003906</v>
       </c>
       <c r="G352" t="n">
         <v>1509003200</v>
@@ -8566,7 +8566,7 @@
         <v>113.5400009155273</v>
       </c>
       <c r="F353" t="n">
-        <v>89.45603942871094</v>
+        <v>89.45604705810547</v>
       </c>
       <c r="G353" t="n">
         <v>1597854300</v>
@@ -8589,7 +8589,7 @@
         <v>113.1500015258789</v>
       </c>
       <c r="F354" t="n">
-        <v>89.14878082275391</v>
+        <v>89.14875793457031</v>
       </c>
       <c r="G354" t="n">
         <v>1445625600</v>
@@ -8612,7 +8612,7 @@
         <v>115.7099990844727</v>
       </c>
       <c r="F355" t="n">
-        <v>91.16572570800781</v>
+        <v>91.16573333740234</v>
       </c>
       <c r="G355" t="n">
         <v>1678881000</v>
@@ -8635,7 +8635,7 @@
         <v>122.5699996948242</v>
       </c>
       <c r="F356" t="n">
-        <v>96.57059478759766</v>
+        <v>96.57057189941406</v>
       </c>
       <c r="G356" t="n">
         <v>1145235600</v>
@@ -8681,7 +8681,7 @@
         <v>128.6000061035156</v>
       </c>
       <c r="F358" t="n">
-        <v>101.3215179443359</v>
+        <v>101.3214950561523</v>
       </c>
       <c r="G358" t="n">
         <v>1379992900</v>
@@ -8704,7 +8704,7 @@
         <v>125.4800033569336</v>
       </c>
       <c r="F359" t="n">
-        <v>98.86334228515625</v>
+        <v>98.86335754394531</v>
       </c>
       <c r="G359" t="n">
         <v>1430006500</v>
@@ -8727,7 +8727,7 @@
         <v>126.6600036621094</v>
       </c>
       <c r="F360" t="n">
-        <v>99.79303741455078</v>
+        <v>99.79302978515625</v>
       </c>
       <c r="G360" t="n">
         <v>1180816400</v>
@@ -8750,7 +8750,7 @@
         <v>121.9800033569336</v>
       </c>
       <c r="F361" t="n">
-        <v>96.10576629638672</v>
+        <v>96.10577392578125</v>
       </c>
       <c r="G361" t="n">
         <v>1126550200</v>
@@ -8773,7 +8773,7 @@
         <v>116.3399963378906</v>
       </c>
       <c r="F362" t="n">
-        <v>91.66209411621094</v>
+        <v>91.66212463378906</v>
       </c>
       <c r="G362" t="n">
         <v>769992600</v>
@@ -8796,7 +8796,7 @@
         <v>124.8600006103516</v>
       </c>
       <c r="F363" t="n">
-        <v>98.37483978271484</v>
+        <v>98.37485504150391</v>
       </c>
       <c r="G363" t="n">
         <v>1132431500</v>
@@ -8842,7 +8842,7 @@
         <v>121.5899963378906</v>
       </c>
       <c r="F365" t="n">
-        <v>95.7984619140625</v>
+        <v>95.79845428466797</v>
       </c>
       <c r="G365" t="n">
         <v>1119195300</v>
@@ -8865,7 +8865,7 @@
         <v>126.3899993896484</v>
       </c>
       <c r="F366" t="n">
-        <v>100.2118606567383</v>
+        <v>100.2118682861328</v>
       </c>
       <c r="G366" t="n">
         <v>815204600</v>
@@ -8888,7 +8888,7 @@
         <v>125.5</v>
       </c>
       <c r="F367" t="n">
-        <v>99.50619506835938</v>
+        <v>99.50617980957031</v>
       </c>
       <c r="G367" t="n">
         <v>424289000</v>
@@ -8911,7 +8911,7 @@
         <v>127.7099990844727</v>
       </c>
       <c r="F368" t="n">
-        <v>101.2584533691406</v>
+        <v>101.2584609985352</v>
       </c>
       <c r="G368" t="n">
         <v>642829400</v>
@@ -8934,7 +8934,7 @@
         <v>128.8399963378906</v>
       </c>
       <c r="F369" t="n">
-        <v>102.1543960571289</v>
+        <v>102.154426574707</v>
       </c>
       <c r="G369" t="n">
         <v>625172800</v>
@@ -8957,7 +8957,7 @@
         <v>131.9499969482422</v>
       </c>
       <c r="F370" t="n">
-        <v>104.620246887207</v>
+        <v>104.6202545166016</v>
       </c>
       <c r="G370" t="n">
         <v>560163500</v>
@@ -8980,7 +8980,7 @@
         <v>131.8200073242188</v>
       </c>
       <c r="F371" t="n">
-        <v>104.5171966552734</v>
+        <v>104.5172119140625</v>
       </c>
       <c r="G371" t="n">
         <v>751131900</v>
@@ -9003,7 +9003,7 @@
         <v>134.5399932861328</v>
       </c>
       <c r="F372" t="n">
-        <v>106.6738204956055</v>
+        <v>106.6737976074219</v>
       </c>
       <c r="G372" t="n">
         <v>744447200</v>
@@ -9026,7 +9026,7 @@
         <v>134.3600006103516</v>
       </c>
       <c r="F373" t="n">
-        <v>106.5311050415039</v>
+        <v>106.5310821533203</v>
       </c>
       <c r="G373" t="n">
         <v>699094400</v>
@@ -9049,7 +9049,7 @@
         <v>136.4100036621094</v>
       </c>
       <c r="F374" t="n">
-        <v>108.1564788818359</v>
+        <v>108.156494140625</v>
       </c>
       <c r="G374" t="n">
         <v>792803700</v>
@@ -9072,7 +9072,7 @@
         <v>136.9299926757812</v>
       </c>
       <c r="F375" t="n">
-        <v>108.5687789916992</v>
+        <v>108.5688171386719</v>
       </c>
       <c r="G375" t="n">
         <v>501741000</v>
@@ -9095,7 +9095,7 @@
         <v>137.3099975585938</v>
       </c>
       <c r="F376" t="n">
-        <v>108.8701095581055</v>
+        <v>108.8700561523438</v>
       </c>
       <c r="G376" t="n">
         <v>726681300</v>
@@ -9118,7 +9118,7 @@
         <v>137.5700073242188</v>
       </c>
       <c r="F377" t="n">
-        <v>109.0762405395508</v>
+        <v>109.0762329101562</v>
       </c>
       <c r="G377" t="n">
         <v>726392800</v>
@@ -9164,7 +9164,7 @@
         <v>139.6499938964844</v>
       </c>
       <c r="F379" t="n">
-        <v>111.2106475830078</v>
+        <v>111.2106628417969</v>
       </c>
       <c r="G379" t="n">
         <v>625146900</v>
@@ -9187,7 +9187,7 @@
         <v>140.8099975585938</v>
       </c>
       <c r="F380" t="n">
-        <v>112.1344223022461</v>
+        <v>112.1344451904297</v>
       </c>
       <c r="G380" t="n">
         <v>689045100</v>
@@ -9210,7 +9210,7 @@
         <v>139.7899932861328</v>
       </c>
       <c r="F381" t="n">
-        <v>111.3221282958984</v>
+        <v>111.3221054077148</v>
       </c>
       <c r="G381" t="n">
         <v>591883200</v>
@@ -9233,7 +9233,7 @@
         <v>137.1399993896484</v>
       </c>
       <c r="F382" t="n">
-        <v>109.2118225097656</v>
+        <v>109.2118072509766</v>
       </c>
       <c r="G382" t="n">
         <v>840617400</v>
@@ -9256,7 +9256,7 @@
         <v>137.9499969482422</v>
       </c>
       <c r="F383" t="n">
-        <v>109.856819152832</v>
+        <v>109.8568572998047</v>
       </c>
       <c r="G383" t="n">
         <v>761453400</v>
@@ -9279,7 +9279,7 @@
         <v>140.3899993896484</v>
       </c>
       <c r="F384" t="n">
-        <v>111.7999496459961</v>
+        <v>111.7999649047852</v>
       </c>
       <c r="G384" t="n">
         <v>726597900</v>
@@ -9302,7 +9302,7 @@
         <v>137</v>
       </c>
       <c r="F385" t="n">
-        <v>109.1003036499023</v>
+        <v>109.1003189086914</v>
       </c>
       <c r="G385" t="n">
         <v>712692400</v>
@@ -9325,7 +9325,7 @@
         <v>135.6100006103516</v>
       </c>
       <c r="F386" t="n">
-        <v>107.9934158325195</v>
+        <v>107.9933929443359</v>
       </c>
       <c r="G386" t="n">
         <v>865528500</v>
@@ -9348,7 +9348,7 @@
         <v>129.7400054931641</v>
       </c>
       <c r="F387" t="n">
-        <v>103.3187866210938</v>
+        <v>103.3188171386719</v>
       </c>
       <c r="G387" t="n">
         <v>1146413600</v>
@@ -9371,7 +9371,7 @@
         <v>132.1000061035156</v>
       </c>
       <c r="F388" t="n">
-        <v>105.1982040405273</v>
+        <v>105.1982269287109</v>
       </c>
       <c r="G388" t="n">
         <v>883173900</v>
@@ -9394,7 +9394,7 @@
         <v>128.1600036621094</v>
       </c>
       <c r="F389" t="n">
-        <v>102.0605850219727</v>
+        <v>102.0605621337891</v>
       </c>
       <c r="G389" t="n">
         <v>764680800</v>
@@ -9417,7 +9417,7 @@
         <v>133.1000061035156</v>
       </c>
       <c r="F390" t="n">
-        <v>105.9945755004883</v>
+        <v>105.9945602416992</v>
       </c>
       <c r="G390" t="n">
         <v>879586100</v>
@@ -9440,7 +9440,7 @@
         <v>134.1399993896484</v>
       </c>
       <c r="F391" t="n">
-        <v>106.82275390625</v>
+        <v>106.8227386474609</v>
       </c>
       <c r="G391" t="n">
         <v>923971800</v>
@@ -9463,7 +9463,7 @@
         <v>133.4600067138672</v>
       </c>
       <c r="F392" t="n">
-        <v>106.8319396972656</v>
+        <v>106.8319549560547</v>
       </c>
       <c r="G392" t="n">
         <v>810496700</v>
@@ -9486,7 +9486,7 @@
         <v>136.1000061035156</v>
       </c>
       <c r="F393" t="n">
-        <v>108.9452133178711</v>
+        <v>108.9452056884766</v>
       </c>
       <c r="G393" t="n">
         <v>777590700</v>
@@ -9509,7 +9509,7 @@
         <v>135.4900054931641</v>
       </c>
       <c r="F394" t="n">
-        <v>108.4568939208984</v>
+        <v>108.4568634033203</v>
       </c>
       <c r="G394" t="n">
         <v>487344100</v>
@@ -9532,7 +9532,7 @@
         <v>135.75</v>
       </c>
       <c r="F395" t="n">
-        <v>108.6650466918945</v>
+        <v>108.6650390625</v>
       </c>
       <c r="G395" t="n">
         <v>686624500</v>
@@ -9601,7 +9601,7 @@
         <v>139.3500061035156</v>
       </c>
       <c r="F398" t="n">
-        <v>111.5467758178711</v>
+        <v>111.546745300293</v>
       </c>
       <c r="G398" t="n">
         <v>723033300</v>
@@ -9624,7 +9624,7 @@
         <v>140.8399963378906</v>
       </c>
       <c r="F399" t="n">
-        <v>112.7394866943359</v>
+        <v>112.7394485473633</v>
       </c>
       <c r="G399" t="n">
         <v>475710400</v>
@@ -9647,7 +9647,7 @@
         <v>142.1799926757812</v>
       </c>
       <c r="F400" t="n">
-        <v>113.8120956420898</v>
+        <v>113.8121109008789</v>
       </c>
       <c r="G400" t="n">
         <v>455720100</v>
@@ -9670,7 +9670,7 @@
         <v>141.5099945068359</v>
       </c>
       <c r="F401" t="n">
-        <v>113.2757720947266</v>
+        <v>113.2758102416992</v>
       </c>
       <c r="G401" t="n">
         <v>528027900</v>
@@ -9693,7 +9693,7 @@
         <v>141.1600036621094</v>
       </c>
       <c r="F402" t="n">
-        <v>112.9956359863281</v>
+        <v>112.9956130981445</v>
       </c>
       <c r="G402" t="n">
         <v>458457100</v>
@@ -9716,7 +9716,7 @@
         <v>144.3300018310547</v>
       </c>
       <c r="F403" t="n">
-        <v>115.5331649780273</v>
+        <v>115.5331268310547</v>
       </c>
       <c r="G403" t="n">
         <v>486431100</v>
@@ -9739,7 +9739,7 @@
         <v>147.2400054931641</v>
       </c>
       <c r="F404" t="n">
-        <v>117.8625106811523</v>
+        <v>117.8625183105469</v>
       </c>
       <c r="G404" t="n">
         <v>658106600</v>
@@ -9762,7 +9762,7 @@
         <v>145.8699951171875</v>
       </c>
       <c r="F405" t="n">
-        <v>116.7658767700195</v>
+        <v>116.7658843994141</v>
       </c>
       <c r="G405" t="n">
         <v>608820000</v>
@@ -9785,7 +9785,7 @@
         <v>143.9700012207031</v>
       </c>
       <c r="F406" t="n">
-        <v>115.8601608276367</v>
+        <v>115.8601837158203</v>
       </c>
       <c r="G406" t="n">
         <v>637875800</v>
@@ -9808,7 +9808,7 @@
         <v>146.1399993896484</v>
       </c>
       <c r="F407" t="n">
-        <v>117.6065216064453</v>
+        <v>117.6064758300781</v>
       </c>
       <c r="G407" t="n">
         <v>619770200</v>
@@ -9831,7 +9831,7 @@
         <v>142.8899993896484</v>
       </c>
       <c r="F408" t="n">
-        <v>114.9910354614258</v>
+        <v>114.9910583496094</v>
       </c>
       <c r="G408" t="n">
         <v>599319200</v>
@@ -9854,7 +9854,7 @@
         <v>143.3899993896484</v>
       </c>
       <c r="F409" t="n">
-        <v>115.3933944702148</v>
+        <v>115.3934173583984</v>
       </c>
       <c r="G409" t="n">
         <v>679092400</v>
@@ -9877,7 +9877,7 @@
         <v>141.3500061035156</v>
       </c>
       <c r="F410" t="n">
-        <v>113.7517318725586</v>
+        <v>113.7517166137695</v>
       </c>
       <c r="G410" t="n">
         <v>718295200</v>
@@ -9900,7 +9900,7 @@
         <v>141.5599975585938</v>
       </c>
       <c r="F411" t="n">
-        <v>113.9207000732422</v>
+        <v>113.9207382202148</v>
       </c>
       <c r="G411" t="n">
         <v>342136300</v>
@@ -9923,7 +9923,7 @@
         <v>138.1600036621094</v>
       </c>
       <c r="F412" t="n">
-        <v>111.1845779418945</v>
+        <v>111.1845321655273</v>
       </c>
       <c r="G412" t="n">
         <v>852323700</v>
@@ -9946,7 +9946,7 @@
         <v>136.3699951171875</v>
       </c>
       <c r="F413" t="n">
-        <v>109.7440414428711</v>
+        <v>109.744026184082</v>
       </c>
       <c r="G413" t="n">
         <v>829813100</v>
@@ -9969,7 +9969,7 @@
         <v>141.3500061035156</v>
       </c>
       <c r="F414" t="n">
-        <v>113.7517318725586</v>
+        <v>113.7517166137695</v>
       </c>
       <c r="G414" t="n">
         <v>418423200</v>
@@ -9992,7 +9992,7 @@
         <v>142.1499938964844</v>
       </c>
       <c r="F415" t="n">
-        <v>114.3954849243164</v>
+        <v>114.3955154418945</v>
       </c>
       <c r="G415" t="n">
         <v>693511300</v>
@@ -10015,7 +10015,7 @@
         <v>142.4100036621094</v>
       </c>
       <c r="F416" t="n">
-        <v>114.604736328125</v>
+        <v>114.6047439575195</v>
       </c>
       <c r="G416" t="n">
         <v>611416000</v>
@@ -10038,7 +10038,7 @@
         <v>142.1000061035156</v>
       </c>
       <c r="F417" t="n">
-        <v>114.3553237915039</v>
+        <v>114.3552627563477</v>
       </c>
       <c r="G417" t="n">
         <v>670707900</v>
@@ -10061,7 +10061,7 @@
         <v>142.7899932861328</v>
       </c>
       <c r="F418" t="n">
-        <v>114.9105911254883</v>
+        <v>114.9104843139648</v>
       </c>
       <c r="G418" t="n">
         <v>886267200</v>
@@ -10084,7 +10084,7 @@
         <v>140.0299987792969</v>
       </c>
       <c r="F419" t="n">
-        <v>113.4886932373047</v>
+        <v>113.4887084960938</v>
       </c>
       <c r="G419" t="n">
         <v>477549600</v>
@@ -10107,7 +10107,7 @@
         <v>146.3699951171875</v>
       </c>
       <c r="F420" t="n">
-        <v>118.6269912719727</v>
+        <v>118.6270141601562</v>
       </c>
       <c r="G420" t="n">
         <v>697573700</v>
@@ -10130,7 +10130,7 @@
         <v>147.0700073242188</v>
       </c>
       <c r="F421" t="n">
-        <v>119.1943206787109</v>
+        <v>119.1943054199219</v>
       </c>
       <c r="G421" t="n">
         <v>566665900</v>
@@ -10153,7 +10153,7 @@
         <v>148.3300018310547</v>
       </c>
       <c r="F422" t="n">
-        <v>120.2154922485352</v>
+        <v>120.2155075073242</v>
       </c>
       <c r="G422" t="n">
         <v>591328800</v>
@@ -10199,7 +10199,7 @@
         <v>151.2400054931641</v>
       </c>
       <c r="F424" t="n">
-        <v>122.5739288330078</v>
+        <v>122.5738906860352</v>
       </c>
       <c r="G424" t="n">
         <v>596648600</v>
@@ -10222,7 +10222,7 @@
         <v>151.8000030517578</v>
       </c>
       <c r="F425" t="n">
-        <v>123.0277786254883</v>
+        <v>123.0278167724609</v>
       </c>
       <c r="G425" t="n">
         <v>677372500</v>
@@ -10268,7 +10268,7 @@
         <v>151.8899993896484</v>
       </c>
       <c r="F427" t="n">
-        <v>123.1007080078125</v>
+        <v>123.100715637207</v>
       </c>
       <c r="G427" t="n">
         <v>545293800</v>
@@ -10314,7 +10314,7 @@
         <v>155.4400024414062</v>
       </c>
       <c r="F429" t="n">
-        <v>125.9778823852539</v>
+        <v>125.9778442382812</v>
       </c>
       <c r="G429" t="n">
         <v>524491200</v>
@@ -10337,7 +10337,7 @@
         <v>155.8300018310547</v>
       </c>
       <c r="F430" t="n">
-        <v>126.2939910888672</v>
+        <v>126.2939529418945</v>
       </c>
       <c r="G430" t="n">
         <v>546984500</v>
@@ -10360,7 +10360,7 @@
         <v>155.6000061035156</v>
       </c>
       <c r="F431" t="n">
-        <v>126.6684188842773</v>
+        <v>126.6684265136719</v>
       </c>
       <c r="G431" t="n">
         <v>647799500</v>
@@ -10383,7 +10383,7 @@
         <v>156.6699981689453</v>
       </c>
       <c r="F432" t="n">
-        <v>127.5393905639648</v>
+        <v>127.5394744873047</v>
       </c>
       <c r="G432" t="n">
         <v>441062300</v>
@@ -10406,7 +10406,7 @@
         <v>155.1600036621094</v>
       </c>
       <c r="F433" t="n">
-        <v>126.310173034668</v>
+        <v>126.3102569580078</v>
       </c>
       <c r="G433" t="n">
         <v>646416800</v>
@@ -10429,7 +10429,7 @@
         <v>158.8000030517578</v>
       </c>
       <c r="F434" t="n">
-        <v>129.2733917236328</v>
+        <v>129.2734680175781</v>
       </c>
       <c r="G434" t="n">
         <v>550706900</v>
@@ -10452,7 +10452,7 @@
         <v>155.4799957275391</v>
       </c>
       <c r="F435" t="n">
-        <v>126.5707168579102</v>
+        <v>126.5707244873047</v>
       </c>
       <c r="G435" t="n">
         <v>908872400</v>
@@ -10475,7 +10475,7 @@
         <v>158.2400054931641</v>
       </c>
       <c r="F436" t="n">
-        <v>128.8176116943359</v>
+        <v>128.8175201416016</v>
       </c>
       <c r="G436" t="n">
         <v>596455400</v>
@@ -10498,7 +10498,7 @@
         <v>161.3699951171875</v>
       </c>
       <c r="F437" t="n">
-        <v>131.3656005859375</v>
+        <v>131.3655853271484</v>
       </c>
       <c r="G437" t="n">
         <v>584067600</v>
@@ -10521,7 +10521,7 @@
         <v>163.4100036621094</v>
       </c>
       <c r="F438" t="n">
-        <v>133.0262451171875</v>
+        <v>133.0262603759766</v>
       </c>
       <c r="G438" t="n">
         <v>464602100</v>
@@ -10544,7 +10544,7 @@
         <v>166.9400024414062</v>
       </c>
       <c r="F439" t="n">
-        <v>135.8999481201172</v>
+        <v>135.89990234375</v>
       </c>
       <c r="G439" t="n">
         <v>561277200</v>
@@ -10567,7 +10567,7 @@
         <v>165.3099975585938</v>
       </c>
       <c r="F440" t="n">
-        <v>134.5729675292969</v>
+        <v>134.5729827880859</v>
       </c>
       <c r="G440" t="n">
         <v>787545500</v>
@@ -10590,7 +10590,7 @@
         <v>163.4499969482422</v>
       </c>
       <c r="F441" t="n">
-        <v>133.0587615966797</v>
+        <v>133.0588073730469</v>
       </c>
       <c r="G441" t="n">
         <v>588687100</v>
@@ -10613,7 +10613,7 @@
         <v>164.8000030517578</v>
       </c>
       <c r="F442" t="n">
-        <v>134.1577606201172</v>
+        <v>134.1577911376953</v>
       </c>
       <c r="G442" t="n">
         <v>926323300</v>
@@ -10636,7 +10636,7 @@
         <v>163.1799926757812</v>
       </c>
       <c r="F443" t="n">
-        <v>132.8390502929688</v>
+        <v>132.8390045166016</v>
       </c>
       <c r="G443" t="n">
         <v>747319300</v>
@@ -10659,7 +10659,7 @@
         <v>159.0700073242188</v>
       </c>
       <c r="F444" t="n">
-        <v>129.4932861328125</v>
+        <v>129.4932708740234</v>
       </c>
       <c r="G444" t="n">
         <v>1050353400</v>
@@ -10682,7 +10682,7 @@
         <v>160.4199981689453</v>
       </c>
       <c r="F445" t="n">
-        <v>131.283203125</v>
+        <v>131.2832489013672</v>
       </c>
       <c r="G445" t="n">
         <v>809325800</v>
@@ -10705,7 +10705,7 @@
         <v>163.0200042724609</v>
       </c>
       <c r="F446" t="n">
-        <v>133.4109802246094</v>
+        <v>133.4110412597656</v>
       </c>
       <c r="G446" t="n">
         <v>484451800</v>
@@ -10728,7 +10728,7 @@
         <v>167.5099945068359</v>
       </c>
       <c r="F447" t="n">
-        <v>137.08544921875</v>
+        <v>137.0854644775391</v>
       </c>
       <c r="G447" t="n">
         <v>588605500</v>
@@ -10774,7 +10774,7 @@
         <v>169.1100006103516</v>
       </c>
       <c r="F449" t="n">
-        <v>138.3948516845703</v>
+        <v>138.3948822021484</v>
       </c>
       <c r="G449" t="n">
         <v>492075500</v>
@@ -10797,7 +10797,7 @@
         <v>170.9499969482422</v>
       </c>
       <c r="F450" t="n">
-        <v>139.9006652832031</v>
+        <v>139.9007263183594</v>
       </c>
       <c r="G450" t="n">
         <v>508848400</v>
@@ -10843,7 +10843,7 @@
         <v>165.8300018310547</v>
       </c>
       <c r="F452" t="n">
-        <v>135.7106170654297</v>
+        <v>135.7105712890625</v>
       </c>
       <c r="G452" t="n">
         <v>513028500</v>
@@ -10866,7 +10866,7 @@
         <v>166.6199951171875</v>
       </c>
       <c r="F453" t="n">
-        <v>136.3571624755859</v>
+        <v>136.3570709228516</v>
       </c>
       <c r="G453" t="n">
         <v>537622800</v>
@@ -10889,7 +10889,7 @@
         <v>163.6499938964844</v>
       </c>
       <c r="F454" t="n">
-        <v>133.9265594482422</v>
+        <v>133.9266204833984</v>
       </c>
       <c r="G454" t="n">
         <v>610563900</v>
@@ -10912,7 +10912,7 @@
         <v>166.0399932861328</v>
       </c>
       <c r="F455" t="n">
-        <v>135.8825073242188</v>
+        <v>135.8824310302734</v>
       </c>
       <c r="G455" t="n">
         <v>462611500</v>
@@ -10958,7 +10958,7 @@
         <v>170.7200012207031</v>
       </c>
       <c r="F457" t="n">
-        <v>139.7124481201172</v>
+        <v>139.7124328613281</v>
       </c>
       <c r="G457" t="n">
         <v>671767100</v>
@@ -10981,7 +10981,7 @@
         <v>168.9100036621094</v>
       </c>
       <c r="F458" t="n">
-        <v>138.9049682617188</v>
+        <v>138.9049987792969</v>
       </c>
       <c r="G458" t="n">
         <v>504544800</v>
@@ -11004,7 +11004,7 @@
         <v>168.8899993896484</v>
       </c>
       <c r="F459" t="n">
-        <v>138.8884887695312</v>
+        <v>138.8885650634766</v>
       </c>
       <c r="G459" t="n">
         <v>658023000</v>
@@ -11027,7 +11027,7 @@
         <v>170.2599945068359</v>
       </c>
       <c r="F460" t="n">
-        <v>140.0152130126953</v>
+        <v>140.0151519775391</v>
       </c>
       <c r="G460" t="n">
         <v>744278000</v>
@@ -11050,7 +11050,7 @@
         <v>174.3899993896484</v>
       </c>
       <c r="F461" t="n">
-        <v>143.4114837646484</v>
+        <v>143.4115142822266</v>
       </c>
       <c r="G461" t="n">
         <v>696972000</v>
@@ -11119,7 +11119,7 @@
         <v>177.2899932861328</v>
       </c>
       <c r="F464" t="n">
-        <v>145.79638671875</v>
+        <v>145.7963409423828</v>
       </c>
       <c r="G464" t="n">
         <v>552563000</v>
@@ -11142,7 +11142,7 @@
         <v>180.0500030517578</v>
       </c>
       <c r="F465" t="n">
-        <v>148.0661010742188</v>
+        <v>148.0660858154297</v>
       </c>
       <c r="G465" t="n">
         <v>456701000</v>
@@ -11165,7 +11165,7 @@
         <v>180.8099975585938</v>
       </c>
       <c r="F466" t="n">
-        <v>148.6910858154297</v>
+        <v>148.6911315917969</v>
       </c>
       <c r="G466" t="n">
         <v>497733000</v>
@@ -11188,7 +11188,7 @@
         <v>181</v>
       </c>
       <c r="F467" t="n">
-        <v>148.8473815917969</v>
+        <v>148.8473205566406</v>
       </c>
       <c r="G467" t="n">
         <v>281150900</v>
@@ -11211,7 +11211,7 @@
         <v>180.9400024414062</v>
       </c>
       <c r="F468" t="n">
-        <v>148.7979583740234</v>
+        <v>148.7979888916016</v>
       </c>
       <c r="G468" t="n">
         <v>573984000</v>
@@ -11280,7 +11280,7 @@
         <v>183.8500061035156</v>
       </c>
       <c r="F471" t="n">
-        <v>152.0118713378906</v>
+        <v>152.0118865966797</v>
       </c>
       <c r="G471" t="n">
         <v>256145800</v>
@@ -11326,7 +11326,7 @@
         <v>184.1399993896484</v>
       </c>
       <c r="F473" t="n">
-        <v>152.2516784667969</v>
+        <v>152.2516632080078</v>
       </c>
       <c r="G473" t="n">
         <v>483464500</v>
@@ -11372,7 +11372,7 @@
         <v>178.8899993896484</v>
       </c>
       <c r="F475" t="n">
-        <v>147.9108276367188</v>
+        <v>147.9108123779297</v>
       </c>
       <c r="G475" t="n">
         <v>491066100</v>
@@ -11418,7 +11418,7 @@
         <v>179.6799926757812</v>
       </c>
       <c r="F477" t="n">
-        <v>148.5640411376953</v>
+        <v>148.5640563964844</v>
       </c>
       <c r="G477" t="n">
         <v>887744800</v>
@@ -11441,7 +11441,7 @@
         <v>184.0200042724609</v>
       </c>
       <c r="F478" t="n">
-        <v>152.1523895263672</v>
+        <v>152.1524658203125</v>
       </c>
       <c r="G478" t="n">
         <v>501791200</v>
@@ -11464,7 +11464,7 @@
         <v>183.8899993896484</v>
       </c>
       <c r="F479" t="n">
-        <v>152.0449371337891</v>
+        <v>152.0449676513672</v>
       </c>
       <c r="G479" t="n">
         <v>430099700</v>
@@ -11487,7 +11487,7 @@
         <v>186.2899932861328</v>
       </c>
       <c r="F480" t="n">
-        <v>154.0293731689453</v>
+        <v>154.0293121337891</v>
       </c>
       <c r="G480" t="n">
         <v>574548900</v>
@@ -11510,7 +11510,7 @@
         <v>188.2599945068359</v>
       </c>
       <c r="F481" t="n">
-        <v>155.6581573486328</v>
+        <v>155.658203125</v>
       </c>
       <c r="G481" t="n">
         <v>620701300</v>
@@ -11556,7 +11556,7 @@
         <v>186.1999969482422</v>
       </c>
       <c r="F483" t="n">
-        <v>153.9548950195312</v>
+        <v>153.9549255371094</v>
       </c>
       <c r="G483" t="n">
         <v>656800400</v>
@@ -11579,7 +11579,7 @@
         <v>185.4900054931641</v>
       </c>
       <c r="F484" t="n">
-        <v>154.0447998046875</v>
+        <v>154.0447540283203</v>
       </c>
       <c r="G484" t="n">
         <v>589131000</v>
@@ -11602,7 +11602,7 @@
         <v>186.3999938964844</v>
       </c>
       <c r="F485" t="n">
-        <v>154.8005065917969</v>
+        <v>154.8005218505859</v>
       </c>
       <c r="G485" t="n">
         <v>514528000</v>
@@ -11625,7 +11625,7 @@
         <v>181.5099945068359</v>
       </c>
       <c r="F486" t="n">
-        <v>150.7394714355469</v>
+        <v>150.7394561767578</v>
       </c>
       <c r="G486" t="n">
         <v>693927000</v>
@@ -11648,7 +11648,7 @@
         <v>186.3899993896484</v>
       </c>
       <c r="F487" t="n">
-        <v>154.7921905517578</v>
+        <v>154.792236328125</v>
       </c>
       <c r="G487" t="n">
         <v>499927000</v>
@@ -11671,7 +11671,7 @@
         <v>186.2899932861328</v>
       </c>
       <c r="F488" t="n">
-        <v>154.7091674804688</v>
+        <v>154.7091369628906</v>
       </c>
       <c r="G488" t="n">
         <v>416538000</v>
@@ -11694,7 +11694,7 @@
         <v>188.0599975585938</v>
       </c>
       <c r="F489" t="n">
-        <v>156.1790771484375</v>
+        <v>156.1790924072266</v>
       </c>
       <c r="G489" t="n">
         <v>511868000</v>
@@ -11717,7 +11717,7 @@
         <v>187.9600067138672</v>
       </c>
       <c r="F490" t="n">
-        <v>156.0960693359375</v>
+        <v>156.0960388183594</v>
       </c>
       <c r="G490" t="n">
         <v>445134000</v>
@@ -11740,7 +11740,7 @@
         <v>188.0500030517578</v>
       </c>
       <c r="F491" t="n">
-        <v>156.1707763671875</v>
+        <v>156.1707611083984</v>
       </c>
       <c r="G491" t="n">
         <v>478175000</v>
@@ -11763,7 +11763,7 @@
         <v>190.3500061035156</v>
       </c>
       <c r="F492" t="n">
-        <v>158.0808715820312</v>
+        <v>158.0809020996094</v>
       </c>
       <c r="G492" t="n">
         <v>387217800</v>
@@ -11832,7 +11832,7 @@
         <v>194.1300048828125</v>
       </c>
       <c r="F495" t="n">
-        <v>161.2200927734375</v>
+        <v>161.2200164794922</v>
       </c>
       <c r="G495" t="n">
         <v>379387000</v>
@@ -11855,7 +11855,7 @@
         <v>195.9400024414062</v>
       </c>
       <c r="F496" t="n">
-        <v>162.7232360839844</v>
+        <v>162.7232208251953</v>
       </c>
       <c r="G496" t="n">
         <v>464041000</v>
@@ -11878,7 +11878,7 @@
         <v>195.8200073242188</v>
       </c>
       <c r="F497" t="n">
-        <v>163.40283203125</v>
+        <v>163.4028015136719</v>
       </c>
       <c r="G497" t="n">
         <v>405387100</v>
@@ -11901,7 +11901,7 @@
         <v>198.1999969482422</v>
       </c>
       <c r="F498" t="n">
-        <v>165.3887939453125</v>
+        <v>165.3888397216797</v>
       </c>
       <c r="G498" t="n">
         <v>266085000</v>
@@ -11924,7 +11924,7 @@
         <v>196.6100006103516</v>
       </c>
       <c r="F499" t="n">
-        <v>164.0620574951172</v>
+        <v>164.0620269775391</v>
       </c>
       <c r="G499" t="n">
         <v>406114000</v>
@@ -11970,7 +11970,7 @@
         <v>197.7200012207031</v>
       </c>
       <c r="F501" t="n">
-        <v>164.9883117675781</v>
+        <v>164.9882965087891</v>
       </c>
       <c r="G501" t="n">
         <v>334607000</v>
@@ -11993,7 +11993,7 @@
         <v>192.5</v>
       </c>
       <c r="F502" t="n">
-        <v>160.6324462890625</v>
+        <v>160.6324005126953</v>
       </c>
       <c r="G502" t="n">
         <v>626687000</v>
@@ -12016,7 +12016,7 @@
         <v>193.2400054931641</v>
       </c>
       <c r="F503" t="n">
-        <v>161.2498779296875</v>
+        <v>161.2499694824219</v>
       </c>
       <c r="G503" t="n">
         <v>591595000</v>
@@ -12039,7 +12039,7 @@
         <v>195.7200012207031</v>
       </c>
       <c r="F504" t="n">
-        <v>163.3193511962891</v>
+        <v>163.3193817138672</v>
       </c>
       <c r="G504" t="n">
         <v>414545000</v>
@@ -12062,7 +12062,7 @@
         <v>199.1900024414062</v>
       </c>
       <c r="F505" t="n">
-        <v>166.2149505615234</v>
+        <v>166.2149200439453</v>
       </c>
       <c r="G505" t="n">
         <v>351220000</v>
@@ -12108,7 +12108,7 @@
         <v>201.1100006103516</v>
       </c>
       <c r="F507" t="n">
-        <v>167.8171081542969</v>
+        <v>167.8170776367188</v>
       </c>
       <c r="G507" t="n">
         <v>317301000</v>
@@ -12131,7 +12131,7 @@
         <v>199.1300048828125</v>
       </c>
       <c r="F508" t="n">
-        <v>166.1648864746094</v>
+        <v>166.1648559570312</v>
       </c>
       <c r="G508" t="n">
         <v>404171700</v>
@@ -12154,7 +12154,7 @@
         <v>200.6999969482422</v>
       </c>
       <c r="F509" t="n">
-        <v>167.4749298095703</v>
+        <v>167.4749450683594</v>
       </c>
       <c r="G509" t="n">
         <v>560507000</v>
@@ -12177,7 +12177,7 @@
         <v>197.8999938964844</v>
       </c>
       <c r="F510" t="n">
-        <v>165.9103851318359</v>
+        <v>165.9104156494141</v>
       </c>
       <c r="G510" t="n">
         <v>598069000</v>
@@ -12200,7 +12200,7 @@
         <v>196.5200042724609</v>
       </c>
       <c r="F511" t="n">
-        <v>164.7534942626953</v>
+        <v>164.7535095214844</v>
       </c>
       <c r="G511" t="n">
         <v>683066000</v>
@@ -12246,7 +12246,7 @@
         <v>188.4700012207031</v>
       </c>
       <c r="F513" t="n">
-        <v>158.0047302246094</v>
+        <v>158.0047454833984</v>
       </c>
       <c r="G513" t="n">
         <v>1312517000</v>
@@ -12269,7 +12269,7 @@
         <v>196.4299926757812</v>
       </c>
       <c r="F514" t="n">
-        <v>164.6780395507812</v>
+        <v>164.6779937744141</v>
       </c>
       <c r="G514" t="n">
         <v>709653000</v>
@@ -12315,7 +12315,7 @@
         <v>203.3399963378906</v>
       </c>
       <c r="F516" t="n">
-        <v>170.4710235595703</v>
+        <v>170.4710693359375</v>
       </c>
       <c r="G516" t="n">
         <v>475281000</v>
@@ -12338,7 +12338,7 @@
         <v>204.2400054931641</v>
       </c>
       <c r="F517" t="n">
-        <v>171.2255554199219</v>
+        <v>171.2255096435547</v>
       </c>
       <c r="G517" t="n">
         <v>376714100</v>
@@ -12361,7 +12361,7 @@
         <v>206.6799926757812</v>
       </c>
       <c r="F518" t="n">
-        <v>173.2712097167969</v>
+        <v>173.2711791992188</v>
       </c>
       <c r="G518" t="n">
         <v>454049700</v>
@@ -12430,7 +12430,7 @@
         <v>200.8899993896484</v>
       </c>
       <c r="F521" t="n">
-        <v>168.4170989990234</v>
+        <v>168.4171142578125</v>
       </c>
       <c r="G521" t="n">
         <v>754967700</v>
@@ -12453,7 +12453,7 @@
         <v>206.5200042724609</v>
       </c>
       <c r="F522" t="n">
-        <v>173.1370544433594</v>
+        <v>173.1370391845703</v>
       </c>
       <c r="G522" t="n">
         <v>1206138200</v>
@@ -12476,7 +12476,7 @@
         <v>208.4400024414062</v>
       </c>
       <c r="F523" t="n">
-        <v>175.7111206054688</v>
+        <v>175.7111968994141</v>
       </c>
       <c r="G523" t="n">
         <v>370776900</v>
@@ -12499,7 +12499,7 @@
         <v>205.4299926757812</v>
       </c>
       <c r="F524" t="n">
-        <v>173.1737213134766</v>
+        <v>173.1737670898438</v>
       </c>
       <c r="G524" t="n">
         <v>404984400</v>
@@ -12522,7 +12522,7 @@
         <v>204.25</v>
       </c>
       <c r="F525" t="n">
-        <v>172.1790466308594</v>
+        <v>172.1790618896484</v>
       </c>
       <c r="G525" t="n">
         <v>809915800</v>
@@ -12545,7 +12545,7 @@
         <v>201.6300048828125</v>
       </c>
       <c r="F526" t="n">
-        <v>169.970458984375</v>
+        <v>169.9704284667969</v>
       </c>
       <c r="G526" t="n">
         <v>940434000</v>
@@ -12568,7 +12568,7 @@
         <v>204.9700012207031</v>
       </c>
       <c r="F527" t="n">
-        <v>172.7859802246094</v>
+        <v>172.7860260009766</v>
       </c>
       <c r="G527" t="n">
         <v>545806600</v>
@@ -12591,7 +12591,7 @@
         <v>199.4499969482422</v>
       </c>
       <c r="F528" t="n">
-        <v>168.1327056884766</v>
+        <v>168.1326904296875</v>
       </c>
       <c r="G528" t="n">
         <v>765883700</v>
@@ -12614,7 +12614,7 @@
         <v>205.5500030517578</v>
       </c>
       <c r="F529" t="n">
-        <v>173.2749176025391</v>
+        <v>173.2748870849609</v>
       </c>
       <c r="G529" t="n">
         <v>645251800</v>
@@ -12637,7 +12637,7 @@
         <v>209.7799987792969</v>
       </c>
       <c r="F530" t="n">
-        <v>176.8407745361328</v>
+        <v>176.8407592773438</v>
       </c>
       <c r="G530" t="n">
         <v>465687300</v>
@@ -12660,7 +12660,7 @@
         <v>211.2400054931641</v>
       </c>
       <c r="F531" t="n">
-        <v>178.071533203125</v>
+        <v>178.0715026855469</v>
       </c>
       <c r="G531" t="n">
         <v>389980000</v>
@@ -12683,7 +12683,7 @@
         <v>210.6600036621094</v>
       </c>
       <c r="F532" t="n">
-        <v>177.5825653076172</v>
+        <v>177.5825958251953</v>
       </c>
       <c r="G532" t="n">
         <v>400719000</v>
@@ -12706,7 +12706,7 @@
         <v>207.5</v>
       </c>
       <c r="F533" t="n">
-        <v>174.9187316894531</v>
+        <v>174.9187622070312</v>
       </c>
       <c r="G533" t="n">
         <v>577315400</v>
@@ -12729,7 +12729,7 @@
         <v>205.8300018310547</v>
       </c>
       <c r="F534" t="n">
-        <v>173.5109558105469</v>
+        <v>173.510986328125</v>
       </c>
       <c r="G534" t="n">
         <v>613490300</v>
@@ -12775,7 +12775,7 @@
         <v>205.7400054931641</v>
       </c>
       <c r="F536" t="n">
-        <v>174.2092895507812</v>
+        <v>174.2093048095703</v>
       </c>
       <c r="G536" t="n">
         <v>581117700</v>
@@ -12798,7 +12798,7 @@
         <v>206.4400024414062</v>
       </c>
       <c r="F537" t="n">
-        <v>174.8019714355469</v>
+        <v>174.8020172119141</v>
       </c>
       <c r="G537" t="n">
         <v>447153600</v>
@@ -12821,7 +12821,7 @@
         <v>210.0399932861328</v>
       </c>
       <c r="F538" t="n">
-        <v>177.8502807617188</v>
+        <v>177.8502349853516</v>
       </c>
       <c r="G538" t="n">
         <v>443228200</v>
@@ -12844,7 +12844,7 @@
         <v>207.9499969482422</v>
       </c>
       <c r="F539" t="n">
-        <v>176.08056640625</v>
+        <v>176.0805816650391</v>
       </c>
       <c r="G539" t="n">
         <v>509113900</v>
@@ -12890,7 +12890,7 @@
         <v>210.7200012207031</v>
       </c>
       <c r="F541" t="n">
-        <v>178.4260711669922</v>
+        <v>178.4261016845703</v>
       </c>
       <c r="G541" t="n">
         <v>556611100</v>
@@ -12913,7 +12913,7 @@
         <v>211.6199951171875</v>
       </c>
       <c r="F542" t="n">
-        <v>179.1881103515625</v>
+        <v>179.1881256103516</v>
       </c>
       <c r="G542" t="n">
         <v>563435800</v>
@@ -12936,7 +12936,7 @@
         <v>212.4400024414062</v>
       </c>
       <c r="F543" t="n">
-        <v>179.8824615478516</v>
+        <v>179.8824310302734</v>
       </c>
       <c r="G543" t="n">
         <v>462547700</v>
@@ -12959,7 +12959,7 @@
         <v>212.9900054931641</v>
       </c>
       <c r="F544" t="n">
-        <v>180.3482055664062</v>
+        <v>180.3481903076172</v>
       </c>
       <c r="G544" t="n">
         <v>345719900</v>
@@ -12982,7 +12982,7 @@
         <v>211.1399993896484</v>
       </c>
       <c r="F545" t="n">
-        <v>178.7816619873047</v>
+        <v>178.7816772460938</v>
       </c>
       <c r="G545" t="n">
         <v>417416800</v>
@@ -13005,7 +13005,7 @@
         <v>209.7700042724609</v>
       </c>
       <c r="F546" t="n">
-        <v>177.6216583251953</v>
+        <v>177.6216278076172</v>
       </c>
       <c r="G546" t="n">
         <v>546278200</v>
@@ -13028,7 +13028,7 @@
         <v>210.0099945068359</v>
       </c>
       <c r="F547" t="n">
-        <v>177.8249206542969</v>
+        <v>177.8248291015625</v>
       </c>
       <c r="G547" t="n">
         <v>537908100</v>
@@ -13051,7 +13051,7 @@
         <v>210.8099975585938</v>
       </c>
       <c r="F548" t="n">
-        <v>178.5022430419922</v>
+        <v>178.5022735595703</v>
       </c>
       <c r="G548" t="n">
         <v>632747600</v>
@@ -13074,7 +13074,7 @@
         <v>209.8200073242188</v>
       </c>
       <c r="F549" t="n">
-        <v>178.5282135009766</v>
+        <v>178.5282287597656</v>
       </c>
       <c r="G549" t="n">
         <v>432762300</v>
@@ -13097,7 +13097,7 @@
         <v>207.3099975585938</v>
       </c>
       <c r="F550" t="n">
-        <v>176.3925018310547</v>
+        <v>176.3924865722656</v>
       </c>
       <c r="G550" t="n">
         <v>625900000</v>
@@ -13120,7 +13120,7 @@
         <v>207.4799957275391</v>
       </c>
       <c r="F551" t="n">
-        <v>176.5371704101562</v>
+        <v>176.5371398925781</v>
       </c>
       <c r="G551" t="n">
         <v>729385700</v>
@@ -13143,7 +13143,7 @@
         <v>212.4799957275391</v>
       </c>
       <c r="F552" t="n">
-        <v>180.7914581298828</v>
+        <v>180.7914733886719</v>
       </c>
       <c r="G552" t="n">
         <v>481406400</v>
@@ -13166,7 +13166,7 @@
         <v>208</v>
       </c>
       <c r="F553" t="n">
-        <v>176.9795837402344</v>
+        <v>176.9796295166016</v>
       </c>
       <c r="G553" t="n">
         <v>445343800</v>
@@ -13189,7 +13189,7 @@
         <v>210.5</v>
       </c>
       <c r="F554" t="n">
-        <v>179.1067504882812</v>
+        <v>179.1067657470703</v>
       </c>
       <c r="G554" t="n">
         <v>556268500</v>
@@ -13212,7 +13212,7 @@
         <v>207.9499969482422</v>
       </c>
       <c r="F555" t="n">
-        <v>176.9370574951172</v>
+        <v>176.9370269775391</v>
       </c>
       <c r="G555" t="n">
         <v>515462100</v>
@@ -13235,7 +13235,7 @@
         <v>209.4199981689453</v>
       </c>
       <c r="F556" t="n">
-        <v>178.1878662109375</v>
+        <v>178.1878051757812</v>
       </c>
       <c r="G556" t="n">
         <v>540645600</v>
@@ -13281,7 +13281,7 @@
         <v>199.2799987792969</v>
       </c>
       <c r="F558" t="n">
-        <v>169.5601043701172</v>
+        <v>169.5600433349609</v>
       </c>
       <c r="G558" t="n">
         <v>1650892700</v>
@@ -13304,7 +13304,7 @@
         <v>192.5899963378906</v>
       </c>
       <c r="F559" t="n">
-        <v>163.8678283691406</v>
+        <v>163.8678131103516</v>
       </c>
       <c r="G559" t="n">
         <v>938737300</v>
@@ -13327,7 +13327,7 @@
         <v>196.7400054931641</v>
       </c>
       <c r="F560" t="n">
-        <v>167.3988647460938</v>
+        <v>167.3988952636719</v>
       </c>
       <c r="G560" t="n">
         <v>543675700</v>
@@ -13350,7 +13350,7 @@
         <v>195.4499969482422</v>
       </c>
       <c r="F561" t="n">
-        <v>166.30126953125</v>
+        <v>166.3013000488281</v>
       </c>
       <c r="G561" t="n">
         <v>792543900</v>
@@ -13373,7 +13373,7 @@
         <v>192.8500061035156</v>
       </c>
       <c r="F562" t="n">
-        <v>164.942138671875</v>
+        <v>164.9420928955078</v>
       </c>
       <c r="G562" t="n">
         <v>666841300</v>
@@ -13396,7 +13396,7 @@
         <v>195</v>
       </c>
       <c r="F563" t="n">
-        <v>166.7809906005859</v>
+        <v>166.7809753417969</v>
       </c>
       <c r="G563" t="n">
         <v>843095800</v>
@@ -13419,7 +13419,7 @@
         <v>201.3300018310547</v>
       </c>
       <c r="F564" t="n">
-        <v>172.1949462890625</v>
+        <v>172.1949310302734</v>
       </c>
       <c r="G564" t="n">
         <v>621027000</v>
@@ -13442,7 +13442,7 @@
         <v>203.2700042724609</v>
       </c>
       <c r="F565" t="n">
-        <v>173.8541870117188</v>
+        <v>173.8542327880859</v>
       </c>
       <c r="G565" t="n">
         <v>492262800</v>
@@ -13465,7 +13465,7 @@
         <v>207.5099945068359</v>
       </c>
       <c r="F566" t="n">
-        <v>177.4805755615234</v>
+        <v>177.4806060791016</v>
       </c>
       <c r="G566" t="n">
         <v>576364400</v>
@@ -13488,7 +13488,7 @@
         <v>207.9299926757812</v>
       </c>
       <c r="F567" t="n">
-        <v>177.8398590087891</v>
+        <v>177.8398284912109</v>
       </c>
       <c r="G567" t="n">
         <v>504447900</v>
@@ -13511,7 +13511,7 @@
         <v>210.0399932861328</v>
       </c>
       <c r="F568" t="n">
-        <v>179.6444702148438</v>
+        <v>179.6444549560547</v>
       </c>
       <c r="G568" t="n">
         <v>466621600</v>
@@ -13557,7 +13557,7 @@
         <v>209.3099975585938</v>
       </c>
       <c r="F570" t="n">
-        <v>179.0200958251953</v>
+        <v>179.0201110839844</v>
       </c>
       <c r="G570" t="n">
         <v>542343400</v>
@@ -13580,7 +13580,7 @@
         <v>209.5599975585938</v>
       </c>
       <c r="F571" t="n">
-        <v>179.2339782714844</v>
+        <v>179.2339477539062</v>
       </c>
       <c r="G571" t="n">
         <v>253103500</v>
@@ -13603,7 +13603,7 @@
         <v>209.6199951171875</v>
       </c>
       <c r="F572" t="n">
-        <v>179.2852478027344</v>
+        <v>179.2852935791016</v>
       </c>
       <c r="G572" t="n">
         <v>678260500</v>
@@ -13626,7 +13626,7 @@
         <v>201.8800048828125</v>
       </c>
       <c r="F573" t="n">
-        <v>172.6653442382812</v>
+        <v>172.6653594970703</v>
       </c>
       <c r="G573" t="n">
         <v>695103200</v>
@@ -13672,7 +13672,7 @@
         <v>205.6799926757812</v>
       </c>
       <c r="F575" t="n">
-        <v>176.9623870849609</v>
+        <v>176.96240234375</v>
       </c>
       <c r="G575" t="n">
         <v>369647300</v>
@@ -13695,7 +13695,7 @@
         <v>203.8699951171875</v>
       </c>
       <c r="F576" t="n">
-        <v>175.4051361083984</v>
+        <v>175.4051055908203</v>
       </c>
       <c r="G576" t="n">
         <v>336736200</v>
@@ -13741,7 +13741,7 @@
         <v>187.8099975585938</v>
       </c>
       <c r="F578" t="n">
-        <v>161.5874633789062</v>
+        <v>161.5874481201172</v>
       </c>
       <c r="G578" t="n">
         <v>1147082700</v>
@@ -13787,7 +13787,7 @@
         <v>193.7200012207031</v>
       </c>
       <c r="F580" t="n">
-        <v>166.6722869873047</v>
+        <v>166.6722259521484</v>
       </c>
       <c r="G580" t="n">
         <v>811418300</v>
@@ -13810,7 +13810,7 @@
         <v>187.9499969482422</v>
       </c>
       <c r="F581" t="n">
-        <v>161.7078857421875</v>
+        <v>161.7079010009766</v>
       </c>
       <c r="G581" t="n">
         <v>844001500</v>
@@ -13833,7 +13833,7 @@
         <v>186.6300048828125</v>
       </c>
       <c r="F582" t="n">
-        <v>160.5722198486328</v>
+        <v>160.5722045898438</v>
       </c>
       <c r="G582" t="n">
         <v>870945200</v>
@@ -13856,7 +13856,7 @@
         <v>192</v>
       </c>
       <c r="F583" t="n">
-        <v>165.1924438476562</v>
+        <v>165.1924285888672</v>
       </c>
       <c r="G583" t="n">
         <v>473396200</v>
@@ -13879,7 +13879,7 @@
         <v>195.0899963378906</v>
       </c>
       <c r="F584" t="n">
-        <v>167.8510284423828</v>
+        <v>167.8509826660156</v>
       </c>
       <c r="G584" t="n">
         <v>606469800</v>
@@ -13902,7 +13902,7 @@
         <v>200.4299926757812</v>
       </c>
       <c r="F585" t="n">
-        <v>172.4454040527344</v>
+        <v>172.4454345703125</v>
       </c>
       <c r="G585" t="n">
         <v>594598600</v>
@@ -13925,7 +13925,7 @@
         <v>202.7599945068359</v>
       </c>
       <c r="F586" t="n">
-        <v>174.4500579833984</v>
+        <v>174.4500885009766</v>
       </c>
       <c r="G586" t="n">
         <v>613798300</v>
@@ -13948,7 +13948,7 @@
         <v>204.3800048828125</v>
       </c>
       <c r="F587" t="n">
-        <v>175.8439178466797</v>
+        <v>175.8439025878906</v>
       </c>
       <c r="G587" t="n">
         <v>568735200</v>
@@ -13971,7 +13971,7 @@
         <v>203.1199951171875</v>
       </c>
       <c r="F588" t="n">
-        <v>175.6611785888672</v>
+        <v>175.6611633300781</v>
       </c>
       <c r="G588" t="n">
         <v>335812000</v>
@@ -13994,7 +13994,7 @@
         <v>206.9199981689453</v>
       </c>
       <c r="F589" t="n">
-        <v>178.9474792480469</v>
+        <v>178.9474487304688</v>
       </c>
       <c r="G589" t="n">
         <v>450704000</v>
@@ -14017,7 +14017,7 @@
         <v>204.5</v>
       </c>
       <c r="F590" t="n">
-        <v>176.8546142578125</v>
+        <v>176.8546295166016</v>
       </c>
       <c r="G590" t="n">
         <v>463898600</v>
@@ -14040,7 +14040,7 @@
         <v>207.7799987792969</v>
       </c>
       <c r="F591" t="n">
-        <v>179.6911773681641</v>
+        <v>179.6911926269531</v>
       </c>
       <c r="G591" t="n">
         <v>436419000</v>
@@ -14063,7 +14063,7 @@
         <v>208.9700012207031</v>
       </c>
       <c r="F592" t="n">
-        <v>180.7203521728516</v>
+        <v>180.7203826904297</v>
       </c>
       <c r="G592" t="n">
         <v>436894100</v>
@@ -14086,7 +14086,7 @@
         <v>206.3300018310547</v>
       </c>
       <c r="F593" t="n">
-        <v>178.437255859375</v>
+        <v>178.4371795654297</v>
       </c>
       <c r="G593" t="n">
         <v>459000400</v>
@@ -14132,7 +14132,7 @@
         <v>204.7599945068359</v>
       </c>
       <c r="F595" t="n">
-        <v>177.0794219970703</v>
+        <v>177.0794830322266</v>
       </c>
       <c r="G595" t="n">
         <v>419635000</v>
@@ -14178,7 +14178,7 @@
         <v>210.2400054931641</v>
       </c>
       <c r="F597" t="n">
-        <v>181.818603515625</v>
+        <v>181.8186492919922</v>
       </c>
       <c r="G597" t="n">
         <v>348333700</v>
@@ -14201,7 +14201,7 @@
         <v>210.2799987792969</v>
       </c>
       <c r="F598" t="n">
-        <v>181.8532104492188</v>
+        <v>181.8532562255859</v>
       </c>
       <c r="G598" t="n">
         <v>344617400</v>
@@ -14224,7 +14224,7 @@
         <v>210.0700073242188</v>
       </c>
       <c r="F599" t="n">
-        <v>181.6716613769531</v>
+        <v>181.6716461181641</v>
       </c>
       <c r="G599" t="n">
         <v>379648800</v>
@@ -14247,7 +14247,7 @@
         <v>206.5200042724609</v>
       </c>
       <c r="F600" t="n">
-        <v>178.6014862060547</v>
+        <v>178.6015472412109</v>
       </c>
       <c r="G600" t="n">
         <v>618523800</v>
@@ -14270,7 +14270,7 @@
         <v>203.2400054931641</v>
       </c>
       <c r="F601" t="n">
-        <v>176.6790313720703</v>
+        <v>176.6789855957031</v>
       </c>
       <c r="G601" t="n">
         <v>686987600</v>
@@ -14293,7 +14293,7 @@
         <v>209.9199981689453</v>
       </c>
       <c r="F602" t="n">
-        <v>182.4859771728516</v>
+        <v>182.4860076904297</v>
       </c>
       <c r="G602" t="n">
         <v>798564000</v>
@@ -14316,7 +14316,7 @@
         <v>212.6499938964844</v>
       </c>
       <c r="F603" t="n">
-        <v>184.8592376708984</v>
+        <v>184.8592071533203</v>
       </c>
       <c r="G603" t="n">
         <v>425390000</v>
@@ -14339,7 +14339,7 @@
         <v>215.8300018310547</v>
       </c>
       <c r="F604" t="n">
-        <v>187.6236114501953</v>
+        <v>187.6236419677734</v>
       </c>
       <c r="G604" t="n">
         <v>460619900</v>
@@ -14362,7 +14362,7 @@
         <v>217.2400054931641</v>
       </c>
       <c r="F605" t="n">
-        <v>188.8493499755859</v>
+        <v>188.8493957519531</v>
       </c>
       <c r="G605" t="n">
         <v>301795900</v>
@@ -14385,7 +14385,7 @@
         <v>217.1199951171875</v>
       </c>
       <c r="F606" t="n">
-        <v>188.7450408935547</v>
+        <v>188.7450256347656</v>
       </c>
       <c r="G606" t="n">
         <v>354592600</v>
@@ -14408,7 +14408,7 @@
         <v>218.1799926757812</v>
       </c>
       <c r="F607" t="n">
-        <v>189.6665191650391</v>
+        <v>189.6665496826172</v>
       </c>
       <c r="G607" t="n">
         <v>338078200</v>
@@ -14431,7 +14431,7 @@
         <v>218.4600067138672</v>
       </c>
       <c r="F608" t="n">
-        <v>189.909912109375</v>
+        <v>189.9099273681641</v>
       </c>
       <c r="G608" t="n">
         <v>282917100</v>
@@ -14454,7 +14454,7 @@
         <v>218.5399932861328</v>
       </c>
       <c r="F609" t="n">
-        <v>189.9794769287109</v>
+        <v>189.9794921875</v>
       </c>
       <c r="G609" t="n">
         <v>306593700</v>
@@ -14523,7 +14523,7 @@
         <v>213.2799987792969</v>
       </c>
       <c r="F612" t="n">
-        <v>185.4068908691406</v>
+        <v>185.4068756103516</v>
       </c>
       <c r="G612" t="n">
         <v>428949000</v>
@@ -14569,7 +14569,7 @@
         <v>215.9900054931641</v>
       </c>
       <c r="F614" t="n">
-        <v>188.711181640625</v>
+        <v>188.7112274169922</v>
       </c>
       <c r="G614" t="n">
         <v>410509800</v>
@@ -14592,7 +14592,7 @@
         <v>216.3000030517578</v>
       </c>
       <c r="F615" t="n">
-        <v>188.9820556640625</v>
+        <v>188.9820098876953</v>
       </c>
       <c r="G615" t="n">
         <v>501006600</v>
@@ -14615,7 +14615,7 @@
         <v>215.0399932861328</v>
       </c>
       <c r="F616" t="n">
-        <v>187.8811492919922</v>
+        <v>187.8812103271484</v>
       </c>
       <c r="G616" t="n">
         <v>428991900</v>
@@ -14638,7 +14638,7 @@
         <v>213.1199951171875</v>
       </c>
       <c r="F617" t="n">
-        <v>186.2036285400391</v>
+        <v>186.2036590576172</v>
       </c>
       <c r="G617" t="n">
         <v>450791700</v>
@@ -14661,7 +14661,7 @@
         <v>213.9799957275391</v>
       </c>
       <c r="F618" t="n">
-        <v>186.9549713134766</v>
+        <v>186.9550323486328</v>
       </c>
       <c r="G618" t="n">
         <v>364393500</v>
@@ -14684,7 +14684,7 @@
         <v>212.5399932861328</v>
       </c>
       <c r="F619" t="n">
-        <v>185.6969146728516</v>
+        <v>185.6968841552734</v>
       </c>
       <c r="G619" t="n">
         <v>420237800</v>
@@ -14707,7 +14707,7 @@
         <v>208.5500030517578</v>
       </c>
       <c r="F620" t="n">
-        <v>182.2108612060547</v>
+        <v>182.2108459472656</v>
       </c>
       <c r="G620" t="n">
         <v>485446500</v>
@@ -14730,7 +14730,7 @@
         <v>216.4199981689453</v>
       </c>
       <c r="F621" t="n">
-        <v>189.0868682861328</v>
+        <v>189.0868835449219</v>
       </c>
       <c r="G621" t="n">
         <v>747662000</v>
@@ -14776,7 +14776,7 @@
         <v>221.5200042724609</v>
       </c>
       <c r="F623" t="n">
-        <v>193.5427856445312</v>
+        <v>193.5428161621094</v>
       </c>
       <c r="G623" t="n">
         <v>234324100</v>
@@ -14799,7 +14799,7 @@
         <v>219.6799926757812</v>
       </c>
       <c r="F624" t="n">
-        <v>191.9351348876953</v>
+        <v>191.9351806640625</v>
       </c>
       <c r="G624" t="n">
         <v>413631800</v>
@@ -14822,7 +14822,7 @@
         <v>226.5099945068359</v>
       </c>
       <c r="F625" t="n">
-        <v>197.9025726318359</v>
+        <v>197.9024963378906</v>
       </c>
       <c r="G625" t="n">
         <v>426173500</v>
@@ -14891,7 +14891,7 @@
         <v>223.5299987792969</v>
       </c>
       <c r="F628" t="n">
-        <v>196.4500274658203</v>
+        <v>196.4500122070312</v>
       </c>
       <c r="G628" t="n">
         <v>264461900</v>
@@ -14914,7 +14914,7 @@
         <v>227.2100067138672</v>
       </c>
       <c r="F629" t="n">
-        <v>199.6841888427734</v>
+        <v>199.6842346191406</v>
       </c>
       <c r="G629" t="n">
         <v>320049800</v>
@@ -14937,7 +14937,7 @@
         <v>227.0500030517578</v>
       </c>
       <c r="F630" t="n">
-        <v>199.5436096191406</v>
+        <v>199.5435485839844</v>
       </c>
       <c r="G630" t="n">
         <v>320192700</v>
@@ -15006,7 +15006,7 @@
         <v>229.3399963378906</v>
       </c>
       <c r="F633" t="n">
-        <v>201.5561981201172</v>
+        <v>201.55615234375</v>
       </c>
       <c r="G633" t="n">
         <v>384956600</v>
@@ -15029,7 +15029,7 @@
         <v>231.5099945068359</v>
       </c>
       <c r="F634" t="n">
-        <v>203.4632263183594</v>
+        <v>203.4632415771484</v>
       </c>
       <c r="G634" t="n">
         <v>299258600</v>
@@ -15052,7 +15052,7 @@
         <v>235.0899963378906</v>
       </c>
       <c r="F635" t="n">
-        <v>206.6095428466797</v>
+        <v>206.6095733642578</v>
       </c>
       <c r="G635" t="n">
         <v>375003400</v>
@@ -15075,7 +15075,7 @@
         <v>236.7400054931641</v>
       </c>
       <c r="F636" t="n">
-        <v>208.0596923828125</v>
+        <v>208.0596618652344</v>
       </c>
       <c r="G636" t="n">
         <v>308058800</v>
@@ -15098,7 +15098,7 @@
         <v>238.4199981689453</v>
       </c>
       <c r="F637" t="n">
-        <v>209.5361480712891</v>
+        <v>209.5361785888672</v>
       </c>
       <c r="G637" t="n">
         <v>454855800</v>
@@ -15144,7 +15144,7 @@
         <v>237.0299987792969</v>
       </c>
       <c r="F639" t="n">
-        <v>208.3145294189453</v>
+        <v>208.3145751953125</v>
       </c>
       <c r="G639" t="n">
         <v>380565500</v>
@@ -15167,7 +15167,7 @@
         <v>233.8600006103516</v>
       </c>
       <c r="F640" t="n">
-        <v>206.4227294921875</v>
+        <v>206.4226989746094</v>
       </c>
       <c r="G640" t="n">
         <v>494830700</v>
@@ -15190,7 +15190,7 @@
         <v>235.7400054931641</v>
       </c>
       <c r="F641" t="n">
-        <v>208.0821228027344</v>
+        <v>208.0821380615234</v>
       </c>
       <c r="G641" t="n">
         <v>373359800</v>
@@ -15213,7 +15213,7 @@
         <v>235.1999969482422</v>
       </c>
       <c r="F642" t="n">
-        <v>207.60546875</v>
+        <v>207.6054840087891</v>
       </c>
       <c r="G642" t="n">
         <v>394361400</v>
@@ -15259,7 +15259,7 @@
         <v>234.5899963378906</v>
       </c>
       <c r="F644" t="n">
-        <v>207.0670623779297</v>
+        <v>207.0670318603516</v>
       </c>
       <c r="G644" t="n">
         <v>423293100</v>
@@ -15282,7 +15282,7 @@
         <v>238.0800018310547</v>
       </c>
       <c r="F645" t="n">
-        <v>210.1475677490234</v>
+        <v>210.1475982666016</v>
       </c>
       <c r="G645" t="n">
         <v>401553800</v>
@@ -15305,7 +15305,7 @@
         <v>239.6999969482422</v>
       </c>
       <c r="F646" t="n">
-        <v>211.5775299072266</v>
+        <v>211.5775451660156</v>
       </c>
       <c r="G646" t="n">
         <v>320859900</v>
@@ -15328,7 +15328,7 @@
         <v>238.9799957275391</v>
       </c>
       <c r="F647" t="n">
-        <v>210.9420318603516</v>
+        <v>210.9420471191406</v>
       </c>
       <c r="G647" t="n">
         <v>270313700</v>
@@ -15351,7 +15351,7 @@
         <v>238.3099975585938</v>
       </c>
       <c r="F648" t="n">
-        <v>210.3506469726562</v>
+        <v>210.3506317138672</v>
       </c>
       <c r="G648" t="n">
         <v>507393900</v>
@@ -15374,7 +15374,7 @@
         <v>241.7100067138672</v>
       </c>
       <c r="F649" t="n">
-        <v>213.3517150878906</v>
+        <v>213.3517456054688</v>
       </c>
       <c r="G649" t="n">
         <v>266981600</v>
@@ -15420,7 +15420,7 @@
         <v>243.4100036621094</v>
       </c>
       <c r="F651" t="n">
-        <v>214.8522796630859</v>
+        <v>214.8522644042969</v>
       </c>
       <c r="G651" t="n">
         <v>347425600</v>
@@ -15443,7 +15443,7 @@
         <v>242.6399993896484</v>
       </c>
       <c r="F652" t="n">
-        <v>214.1725769042969</v>
+        <v>214.1726226806641</v>
       </c>
       <c r="G652" t="n">
         <v>375795400</v>
@@ -15466,7 +15466,7 @@
         <v>243.1300048828125</v>
       </c>
       <c r="F653" t="n">
-        <v>215.6516418457031</v>
+        <v>215.6516876220703</v>
       </c>
       <c r="G653" t="n">
         <v>289142700</v>
@@ -15489,7 +15489,7 @@
         <v>241.8000030517578</v>
       </c>
       <c r="F654" t="n">
-        <v>214.4720153808594</v>
+        <v>214.4719848632812</v>
       </c>
       <c r="G654" t="n">
         <v>402761200</v>
@@ -15512,7 +15512,7 @@
         <v>242.1100006103516</v>
       </c>
       <c r="F655" t="n">
-        <v>214.7468872070312</v>
+        <v>214.7469177246094</v>
       </c>
       <c r="G655" t="n">
         <v>216954500</v>
@@ -15535,7 +15535,7 @@
         <v>245.5599975585938</v>
       </c>
       <c r="F656" t="n">
-        <v>217.8070373535156</v>
+        <v>217.8070220947266</v>
       </c>
       <c r="G656" t="n">
         <v>246362600</v>
@@ -15558,7 +15558,7 @@
         <v>246.8800048828125</v>
       </c>
       <c r="F657" t="n">
-        <v>218.9778289794922</v>
+        <v>218.9778594970703</v>
       </c>
       <c r="G657" t="n">
         <v>256784700</v>
@@ -15581,7 +15581,7 @@
         <v>246.9100036621094</v>
       </c>
       <c r="F658" t="n">
-        <v>219.0044860839844</v>
+        <v>219.0044555664062</v>
       </c>
       <c r="G658" t="n">
         <v>269968300</v>
@@ -15604,7 +15604,7 @@
         <v>247.4100036621094</v>
       </c>
       <c r="F659" t="n">
-        <v>219.4479370117188</v>
+        <v>219.4479522705078</v>
       </c>
       <c r="G659" t="n">
         <v>269148100</v>
@@ -15627,7 +15627,7 @@
         <v>244.1199951171875</v>
       </c>
       <c r="F660" t="n">
-        <v>216.5297546386719</v>
+        <v>216.52978515625</v>
       </c>
       <c r="G660" t="n">
         <v>351696400</v>
@@ -15650,7 +15650,7 @@
         <v>242.7100067138672</v>
       </c>
       <c r="F661" t="n">
-        <v>215.2791595458984</v>
+        <v>215.2791900634766</v>
       </c>
       <c r="G661" t="n">
         <v>450488500</v>
@@ -15673,7 +15673,7 @@
         <v>244.5599975585938</v>
       </c>
       <c r="F662" t="n">
-        <v>216.9200439453125</v>
+        <v>216.9200592041016</v>
       </c>
       <c r="G662" t="n">
         <v>294001200</v>
@@ -15696,7 +15696,7 @@
         <v>247.8399963378906</v>
       </c>
       <c r="F663" t="n">
-        <v>219.8293609619141</v>
+        <v>219.8293304443359</v>
       </c>
       <c r="G663" t="n">
         <v>319543000</v>
@@ -15742,7 +15742,7 @@
         <v>249.1900024414062</v>
       </c>
       <c r="F665" t="n">
-        <v>221.0267791748047</v>
+        <v>221.0268096923828</v>
       </c>
       <c r="G665" t="n">
         <v>378367500</v>
@@ -15765,7 +15765,7 @@
         <v>249.4400024414062</v>
       </c>
       <c r="F666" t="n">
-        <v>222.3465118408203</v>
+        <v>222.3464965820312</v>
       </c>
       <c r="G666" t="n">
         <v>252342800</v>
@@ -15788,7 +15788,7 @@
         <v>251.2299957275391</v>
       </c>
       <c r="F667" t="n">
-        <v>223.9420928955078</v>
+        <v>223.9421081542969</v>
       </c>
       <c r="G667" t="n">
         <v>322504600</v>
@@ -15811,7 +15811,7 @@
         <v>254.3699951171875</v>
       </c>
       <c r="F668" t="n">
-        <v>226.7410125732422</v>
+        <v>226.7410430908203</v>
       </c>
       <c r="G668" t="n">
         <v>325955600</v>
@@ -15834,7 +15834,7 @@
         <v>254.9499969482422</v>
       </c>
       <c r="F669" t="n">
-        <v>227.2580718994141</v>
+        <v>227.2580261230469</v>
       </c>
       <c r="G669" t="n">
         <v>228400300</v>
@@ -15857,7 +15857,7 @@
         <v>257.1099853515625</v>
       </c>
       <c r="F670" t="n">
-        <v>229.1834411621094</v>
+        <v>229.1834106445312</v>
       </c>
       <c r="G670" t="n">
         <v>261751200</v>
@@ -15880,7 +15880,7 @@
         <v>257.7099914550781</v>
       </c>
       <c r="F671" t="n">
-        <v>229.71826171875</v>
+        <v>229.7182464599609</v>
       </c>
       <c r="G671" t="n">
         <v>389927000</v>
@@ -15926,7 +15926,7 @@
         <v>258.0899963378906</v>
       </c>
       <c r="F673" t="n">
-        <v>230.0569763183594</v>
+        <v>230.0569610595703</v>
       </c>
       <c r="G673" t="n">
         <v>312694600</v>
@@ -15949,7 +15949,7 @@
         <v>257.8599853515625</v>
       </c>
       <c r="F674" t="n">
-        <v>229.8519287109375</v>
+        <v>229.8519744873047</v>
       </c>
       <c r="G674" t="n">
         <v>335889100</v>
@@ -15972,7 +15972,7 @@
         <v>260.3599853515625</v>
       </c>
       <c r="F675" t="n">
-        <v>232.0803985595703</v>
+        <v>232.0803833007812</v>
       </c>
       <c r="G675" t="n">
         <v>190142200</v>
@@ -16018,7 +16018,7 @@
         <v>265.510009765625</v>
       </c>
       <c r="F677" t="n">
-        <v>236.6710357666016</v>
+        <v>236.6709899902344</v>
       </c>
       <c r="G677" t="n">
         <v>401716200</v>
@@ -16041,7 +16041,7 @@
         <v>266.510009765625</v>
       </c>
       <c r="F678" t="n">
-        <v>237.5624084472656</v>
+        <v>237.5624847412109</v>
       </c>
       <c r="G678" t="n">
         <v>516455700</v>
@@ -16064,7 +16064,7 @@
         <v>267.510009765625</v>
       </c>
       <c r="F679" t="n">
-        <v>239.672607421875</v>
+        <v>239.6726989746094</v>
       </c>
       <c r="G679" t="n">
         <v>388541200</v>
@@ -16087,7 +16087,7 @@
         <v>266.8599853515625</v>
       </c>
       <c r="F680" t="n">
-        <v>239.0903015136719</v>
+        <v>239.0902862548828</v>
       </c>
       <c r="G680" t="n">
         <v>244118900</v>
@@ -16110,7 +16110,7 @@
         <v>273.4200134277344</v>
       </c>
       <c r="F681" t="n">
-        <v>244.9676971435547</v>
+        <v>244.9677581787109</v>
       </c>
       <c r="G681" t="n">
         <v>340886500</v>
@@ -16133,7 +16133,7 @@
         <v>277.9200134277344</v>
       </c>
       <c r="F682" t="n">
-        <v>248.9994812011719</v>
+        <v>248.9993591308594</v>
       </c>
       <c r="G682" t="n">
         <v>337325100</v>
@@ -16156,7 +16156,7 @@
         <v>280.4100036621094</v>
       </c>
       <c r="F683" t="n">
-        <v>251.2302398681641</v>
+        <v>251.2302551269531</v>
       </c>
       <c r="G683" t="n">
         <v>461462000</v>
@@ -16179,7 +16179,7 @@
         <v>286.5799865722656</v>
       </c>
       <c r="F684" t="n">
-        <v>256.7581787109375</v>
+        <v>256.7581481933594</v>
       </c>
       <c r="G684" t="n">
         <v>515553600</v>
@@ -16202,7 +16202,7 @@
         <v>275.4500122070312</v>
       </c>
       <c r="F685" t="n">
-        <v>246.7864227294922</v>
+        <v>246.7863922119141</v>
       </c>
       <c r="G685" t="n">
         <v>593556800</v>
@@ -16225,7 +16225,7 @@
         <v>261.5</v>
       </c>
       <c r="F686" t="n">
-        <v>234.2880859375</v>
+        <v>234.2880401611328</v>
       </c>
       <c r="G686" t="n">
         <v>1347099500</v>
@@ -16248,7 +16248,7 @@
         <v>273.1099853515625</v>
       </c>
       <c r="F687" t="n">
-        <v>244.6899261474609</v>
+        <v>244.6898651123047</v>
       </c>
       <c r="G687" t="n">
         <v>617315700</v>
@@ -16271,7 +16271,7 @@
         <v>274.7099914550781</v>
       </c>
       <c r="F688" t="n">
-        <v>246.1234588623047</v>
+        <v>246.1234283447266</v>
       </c>
       <c r="G688" t="n">
         <v>388531100</v>
@@ -16294,7 +16294,7 @@
         <v>269.0799865722656</v>
       </c>
       <c r="F689" t="n">
-        <v>241.0792236328125</v>
+        <v>241.0792846679688</v>
       </c>
       <c r="G689" t="n">
         <v>623436700</v>
@@ -16317,7 +16317,7 @@
         <v>278.8699951171875</v>
       </c>
       <c r="F690" t="n">
-        <v>249.8504943847656</v>
+        <v>249.8505554199219</v>
       </c>
       <c r="G690" t="n">
         <v>444110600</v>
@@ -16340,7 +16340,7 @@
         <v>274.2000122070312</v>
       </c>
       <c r="F691" t="n">
-        <v>245.6664581298828</v>
+        <v>245.6665191650391</v>
       </c>
       <c r="G691" t="n">
         <v>453565500</v>
@@ -16363,7 +16363,7 @@
         <v>258.0499877929688</v>
       </c>
       <c r="F692" t="n">
-        <v>232.1230316162109</v>
+        <v>232.1230163574219</v>
       </c>
       <c r="G692" t="n">
         <v>579996000</v>
@@ -16386,7 +16386,7 @@
         <v>263.1499938964844</v>
       </c>
       <c r="F693" t="n">
-        <v>236.7106323242188</v>
+        <v>236.7106170654297</v>
       </c>
       <c r="G693" t="n">
         <v>529951400</v>
@@ -16409,7 +16409,7 @@
         <v>259.7200012207031</v>
       </c>
       <c r="F694" t="n">
-        <v>233.625244140625</v>
+        <v>233.6252288818359</v>
       </c>
       <c r="G694" t="n">
         <v>692132300</v>
@@ -16432,7 +16432,7 @@
         <v>265.1499938964844</v>
       </c>
       <c r="F695" t="n">
-        <v>238.5096130371094</v>
+        <v>238.5096740722656</v>
       </c>
       <c r="G695" t="n">
         <v>454081800</v>
@@ -16455,7 +16455,7 @@
         <v>266.6099853515625</v>
       </c>
       <c r="F696" t="n">
-        <v>239.8229675292969</v>
+        <v>239.822998046875</v>
       </c>
       <c r="G696" t="n">
         <v>363000200</v>
@@ -16478,7 +16478,7 @@
         <v>266.5599975585938</v>
       </c>
       <c r="F697" t="n">
-        <v>239.7780303955078</v>
+        <v>239.7779998779297</v>
       </c>
       <c r="G697" t="n">
         <v>407069900</v>
@@ -16501,7 +16501,7 @@
         <v>266.0199890136719</v>
       </c>
       <c r="F698" t="n">
-        <v>239.292236328125</v>
+        <v>239.2922668457031</v>
       </c>
       <c r="G698" t="n">
         <v>470288200</v>
@@ -16547,7 +16547,7 @@
         <v>271.3299865722656</v>
       </c>
       <c r="F700" t="n">
-        <v>244.0687713623047</v>
+        <v>244.0687255859375</v>
       </c>
       <c r="G700" t="n">
         <v>316673700</v>
@@ -16570,7 +16570,7 @@
         <v>272.1499938964844</v>
       </c>
       <c r="F701" t="n">
-        <v>244.8063507080078</v>
+        <v>244.8063659667969</v>
       </c>
       <c r="G701" t="n">
         <v>308105100</v>
@@ -16593,7 +16593,7 @@
         <v>273.6000061035156</v>
       </c>
       <c r="F702" t="n">
-        <v>246.1107330322266</v>
+        <v>246.1106567382812</v>
       </c>
       <c r="G702" t="n">
         <v>350365300</v>
@@ -16616,7 +16616,7 @@
         <v>278.1900024414062</v>
       </c>
       <c r="F703" t="n">
-        <v>250.2394866943359</v>
+        <v>250.2395935058594</v>
       </c>
       <c r="G703" t="n">
         <v>304361500</v>
@@ -16639,7 +16639,7 @@
         <v>277.1300048828125</v>
       </c>
       <c r="F704" t="n">
-        <v>249.2859344482422</v>
+        <v>249.2860107421875</v>
       </c>
       <c r="G704" t="n">
         <v>407431300</v>
@@ -16662,7 +16662,7 @@
         <v>274.739990234375</v>
       </c>
       <c r="F705" t="n">
-        <v>248.2458801269531</v>
+        <v>248.2458038330078</v>
       </c>
       <c r="G705" t="n">
         <v>330194500</v>
@@ -16685,7 +16685,7 @@
         <v>271.2799987792969</v>
       </c>
       <c r="F706" t="n">
-        <v>245.1195068359375</v>
+        <v>245.1195373535156</v>
       </c>
       <c r="G706" t="n">
         <v>485755300</v>
@@ -16731,7 +16731,7 @@
         <v>279.5899963378906</v>
       </c>
       <c r="F708" t="n">
-        <v>252.6281127929688</v>
+        <v>252.6281433105469</v>
       </c>
       <c r="G708" t="n">
         <v>287912600</v>
@@ -16777,7 +16777,7 @@
         <v>281.4200134277344</v>
       </c>
       <c r="F710" t="n">
-        <v>254.2816925048828</v>
+        <v>254.2816772460938</v>
       </c>
       <c r="G710" t="n">
         <v>328645600</v>
@@ -16800,7 +16800,7 @@
         <v>283.6000061035156</v>
       </c>
       <c r="F711" t="n">
-        <v>256.25146484375</v>
+        <v>256.2514953613281</v>
       </c>
       <c r="G711" t="n">
         <v>303528100</v>
@@ -16846,7 +16846,7 @@
         <v>285.0599975585938</v>
       </c>
       <c r="F713" t="n">
-        <v>257.5706176757812</v>
+        <v>257.5707092285156</v>
       </c>
       <c r="G713" t="n">
         <v>348086700</v>
@@ -16869,7 +16869,7 @@
         <v>287.510009765625</v>
       </c>
       <c r="F714" t="n">
-        <v>259.784423828125</v>
+        <v>259.7843627929688</v>
       </c>
       <c r="G714" t="n">
         <v>258765100</v>
@@ -16892,7 +16892,7 @@
         <v>290.3099975585938</v>
       </c>
       <c r="F715" t="n">
-        <v>262.3144226074219</v>
+        <v>262.3143920898438</v>
       </c>
       <c r="G715" t="n">
         <v>292871700</v>
@@ -16915,7 +16915,7 @@
         <v>287.6000061035156</v>
       </c>
       <c r="F716" t="n">
-        <v>259.86572265625</v>
+        <v>259.8657531738281</v>
       </c>
       <c r="G716" t="n">
         <v>269481500</v>
@@ -16938,7 +16938,7 @@
         <v>290.8800048828125</v>
       </c>
       <c r="F717" t="n">
-        <v>262.8294982910156</v>
+        <v>262.8294067382812</v>
       </c>
       <c r="G717" t="n">
         <v>266666300</v>
@@ -16961,7 +16961,7 @@
         <v>291.989990234375</v>
       </c>
       <c r="F718" t="n">
-        <v>263.8323669433594</v>
+        <v>263.8323974609375</v>
       </c>
       <c r="G718" t="n">
         <v>385095300</v>
@@ -16984,7 +16984,7 @@
         <v>290.7200012207031</v>
       </c>
       <c r="F719" t="n">
-        <v>263.8740539550781</v>
+        <v>263.8739318847656</v>
       </c>
       <c r="G719" t="n">
         <v>306860200</v>
@@ -17007,7 +17007,7 @@
         <v>287.8200073242188</v>
       </c>
       <c r="F720" t="n">
-        <v>261.2418212890625</v>
+        <v>261.2417907714844</v>
       </c>
       <c r="G720" t="n">
         <v>391529300</v>
@@ -17030,7 +17030,7 @@
         <v>275.9500122070312</v>
       </c>
       <c r="F721" t="n">
-        <v>250.4679412841797</v>
+        <v>250.4679107666016</v>
       </c>
       <c r="G721" t="n">
         <v>834839200</v>
@@ -17099,7 +17099,7 @@
         <v>271.8900146484375</v>
       </c>
       <c r="F724" t="n">
-        <v>246.7828521728516</v>
+        <v>246.7828063964844</v>
       </c>
       <c r="G724" t="n">
         <v>668290500</v>
@@ -17122,7 +17122,7 @@
         <v>277.760009765625</v>
       </c>
       <c r="F725" t="n">
-        <v>252.1107482910156</v>
+        <v>252.1107788085938</v>
       </c>
       <c r="G725" t="n">
         <v>392858000</v>
@@ -17168,7 +17168,7 @@
         <v>263.25</v>
       </c>
       <c r="F727" t="n">
-        <v>238.9406890869141</v>
+        <v>238.9406585693359</v>
       </c>
       <c r="G727" t="n">
         <v>357454600</v>
@@ -17191,7 +17191,7 @@
         <v>275.6499938964844</v>
       </c>
       <c r="F728" t="n">
-        <v>250.1956024169922</v>
+        <v>250.1956787109375</v>
       </c>
       <c r="G728" t="n">
         <v>463664000</v>
@@ -17214,7 +17214,7 @@
         <v>263.5700073242188</v>
       </c>
       <c r="F729" t="n">
-        <v>239.2311401367188</v>
+        <v>239.2311706542969</v>
       </c>
       <c r="G729" t="n">
         <v>646366600</v>
@@ -17237,7 +17237,7 @@
         <v>260.4700012207031</v>
       </c>
       <c r="F730" t="n">
-        <v>236.4173736572266</v>
+        <v>236.4174041748047</v>
       </c>
       <c r="G730" t="n">
         <v>584550800</v>
@@ -17283,7 +17283,7 @@
         <v>247.75</v>
       </c>
       <c r="F732" t="n">
-        <v>226.1851196289062</v>
+        <v>226.1851501464844</v>
       </c>
       <c r="G732" t="n">
         <v>705164500</v>
@@ -17306,7 +17306,7 @@
         <v>252.3899993896484</v>
       </c>
       <c r="F733" t="n">
-        <v>230.4212493896484</v>
+        <v>230.4212646484375</v>
       </c>
       <c r="G733" t="n">
         <v>557994100</v>
@@ -17329,7 +17329,7 @@
         <v>258.9800109863281</v>
       </c>
       <c r="F734" t="n">
-        <v>236.4376678466797</v>
+        <v>236.4376525878906</v>
       </c>
       <c r="G734" t="n">
         <v>471340300</v>
@@ -17352,7 +17352,7 @@
         <v>266.4599914550781</v>
       </c>
       <c r="F735" t="n">
-        <v>243.2665405273438</v>
+        <v>243.2665557861328</v>
       </c>
       <c r="G735" t="n">
         <v>457771900</v>
@@ -17375,7 +17375,7 @@
         <v>265.7799987792969</v>
       </c>
       <c r="F736" t="n">
-        <v>242.6458129882812</v>
+        <v>242.6457672119141</v>
       </c>
       <c r="G736" t="n">
         <v>357649000</v>
@@ -17398,7 +17398,7 @@
         <v>270.0599975585938</v>
       </c>
       <c r="F737" t="n">
-        <v>246.5531768798828</v>
+        <v>246.5532073974609</v>
       </c>
       <c r="G737" t="n">
         <v>434018300</v>
@@ -17421,7 +17421,7 @@
         <v>270.4700012207031</v>
       </c>
       <c r="F738" t="n">
-        <v>246.9275817871094</v>
+        <v>246.9275054931641</v>
       </c>
       <c r="G738" t="n">
         <v>369916300</v>
@@ -17444,7 +17444,7 @@
         <v>277.3699951171875</v>
       </c>
       <c r="F739" t="n">
-        <v>253.2269897460938</v>
+        <v>253.2269134521484</v>
       </c>
       <c r="G739" t="n">
         <v>385891900</v>
@@ -17467,7 +17467,7 @@
         <v>279.1400146484375</v>
       </c>
       <c r="F740" t="n">
-        <v>254.8428649902344</v>
+        <v>254.8429107666016</v>
       </c>
       <c r="G740" t="n">
         <v>278060900</v>
@@ -17513,7 +17513,7 @@
         <v>274.4599914550781</v>
       </c>
       <c r="F742" t="n">
-        <v>250.5702514648438</v>
+        <v>250.5702209472656</v>
       </c>
       <c r="G742" t="n">
         <v>421329900</v>
@@ -17536,7 +17536,7 @@
         <v>281.3099975585938</v>
       </c>
       <c r="F743" t="n">
-        <v>256.823974609375</v>
+        <v>256.8240356445312</v>
       </c>
       <c r="G743" t="n">
         <v>374233000</v>
@@ -17559,7 +17559,7 @@
         <v>279.25</v>
       </c>
       <c r="F744" t="n">
-        <v>256.0663146972656</v>
+        <v>256.0662536621094</v>
       </c>
       <c r="G744" t="n">
         <v>439286800</v>
@@ -17605,7 +17605,7 @@
         <v>288.5700073242188</v>
       </c>
       <c r="F746" t="n">
-        <v>264.6124877929688</v>
+        <v>264.6125183105469</v>
       </c>
       <c r="G746" t="n">
         <v>293550700</v>
@@ -17628,7 +17628,7 @@
         <v>290.1600036621094</v>
       </c>
       <c r="F747" t="n">
-        <v>266.0704956054688</v>
+        <v>266.0704345703125</v>
       </c>
       <c r="G747" t="n">
         <v>297131000</v>
@@ -17651,7 +17651,7 @@
         <v>290.0199890136719</v>
       </c>
       <c r="F748" t="n">
-        <v>265.942138671875</v>
+        <v>265.9421691894531</v>
       </c>
       <c r="G748" t="n">
         <v>228726700</v>
@@ -17674,7 +17674,7 @@
         <v>293.4100036621094</v>
       </c>
       <c r="F749" t="n">
-        <v>269.0506896972656</v>
+        <v>269.0507202148438</v>
       </c>
       <c r="G749" t="n">
         <v>251486900</v>
@@ -17720,7 +17720,7 @@
         <v>288.1000061035156</v>
       </c>
       <c r="F751" t="n">
-        <v>264.1814880371094</v>
+        <v>264.1815185546875</v>
       </c>
       <c r="G751" t="n">
         <v>559396700</v>
@@ -17766,7 +17766,7 @@
         <v>282.7799987792969</v>
       </c>
       <c r="F753" t="n">
-        <v>259.30322265625</v>
+        <v>259.3031921386719</v>
       </c>
       <c r="G753" t="n">
         <v>313209100</v>
@@ -17789,7 +17789,7 @@
         <v>275.2699890136719</v>
       </c>
       <c r="F754" t="n">
-        <v>252.4167327880859</v>
+        <v>252.4166107177734</v>
       </c>
       <c r="G754" t="n">
         <v>324388900</v>
@@ -17812,7 +17812,7 @@
         <v>287.6499938964844</v>
       </c>
       <c r="F755" t="n">
-        <v>263.7688598632812</v>
+        <v>263.7688903808594</v>
       </c>
       <c r="G755" t="n">
         <v>388532200</v>
@@ -17835,7 +17835,7 @@
         <v>289.260009765625</v>
       </c>
       <c r="F756" t="n">
-        <v>265.2452697753906</v>
+        <v>265.2452087402344</v>
       </c>
       <c r="G756" t="n">
         <v>267806600</v>
@@ -17858,7 +17858,7 @@
         <v>294</v>
       </c>
       <c r="F757" t="n">
-        <v>269.5916748046875</v>
+        <v>269.5917053222656</v>
       </c>
       <c r="G757" t="n">
         <v>403194400</v>
@@ -17881,7 +17881,7 @@
         <v>293</v>
       </c>
       <c r="F758" t="n">
-        <v>269.9814758300781</v>
+        <v>269.9813842773438</v>
       </c>
       <c r="G758" t="n">
         <v>280902400</v>
@@ -17904,7 +17904,7 @@
         <v>298.4599914550781</v>
       </c>
       <c r="F759" t="n">
-        <v>275.0125427246094</v>
+        <v>275.0125122070312</v>
       </c>
       <c r="G759" t="n">
         <v>232786300</v>
@@ -17927,7 +17927,7 @@
         <v>300.6499938964844</v>
       </c>
       <c r="F760" t="n">
-        <v>277.0304260253906</v>
+        <v>277.0304565429688</v>
       </c>
       <c r="G760" t="n">
         <v>236543700</v>
@@ -17973,7 +17973,7 @@
         <v>302.010009765625</v>
       </c>
       <c r="F762" t="n">
-        <v>278.2835388183594</v>
+        <v>278.2836608886719</v>
       </c>
       <c r="G762" t="n">
         <v>235894000</v>
@@ -17996,7 +17996,7 @@
         <v>292.6199951171875</v>
       </c>
       <c r="F763" t="n">
-        <v>269.63134765625</v>
+        <v>269.6312866210938</v>
       </c>
       <c r="G763" t="n">
         <v>447617000</v>
@@ -18019,7 +18019,7 @@
         <v>291.6199951171875</v>
       </c>
       <c r="F764" t="n">
-        <v>268.7098388671875</v>
+        <v>268.7098999023438</v>
       </c>
       <c r="G764" t="n">
         <v>621473300</v>
@@ -18042,7 +18042,7 @@
         <v>288.8500061035156</v>
       </c>
       <c r="F765" t="n">
-        <v>266.1575317382812</v>
+        <v>266.157470703125</v>
       </c>
       <c r="G765" t="n">
         <v>478024400</v>
@@ -18065,7 +18065,7 @@
         <v>284.8500061035156</v>
       </c>
       <c r="F766" t="n">
-        <v>262.4717712402344</v>
+        <v>262.4717407226562</v>
       </c>
       <c r="G766" t="n">
         <v>355520800</v>
@@ -18088,7 +18088,7 @@
         <v>292.4500122070312</v>
       </c>
       <c r="F767" t="n">
-        <v>269.4746398925781</v>
+        <v>269.4747314453125</v>
       </c>
       <c r="G767" t="n">
         <v>319590000</v>
@@ -18111,7 +18111,7 @@
         <v>298.0499877929688</v>
       </c>
       <c r="F768" t="n">
-        <v>274.6347045898438</v>
+        <v>274.634765625</v>
       </c>
       <c r="G768" t="n">
         <v>248831100</v>
@@ -18134,7 +18134,7 @@
         <v>301.0899963378906</v>
       </c>
       <c r="F769" t="n">
-        <v>277.4358825683594</v>
+        <v>277.4359436035156</v>
       </c>
       <c r="G769" t="n">
         <v>313042000</v>
@@ -18157,7 +18157,7 @@
         <v>298.2799987792969</v>
       </c>
       <c r="F770" t="n">
-        <v>274.8467102050781</v>
+        <v>274.8467407226562</v>
       </c>
       <c r="G770" t="n">
         <v>339168000</v>
@@ -18180,7 +18180,7 @@
         <v>295.3999938964844</v>
       </c>
       <c r="F771" t="n">
-        <v>273.4498901367188</v>
+        <v>273.4499206542969</v>
       </c>
       <c r="G771" t="n">
         <v>351126500</v>
@@ -18203,7 +18203,7 @@
         <v>294.3500061035156</v>
       </c>
       <c r="F772" t="n">
-        <v>272.4779357910156</v>
+        <v>272.4779052734375</v>
       </c>
       <c r="G772" t="n">
         <v>412814300</v>
@@ -18226,7 +18226,7 @@
         <v>296.2799987792969</v>
       </c>
       <c r="F773" t="n">
-        <v>274.2645263671875</v>
+        <v>274.2645568847656</v>
       </c>
       <c r="G773" t="n">
         <v>371694700</v>
@@ -18249,7 +18249,7 @@
         <v>297.9700012207031</v>
       </c>
       <c r="F774" t="n">
-        <v>275.8289489746094</v>
+        <v>275.8288879394531</v>
       </c>
       <c r="G774" t="n">
         <v>246118100</v>
@@ -18341,7 +18341,7 @@
         <v>311.7900085449219</v>
       </c>
       <c r="F778" t="n">
-        <v>288.6220703125</v>
+        <v>288.6220397949219</v>
       </c>
       <c r="G778" t="n">
         <v>249443100</v>
@@ -18387,7 +18387,7 @@
         <v>314.3099975585938</v>
       </c>
       <c r="F780" t="n">
-        <v>290.9547424316406</v>
+        <v>290.9547729492188</v>
       </c>
       <c r="G780" t="n">
         <v>167253500</v>
@@ -18410,7 +18410,7 @@
         <v>314.8699951171875</v>
       </c>
       <c r="F781" t="n">
-        <v>291.4730834960938</v>
+        <v>291.4731750488281</v>
       </c>
       <c r="G781" t="n">
         <v>288425500</v>
@@ -18433,7 +18433,7 @@
         <v>317.3200073242188</v>
       </c>
       <c r="F782" t="n">
-        <v>293.7410278320312</v>
+        <v>293.7411193847656</v>
       </c>
       <c r="G782" t="n">
         <v>318810900</v>
@@ -18456,7 +18456,7 @@
         <v>320.7300109863281</v>
       </c>
       <c r="F783" t="n">
-        <v>296.8976745605469</v>
+        <v>296.897705078125</v>
       </c>
       <c r="G783" t="n">
         <v>424433000</v>
@@ -18479,7 +18479,7 @@
         <v>322.8599853515625</v>
       </c>
       <c r="F784" t="n">
-        <v>300.3388366699219</v>
+        <v>300.3388671875</v>
       </c>
       <c r="G784" t="n">
         <v>146700000</v>
@@ -18502,7 +18502,7 @@
         <v>322.4100036621094</v>
       </c>
       <c r="F785" t="n">
-        <v>299.9202575683594</v>
+        <v>299.9202880859375</v>
       </c>
       <c r="G785" t="n">
         <v>243667300</v>
@@ -18525,7 +18525,7 @@
         <v>325.7099914550781</v>
       </c>
       <c r="F786" t="n">
-        <v>302.9900207519531</v>
+        <v>302.9900512695312</v>
       </c>
       <c r="G786" t="n">
         <v>265948900</v>
@@ -18548,7 +18548,7 @@
         <v>331.9500122070312</v>
       </c>
       <c r="F787" t="n">
-        <v>308.7948303222656</v>
+        <v>308.7947692871094</v>
       </c>
       <c r="G787" t="n">
         <v>331872500</v>
@@ -18571,7 +18571,7 @@
         <v>328.7699890136719</v>
       </c>
       <c r="F788" t="n">
-        <v>305.8365783691406</v>
+        <v>305.8365478515625</v>
       </c>
       <c r="G788" t="n">
         <v>266198700</v>
@@ -18594,7 +18594,7 @@
         <v>321.7300109863281</v>
       </c>
       <c r="F789" t="n">
-        <v>299.2876892089844</v>
+        <v>299.2876281738281</v>
       </c>
       <c r="G789" t="n">
         <v>391122800</v>
@@ -18617,7 +18617,7 @@
         <v>332.2000122070312</v>
       </c>
       <c r="F790" t="n">
-        <v>309.0274047851562</v>
+        <v>309.02734375</v>
       </c>
       <c r="G790" t="n">
         <v>312106400</v>
@@ -18640,7 +18640,7 @@
         <v>337.6000061035156</v>
       </c>
       <c r="F791" t="n">
-        <v>314.0507202148438</v>
+        <v>314.0506896972656</v>
       </c>
       <c r="G791" t="n">
         <v>260011300</v>
@@ -18663,7 +18663,7 @@
         <v>333.4800109863281</v>
       </c>
       <c r="F792" t="n">
-        <v>310.2180786132812</v>
+        <v>310.218017578125</v>
       </c>
       <c r="G792" t="n">
         <v>293992500</v>
@@ -18686,7 +18686,7 @@
         <v>296.260009765625</v>
       </c>
       <c r="F793" t="n">
-        <v>275.5943603515625</v>
+        <v>275.5943298339844</v>
       </c>
       <c r="G793" t="n">
         <v>1244104700</v>
@@ -18709,7 +18709,7 @@
         <v>297.4599914550781</v>
       </c>
       <c r="F794" t="n">
-        <v>276.7106323242188</v>
+        <v>276.7106018066406</v>
       </c>
       <c r="G794" t="n">
         <v>1130490100</v>
@@ -18732,7 +18732,7 @@
         <v>269.3200073242188</v>
       </c>
       <c r="F795" t="n">
-        <v>250.5335388183594</v>
+        <v>250.5335235595703</v>
       </c>
       <c r="G795" t="n">
         <v>1562964500</v>
@@ -18755,7 +18755,7 @@
         <v>228.8000030517578</v>
       </c>
       <c r="F796" t="n">
-        <v>212.8400421142578</v>
+        <v>212.8400268554688</v>
       </c>
       <c r="G796" t="n">
         <v>1523388400</v>
@@ -18801,7 +18801,7 @@
         <v>248.1900024414062</v>
       </c>
       <c r="F798" t="n">
-        <v>232.2350921630859</v>
+        <v>232.2350616455078</v>
       </c>
       <c r="G798" t="n">
         <v>869026800</v>
@@ -18824,7 +18824,7 @@
         <v>278.2000122070312</v>
       </c>
       <c r="F799" t="n">
-        <v>260.31591796875</v>
+        <v>260.3158874511719</v>
       </c>
       <c r="G799" t="n">
         <v>733262100</v>
@@ -18847,7 +18847,7 @@
         <v>286.6400146484375</v>
       </c>
       <c r="F800" t="n">
-        <v>268.2134094238281</v>
+        <v>268.21337890625</v>
       </c>
       <c r="G800" t="n">
         <v>649240600</v>
@@ -18916,7 +18916,7 @@
         <v>292.4400024414062</v>
       </c>
       <c r="F803" t="n">
-        <v>273.6404418945312</v>
+        <v>273.6404724121094</v>
       </c>
       <c r="G803" t="n">
         <v>385778500</v>
@@ -18939,7 +18939,7 @@
         <v>286.2799987792969</v>
       </c>
       <c r="F804" t="n">
-        <v>267.8764953613281</v>
+        <v>267.8765258789062</v>
       </c>
       <c r="G804" t="n">
         <v>553230300</v>
@@ -18962,7 +18962,7 @@
         <v>295.4400024414062</v>
       </c>
       <c r="F805" t="n">
-        <v>276.4476623535156</v>
+        <v>276.4476013183594</v>
       </c>
       <c r="G805" t="n">
         <v>443006900</v>
@@ -18985,7 +18985,7 @@
         <v>304.3200073242188</v>
       </c>
       <c r="F806" t="n">
-        <v>284.7567749023438</v>
+        <v>284.7568359375</v>
       </c>
       <c r="G806" t="n">
         <v>403264800</v>
@@ -19008,7 +19008,7 @@
         <v>319.3399963378906</v>
       </c>
       <c r="F807" t="n">
-        <v>298.8112182617188</v>
+        <v>298.8111572265625</v>
       </c>
       <c r="G807" t="n">
         <v>448912200</v>
@@ -19031,7 +19031,7 @@
         <v>304.2099914550781</v>
       </c>
       <c r="F808" t="n">
-        <v>284.65380859375</v>
+        <v>284.6537475585938</v>
       </c>
       <c r="G808" t="n">
         <v>650043700</v>
@@ -19054,7 +19054,7 @@
         <v>308.6400146484375</v>
       </c>
       <c r="F809" t="n">
-        <v>288.7990417480469</v>
+        <v>288.7989807128906</v>
       </c>
       <c r="G809" t="n">
         <v>573187400</v>
@@ -19077,7 +19077,7 @@
         <v>300.0499877929688</v>
       </c>
       <c r="F810" t="n">
-        <v>281.9967346191406</v>
+        <v>281.9967956542969</v>
       </c>
       <c r="G810" t="n">
         <v>493363100</v>
@@ -19100,7 +19100,7 @@
         <v>312.2300109863281</v>
       </c>
       <c r="F811" t="n">
-        <v>293.4439697265625</v>
+        <v>293.4439086914062</v>
       </c>
       <c r="G811" t="n">
         <v>334908800</v>
@@ -19123,7 +19123,7 @@
         <v>317.5899963378906</v>
       </c>
       <c r="F812" t="n">
-        <v>298.4814453125</v>
+        <v>298.4814758300781</v>
       </c>
       <c r="G812" t="n">
         <v>340167000</v>
@@ -19192,7 +19192,7 @@
         <v>326.5199890136719</v>
       </c>
       <c r="F815" t="n">
-        <v>306.8741149902344</v>
+        <v>306.8741455078125</v>
       </c>
       <c r="G815" t="n">
         <v>301090700</v>
@@ -19215,7 +19215,7 @@
         <v>334.5700073242188</v>
       </c>
       <c r="F816" t="n">
-        <v>314.4398193359375</v>
+        <v>314.4397277832031</v>
       </c>
       <c r="G816" t="n">
         <v>238681200</v>
@@ -19238,7 +19238,7 @@
         <v>336.8399963378906</v>
       </c>
       <c r="F817" t="n">
-        <v>316.5731506347656</v>
+        <v>316.5732116699219</v>
       </c>
       <c r="G817" t="n">
         <v>256734100</v>
@@ -19261,7 +19261,7 @@
         <v>339.4800109863281</v>
       </c>
       <c r="F818" t="n">
-        <v>319.0543823242188</v>
+        <v>319.0544128417969</v>
       </c>
       <c r="G818" t="n">
         <v>239583500</v>
@@ -19284,7 +19284,7 @@
         <v>350.5799865722656</v>
       </c>
       <c r="F819" t="n">
-        <v>329.4864807128906</v>
+        <v>329.4865417480469</v>
       </c>
       <c r="G819" t="n">
         <v>244465300</v>
@@ -19330,7 +19330,7 @@
         <v>334.0599975585938</v>
       </c>
       <c r="F821" t="n">
-        <v>313.9605102539062</v>
+        <v>313.9605407714844</v>
       </c>
       <c r="G821" t="n">
         <v>381177300</v>
@@ -19353,7 +19353,7 @@
         <v>330.6499938964844</v>
       </c>
       <c r="F822" t="n">
-        <v>310.755615234375</v>
+        <v>310.7556457519531</v>
       </c>
       <c r="G822" t="n">
         <v>398023800</v>
@@ -19376,7 +19376,7 @@
         <v>328.7300109863281</v>
       </c>
       <c r="F823" t="n">
-        <v>310.1879577636719</v>
+        <v>310.1878967285156</v>
       </c>
       <c r="G823" t="n">
         <v>403925800</v>
@@ -19445,7 +19445,7 @@
         <v>347.2900085449219</v>
       </c>
       <c r="F826" t="n">
-        <v>327.7010498046875</v>
+        <v>327.7009887695312</v>
       </c>
       <c r="G826" t="n">
         <v>361231500</v>
@@ -19468,7 +19468,7 @@
         <v>345.7799987792969</v>
       </c>
       <c r="F827" t="n">
-        <v>326.2761840820312</v>
+        <v>326.2762145996094</v>
       </c>
       <c r="G827" t="n">
         <v>296595700</v>
@@ -19491,7 +19491,7 @@
         <v>326.5400085449219</v>
       </c>
       <c r="F828" t="n">
-        <v>308.1213989257812</v>
+        <v>308.1214294433594</v>
       </c>
       <c r="G828" t="n">
         <v>495446400</v>
@@ -19537,7 +19537,7 @@
         <v>358.1000061035156</v>
       </c>
       <c r="F830" t="n">
-        <v>337.9012145996094</v>
+        <v>337.9012756347656</v>
       </c>
       <c r="G830" t="n">
         <v>446943600</v>
@@ -19606,7 +19606,7 @@
         <v>369.8500061035156</v>
       </c>
       <c r="F833" t="n">
-        <v>348.9885559082031</v>
+        <v>348.988525390625</v>
       </c>
       <c r="G833" t="n">
         <v>317663000</v>
@@ -19629,7 +19629,7 @@
         <v>366.2999877929688</v>
       </c>
       <c r="F834" t="n">
-        <v>345.6387939453125</v>
+        <v>345.6387023925781</v>
       </c>
       <c r="G834" t="n">
         <v>280935500</v>
@@ -19698,7 +19698,7 @@
         <v>373.8800048828125</v>
       </c>
       <c r="F837" t="n">
-        <v>354.2950134277344</v>
+        <v>354.2950439453125</v>
       </c>
       <c r="G837" t="n">
         <v>220656900</v>
@@ -19744,7 +19744,7 @@
         <v>375.7000122070312</v>
       </c>
       <c r="F839" t="n">
-        <v>356.0196838378906</v>
+        <v>356.0197143554688</v>
       </c>
       <c r="G839" t="n">
         <v>306035100</v>
@@ -19767,7 +19767,7 @@
         <v>382.8800048828125</v>
       </c>
       <c r="F840" t="n">
-        <v>362.8235778808594</v>
+        <v>362.8235168457031</v>
       </c>
       <c r="G840" t="n">
         <v>213770000</v>
@@ -19836,7 +19836,7 @@
         <v>392.6400146484375</v>
       </c>
       <c r="F843" t="n">
-        <v>372.072265625</v>
+        <v>372.0723571777344</v>
       </c>
       <c r="G843" t="n">
         <v>226577300</v>
@@ -19859,7 +19859,7 @@
         <v>390.0299987792969</v>
       </c>
       <c r="F844" t="n">
-        <v>369.5990600585938</v>
+        <v>369.5989990234375</v>
       </c>
       <c r="G844" t="n">
         <v>246216800</v>
@@ -19882,7 +19882,7 @@
         <v>380.3599853515625</v>
       </c>
       <c r="F845" t="n">
-        <v>360.435546875</v>
+        <v>360.4355773925781</v>
       </c>
       <c r="G845" t="n">
         <v>546504300</v>
@@ -19905,7 +19905,7 @@
         <v>383.6300048828125</v>
       </c>
       <c r="F846" t="n">
-        <v>363.5342102050781</v>
+        <v>363.5342712402344</v>
       </c>
       <c r="G846" t="n">
         <v>640356900</v>
@@ -19928,7 +19928,7 @@
         <v>394.0599975585938</v>
       </c>
       <c r="F847" t="n">
-        <v>373.4179992675781</v>
+        <v>373.4179382324219</v>
       </c>
       <c r="G847" t="n">
         <v>497580800</v>
@@ -19951,7 +19951,7 @@
         <v>389.4800109863281</v>
       </c>
       <c r="F848" t="n">
-        <v>369.0778198242188</v>
+        <v>369.077880859375</v>
       </c>
       <c r="G848" t="n">
         <v>474082600</v>
@@ -19974,7 +19974,7 @@
         <v>395.9800109863281</v>
       </c>
       <c r="F849" t="n">
-        <v>376.4663696289062</v>
+        <v>376.46630859375</v>
       </c>
       <c r="G849" t="n">
         <v>492591500</v>
@@ -19997,7 +19997,7 @@
         <v>400.6099853515625</v>
       </c>
       <c r="F850" t="n">
-        <v>380.8681640625</v>
+        <v>380.8682250976562</v>
       </c>
       <c r="G850" t="n">
         <v>396786900</v>
@@ -20020,7 +20020,7 @@
         <v>411.489990234375</v>
       </c>
       <c r="F851" t="n">
-        <v>391.2120056152344</v>
+        <v>391.2119750976562</v>
       </c>
       <c r="G851" t="n">
         <v>328509800</v>
@@ -20043,7 +20043,7 @@
         <v>417.260009765625</v>
       </c>
       <c r="F852" t="n">
-        <v>396.6976928710938</v>
+        <v>396.69775390625</v>
       </c>
       <c r="G852" t="n">
         <v>317182900</v>
@@ -20066,7 +20066,7 @@
         <v>416.739990234375</v>
       </c>
       <c r="F853" t="n">
-        <v>396.2032775878906</v>
+        <v>396.2033081054688</v>
       </c>
       <c r="G853" t="n">
         <v>397935300</v>
@@ -20089,7 +20089,7 @@
         <v>417.2999877929688</v>
       </c>
       <c r="F854" t="n">
-        <v>396.7356567382812</v>
+        <v>396.7356872558594</v>
       </c>
       <c r="G854" t="n">
         <v>318795700</v>
@@ -20135,7 +20135,7 @@
         <v>416.5799865722656</v>
       </c>
       <c r="F856" t="n">
-        <v>396.0511779785156</v>
+        <v>396.0512084960938</v>
       </c>
       <c r="G856" t="n">
         <v>522147000</v>
@@ -20158,7 +20158,7 @@
         <v>414.9400024414062</v>
       </c>
       <c r="F857" t="n">
-        <v>394.4920043945312</v>
+        <v>394.4920349121094</v>
       </c>
       <c r="G857" t="n">
         <v>386007400</v>
@@ -20181,7 +20181,7 @@
         <v>420.0400085449219</v>
       </c>
       <c r="F858" t="n">
-        <v>399.3406066894531</v>
+        <v>399.3406982421875</v>
       </c>
       <c r="G858" t="n">
         <v>267144600</v>
@@ -20204,7 +20204,7 @@
         <v>422.6000061035156</v>
       </c>
       <c r="F859" t="n">
-        <v>401.7746276855469</v>
+        <v>401.7745056152344</v>
       </c>
       <c r="G859" t="n">
         <v>217391300</v>
@@ -20227,7 +20227,7 @@
         <v>424.3099975585938</v>
       </c>
       <c r="F860" t="n">
-        <v>403.4002685546875</v>
+        <v>403.4002380371094</v>
       </c>
       <c r="G860" t="n">
         <v>243716500</v>
@@ -20250,7 +20250,7 @@
         <v>414.9200134277344</v>
       </c>
       <c r="F861" t="n">
-        <v>394.4730529785156</v>
+        <v>394.4729614257812</v>
       </c>
       <c r="G861" t="n">
         <v>383879100</v>
@@ -20296,7 +20296,7 @@
         <v>433.7200012207031</v>
       </c>
       <c r="F863" t="n">
-        <v>413.6956176757812</v>
+        <v>413.695556640625</v>
       </c>
       <c r="G863" t="n">
         <v>265096700</v>
@@ -20342,7 +20342,7 @@
         <v>431.3399963378906</v>
       </c>
       <c r="F865" t="n">
-        <v>411.4254150390625</v>
+        <v>411.4254455566406</v>
       </c>
       <c r="G865" t="n">
         <v>300932400</v>
@@ -20365,7 +20365,7 @@
         <v>439.9400024414062</v>
       </c>
       <c r="F866" t="n">
-        <v>419.6284484863281</v>
+        <v>419.6283874511719</v>
       </c>
       <c r="G866" t="n">
         <v>423964700</v>
@@ -20411,7 +20411,7 @@
         <v>442.489990234375</v>
       </c>
       <c r="F868" t="n">
-        <v>422.0606689453125</v>
+        <v>422.0606994628906</v>
       </c>
       <c r="G868" t="n">
         <v>249469100</v>
@@ -20457,7 +20457,7 @@
         <v>443.3599853515625</v>
       </c>
       <c r="F870" t="n">
-        <v>422.8905029296875</v>
+        <v>422.8905334472656</v>
       </c>
       <c r="G870" t="n">
         <v>420586700</v>
@@ -20503,7 +20503,7 @@
         <v>453.0799865722656</v>
       </c>
       <c r="F872" t="n">
-        <v>432.1618041992188</v>
+        <v>432.1617126464844</v>
       </c>
       <c r="G872" t="n">
         <v>246050500</v>
@@ -20526,7 +20526,7 @@
         <v>445.4400024414062</v>
       </c>
       <c r="F873" t="n">
-        <v>424.8744506835938</v>
+        <v>424.87451171875</v>
       </c>
       <c r="G873" t="n">
         <v>255772000</v>
@@ -20572,7 +20572,7 @@
         <v>443.9100036621094</v>
       </c>
       <c r="F875" t="n">
-        <v>424.7716369628906</v>
+        <v>424.7715759277344</v>
       </c>
       <c r="G875" t="n">
         <v>499812500</v>
@@ -20595,7 +20595,7 @@
         <v>434.239990234375</v>
       </c>
       <c r="F876" t="n">
-        <v>415.5185241699219</v>
+        <v>415.5184326171875</v>
       </c>
       <c r="G876" t="n">
         <v>543882700</v>
@@ -20618,7 +20618,7 @@
         <v>437.8599853515625</v>
       </c>
       <c r="F877" t="n">
-        <v>418.9823608398438</v>
+        <v>418.9823913574219</v>
       </c>
       <c r="G877" t="n">
         <v>479279600</v>
@@ -20641,7 +20641,7 @@
         <v>445.8699951171875</v>
       </c>
       <c r="F878" t="n">
-        <v>426.6470642089844</v>
+        <v>426.6471557617188</v>
       </c>
       <c r="G878" t="n">
         <v>345885500</v>
@@ -20664,7 +20664,7 @@
         <v>453.1199951171875</v>
       </c>
       <c r="F879" t="n">
-        <v>433.5845031738281</v>
+        <v>433.58447265625</v>
       </c>
       <c r="G879" t="n">
         <v>258932100</v>
@@ -20687,7 +20687,7 @@
         <v>459.25</v>
       </c>
       <c r="F880" t="n">
-        <v>439.4502563476562</v>
+        <v>439.4502258300781</v>
       </c>
       <c r="G880" t="n">
         <v>295327900</v>
@@ -20733,7 +20733,7 @@
         <v>467.2699890136719</v>
       </c>
       <c r="F882" t="n">
-        <v>447.1244812011719</v>
+        <v>447.1244506835938</v>
       </c>
       <c r="G882" t="n">
         <v>259299200</v>
@@ -20756,7 +20756,7 @@
         <v>468.8900146484375</v>
       </c>
       <c r="F883" t="n">
-        <v>448.6746826171875</v>
+        <v>448.6746215820312</v>
       </c>
       <c r="G883" t="n">
         <v>251637500</v>
@@ -20779,7 +20779,7 @@
         <v>458.9700012207031</v>
       </c>
       <c r="F884" t="n">
-        <v>439.1823120117188</v>
+        <v>439.1822814941406</v>
       </c>
       <c r="G884" t="n">
         <v>320496900</v>
@@ -20825,7 +20825,7 @@
         <v>470.739990234375</v>
       </c>
       <c r="F886" t="n">
-        <v>450.4448547363281</v>
+        <v>450.4448852539062</v>
       </c>
       <c r="G886" t="n">
         <v>405133400</v>
@@ -20848,7 +20848,7 @@
         <v>459.8699951171875</v>
       </c>
       <c r="F887" t="n">
-        <v>440.04345703125</v>
+        <v>440.0435180664062</v>
       </c>
       <c r="G887" t="n">
         <v>553968300</v>
@@ -20894,7 +20894,7 @@
         <v>474.9599914550781</v>
       </c>
       <c r="F889" t="n">
-        <v>456.0795593261719</v>
+        <v>456.0796203613281</v>
       </c>
       <c r="G889" t="n">
         <v>279152600</v>
@@ -20963,7 +20963,7 @@
         <v>437.9800109863281</v>
       </c>
       <c r="F892" t="n">
-        <v>420.5696411132812</v>
+        <v>420.5696716308594</v>
       </c>
       <c r="G892" t="n">
         <v>543717600</v>
@@ -20986,7 +20986,7 @@
         <v>441.9500122070312</v>
       </c>
       <c r="F893" t="n">
-        <v>424.3818359375</v>
+        <v>424.3818664550781</v>
       </c>
       <c r="G893" t="n">
         <v>920508000</v>
@@ -21032,7 +21032,7 @@
         <v>440.4599914550781</v>
       </c>
       <c r="F895" t="n">
-        <v>422.9510192871094</v>
+        <v>422.9510498046875</v>
       </c>
       <c r="G895" t="n">
         <v>551393100</v>
@@ -21055,7 +21055,7 @@
         <v>434.2300109863281</v>
       </c>
       <c r="F896" t="n">
-        <v>416.9687805175781</v>
+        <v>416.9686889648438</v>
       </c>
       <c r="G896" t="n">
         <v>531254600</v>
@@ -21101,7 +21101,7 @@
         <v>432.1700134277344</v>
       </c>
       <c r="F898" t="n">
-        <v>414.9906311035156</v>
+        <v>414.9906005859375</v>
       </c>
       <c r="G898" t="n">
         <v>620607300</v>
@@ -21124,7 +21124,7 @@
         <v>420.0700073242188</v>
       </c>
       <c r="F899" t="n">
-        <v>403.37158203125</v>
+        <v>403.3716430664062</v>
       </c>
       <c r="G899" t="n">
         <v>609269100</v>
@@ -21170,7 +21170,7 @@
         <v>452.6900024414062</v>
       </c>
       <c r="F901" t="n">
-        <v>436.0453796386719</v>
+        <v>436.0452880859375</v>
       </c>
       <c r="G901" t="n">
         <v>384264500</v>
@@ -21239,7 +21239,7 @@
         <v>437.7900085449219</v>
       </c>
       <c r="F904" t="n">
-        <v>421.6932373046875</v>
+        <v>421.6932067871094</v>
       </c>
       <c r="G904" t="n">
         <v>346074000</v>
@@ -21262,7 +21262,7 @@
         <v>426.0400085449219</v>
       </c>
       <c r="F905" t="n">
-        <v>410.3752136230469</v>
+        <v>410.375244140625</v>
       </c>
       <c r="G905" t="n">
         <v>426937000</v>
@@ -21331,7 +21331,7 @@
         <v>401.7200012207031</v>
       </c>
       <c r="F908" t="n">
-        <v>386.9494323730469</v>
+        <v>386.9494018554688</v>
       </c>
       <c r="G908" t="n">
         <v>659709500</v>
@@ -21354,7 +21354,7 @@
         <v>389.6300048828125</v>
       </c>
       <c r="F909" t="n">
-        <v>375.303955078125</v>
+        <v>375.3039245605469</v>
       </c>
       <c r="G909" t="n">
         <v>509269500</v>
@@ -21400,7 +21400,7 @@
         <v>410.5400085449219</v>
       </c>
       <c r="F911" t="n">
-        <v>395.4450988769531</v>
+        <v>395.4451293945312</v>
       </c>
       <c r="G911" t="n">
         <v>334006700</v>
@@ -21423,7 +21423,7 @@
         <v>389.7999877929688</v>
       </c>
       <c r="F912" t="n">
-        <v>375.4677124023438</v>
+        <v>375.4676513671875</v>
       </c>
       <c r="G912" t="n">
         <v>400315000</v>
@@ -21446,7 +21446,7 @@
         <v>365.8599853515625</v>
       </c>
       <c r="F913" t="n">
-        <v>352.4079284667969</v>
+        <v>352.4078979492188</v>
       </c>
       <c r="G913" t="n">
         <v>645270700</v>
@@ -21515,7 +21515,7 @@
         <v>388.6700134277344</v>
       </c>
       <c r="F916" t="n">
-        <v>375.9964599609375</v>
+        <v>375.9964904785156</v>
       </c>
       <c r="G916" t="n">
         <v>288787900</v>
@@ -21538,7 +21538,7 @@
         <v>385.1300048828125</v>
       </c>
       <c r="F917" t="n">
-        <v>372.5719299316406</v>
+        <v>372.5718994140625</v>
       </c>
       <c r="G917" t="n">
         <v>373575900</v>
@@ -21584,7 +21584,7 @@
         <v>411.989990234375</v>
       </c>
       <c r="F919" t="n">
-        <v>398.5560607910156</v>
+        <v>398.5560302734375</v>
       </c>
       <c r="G919" t="n">
         <v>349890300</v>
@@ -21676,7 +21676,7 @@
         <v>405.3099975585938</v>
       </c>
       <c r="F923" t="n">
-        <v>392.0938415527344</v>
+        <v>392.0938720703125</v>
       </c>
       <c r="G923" t="n">
         <v>330007900</v>
@@ -21722,7 +21722,7 @@
         <v>406.6000061035156</v>
       </c>
       <c r="F925" t="n">
-        <v>393.341796875</v>
+        <v>393.3418273925781</v>
       </c>
       <c r="G925" t="n">
         <v>305130200</v>
@@ -21745,7 +21745,7 @@
         <v>385.5599975585938</v>
       </c>
       <c r="F926" t="n">
-        <v>372.9878845214844</v>
+        <v>372.9878540039062</v>
       </c>
       <c r="G926" t="n">
         <v>467945700</v>
@@ -21791,7 +21791,7 @@
         <v>357.1799926757812</v>
       </c>
       <c r="F928" t="n">
-        <v>346.9526672363281</v>
+        <v>346.95263671875</v>
       </c>
       <c r="G928" t="n">
         <v>578341000</v>
@@ -21814,7 +21814,7 @@
         <v>362.7900085449219</v>
       </c>
       <c r="F929" t="n">
-        <v>352.4020690917969</v>
+        <v>352.4020080566406</v>
       </c>
       <c r="G929" t="n">
         <v>471548000</v>
@@ -21860,7 +21860,7 @@
         <v>374.2900085449219</v>
       </c>
       <c r="F931" t="n">
-        <v>363.5727844238281</v>
+        <v>363.57275390625</v>
       </c>
       <c r="G931" t="n">
         <v>489399500</v>
@@ -21906,7 +21906,7 @@
         <v>376.3500061035156</v>
       </c>
       <c r="F933" t="n">
-        <v>365.5736999511719</v>
+        <v>365.5737915039062</v>
       </c>
       <c r="G933" t="n">
         <v>499634600</v>
@@ -21929,7 +21929,7 @@
         <v>398.510009765625</v>
       </c>
       <c r="F934" t="n">
-        <v>387.0991821289062</v>
+        <v>387.0992431640625</v>
       </c>
       <c r="G934" t="n">
         <v>466719200</v>
@@ -21975,7 +21975,7 @@
         <v>402.3299865722656</v>
       </c>
       <c r="F936" t="n">
-        <v>390.8098754882812</v>
+        <v>390.8098449707031</v>
       </c>
       <c r="G936" t="n">
         <v>210479200</v>
@@ -22021,7 +22021,7 @@
         <v>393.2799987792969</v>
       </c>
       <c r="F938" t="n">
-        <v>382.0190124511719</v>
+        <v>382.0189819335938</v>
       </c>
       <c r="G938" t="n">
         <v>363375500</v>
@@ -22044,7 +22044,7 @@
         <v>383.2699890136719</v>
       </c>
       <c r="F939" t="n">
-        <v>372.2955627441406</v>
+        <v>372.2956237792969</v>
       </c>
       <c r="G939" t="n">
         <v>544863500</v>
@@ -22113,7 +22113,7 @@
         <v>388.0799865722656</v>
       </c>
       <c r="F942" t="n">
-        <v>378.6989440917969</v>
+        <v>378.6988830566406</v>
       </c>
       <c r="G942" t="n">
         <v>341944900</v>
@@ -22136,7 +22136,7 @@
         <v>398.5</v>
       </c>
       <c r="F943" t="n">
-        <v>388.8670043945312</v>
+        <v>388.8670349121094</v>
       </c>
       <c r="G943" t="n">
         <v>362278900</v>
@@ -22159,7 +22159,7 @@
         <v>395.8800048828125</v>
       </c>
       <c r="F944" t="n">
-        <v>386.3103637695312</v>
+        <v>386.3103942871094</v>
       </c>
       <c r="G944" t="n">
         <v>341074900</v>
@@ -22205,7 +22205,7 @@
         <v>412.3500061035156</v>
       </c>
       <c r="F946" t="n">
-        <v>402.3822021484375</v>
+        <v>402.3822326660156</v>
       </c>
       <c r="G946" t="n">
         <v>458864300</v>
@@ -22228,7 +22228,7 @@
         <v>408.0400085449219</v>
       </c>
       <c r="F947" t="n">
-        <v>398.1764221191406</v>
+        <v>398.1763916015625</v>
       </c>
       <c r="G947" t="n">
         <v>376978100</v>
@@ -22251,7 +22251,7 @@
         <v>407.260009765625</v>
       </c>
       <c r="F948" t="n">
-        <v>397.4153137207031</v>
+        <v>397.415283203125</v>
       </c>
       <c r="G948" t="n">
         <v>380547800</v>
@@ -22297,7 +22297,7 @@
         <v>404.1900024414062</v>
       </c>
       <c r="F950" t="n">
-        <v>394.4194946289062</v>
+        <v>394.4194641113281</v>
       </c>
       <c r="G950" t="n">
         <v>451837900</v>
@@ -22366,7 +22366,7 @@
         <v>395.75</v>
       </c>
       <c r="F953" t="n">
-        <v>387.6573791503906</v>
+        <v>387.6574096679688</v>
       </c>
       <c r="G953" t="n">
         <v>523360300</v>
@@ -22389,7 +22389,7 @@
         <v>409.3900146484375</v>
       </c>
       <c r="F954" t="n">
-        <v>401.0184936523438</v>
+        <v>401.0184631347656</v>
       </c>
       <c r="G954" t="n">
         <v>396282600</v>
@@ -22412,7 +22412,7 @@
         <v>409.1900024414062</v>
       </c>
       <c r="F955" t="n">
-        <v>400.8225708007812</v>
+        <v>400.8225402832031</v>
       </c>
       <c r="G955" t="n">
         <v>262936100</v>
@@ -22458,7 +22458,7 @@
         <v>412.2000122070312</v>
       </c>
       <c r="F957" t="n">
-        <v>403.77099609375</v>
+        <v>403.7710266113281</v>
       </c>
       <c r="G957" t="n">
         <v>334521500</v>
@@ -22481,7 +22481,7 @@
         <v>415.9299926757812</v>
       </c>
       <c r="F958" t="n">
-        <v>407.4247131347656</v>
+        <v>407.4247741699219</v>
       </c>
       <c r="G958" t="n">
         <v>424849800</v>
@@ -22504,7 +22504,7 @@
         <v>412.6300048828125</v>
       </c>
       <c r="F959" t="n">
-        <v>404.1921997070312</v>
+        <v>404.1922302246094</v>
       </c>
       <c r="G959" t="n">
         <v>440398500</v>
@@ -22573,7 +22573,7 @@
         <v>420.0199890136719</v>
       </c>
       <c r="F962" t="n">
-        <v>411.4311218261719</v>
+        <v>411.4310913085938</v>
       </c>
       <c r="G962" t="n">
         <v>421134200</v>
@@ -22596,7 +22596,7 @@
         <v>427.9200134277344</v>
       </c>
       <c r="F963" t="n">
-        <v>419.1695861816406</v>
+        <v>419.1695556640625</v>
       </c>
       <c r="G963" t="n">
         <v>363259500</v>
@@ -22619,7 +22619,7 @@
         <v>429.8999938964844</v>
       </c>
       <c r="F964" t="n">
-        <v>421.1091003417969</v>
+        <v>421.1090393066406</v>
       </c>
       <c r="G964" t="n">
         <v>362551300</v>
@@ -22665,7 +22665,7 @@
         <v>433.2099914550781</v>
       </c>
       <c r="F966" t="n">
-        <v>425.9276733398438</v>
+        <v>425.9276428222656</v>
       </c>
       <c r="G966" t="n">
         <v>315854400</v>
@@ -22688,7 +22688,7 @@
         <v>443.2799987792969</v>
       </c>
       <c r="F967" t="n">
-        <v>435.828369140625</v>
+        <v>435.8283996582031</v>
       </c>
       <c r="G967" t="n">
         <v>394077100</v>
@@ -22734,7 +22734,7 @@
         <v>449.2799987792969</v>
       </c>
       <c r="F969" t="n">
-        <v>441.7275085449219</v>
+        <v>441.7275390625</v>
       </c>
       <c r="G969" t="n">
         <v>361018800</v>
@@ -22803,7 +22803,7 @@
         <v>446.8099975585938</v>
       </c>
       <c r="F972" t="n">
-        <v>439.2990417480469</v>
+        <v>439.299072265625</v>
       </c>
       <c r="G972" t="n">
         <v>375593700</v>
@@ -22826,7 +22826,7 @@
         <v>445.6499938964844</v>
       </c>
       <c r="F973" t="n">
-        <v>438.1585388183594</v>
+        <v>438.1585693359375</v>
       </c>
       <c r="G973" t="n">
         <v>370178500</v>
@@ -22849,7 +22849,7 @@
         <v>436.5</v>
       </c>
       <c r="F974" t="n">
-        <v>429.162353515625</v>
+        <v>429.1623840332031</v>
       </c>
       <c r="G974" t="n">
         <v>398151800</v>
@@ -22872,7 +22872,7 @@
         <v>439.9700012207031</v>
       </c>
       <c r="F975" t="n">
-        <v>432.5740356445312</v>
+        <v>432.5740051269531</v>
       </c>
       <c r="G975" t="n">
         <v>393065300</v>
@@ -22895,7 +22895,7 @@
         <v>451.1900024414062</v>
       </c>
       <c r="F976" t="n">
-        <v>443.6054077148438</v>
+        <v>443.6054382324219</v>
       </c>
       <c r="G976" t="n">
         <v>338691500</v>
@@ -22964,7 +22964,7 @@
         <v>430.4200134277344</v>
       </c>
       <c r="F979" t="n">
-        <v>424.6772766113281</v>
+        <v>424.6773071289062</v>
       </c>
       <c r="G979" t="n">
         <v>409635200</v>
@@ -23033,7 +23033,7 @@
         <v>431.5</v>
       </c>
       <c r="F982" t="n">
-        <v>425.7428894042969</v>
+        <v>425.7428588867188</v>
       </c>
       <c r="G982" t="n">
         <v>397730700</v>
@@ -23056,7 +23056,7 @@
         <v>421.1900024414062</v>
       </c>
       <c r="F983" t="n">
-        <v>415.5704345703125</v>
+        <v>415.5704040527344</v>
       </c>
       <c r="G983" t="n">
         <v>489486500</v>
@@ -23125,7 +23125,7 @@
         <v>440.6099853515625</v>
       </c>
       <c r="F986" t="n">
-        <v>434.7312927246094</v>
+        <v>434.7313232421875</v>
       </c>
       <c r="G986" t="n">
         <v>366470400</v>
@@ -23286,7 +23286,7 @@
         <v>475.3099975585938</v>
       </c>
       <c r="F993" t="n">
-        <v>470.8697204589844</v>
+        <v>470.8697509765625</v>
       </c>
       <c r="G993" t="n">
         <v>322779500</v>
@@ -23401,7 +23401,7 @@
         <v>494.3500061035156</v>
       </c>
       <c r="F998" t="n">
-        <v>489.7319030761719</v>
+        <v>489.7318725585938</v>
       </c>
       <c r="G998" t="n">
         <v>436991600</v>
@@ -23585,7 +23585,7 @@
         <v>523.0700073242188</v>
       </c>
       <c r="F1006" t="n">
-        <v>519.7936401367188</v>
+        <v>519.7935791015625</v>
       </c>
       <c r="G1006" t="n">
         <v>293270500</v>
@@ -23608,7 +23608,7 @@
         <v>518.4299926757812</v>
       </c>
       <c r="F1007" t="n">
-        <v>515.1826171875</v>
+        <v>515.1826782226562</v>
       </c>
       <c r="G1007" t="n">
         <v>367203800</v>
@@ -23746,7 +23746,7 @@
         <v>529.4500122070312</v>
       </c>
       <c r="F1013" t="n">
-        <v>526.1336059570312</v>
+        <v>526.1336669921875</v>
       </c>
       <c r="G1013" t="n">
         <v>263189600</v>
@@ -23838,7 +23838,7 @@
         <v>542.780029296875</v>
       </c>
       <c r="F1017" t="n">
-        <v>539.380126953125</v>
+        <v>539.3801879882812</v>
       </c>
       <c r="G1017" t="n">
         <v>220214800</v>
@@ -24243,42 +24243,65 @@
         <v>581.219970703125</v>
       </c>
       <c r="C1035" t="n">
-        <v>585.27001953125</v>
+        <v>586.1199951171875</v>
       </c>
       <c r="D1035" t="n">
         <v>578.5399780273438</v>
       </c>
       <c r="E1035" t="n">
-        <v>579.780029296875</v>
+        <v>584.5900268554688</v>
       </c>
       <c r="F1035" t="n">
-        <v>579.780029296875</v>
+        <v>584.5900268554688</v>
       </c>
       <c r="G1035" t="n">
-        <v>90328600</v>
+        <v>192956700</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" s="2" t="n">
-        <v>45580</v>
+        <v>45586</v>
       </c>
       <c r="B1036" t="n">
-        <v>584.5900268554688</v>
+        <v>583.8499755859375</v>
       </c>
       <c r="C1036" t="n">
-        <v>584.8900146484375</v>
+        <v>584.8499755859375</v>
       </c>
       <c r="D1036" t="n">
-        <v>578.5449829101562</v>
+        <v>574.4199829101562</v>
       </c>
       <c r="E1036" t="n">
-        <v>579.780029296875</v>
+        <v>577.989990234375</v>
       </c>
       <c r="F1036" t="n">
-        <v>579.780029296875</v>
+        <v>577.989990234375</v>
       </c>
       <c r="G1036" t="n">
-        <v>52815934</v>
+        <v>119855900</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>581.260009765625</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>581.7086181640625</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>574.4149780273438</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>577.989990234375</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>577.989990234375</v>
+      </c>
+      <c r="G1037" t="n">
+        <v>47445217</v>
       </c>
     </row>
   </sheetData>
